--- a/Codes_Masterlist.xlsx
+++ b/Codes_Masterlist.xlsx
@@ -17,14 +17,14 @@
     <sheet name="World_Bank_Groupings" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Codes!$A$1:$X$403</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Codes!$A$1:$X$404</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4470" uniqueCount="1461">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4478" uniqueCount="1464">
   <si>
     <t>ISO3166.3</t>
   </si>
@@ -4407,6 +4407,15 @@
   </si>
   <si>
     <t>Saint Barth&lt;e9&gt;lemy</t>
+  </si>
+  <si>
+    <t>SCG</t>
+  </si>
+  <si>
+    <t>CS</t>
+  </si>
+  <si>
+    <t>Serbia and Montenegro</t>
   </si>
 </sst>
 </file>
@@ -4747,7 +4756,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X403"/>
+  <dimension ref="A1:X404"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -23871,31 +23880,28 @@
     </row>
     <row r="295" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>1104</v>
+        <v>1461</v>
       </c>
       <c r="B295" t="s">
-        <v>1105</v>
+        <v>1462</v>
       </c>
       <c r="C295" t="s">
-        <v>1109</v>
+        <v>1463</v>
       </c>
       <c r="D295" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="E295">
-        <v>2</v>
+        <v>150</v>
       </c>
       <c r="F295" t="s">
-        <v>413</v>
+        <v>74</v>
       </c>
       <c r="G295">
-        <v>15</v>
-      </c>
-      <c r="J295">
-        <v>729</v>
+        <v>39</v>
       </c>
       <c r="K295">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L295">
         <v>0</v>
@@ -23904,22 +23910,13 @@
         <v>0</v>
       </c>
       <c r="N295" t="s">
-        <v>30</v>
-      </c>
-      <c r="O295">
-        <v>732</v>
+        <v>68</v>
       </c>
       <c r="P295" t="s">
-        <v>54</v>
+        <v>75</v>
       </c>
       <c r="Q295" t="s">
-        <v>52</v>
-      </c>
-      <c r="R295" t="s">
-        <v>43</v>
-      </c>
-      <c r="S295" t="s">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="T295">
         <v>0</v>
@@ -23928,13 +23925,7 @@
         <v>0</v>
       </c>
       <c r="V295">
-        <v>1</v>
-      </c>
-      <c r="W295" t="s">
-        <v>1107</v>
-      </c>
-      <c r="X295" t="s">
-        <v>1108</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296" spans="1:24" x14ac:dyDescent="0.25">
@@ -23945,7 +23936,7 @@
         <v>1105</v>
       </c>
       <c r="C296" t="s">
-        <v>1106</v>
+        <v>1109</v>
       </c>
       <c r="D296" t="s">
         <v>51</v>
@@ -24013,7 +24004,7 @@
         <v>1105</v>
       </c>
       <c r="C297" t="s">
-        <v>1441</v>
+        <v>1106</v>
       </c>
       <c r="D297" t="s">
         <v>51</v>
@@ -24075,13 +24066,13 @@
     </row>
     <row r="298" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>1110</v>
+        <v>1104</v>
       </c>
       <c r="B298" t="s">
-        <v>1111</v>
+        <v>1105</v>
       </c>
       <c r="C298" t="s">
-        <v>1112</v>
+        <v>1441</v>
       </c>
       <c r="D298" t="s">
         <v>51</v>
@@ -24090,19 +24081,13 @@
         <v>2</v>
       </c>
       <c r="F298" t="s">
-        <v>52</v>
+        <v>413</v>
       </c>
       <c r="G298">
-        <v>202</v>
-      </c>
-      <c r="H298" t="s">
-        <v>166</v>
-      </c>
-      <c r="I298">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="J298">
-        <v>686</v>
+        <v>729</v>
       </c>
       <c r="K298">
         <v>1</v>
@@ -24117,10 +24102,10 @@
         <v>30</v>
       </c>
       <c r="O298">
-        <v>722</v>
+        <v>732</v>
       </c>
       <c r="P298" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="Q298" t="s">
         <v>52</v>
@@ -24138,63 +24123,72 @@
         <v>0</v>
       </c>
       <c r="V298">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W298" t="s">
-        <v>1113</v>
+        <v>1107</v>
       </c>
       <c r="X298" t="s">
-        <v>1114</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="299" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>1115</v>
+        <v>1110</v>
       </c>
       <c r="B299" t="s">
-        <v>1116</v>
+        <v>1111</v>
       </c>
       <c r="C299" t="s">
-        <v>1117</v>
+        <v>1112</v>
       </c>
       <c r="D299" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="E299">
-        <v>142</v>
+        <v>2</v>
       </c>
       <c r="F299" t="s">
-        <v>249</v>
+        <v>52</v>
       </c>
       <c r="G299">
-        <v>35</v>
+        <v>202</v>
+      </c>
+      <c r="H299" t="s">
+        <v>166</v>
+      </c>
+      <c r="I299">
+        <v>11</v>
       </c>
       <c r="J299">
-        <v>702</v>
+        <v>686</v>
       </c>
       <c r="K299">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L299">
         <v>0</v>
       </c>
       <c r="M299">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N299" t="s">
         <v>30</v>
       </c>
       <c r="O299">
-        <v>576</v>
+        <v>722</v>
       </c>
       <c r="P299" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="Q299" t="s">
-        <v>114</v>
+        <v>52</v>
       </c>
       <c r="R299" t="s">
-        <v>33</v>
+        <v>43</v>
+      </c>
+      <c r="S299" t="s">
+        <v>44</v>
       </c>
       <c r="T299">
         <v>0</v>
@@ -24206,42 +24200,36 @@
         <v>0</v>
       </c>
       <c r="W299" t="s">
-        <v>1118</v>
+        <v>1113</v>
       </c>
       <c r="X299" t="s">
-        <v>1119</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="300" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>1120</v>
+        <v>1115</v>
       </c>
       <c r="B300" t="s">
-        <v>1121</v>
+        <v>1116</v>
       </c>
       <c r="C300" t="s">
-        <v>1122</v>
+        <v>1117</v>
       </c>
       <c r="D300" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="E300">
-        <v>19</v>
+        <v>142</v>
       </c>
       <c r="F300" t="s">
-        <v>28</v>
+        <v>249</v>
       </c>
       <c r="G300">
-        <v>419</v>
-      </c>
-      <c r="H300" t="s">
-        <v>100</v>
-      </c>
-      <c r="I300">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="J300">
-        <v>239</v>
+        <v>702</v>
       </c>
       <c r="K300">
         <v>0</v>
@@ -24250,11 +24238,23 @@
         <v>0</v>
       </c>
       <c r="M300">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N300" t="s">
         <v>30</v>
       </c>
+      <c r="O300">
+        <v>576</v>
+      </c>
+      <c r="P300" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q300" t="s">
+        <v>114</v>
+      </c>
+      <c r="R300" t="s">
+        <v>33</v>
+      </c>
       <c r="T300">
         <v>0</v>
       </c>
@@ -24265,10 +24265,10 @@
         <v>0</v>
       </c>
       <c r="W300" t="s">
-        <v>1123</v>
+        <v>1118</v>
       </c>
       <c r="X300" t="s">
-        <v>1124</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="301" spans="1:24" x14ac:dyDescent="0.25">
@@ -24279,7 +24279,7 @@
         <v>1121</v>
       </c>
       <c r="C301" t="s">
-        <v>1125</v>
+        <v>1122</v>
       </c>
       <c r="D301" t="s">
         <v>27</v>
@@ -24338,7 +24338,7 @@
         <v>1121</v>
       </c>
       <c r="C302" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="D302" t="s">
         <v>27</v>
@@ -24397,7 +24397,7 @@
         <v>1121</v>
       </c>
       <c r="C303" t="s">
-        <v>1455</v>
+        <v>1126</v>
       </c>
       <c r="D303" t="s">
         <v>27</v>
@@ -24450,34 +24450,34 @@
     </row>
     <row r="304" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
-        <v>1127</v>
+        <v>1120</v>
       </c>
       <c r="B304" t="s">
-        <v>1128</v>
+        <v>1121</v>
       </c>
       <c r="C304" t="s">
-        <v>1129</v>
+        <v>1455</v>
       </c>
       <c r="D304" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="E304">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="F304" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="G304">
-        <v>202</v>
+        <v>419</v>
       </c>
       <c r="H304" t="s">
-        <v>166</v>
+        <v>100</v>
       </c>
       <c r="I304">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="J304">
-        <v>654</v>
+        <v>239</v>
       </c>
       <c r="K304">
         <v>0</v>
@@ -24501,10 +24501,10 @@
         <v>0</v>
       </c>
       <c r="W304" t="s">
-        <v>1130</v>
+        <v>1123</v>
       </c>
       <c r="X304" t="s">
-        <v>1131</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="305" spans="1:24" x14ac:dyDescent="0.25">
@@ -24515,7 +24515,7 @@
         <v>1128</v>
       </c>
       <c r="C305" t="s">
-        <v>1132</v>
+        <v>1129</v>
       </c>
       <c r="D305" t="s">
         <v>51</v>
@@ -24568,28 +24568,34 @@
     </row>
     <row r="306" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>1133</v>
+        <v>1127</v>
       </c>
       <c r="B306" t="s">
-        <v>1134</v>
+        <v>1128</v>
       </c>
       <c r="C306" t="s">
-        <v>1135</v>
+        <v>1132</v>
       </c>
       <c r="D306" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="E306">
-        <v>150</v>
+        <v>2</v>
       </c>
       <c r="F306" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="G306">
-        <v>154</v>
+        <v>202</v>
+      </c>
+      <c r="H306" t="s">
+        <v>166</v>
+      </c>
+      <c r="I306">
+        <v>11</v>
       </c>
       <c r="J306">
-        <v>744</v>
+        <v>654</v>
       </c>
       <c r="K306">
         <v>0</v>
@@ -24601,7 +24607,7 @@
         <v>0</v>
       </c>
       <c r="N306" t="s">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="T306">
         <v>0</v>
@@ -24611,6 +24617,12 @@
       </c>
       <c r="V306">
         <v>0</v>
+      </c>
+      <c r="W306" t="s">
+        <v>1130</v>
+      </c>
+      <c r="X306" t="s">
+        <v>1131</v>
       </c>
     </row>
     <row r="307" spans="1:24" x14ac:dyDescent="0.25">
@@ -24621,7 +24633,7 @@
         <v>1134</v>
       </c>
       <c r="C307" t="s">
-        <v>1457</v>
+        <v>1135</v>
       </c>
       <c r="D307" t="s">
         <v>66</v>
@@ -24662,52 +24674,40 @@
     </row>
     <row r="308" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
-        <v>1136</v>
+        <v>1133</v>
       </c>
       <c r="B308" t="s">
-        <v>1137</v>
+        <v>1134</v>
       </c>
       <c r="C308" t="s">
-        <v>1138</v>
+        <v>1457</v>
       </c>
       <c r="D308" t="s">
-        <v>112</v>
+        <v>66</v>
       </c>
       <c r="E308">
-        <v>9</v>
+        <v>150</v>
       </c>
       <c r="F308" t="s">
-        <v>460</v>
+        <v>67</v>
       </c>
       <c r="G308">
-        <v>54</v>
+        <v>154</v>
       </c>
       <c r="J308">
-        <v>90</v>
+        <v>744</v>
       </c>
       <c r="K308">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L308">
         <v>0</v>
       </c>
       <c r="M308">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N308" t="s">
-        <v>30</v>
-      </c>
-      <c r="O308">
-        <v>813</v>
-      </c>
-      <c r="P308" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q308" t="s">
-        <v>114</v>
-      </c>
-      <c r="R308" t="s">
-        <v>43</v>
+        <v>68</v>
       </c>
       <c r="T308">
         <v>0</v>
@@ -24717,12 +24717,6 @@
       </c>
       <c r="V308">
         <v>0</v>
-      </c>
-      <c r="W308" t="s">
-        <v>1139</v>
-      </c>
-      <c r="X308" t="s">
-        <v>1140</v>
       </c>
     </row>
     <row r="309" spans="1:24" x14ac:dyDescent="0.25">
@@ -24733,7 +24727,7 @@
         <v>1137</v>
       </c>
       <c r="C309" t="s">
-        <v>1141</v>
+        <v>1138</v>
       </c>
       <c r="D309" t="s">
         <v>112</v>
@@ -24792,34 +24786,28 @@
     </row>
     <row r="310" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>1142</v>
+        <v>1136</v>
       </c>
       <c r="B310" t="s">
-        <v>1143</v>
+        <v>1137</v>
       </c>
       <c r="C310" t="s">
-        <v>1144</v>
+        <v>1141</v>
       </c>
       <c r="D310" t="s">
-        <v>51</v>
+        <v>112</v>
       </c>
       <c r="E310">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="F310" t="s">
-        <v>52</v>
+        <v>460</v>
       </c>
       <c r="G310">
-        <v>202</v>
-      </c>
-      <c r="H310" t="s">
-        <v>166</v>
-      </c>
-      <c r="I310">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="J310">
-        <v>694</v>
+        <v>90</v>
       </c>
       <c r="K310">
         <v>1</v>
@@ -24828,26 +24816,23 @@
         <v>0</v>
       </c>
       <c r="M310">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N310" t="s">
         <v>30</v>
       </c>
       <c r="O310">
-        <v>724</v>
+        <v>813</v>
       </c>
       <c r="P310" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="Q310" t="s">
-        <v>52</v>
+        <v>114</v>
       </c>
       <c r="R310" t="s">
         <v>43</v>
       </c>
-      <c r="S310" t="s">
-        <v>44</v>
-      </c>
       <c r="T310">
         <v>0</v>
       </c>
@@ -24858,45 +24843,45 @@
         <v>0</v>
       </c>
       <c r="W310" t="s">
-        <v>1145</v>
+        <v>1139</v>
       </c>
       <c r="X310" t="s">
-        <v>1146</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="311" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>1147</v>
+        <v>1142</v>
       </c>
       <c r="B311" t="s">
-        <v>1148</v>
+        <v>1143</v>
       </c>
       <c r="C311" t="s">
-        <v>1149</v>
+        <v>1144</v>
       </c>
       <c r="D311" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="E311">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="F311" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="G311">
-        <v>419</v>
+        <v>202</v>
       </c>
       <c r="H311" t="s">
-        <v>220</v>
+        <v>166</v>
       </c>
       <c r="I311">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J311">
-        <v>222</v>
+        <v>694</v>
       </c>
       <c r="K311">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L311">
         <v>0</v>
@@ -24908,16 +24893,19 @@
         <v>30</v>
       </c>
       <c r="O311">
-        <v>253</v>
+        <v>724</v>
       </c>
       <c r="P311" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="Q311" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="R311" t="s">
-        <v>55</v>
+        <v>43</v>
+      </c>
+      <c r="S311" t="s">
+        <v>44</v>
       </c>
       <c r="T311">
         <v>0</v>
@@ -24929,36 +24917,42 @@
         <v>0</v>
       </c>
       <c r="W311" t="s">
-        <v>1150</v>
+        <v>1145</v>
       </c>
       <c r="X311" t="s">
-        <v>1151</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="312" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>1152</v>
+        <v>1147</v>
       </c>
       <c r="B312" t="s">
-        <v>1153</v>
+        <v>1148</v>
       </c>
       <c r="C312" t="s">
-        <v>1154</v>
+        <v>1149</v>
       </c>
       <c r="D312" t="s">
-        <v>66</v>
+        <v>27</v>
       </c>
       <c r="E312">
-        <v>150</v>
+        <v>19</v>
       </c>
       <c r="F312" t="s">
-        <v>74</v>
+        <v>28</v>
       </c>
       <c r="G312">
-        <v>39</v>
+        <v>419</v>
+      </c>
+      <c r="H312" t="s">
+        <v>220</v>
+      </c>
+      <c r="I312">
+        <v>13</v>
       </c>
       <c r="J312">
-        <v>674</v>
+        <v>222</v>
       </c>
       <c r="K312">
         <v>0</v>
@@ -24970,19 +24964,19 @@
         <v>0</v>
       </c>
       <c r="N312" t="s">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="O312">
-        <v>135</v>
+        <v>253</v>
       </c>
       <c r="P312" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="Q312" t="s">
-        <v>76</v>
+        <v>32</v>
       </c>
       <c r="R312" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="T312">
         <v>0</v>
@@ -24994,45 +24988,39 @@
         <v>0</v>
       </c>
       <c r="W312" t="s">
-        <v>1155</v>
+        <v>1150</v>
       </c>
       <c r="X312" t="s">
-        <v>1156</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="313" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>1157</v>
+        <v>1152</v>
       </c>
       <c r="B313" t="s">
-        <v>1158</v>
+        <v>1153</v>
       </c>
       <c r="C313" t="s">
-        <v>1159</v>
+        <v>1154</v>
       </c>
       <c r="D313" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="E313">
-        <v>2</v>
+        <v>150</v>
       </c>
       <c r="F313" t="s">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="G313">
-        <v>202</v>
-      </c>
-      <c r="H313" t="s">
-        <v>125</v>
-      </c>
-      <c r="I313">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="J313">
-        <v>706</v>
+        <v>674</v>
       </c>
       <c r="K313">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L313">
         <v>0</v>
@@ -25041,19 +25029,19 @@
         <v>0</v>
       </c>
       <c r="N313" t="s">
-        <v>30</v>
+        <v>68</v>
+      </c>
+      <c r="O313">
+        <v>135</v>
       </c>
       <c r="P313" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="Q313" t="s">
-        <v>52</v>
+        <v>76</v>
       </c>
       <c r="R313" t="s">
-        <v>43</v>
-      </c>
-      <c r="S313" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="T313">
         <v>0</v>
@@ -25062,42 +25050,48 @@
         <v>0</v>
       </c>
       <c r="V313">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W313" t="s">
-        <v>1160</v>
+        <v>1155</v>
       </c>
       <c r="X313" t="s">
-        <v>1161</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="314" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>1162</v>
+        <v>1157</v>
       </c>
       <c r="B314" t="s">
-        <v>1163</v>
+        <v>1158</v>
       </c>
       <c r="C314" t="s">
-        <v>1164</v>
+        <v>1159</v>
       </c>
       <c r="D314" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="E314">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="F314" t="s">
-        <v>226</v>
+        <v>52</v>
       </c>
       <c r="G314">
-        <v>21</v>
+        <v>202</v>
+      </c>
+      <c r="H314" t="s">
+        <v>125</v>
+      </c>
+      <c r="I314">
+        <v>14</v>
       </c>
       <c r="J314">
-        <v>666</v>
+        <v>706</v>
       </c>
       <c r="K314">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L314">
         <v>0</v>
@@ -25106,7 +25100,19 @@
         <v>0</v>
       </c>
       <c r="N314" t="s">
-        <v>68</v>
+        <v>30</v>
+      </c>
+      <c r="P314" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q314" t="s">
+        <v>52</v>
+      </c>
+      <c r="R314" t="s">
+        <v>43</v>
+      </c>
+      <c r="S314" t="s">
+        <v>44</v>
       </c>
       <c r="T314">
         <v>0</v>
@@ -25115,13 +25121,13 @@
         <v>0</v>
       </c>
       <c r="V314">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W314" t="s">
-        <v>1165</v>
+        <v>1160</v>
       </c>
       <c r="X314" t="s">
-        <v>1166</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="315" spans="1:24" x14ac:dyDescent="0.25">
@@ -25132,7 +25138,7 @@
         <v>1163</v>
       </c>
       <c r="C315" t="s">
-        <v>1167</v>
+        <v>1164</v>
       </c>
       <c r="D315" t="s">
         <v>27</v>
@@ -25185,7 +25191,7 @@
         <v>1163</v>
       </c>
       <c r="C316" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="D316" t="s">
         <v>27</v>
@@ -25232,28 +25238,28 @@
     </row>
     <row r="317" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>1169</v>
+        <v>1162</v>
       </c>
       <c r="B317" t="s">
-        <v>1170</v>
+        <v>1163</v>
       </c>
       <c r="C317" t="s">
-        <v>1171</v>
+        <v>1168</v>
       </c>
       <c r="D317" t="s">
-        <v>66</v>
+        <v>27</v>
       </c>
       <c r="E317">
-        <v>150</v>
+        <v>19</v>
       </c>
       <c r="F317" t="s">
-        <v>74</v>
+        <v>226</v>
       </c>
       <c r="G317">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="J317">
-        <v>688</v>
+        <v>666</v>
       </c>
       <c r="K317">
         <v>0</v>
@@ -25267,18 +25273,6 @@
       <c r="N317" t="s">
         <v>68</v>
       </c>
-      <c r="O317">
-        <v>942</v>
-      </c>
-      <c r="P317" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q317" t="s">
-        <v>76</v>
-      </c>
-      <c r="R317" t="s">
-        <v>55</v>
-      </c>
       <c r="T317">
         <v>0</v>
       </c>
@@ -25289,10 +25283,10 @@
         <v>0</v>
       </c>
       <c r="W317" t="s">
-        <v>1172</v>
+        <v>1165</v>
       </c>
       <c r="X317" t="s">
-        <v>1173</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="318" spans="1:24" x14ac:dyDescent="0.25">
@@ -25303,7 +25297,7 @@
         <v>1170</v>
       </c>
       <c r="C318" t="s">
-        <v>1174</v>
+        <v>1171</v>
       </c>
       <c r="D318" t="s">
         <v>66</v>
@@ -25368,7 +25362,7 @@
         <v>1170</v>
       </c>
       <c r="C319" t="s">
-        <v>1440</v>
+        <v>1174</v>
       </c>
       <c r="D319" t="s">
         <v>66</v>
@@ -25427,58 +25421,52 @@
     </row>
     <row r="320" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>1175</v>
+        <v>1169</v>
       </c>
       <c r="B320" t="s">
-        <v>1176</v>
+        <v>1170</v>
       </c>
       <c r="C320" t="s">
-        <v>1177</v>
+        <v>1440</v>
       </c>
       <c r="D320" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="E320">
-        <v>2</v>
+        <v>150</v>
       </c>
       <c r="F320" t="s">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="G320">
-        <v>202</v>
-      </c>
-      <c r="H320" t="s">
-        <v>125</v>
-      </c>
-      <c r="I320">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="J320">
-        <v>728</v>
+        <v>688</v>
       </c>
       <c r="K320">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L320">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M320">
         <v>0</v>
       </c>
       <c r="N320" t="s">
-        <v>30</v>
+        <v>68</v>
       </c>
       <c r="O320">
-        <v>733</v>
+        <v>942</v>
       </c>
       <c r="P320" t="s">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="Q320" t="s">
-        <v>52</v>
+        <v>76</v>
       </c>
       <c r="R320" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="T320">
         <v>0</v>
@@ -25490,21 +25478,21 @@
         <v>0</v>
       </c>
       <c r="W320" t="s">
-        <v>1178</v>
+        <v>1172</v>
       </c>
       <c r="X320" t="s">
-        <v>1179</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="321" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
-        <v>1180</v>
+        <v>1175</v>
       </c>
       <c r="B321" t="s">
-        <v>1181</v>
+        <v>1176</v>
       </c>
       <c r="C321" t="s">
-        <v>1182</v>
+        <v>1177</v>
       </c>
       <c r="D321" t="s">
         <v>51</v>
@@ -25519,31 +25507,31 @@
         <v>202</v>
       </c>
       <c r="H321" t="s">
-        <v>53</v>
+        <v>125</v>
       </c>
       <c r="I321">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J321">
-        <v>678</v>
+        <v>728</v>
       </c>
       <c r="K321">
         <v>1</v>
       </c>
       <c r="L321">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M321">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N321" t="s">
         <v>30</v>
       </c>
       <c r="O321">
-        <v>716</v>
+        <v>733</v>
       </c>
       <c r="P321" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="Q321" t="s">
         <v>52</v>
@@ -25551,9 +25539,6 @@
       <c r="R321" t="s">
         <v>43</v>
       </c>
-      <c r="S321" t="s">
-        <v>44</v>
-      </c>
       <c r="T321">
         <v>0</v>
       </c>
@@ -25564,45 +25549,45 @@
         <v>0</v>
       </c>
       <c r="W321" t="s">
-        <v>1183</v>
+        <v>1178</v>
       </c>
       <c r="X321" t="s">
-        <v>1184</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="322" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>1185</v>
+        <v>1180</v>
       </c>
       <c r="B322" t="s">
-        <v>1186</v>
+        <v>1181</v>
       </c>
       <c r="C322" t="s">
-        <v>1187</v>
+        <v>1182</v>
       </c>
       <c r="D322" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="E322">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="F322" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="G322">
-        <v>419</v>
+        <v>202</v>
       </c>
       <c r="H322" t="s">
-        <v>100</v>
+        <v>53</v>
       </c>
       <c r="I322">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="J322">
-        <v>740</v>
+        <v>678</v>
       </c>
       <c r="K322">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L322">
         <v>0</v>
@@ -25614,16 +25599,19 @@
         <v>30</v>
       </c>
       <c r="O322">
-        <v>366</v>
+        <v>716</v>
       </c>
       <c r="P322" t="s">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="Q322" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="R322" t="s">
-        <v>55</v>
+        <v>43</v>
+      </c>
+      <c r="S322" t="s">
+        <v>44</v>
       </c>
       <c r="T322">
         <v>0</v>
@@ -25635,36 +25623,42 @@
         <v>0</v>
       </c>
       <c r="W322" t="s">
-        <v>1188</v>
+        <v>1183</v>
       </c>
       <c r="X322" t="s">
-        <v>1189</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="323" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>1190</v>
+        <v>1185</v>
       </c>
       <c r="B323" t="s">
-        <v>1191</v>
+        <v>1186</v>
       </c>
       <c r="C323" t="s">
-        <v>1192</v>
+        <v>1187</v>
       </c>
       <c r="D323" t="s">
-        <v>66</v>
+        <v>27</v>
       </c>
       <c r="E323">
-        <v>150</v>
+        <v>19</v>
       </c>
       <c r="F323" t="s">
-        <v>186</v>
+        <v>28</v>
       </c>
       <c r="G323">
-        <v>151</v>
+        <v>419</v>
+      </c>
+      <c r="H323" t="s">
+        <v>100</v>
+      </c>
+      <c r="I323">
+        <v>5</v>
       </c>
       <c r="J323">
-        <v>703</v>
+        <v>740</v>
       </c>
       <c r="K323">
         <v>0</v>
@@ -25673,40 +25667,37 @@
         <v>0</v>
       </c>
       <c r="M323">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N323" t="s">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="O323">
-        <v>936</v>
+        <v>366</v>
       </c>
       <c r="P323" t="s">
-        <v>31</v>
+        <v>75</v>
       </c>
       <c r="Q323" t="s">
-        <v>76</v>
+        <v>32</v>
       </c>
       <c r="R323" t="s">
-        <v>33</v>
-      </c>
-      <c r="S323" t="s">
-        <v>144</v>
+        <v>55</v>
       </c>
       <c r="T323">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U323">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V323">
         <v>0</v>
       </c>
       <c r="W323" t="s">
-        <v>1193</v>
+        <v>1188</v>
       </c>
       <c r="X323" t="s">
-        <v>1194</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="324" spans="1:24" x14ac:dyDescent="0.25">
@@ -25717,7 +25708,7 @@
         <v>1191</v>
       </c>
       <c r="C324" t="s">
-        <v>1195</v>
+        <v>1192</v>
       </c>
       <c r="D324" t="s">
         <v>66</v>
@@ -25779,13 +25770,13 @@
     </row>
     <row r="325" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
-        <v>1196</v>
+        <v>1190</v>
       </c>
       <c r="B325" t="s">
-        <v>1197</v>
+        <v>1191</v>
       </c>
       <c r="C325" t="s">
-        <v>1198</v>
+        <v>1195</v>
       </c>
       <c r="D325" t="s">
         <v>66</v>
@@ -25794,13 +25785,13 @@
         <v>150</v>
       </c>
       <c r="F325" t="s">
-        <v>74</v>
+        <v>186</v>
       </c>
       <c r="G325">
-        <v>39</v>
+        <v>151</v>
       </c>
       <c r="J325">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="K325">
         <v>0</v>
@@ -25815,7 +25806,7 @@
         <v>68</v>
       </c>
       <c r="O325">
-        <v>961</v>
+        <v>936</v>
       </c>
       <c r="P325" t="s">
         <v>31</v>
@@ -25839,21 +25830,21 @@
         <v>0</v>
       </c>
       <c r="W325" t="s">
-        <v>1199</v>
+        <v>1193</v>
       </c>
       <c r="X325" t="s">
-        <v>1200</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="326" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
-        <v>1201</v>
+        <v>1196</v>
       </c>
       <c r="B326" t="s">
-        <v>1202</v>
+        <v>1197</v>
       </c>
       <c r="C326" t="s">
-        <v>1203</v>
+        <v>1198</v>
       </c>
       <c r="D326" t="s">
         <v>66</v>
@@ -25862,13 +25853,13 @@
         <v>150</v>
       </c>
       <c r="F326" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="G326">
-        <v>154</v>
+        <v>39</v>
       </c>
       <c r="J326">
-        <v>752</v>
+        <v>705</v>
       </c>
       <c r="K326">
         <v>0</v>
@@ -25883,7 +25874,7 @@
         <v>68</v>
       </c>
       <c r="O326">
-        <v>144</v>
+        <v>961</v>
       </c>
       <c r="P326" t="s">
         <v>31</v>
@@ -25894,6 +25885,9 @@
       <c r="R326" t="s">
         <v>33</v>
       </c>
+      <c r="S326" t="s">
+        <v>144</v>
+      </c>
       <c r="T326">
         <v>1</v>
       </c>
@@ -25904,81 +25898,75 @@
         <v>0</v>
       </c>
       <c r="W326" t="s">
-        <v>1204</v>
+        <v>1199</v>
       </c>
       <c r="X326" t="s">
-        <v>1205</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="327" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
-        <v>1206</v>
+        <v>1201</v>
       </c>
       <c r="B327" t="s">
-        <v>1207</v>
+        <v>1202</v>
       </c>
       <c r="C327" t="s">
-        <v>1208</v>
+        <v>1203</v>
       </c>
       <c r="D327" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="E327">
-        <v>2</v>
+        <v>150</v>
       </c>
       <c r="F327" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="G327">
-        <v>202</v>
-      </c>
-      <c r="H327" t="s">
-        <v>264</v>
-      </c>
-      <c r="I327">
-        <v>18</v>
+        <v>154</v>
       </c>
       <c r="J327">
-        <v>748</v>
+        <v>752</v>
       </c>
       <c r="K327">
         <v>0</v>
       </c>
       <c r="L327">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M327">
         <v>0</v>
       </c>
       <c r="N327" t="s">
-        <v>30</v>
+        <v>68</v>
       </c>
       <c r="O327">
-        <v>734</v>
+        <v>144</v>
       </c>
       <c r="P327" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="Q327" t="s">
-        <v>52</v>
+        <v>76</v>
       </c>
       <c r="R327" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="T327">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U327">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V327">
         <v>0</v>
       </c>
       <c r="W327" t="s">
-        <v>1209</v>
+        <v>1204</v>
       </c>
       <c r="X327" t="s">
-        <v>1210</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="328" spans="1:24" x14ac:dyDescent="0.25">
@@ -25989,7 +25977,7 @@
         <v>1207</v>
       </c>
       <c r="C328" t="s">
-        <v>1211</v>
+        <v>1208</v>
       </c>
       <c r="D328" t="s">
         <v>51</v>
@@ -26060,7 +26048,7 @@
         <v>1207</v>
       </c>
       <c r="C329" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="D329" t="s">
         <v>51</v>
@@ -26125,55 +26113,58 @@
     </row>
     <row r="330" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>1213</v>
+        <v>1206</v>
       </c>
       <c r="B330" t="s">
-        <v>1214</v>
+        <v>1207</v>
       </c>
       <c r="C330" t="s">
-        <v>1215</v>
+        <v>1212</v>
       </c>
       <c r="D330" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="E330">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="F330" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="G330">
-        <v>419</v>
+        <v>202</v>
       </c>
       <c r="H330" t="s">
-        <v>29</v>
+        <v>264</v>
       </c>
       <c r="I330">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="J330">
-        <v>534</v>
+        <v>748</v>
       </c>
       <c r="K330">
         <v>0</v>
       </c>
       <c r="L330">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M330">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N330" t="s">
         <v>30</v>
       </c>
+      <c r="O330">
+        <v>734</v>
+      </c>
       <c r="P330" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="Q330" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="R330" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="T330">
         <v>0</v>
@@ -26185,10 +26176,10 @@
         <v>0</v>
       </c>
       <c r="W330" t="s">
-        <v>1216</v>
+        <v>1209</v>
       </c>
       <c r="X330" t="s">
-        <v>1217</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="331" spans="1:24" x14ac:dyDescent="0.25">
@@ -26199,7 +26190,7 @@
         <v>1214</v>
       </c>
       <c r="C331" t="s">
-        <v>1218</v>
+        <v>1215</v>
       </c>
       <c r="D331" t="s">
         <v>27</v>
@@ -26267,7 +26258,7 @@
         <v>1214</v>
       </c>
       <c r="C332" t="s">
-        <v>1458</v>
+        <v>1218</v>
       </c>
       <c r="D332" t="s">
         <v>27</v>
@@ -26329,34 +26320,34 @@
     </row>
     <row r="333" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
-        <v>1219</v>
+        <v>1213</v>
       </c>
       <c r="B333" t="s">
-        <v>1220</v>
+        <v>1214</v>
       </c>
       <c r="C333" t="s">
-        <v>1221</v>
+        <v>1458</v>
       </c>
       <c r="D333" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="E333">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="F333" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="G333">
-        <v>202</v>
+        <v>419</v>
       </c>
       <c r="H333" t="s">
-        <v>125</v>
+        <v>29</v>
       </c>
       <c r="I333">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="J333">
-        <v>690</v>
+        <v>534</v>
       </c>
       <c r="K333">
         <v>0</v>
@@ -26369,18 +26360,15 @@
       </c>
       <c r="N333" t="s">
         <v>30</v>
-      </c>
-      <c r="O333">
-        <v>718</v>
       </c>
       <c r="P333" t="s">
         <v>31</v>
       </c>
       <c r="Q333" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="R333" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="T333">
         <v>0</v>
@@ -26392,36 +26380,42 @@
         <v>0</v>
       </c>
       <c r="W333" t="s">
-        <v>1222</v>
+        <v>1216</v>
       </c>
       <c r="X333" t="s">
-        <v>1223</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="334" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
-        <v>1224</v>
+        <v>1219</v>
       </c>
       <c r="B334" t="s">
-        <v>1225</v>
+        <v>1220</v>
       </c>
       <c r="C334" t="s">
-        <v>1226</v>
+        <v>1221</v>
       </c>
       <c r="D334" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="E334">
-        <v>142</v>
+        <v>2</v>
       </c>
       <c r="F334" t="s">
-        <v>91</v>
+        <v>52</v>
       </c>
       <c r="G334">
-        <v>145</v>
+        <v>202</v>
+      </c>
+      <c r="H334" t="s">
+        <v>125</v>
+      </c>
+      <c r="I334">
+        <v>14</v>
       </c>
       <c r="J334">
-        <v>760</v>
+        <v>690</v>
       </c>
       <c r="K334">
         <v>0</v>
@@ -26430,22 +26424,22 @@
         <v>0</v>
       </c>
       <c r="M334">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N334" t="s">
         <v>30</v>
       </c>
       <c r="O334">
-        <v>463</v>
+        <v>718</v>
       </c>
       <c r="P334" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="Q334" t="s">
-        <v>92</v>
+        <v>52</v>
       </c>
       <c r="R334" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="T334">
         <v>0</v>
@@ -26454,13 +26448,13 @@
         <v>0</v>
       </c>
       <c r="V334">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W334" t="s">
-        <v>1227</v>
+        <v>1222</v>
       </c>
       <c r="X334" t="s">
-        <v>1228</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="335" spans="1:24" x14ac:dyDescent="0.25">
@@ -26471,7 +26465,7 @@
         <v>1225</v>
       </c>
       <c r="C335" t="s">
-        <v>1229</v>
+        <v>1226</v>
       </c>
       <c r="D335" t="s">
         <v>39</v>
@@ -26530,34 +26524,28 @@
     </row>
     <row r="336" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
-        <v>1230</v>
+        <v>1224</v>
       </c>
       <c r="B336" t="s">
-        <v>1231</v>
+        <v>1225</v>
       </c>
       <c r="C336" t="s">
-        <v>1232</v>
+        <v>1229</v>
       </c>
       <c r="D336" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="E336">
-        <v>19</v>
+        <v>142</v>
       </c>
       <c r="F336" t="s">
-        <v>28</v>
+        <v>91</v>
       </c>
       <c r="G336">
-        <v>419</v>
-      </c>
-      <c r="H336" t="s">
-        <v>29</v>
-      </c>
-      <c r="I336">
-        <v>29</v>
+        <v>145</v>
       </c>
       <c r="J336">
-        <v>796</v>
+        <v>760</v>
       </c>
       <c r="K336">
         <v>0</v>
@@ -26571,14 +26559,17 @@
       <c r="N336" t="s">
         <v>30</v>
       </c>
+      <c r="O336">
+        <v>463</v>
+      </c>
       <c r="P336" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="Q336" t="s">
-        <v>32</v>
+        <v>92</v>
       </c>
       <c r="R336" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="T336">
         <v>0</v>
@@ -26587,13 +26578,13 @@
         <v>0</v>
       </c>
       <c r="V336">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W336" t="s">
-        <v>1233</v>
+        <v>1227</v>
       </c>
       <c r="X336" t="s">
-        <v>1234</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="337" spans="1:24" x14ac:dyDescent="0.25">
@@ -26604,7 +26595,7 @@
         <v>1231</v>
       </c>
       <c r="C337" t="s">
-        <v>1235</v>
+        <v>1232</v>
       </c>
       <c r="D337" t="s">
         <v>27</v>
@@ -26672,7 +26663,7 @@
         <v>1231</v>
       </c>
       <c r="C338" t="s">
-        <v>1448</v>
+        <v>1235</v>
       </c>
       <c r="D338" t="s">
         <v>27</v>
@@ -26734,40 +26725,40 @@
     </row>
     <row r="339" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="B339" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="C339" t="s">
-        <v>1238</v>
+        <v>1448</v>
       </c>
       <c r="D339" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="E339">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="F339" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="G339">
-        <v>202</v>
+        <v>419</v>
       </c>
       <c r="H339" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="I339">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="J339">
-        <v>148</v>
+        <v>796</v>
       </c>
       <c r="K339">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L339">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M339">
         <v>0</v>
@@ -26775,20 +26766,14 @@
       <c r="N339" t="s">
         <v>30</v>
       </c>
-      <c r="O339">
-        <v>628</v>
-      </c>
       <c r="P339" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="Q339" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="R339" t="s">
-        <v>43</v>
-      </c>
-      <c r="S339" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="T339">
         <v>0</v>
@@ -26800,21 +26785,21 @@
         <v>0</v>
       </c>
       <c r="W339" t="s">
-        <v>1239</v>
+        <v>1233</v>
       </c>
       <c r="X339" t="s">
-        <v>1240</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="340" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
-        <v>1241</v>
+        <v>1236</v>
       </c>
       <c r="B340" t="s">
-        <v>1242</v>
+        <v>1237</v>
       </c>
       <c r="C340" t="s">
-        <v>1243</v>
+        <v>1238</v>
       </c>
       <c r="D340" t="s">
         <v>51</v>
@@ -26829,19 +26814,19 @@
         <v>202</v>
       </c>
       <c r="H340" t="s">
-        <v>166</v>
+        <v>53</v>
       </c>
       <c r="I340">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="J340">
-        <v>768</v>
+        <v>148</v>
       </c>
       <c r="K340">
         <v>1</v>
       </c>
       <c r="L340">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M340">
         <v>0</v>
@@ -26850,7 +26835,7 @@
         <v>30</v>
       </c>
       <c r="O340">
-        <v>742</v>
+        <v>628</v>
       </c>
       <c r="P340" t="s">
         <v>41</v>
@@ -26874,39 +26859,45 @@
         <v>0</v>
       </c>
       <c r="W340" t="s">
-        <v>1244</v>
+        <v>1239</v>
       </c>
       <c r="X340" t="s">
-        <v>1245</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="341" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
-        <v>1246</v>
+        <v>1241</v>
       </c>
       <c r="B341" t="s">
-        <v>1247</v>
+        <v>1242</v>
       </c>
       <c r="C341" t="s">
-        <v>1248</v>
+        <v>1243</v>
       </c>
       <c r="D341" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="E341">
-        <v>142</v>
+        <v>2</v>
       </c>
       <c r="F341" t="s">
-        <v>249</v>
+        <v>52</v>
       </c>
       <c r="G341">
-        <v>35</v>
+        <v>202</v>
+      </c>
+      <c r="H341" t="s">
+        <v>166</v>
+      </c>
+      <c r="I341">
+        <v>11</v>
       </c>
       <c r="J341">
-        <v>764</v>
+        <v>768</v>
       </c>
       <c r="K341">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L341">
         <v>0</v>
@@ -26918,16 +26909,19 @@
         <v>30</v>
       </c>
       <c r="O341">
-        <v>578</v>
+        <v>742</v>
       </c>
       <c r="P341" t="s">
-        <v>75</v>
+        <v>41</v>
       </c>
       <c r="Q341" t="s">
-        <v>114</v>
+        <v>52</v>
       </c>
       <c r="R341" t="s">
-        <v>55</v>
+        <v>43</v>
+      </c>
+      <c r="S341" t="s">
+        <v>44</v>
       </c>
       <c r="T341">
         <v>0</v>
@@ -26939,21 +26933,21 @@
         <v>0</v>
       </c>
       <c r="W341" t="s">
-        <v>1249</v>
+        <v>1244</v>
       </c>
       <c r="X341" t="s">
-        <v>1250</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="342" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
-        <v>1251</v>
+        <v>1246</v>
       </c>
       <c r="B342" t="s">
-        <v>1252</v>
+        <v>1247</v>
       </c>
       <c r="C342" t="s">
-        <v>1253</v>
+        <v>1248</v>
       </c>
       <c r="D342" t="s">
         <v>39</v>
@@ -26962,19 +26956,19 @@
         <v>142</v>
       </c>
       <c r="F342" t="s">
-        <v>688</v>
+        <v>249</v>
       </c>
       <c r="G342">
-        <v>143</v>
+        <v>35</v>
       </c>
       <c r="J342">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="K342">
         <v>0</v>
       </c>
       <c r="L342">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M342">
         <v>0</v>
@@ -26983,16 +26977,16 @@
         <v>30</v>
       </c>
       <c r="O342">
-        <v>923</v>
+        <v>578</v>
       </c>
       <c r="P342" t="s">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="Q342" t="s">
-        <v>76</v>
+        <v>114</v>
       </c>
       <c r="R342" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="T342">
         <v>0</v>
@@ -27004,42 +26998,42 @@
         <v>0</v>
       </c>
       <c r="W342" t="s">
-        <v>1254</v>
+        <v>1249</v>
       </c>
       <c r="X342" t="s">
-        <v>1255</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="343" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
-        <v>1256</v>
+        <v>1251</v>
       </c>
       <c r="B343" t="s">
-        <v>1257</v>
+        <v>1252</v>
       </c>
       <c r="C343" t="s">
-        <v>1258</v>
+        <v>1253</v>
       </c>
       <c r="D343" t="s">
-        <v>112</v>
+        <v>39</v>
       </c>
       <c r="E343">
-        <v>9</v>
+        <v>142</v>
       </c>
       <c r="F343" t="s">
-        <v>113</v>
+        <v>688</v>
       </c>
       <c r="G343">
-        <v>61</v>
+        <v>143</v>
       </c>
       <c r="J343">
-        <v>772</v>
+        <v>762</v>
       </c>
       <c r="K343">
         <v>0</v>
       </c>
       <c r="L343">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M343">
         <v>0</v>
@@ -27047,6 +27041,18 @@
       <c r="N343" t="s">
         <v>30</v>
       </c>
+      <c r="O343">
+        <v>923</v>
+      </c>
+      <c r="P343" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q343" t="s">
+        <v>76</v>
+      </c>
+      <c r="R343" t="s">
+        <v>43</v>
+      </c>
       <c r="T343">
         <v>0</v>
       </c>
@@ -27055,6 +27061,12 @@
       </c>
       <c r="V343">
         <v>0</v>
+      </c>
+      <c r="W343" t="s">
+        <v>1254</v>
+      </c>
+      <c r="X343" t="s">
+        <v>1255</v>
       </c>
     </row>
     <row r="344" spans="1:24" x14ac:dyDescent="0.25">
@@ -27065,7 +27077,7 @@
         <v>1257</v>
       </c>
       <c r="C344" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="D344" t="s">
         <v>112</v>
@@ -27106,34 +27118,34 @@
     </row>
     <row r="345" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
-        <v>1260</v>
+        <v>1256</v>
       </c>
       <c r="B345" t="s">
-        <v>1261</v>
+        <v>1257</v>
       </c>
       <c r="C345" t="s">
-        <v>1262</v>
+        <v>1259</v>
       </c>
       <c r="D345" t="s">
-        <v>39</v>
+        <v>112</v>
       </c>
       <c r="E345">
-        <v>142</v>
+        <v>9</v>
       </c>
       <c r="F345" t="s">
-        <v>688</v>
+        <v>113</v>
       </c>
       <c r="G345">
-        <v>143</v>
+        <v>61</v>
       </c>
       <c r="J345">
-        <v>795</v>
+        <v>772</v>
       </c>
       <c r="K345">
         <v>0</v>
       </c>
       <c r="L345">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M345">
         <v>0</v>
@@ -27141,18 +27153,6 @@
       <c r="N345" t="s">
         <v>30</v>
       </c>
-      <c r="O345">
-        <v>925</v>
-      </c>
-      <c r="P345" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q345" t="s">
-        <v>76</v>
-      </c>
-      <c r="R345" t="s">
-        <v>55</v>
-      </c>
       <c r="T345">
         <v>0</v>
       </c>
@@ -27161,23 +27161,17 @@
       </c>
       <c r="V345">
         <v>0</v>
-      </c>
-      <c r="W345" t="s">
-        <v>1263</v>
-      </c>
-      <c r="X345" t="s">
-        <v>1264</v>
       </c>
     </row>
     <row r="346" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
-        <v>1265</v>
+        <v>1260</v>
       </c>
       <c r="B346" t="s">
-        <v>1266</v>
+        <v>1261</v>
       </c>
       <c r="C346" t="s">
-        <v>1267</v>
+        <v>1262</v>
       </c>
       <c r="D346" t="s">
         <v>39</v>
@@ -27186,37 +27180,37 @@
         <v>142</v>
       </c>
       <c r="F346" t="s">
-        <v>249</v>
+        <v>688</v>
       </c>
       <c r="G346">
-        <v>35</v>
+        <v>143</v>
       </c>
       <c r="J346">
-        <v>626</v>
+        <v>795</v>
       </c>
       <c r="K346">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L346">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M346">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N346" t="s">
         <v>30</v>
       </c>
       <c r="O346">
-        <v>537</v>
+        <v>925</v>
       </c>
       <c r="P346" t="s">
-        <v>54</v>
+        <v>75</v>
       </c>
       <c r="Q346" t="s">
-        <v>114</v>
+        <v>76</v>
       </c>
       <c r="R346" t="s">
-        <v>307</v>
+        <v>55</v>
       </c>
       <c r="T346">
         <v>0</v>
@@ -27228,10 +27222,10 @@
         <v>0</v>
       </c>
       <c r="W346" t="s">
-        <v>1268</v>
+        <v>1263</v>
       </c>
       <c r="X346" t="s">
-        <v>1269</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="347" spans="1:24" x14ac:dyDescent="0.25">
@@ -27242,7 +27236,7 @@
         <v>1266</v>
       </c>
       <c r="C347" t="s">
-        <v>1270</v>
+        <v>1267</v>
       </c>
       <c r="D347" t="s">
         <v>39</v>
@@ -27307,7 +27301,7 @@
         <v>1266</v>
       </c>
       <c r="C348" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="D348" t="s">
         <v>39</v>
@@ -27372,7 +27366,7 @@
         <v>1266</v>
       </c>
       <c r="C349" t="s">
-        <v>1442</v>
+        <v>1271</v>
       </c>
       <c r="D349" t="s">
         <v>39</v>
@@ -27431,31 +27425,31 @@
     </row>
     <row r="350" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
-        <v>1272</v>
+        <v>1265</v>
       </c>
       <c r="B350" t="s">
-        <v>1273</v>
+        <v>1266</v>
       </c>
       <c r="C350" t="s">
-        <v>1274</v>
+        <v>1442</v>
       </c>
       <c r="D350" t="s">
-        <v>112</v>
+        <v>39</v>
       </c>
       <c r="E350">
-        <v>9</v>
+        <v>142</v>
       </c>
       <c r="F350" t="s">
-        <v>113</v>
+        <v>249</v>
       </c>
       <c r="G350">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="J350">
-        <v>776</v>
+        <v>626</v>
       </c>
       <c r="K350">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L350">
         <v>0</v>
@@ -27467,16 +27461,16 @@
         <v>30</v>
       </c>
       <c r="O350">
-        <v>866</v>
+        <v>537</v>
       </c>
       <c r="P350" t="s">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="Q350" t="s">
         <v>114</v>
       </c>
       <c r="R350" t="s">
-        <v>43</v>
+        <v>307</v>
       </c>
       <c r="T350">
         <v>0</v>
@@ -27488,42 +27482,36 @@
         <v>0</v>
       </c>
       <c r="W350" t="s">
-        <v>1275</v>
+        <v>1268</v>
       </c>
       <c r="X350" t="s">
-        <v>1276</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="351" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
-        <v>1277</v>
+        <v>1272</v>
       </c>
       <c r="B351" t="s">
-        <v>1278</v>
+        <v>1273</v>
       </c>
       <c r="C351" t="s">
-        <v>1279</v>
+        <v>1274</v>
       </c>
       <c r="D351" t="s">
-        <v>27</v>
+        <v>112</v>
       </c>
       <c r="E351">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="F351" t="s">
-        <v>28</v>
+        <v>113</v>
       </c>
       <c r="G351">
-        <v>419</v>
-      </c>
-      <c r="H351" t="s">
-        <v>29</v>
-      </c>
-      <c r="I351">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="J351">
-        <v>780</v>
+        <v>776</v>
       </c>
       <c r="K351">
         <v>0</v>
@@ -27538,16 +27526,16 @@
         <v>30</v>
       </c>
       <c r="O351">
-        <v>369</v>
+        <v>866</v>
       </c>
       <c r="P351" t="s">
-        <v>31</v>
+        <v>75</v>
       </c>
       <c r="Q351" t="s">
-        <v>32</v>
+        <v>114</v>
       </c>
       <c r="R351" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="T351">
         <v>0</v>
@@ -27559,36 +27547,42 @@
         <v>0</v>
       </c>
       <c r="W351" t="s">
-        <v>1280</v>
+        <v>1275</v>
       </c>
       <c r="X351" t="s">
-        <v>1281</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="352" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
-        <v>1282</v>
+        <v>1277</v>
       </c>
       <c r="B352" t="s">
-        <v>1283</v>
+        <v>1278</v>
       </c>
       <c r="C352" t="s">
-        <v>1284</v>
+        <v>1279</v>
       </c>
       <c r="D352" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="E352">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="F352" t="s">
-        <v>413</v>
+        <v>28</v>
       </c>
       <c r="G352">
-        <v>15</v>
+        <v>419</v>
+      </c>
+      <c r="H352" t="s">
+        <v>29</v>
+      </c>
+      <c r="I352">
+        <v>29</v>
       </c>
       <c r="J352">
-        <v>788</v>
+        <v>780</v>
       </c>
       <c r="K352">
         <v>0</v>
@@ -27597,19 +27591,19 @@
         <v>0</v>
       </c>
       <c r="M352">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N352" t="s">
         <v>30</v>
       </c>
       <c r="O352">
-        <v>744</v>
+        <v>369</v>
       </c>
       <c r="P352" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="Q352" t="s">
-        <v>92</v>
+        <v>32</v>
       </c>
       <c r="R352" t="s">
         <v>55</v>
@@ -27621,39 +27615,39 @@
         <v>0</v>
       </c>
       <c r="V352">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W352" t="s">
-        <v>1285</v>
+        <v>1280</v>
       </c>
       <c r="X352" t="s">
-        <v>1286</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="353" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
-        <v>1287</v>
+        <v>1282</v>
       </c>
       <c r="B353" t="s">
-        <v>1288</v>
+        <v>1283</v>
       </c>
       <c r="C353" t="s">
-        <v>1289</v>
+        <v>1284</v>
       </c>
       <c r="D353" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="E353">
-        <v>142</v>
+        <v>2</v>
       </c>
       <c r="F353" t="s">
-        <v>91</v>
+        <v>413</v>
       </c>
       <c r="G353">
-        <v>145</v>
+        <v>15</v>
       </c>
       <c r="J353">
-        <v>792</v>
+        <v>788</v>
       </c>
       <c r="K353">
         <v>0</v>
@@ -27668,113 +27662,146 @@
         <v>30</v>
       </c>
       <c r="O353">
-        <v>186</v>
+        <v>744</v>
       </c>
       <c r="P353" t="s">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="Q353" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="R353" t="s">
         <v>55</v>
       </c>
       <c r="T353">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U353">
         <v>0</v>
       </c>
       <c r="V353">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W353" t="s">
-        <v>1290</v>
+        <v>1285</v>
       </c>
       <c r="X353" t="s">
-        <v>1291</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="354" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
-        <v>1292</v>
+        <v>1287</v>
       </c>
       <c r="B354" t="s">
-        <v>1293</v>
+        <v>1288</v>
       </c>
       <c r="C354" t="s">
-        <v>1294</v>
+        <v>1289</v>
       </c>
       <c r="D354" t="s">
-        <v>112</v>
+        <v>39</v>
       </c>
       <c r="E354">
-        <v>9</v>
+        <v>142</v>
       </c>
       <c r="F354" t="s">
-        <v>113</v>
+        <v>91</v>
       </c>
       <c r="G354">
-        <v>61</v>
+        <v>145</v>
       </c>
       <c r="J354">
-        <v>798</v>
+        <v>792</v>
       </c>
       <c r="K354">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L354">
         <v>0</v>
       </c>
       <c r="M354">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N354" t="s">
         <v>30</v>
       </c>
       <c r="O354">
-        <v>869</v>
+        <v>186</v>
       </c>
       <c r="P354" t="s">
         <v>75</v>
       </c>
       <c r="Q354" t="s">
-        <v>114</v>
+        <v>76</v>
       </c>
       <c r="R354" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="T354">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U354">
         <v>0</v>
       </c>
       <c r="V354">
         <v>0</v>
+      </c>
+      <c r="W354" t="s">
+        <v>1290</v>
+      </c>
+      <c r="X354" t="s">
+        <v>1291</v>
       </c>
     </row>
     <row r="355" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
-        <v>1295</v>
+        <v>1292</v>
       </c>
       <c r="B355" t="s">
-        <v>1296</v>
+        <v>1293</v>
       </c>
       <c r="C355" t="s">
-        <v>1297</v>
+        <v>1294</v>
+      </c>
+      <c r="D355" t="s">
+        <v>112</v>
+      </c>
+      <c r="E355">
+        <v>9</v>
+      </c>
+      <c r="F355" t="s">
+        <v>113</v>
+      </c>
+      <c r="G355">
+        <v>61</v>
+      </c>
+      <c r="J355">
+        <v>798</v>
+      </c>
+      <c r="K355">
+        <v>1</v>
+      </c>
+      <c r="L355">
+        <v>0</v>
+      </c>
+      <c r="M355">
+        <v>1</v>
+      </c>
+      <c r="N355" t="s">
+        <v>30</v>
       </c>
       <c r="O355">
-        <v>528</v>
+        <v>869</v>
       </c>
       <c r="P355" t="s">
-        <v>31</v>
+        <v>75</v>
       </c>
       <c r="Q355" t="s">
         <v>114</v>
       </c>
       <c r="R355" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="T355">
         <v>0</v>
@@ -27784,12 +27811,6 @@
       </c>
       <c r="V355">
         <v>0</v>
-      </c>
-      <c r="W355" t="s">
-        <v>1298</v>
-      </c>
-      <c r="X355" t="s">
-        <v>1299</v>
       </c>
     </row>
     <row r="356" spans="1:24" x14ac:dyDescent="0.25">
@@ -27800,7 +27821,7 @@
         <v>1296</v>
       </c>
       <c r="C356" t="s">
-        <v>1300</v>
+        <v>1297</v>
       </c>
       <c r="O356">
         <v>528</v>
@@ -27838,7 +27859,7 @@
         <v>1296</v>
       </c>
       <c r="C357" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="O357">
         <v>528</v>
@@ -27876,7 +27897,7 @@
         <v>1296</v>
       </c>
       <c r="C358" t="s">
-        <v>1437</v>
+        <v>1301</v>
       </c>
       <c r="O358">
         <v>528</v>
@@ -27908,61 +27929,25 @@
     </row>
     <row r="359" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
-        <v>1302</v>
+        <v>1295</v>
       </c>
       <c r="B359" t="s">
-        <v>1303</v>
+        <v>1296</v>
       </c>
       <c r="C359" t="s">
-        <v>1304</v>
-      </c>
-      <c r="D359" t="s">
-        <v>51</v>
-      </c>
-      <c r="E359">
-        <v>2</v>
-      </c>
-      <c r="F359" t="s">
-        <v>52</v>
-      </c>
-      <c r="G359">
-        <v>202</v>
-      </c>
-      <c r="H359" t="s">
-        <v>125</v>
-      </c>
-      <c r="I359">
-        <v>14</v>
-      </c>
-      <c r="J359">
-        <v>834</v>
-      </c>
-      <c r="K359">
-        <v>1</v>
-      </c>
-      <c r="L359">
-        <v>0</v>
-      </c>
-      <c r="M359">
-        <v>0</v>
-      </c>
-      <c r="N359" t="s">
-        <v>30</v>
+        <v>1437</v>
       </c>
       <c r="O359">
-        <v>738</v>
+        <v>528</v>
       </c>
       <c r="P359" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="Q359" t="s">
-        <v>52</v>
+        <v>114</v>
       </c>
       <c r="R359" t="s">
-        <v>43</v>
-      </c>
-      <c r="S359" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="T359">
         <v>0</v>
@@ -27974,10 +27959,10 @@
         <v>0</v>
       </c>
       <c r="W359" t="s">
-        <v>1305</v>
+        <v>1298</v>
       </c>
       <c r="X359" t="s">
-        <v>1306</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="360" spans="1:24" x14ac:dyDescent="0.25">
@@ -27988,7 +27973,7 @@
         <v>1303</v>
       </c>
       <c r="C360" t="s">
-        <v>1307</v>
+        <v>1304</v>
       </c>
       <c r="D360" t="s">
         <v>51</v>
@@ -28062,7 +28047,7 @@
         <v>1303</v>
       </c>
       <c r="C361" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="D361" t="s">
         <v>51</v>
@@ -28130,13 +28115,13 @@
     </row>
     <row r="362" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
-        <v>1309</v>
+        <v>1302</v>
       </c>
       <c r="B362" t="s">
-        <v>1310</v>
+        <v>1303</v>
       </c>
       <c r="C362" t="s">
-        <v>1311</v>
+        <v>1308</v>
       </c>
       <c r="D362" t="s">
         <v>51</v>
@@ -28157,13 +28142,13 @@
         <v>14</v>
       </c>
       <c r="J362">
-        <v>800</v>
+        <v>834</v>
       </c>
       <c r="K362">
         <v>1</v>
       </c>
       <c r="L362">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M362">
         <v>0</v>
@@ -28172,7 +28157,7 @@
         <v>30</v>
       </c>
       <c r="O362">
-        <v>746</v>
+        <v>738</v>
       </c>
       <c r="P362" t="s">
         <v>41</v>
@@ -28196,60 +28181,69 @@
         <v>0</v>
       </c>
       <c r="W362" t="s">
-        <v>1312</v>
+        <v>1305</v>
       </c>
       <c r="X362" t="s">
-        <v>1313</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="363" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
-        <v>1314</v>
+        <v>1309</v>
       </c>
       <c r="B363" t="s">
-        <v>1315</v>
+        <v>1310</v>
       </c>
       <c r="C363" t="s">
-        <v>1316</v>
+        <v>1311</v>
       </c>
       <c r="D363" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="E363">
-        <v>150</v>
+        <v>2</v>
       </c>
       <c r="F363" t="s">
-        <v>186</v>
+        <v>52</v>
       </c>
       <c r="G363">
-        <v>151</v>
+        <v>202</v>
+      </c>
+      <c r="H363" t="s">
+        <v>125</v>
+      </c>
+      <c r="I363">
+        <v>14</v>
       </c>
       <c r="J363">
-        <v>804</v>
+        <v>800</v>
       </c>
       <c r="K363">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L363">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M363">
         <v>0</v>
       </c>
       <c r="N363" t="s">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="O363">
-        <v>926</v>
+        <v>746</v>
       </c>
       <c r="P363" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="Q363" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="R363" t="s">
-        <v>55</v>
+        <v>43</v>
+      </c>
+      <c r="S363" t="s">
+        <v>44</v>
       </c>
       <c r="T363">
         <v>0</v>
@@ -28261,36 +28255,36 @@
         <v>0</v>
       </c>
       <c r="W363" t="s">
-        <v>1317</v>
+        <v>1312</v>
       </c>
       <c r="X363" t="s">
-        <v>1318</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="364" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
-        <v>1319</v>
+        <v>1314</v>
       </c>
       <c r="B364" t="s">
-        <v>1320</v>
+        <v>1315</v>
       </c>
       <c r="C364" t="s">
-        <v>1321</v>
+        <v>1316</v>
       </c>
       <c r="D364" t="s">
-        <v>112</v>
+        <v>66</v>
       </c>
       <c r="E364">
-        <v>9</v>
+        <v>150</v>
       </c>
       <c r="F364" t="s">
-        <v>483</v>
+        <v>186</v>
       </c>
       <c r="G364">
-        <v>57</v>
+        <v>151</v>
       </c>
       <c r="J364">
-        <v>581</v>
+        <v>804</v>
       </c>
       <c r="K364">
         <v>0</v>
@@ -28302,7 +28296,19 @@
         <v>0</v>
       </c>
       <c r="N364" t="s">
-        <v>30</v>
+        <v>68</v>
+      </c>
+      <c r="O364">
+        <v>926</v>
+      </c>
+      <c r="P364" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q364" t="s">
+        <v>76</v>
+      </c>
+      <c r="R364" t="s">
+        <v>55</v>
       </c>
       <c r="T364">
         <v>0</v>
@@ -28312,6 +28318,12 @@
       </c>
       <c r="V364">
         <v>0</v>
+      </c>
+      <c r="W364" t="s">
+        <v>1317</v>
+      </c>
+      <c r="X364" t="s">
+        <v>1318</v>
       </c>
     </row>
     <row r="365" spans="1:24" x14ac:dyDescent="0.25">
@@ -28322,7 +28334,7 @@
         <v>1320</v>
       </c>
       <c r="C365" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="D365" t="s">
         <v>112</v>
@@ -28369,7 +28381,7 @@
         <v>1320</v>
       </c>
       <c r="C366" t="s">
-        <v>1449</v>
+        <v>1322</v>
       </c>
       <c r="D366" t="s">
         <v>112</v>
@@ -28416,7 +28428,7 @@
         <v>1320</v>
       </c>
       <c r="C367" t="s">
-        <v>1452</v>
+        <v>1449</v>
       </c>
       <c r="D367" t="s">
         <v>112</v>
@@ -28457,34 +28469,28 @@
     </row>
     <row r="368" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
-        <v>1323</v>
+        <v>1319</v>
       </c>
       <c r="B368" t="s">
-        <v>1324</v>
+        <v>1320</v>
       </c>
       <c r="C368" t="s">
-        <v>1325</v>
+        <v>1452</v>
       </c>
       <c r="D368" t="s">
-        <v>27</v>
+        <v>112</v>
       </c>
       <c r="E368">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="F368" t="s">
-        <v>28</v>
+        <v>483</v>
       </c>
       <c r="G368">
-        <v>419</v>
-      </c>
-      <c r="H368" t="s">
-        <v>100</v>
-      </c>
-      <c r="I368">
-        <v>5</v>
+        <v>57</v>
       </c>
       <c r="J368">
-        <v>858</v>
+        <v>581</v>
       </c>
       <c r="K368">
         <v>0</v>
@@ -28498,18 +28504,6 @@
       <c r="N368" t="s">
         <v>30</v>
       </c>
-      <c r="O368">
-        <v>298</v>
-      </c>
-      <c r="P368" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q368" t="s">
-        <v>32</v>
-      </c>
-      <c r="R368" t="s">
-        <v>55</v>
-      </c>
       <c r="T368">
         <v>0</v>
       </c>
@@ -28518,23 +28512,17 @@
       </c>
       <c r="V368">
         <v>0</v>
-      </c>
-      <c r="W368" t="s">
-        <v>1326</v>
-      </c>
-      <c r="X368" t="s">
-        <v>1327</v>
       </c>
     </row>
     <row r="369" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
-        <v>1328</v>
+        <v>1323</v>
       </c>
       <c r="B369" t="s">
-        <v>1329</v>
+        <v>1324</v>
       </c>
       <c r="C369" t="s">
-        <v>1330</v>
+        <v>1325</v>
       </c>
       <c r="D369" t="s">
         <v>27</v>
@@ -28543,13 +28531,19 @@
         <v>19</v>
       </c>
       <c r="F369" t="s">
-        <v>226</v>
+        <v>28</v>
       </c>
       <c r="G369">
-        <v>21</v>
+        <v>419</v>
+      </c>
+      <c r="H369" t="s">
+        <v>100</v>
+      </c>
+      <c r="I369">
+        <v>5</v>
       </c>
       <c r="J369">
-        <v>840</v>
+        <v>858</v>
       </c>
       <c r="K369">
         <v>0</v>
@@ -28561,22 +28555,22 @@
         <v>0</v>
       </c>
       <c r="N369" t="s">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="O369">
-        <v>111</v>
+        <v>298</v>
       </c>
       <c r="P369" t="s">
         <v>31</v>
       </c>
       <c r="Q369" t="s">
-        <v>227</v>
+        <v>32</v>
       </c>
       <c r="R369" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="T369">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U369">
         <v>0</v>
@@ -28585,10 +28579,10 @@
         <v>0</v>
       </c>
       <c r="W369" t="s">
-        <v>1331</v>
+        <v>1326</v>
       </c>
       <c r="X369" t="s">
-        <v>1332</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="370" spans="1:24" x14ac:dyDescent="0.25">
@@ -28599,7 +28593,7 @@
         <v>1329</v>
       </c>
       <c r="C370" t="s">
-        <v>1333</v>
+        <v>1330</v>
       </c>
       <c r="D370" t="s">
         <v>27</v>
@@ -28664,7 +28658,7 @@
         <v>1329</v>
       </c>
       <c r="C371" t="s">
-        <v>1328</v>
+        <v>1333</v>
       </c>
       <c r="D371" t="s">
         <v>27</v>
@@ -28723,55 +28717,55 @@
     </row>
     <row r="372" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
-        <v>1334</v>
+        <v>1328</v>
       </c>
       <c r="B372" t="s">
-        <v>1335</v>
+        <v>1329</v>
       </c>
       <c r="C372" t="s">
-        <v>1336</v>
+        <v>1328</v>
       </c>
       <c r="D372" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="E372">
-        <v>142</v>
+        <v>19</v>
       </c>
       <c r="F372" t="s">
-        <v>688</v>
+        <v>226</v>
       </c>
       <c r="G372">
-        <v>143</v>
+        <v>21</v>
       </c>
       <c r="J372">
-        <v>860</v>
+        <v>840</v>
       </c>
       <c r="K372">
         <v>0</v>
       </c>
       <c r="L372">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M372">
         <v>0</v>
       </c>
       <c r="N372" t="s">
-        <v>30</v>
+        <v>68</v>
       </c>
       <c r="O372">
-        <v>927</v>
+        <v>111</v>
       </c>
       <c r="P372" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="Q372" t="s">
-        <v>76</v>
+        <v>227</v>
       </c>
       <c r="R372" t="s">
-        <v>307</v>
+        <v>33</v>
       </c>
       <c r="T372">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U372">
         <v>0</v>
@@ -28780,48 +28774,60 @@
         <v>0</v>
       </c>
       <c r="W372" t="s">
-        <v>1337</v>
+        <v>1331</v>
       </c>
       <c r="X372" t="s">
-        <v>1338</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="373" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
-        <v>1339</v>
+        <v>1334</v>
       </c>
       <c r="B373" t="s">
-        <v>1340</v>
+        <v>1335</v>
       </c>
       <c r="C373" t="s">
-        <v>1341</v>
+        <v>1336</v>
       </c>
       <c r="D373" t="s">
-        <v>66</v>
+        <v>39</v>
       </c>
       <c r="E373">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="F373" t="s">
-        <v>74</v>
+        <v>688</v>
       </c>
       <c r="G373">
-        <v>39</v>
+        <v>143</v>
       </c>
       <c r="J373">
-        <v>336</v>
+        <v>860</v>
       </c>
       <c r="K373">
         <v>0</v>
       </c>
       <c r="L373">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M373">
         <v>0</v>
       </c>
       <c r="N373" t="s">
-        <v>68</v>
+        <v>30</v>
+      </c>
+      <c r="O373">
+        <v>927</v>
+      </c>
+      <c r="P373" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q373" t="s">
+        <v>76</v>
+      </c>
+      <c r="R373" t="s">
+        <v>307</v>
       </c>
       <c r="T373">
         <v>0</v>
@@ -28833,10 +28839,10 @@
         <v>0</v>
       </c>
       <c r="W373" t="s">
-        <v>1342</v>
+        <v>1337</v>
       </c>
       <c r="X373" t="s">
-        <v>1343</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="374" spans="1:24" x14ac:dyDescent="0.25">
@@ -28847,7 +28853,7 @@
         <v>1340</v>
       </c>
       <c r="C374" t="s">
-        <v>1344</v>
+        <v>1341</v>
       </c>
       <c r="D374" t="s">
         <v>66</v>
@@ -28900,7 +28906,7 @@
         <v>1340</v>
       </c>
       <c r="C375" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="D375" t="s">
         <v>66</v>
@@ -28947,34 +28953,28 @@
     </row>
     <row r="376" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
-        <v>1346</v>
+        <v>1339</v>
       </c>
       <c r="B376" t="s">
-        <v>1347</v>
+        <v>1340</v>
       </c>
       <c r="C376" t="s">
-        <v>1348</v>
+        <v>1345</v>
       </c>
       <c r="D376" t="s">
-        <v>27</v>
+        <v>66</v>
       </c>
       <c r="E376">
-        <v>19</v>
+        <v>150</v>
       </c>
       <c r="F376" t="s">
-        <v>28</v>
+        <v>74</v>
       </c>
       <c r="G376">
-        <v>419</v>
-      </c>
-      <c r="H376" t="s">
-        <v>29</v>
-      </c>
-      <c r="I376">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="J376">
-        <v>670</v>
+        <v>336</v>
       </c>
       <c r="K376">
         <v>0</v>
@@ -28983,22 +28983,10 @@
         <v>0</v>
       </c>
       <c r="M376">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N376" t="s">
-        <v>30</v>
-      </c>
-      <c r="O376">
-        <v>364</v>
-      </c>
-      <c r="P376" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q376" t="s">
-        <v>32</v>
-      </c>
-      <c r="R376" t="s">
-        <v>307</v>
+        <v>68</v>
       </c>
       <c r="T376">
         <v>0</v>
@@ -29010,10 +28998,10 @@
         <v>0</v>
       </c>
       <c r="W376" t="s">
-        <v>1349</v>
+        <v>1342</v>
       </c>
       <c r="X376" t="s">
-        <v>1350</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="377" spans="1:24" x14ac:dyDescent="0.25">
@@ -29024,7 +29012,7 @@
         <v>1347</v>
       </c>
       <c r="C377" t="s">
-        <v>1351</v>
+        <v>1348</v>
       </c>
       <c r="D377" t="s">
         <v>27</v>
@@ -29095,7 +29083,7 @@
         <v>1347</v>
       </c>
       <c r="C378" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="D378" t="s">
         <v>27</v>
@@ -29166,7 +29154,7 @@
         <v>1347</v>
       </c>
       <c r="C379" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="D379" t="s">
         <v>27</v>
@@ -29231,13 +29219,13 @@
     </row>
     <row r="380" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
-        <v>1354</v>
+        <v>1346</v>
       </c>
       <c r="B380" t="s">
-        <v>1355</v>
+        <v>1347</v>
       </c>
       <c r="C380" t="s">
-        <v>1356</v>
+        <v>1353</v>
       </c>
       <c r="D380" t="s">
         <v>27</v>
@@ -29252,13 +29240,13 @@
         <v>419</v>
       </c>
       <c r="H380" t="s">
-        <v>100</v>
+        <v>29</v>
       </c>
       <c r="I380">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="J380">
-        <v>862</v>
+        <v>670</v>
       </c>
       <c r="K380">
         <v>0</v>
@@ -29267,13 +29255,13 @@
         <v>0</v>
       </c>
       <c r="M380">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N380" t="s">
         <v>30</v>
       </c>
       <c r="O380">
-        <v>299</v>
+        <v>364</v>
       </c>
       <c r="P380" t="s">
         <v>75</v>
@@ -29282,7 +29270,7 @@
         <v>32</v>
       </c>
       <c r="R380" t="s">
-        <v>55</v>
+        <v>307</v>
       </c>
       <c r="T380">
         <v>0</v>
@@ -29294,10 +29282,10 @@
         <v>0</v>
       </c>
       <c r="W380" t="s">
-        <v>1357</v>
+        <v>1349</v>
       </c>
       <c r="X380" t="s">
-        <v>1358</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="381" spans="1:24" x14ac:dyDescent="0.25">
@@ -29308,7 +29296,7 @@
         <v>1355</v>
       </c>
       <c r="C381" t="s">
-        <v>1359</v>
+        <v>1356</v>
       </c>
       <c r="D381" t="s">
         <v>27</v>
@@ -29379,7 +29367,7 @@
         <v>1355</v>
       </c>
       <c r="C382" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="D382" t="s">
         <v>27</v>
@@ -29450,7 +29438,7 @@
         <v>1355</v>
       </c>
       <c r="C383" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="D383" t="s">
         <v>27</v>
@@ -29521,7 +29509,7 @@
         <v>1355</v>
       </c>
       <c r="C384" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="D384" t="s">
         <v>27</v>
@@ -29586,13 +29574,13 @@
     </row>
     <row r="385" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
-        <v>1363</v>
+        <v>1354</v>
       </c>
       <c r="B385" t="s">
-        <v>1364</v>
+        <v>1355</v>
       </c>
       <c r="C385" t="s">
-        <v>1365</v>
+        <v>1362</v>
       </c>
       <c r="D385" t="s">
         <v>27</v>
@@ -29607,13 +29595,13 @@
         <v>419</v>
       </c>
       <c r="H385" t="s">
-        <v>29</v>
+        <v>100</v>
       </c>
       <c r="I385">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="J385">
-        <v>92</v>
+        <v>862</v>
       </c>
       <c r="K385">
         <v>0</v>
@@ -29622,19 +29610,22 @@
         <v>0</v>
       </c>
       <c r="M385">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N385" t="s">
         <v>30</v>
       </c>
+      <c r="O385">
+        <v>299</v>
+      </c>
       <c r="P385" t="s">
-        <v>31</v>
+        <v>75</v>
       </c>
       <c r="Q385" t="s">
         <v>32</v>
       </c>
       <c r="R385" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="T385">
         <v>0</v>
@@ -29646,10 +29637,10 @@
         <v>0</v>
       </c>
       <c r="W385" t="s">
-        <v>1366</v>
+        <v>1357</v>
       </c>
       <c r="X385" t="s">
-        <v>1367</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="386" spans="1:24" x14ac:dyDescent="0.25">
@@ -29660,7 +29651,7 @@
         <v>1364</v>
       </c>
       <c r="C386" t="s">
-        <v>1368</v>
+        <v>1365</v>
       </c>
       <c r="D386" t="s">
         <v>27</v>
@@ -29722,13 +29713,13 @@
     </row>
     <row r="387" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
-        <v>1369</v>
+        <v>1363</v>
       </c>
       <c r="B387" t="s">
-        <v>1370</v>
+        <v>1364</v>
       </c>
       <c r="C387" t="s">
-        <v>1371</v>
+        <v>1368</v>
       </c>
       <c r="D387" t="s">
         <v>27</v>
@@ -29749,7 +29740,7 @@
         <v>29</v>
       </c>
       <c r="J387">
-        <v>850</v>
+        <v>92</v>
       </c>
       <c r="K387">
         <v>0</v>
@@ -29782,10 +29773,10 @@
         <v>0</v>
       </c>
       <c r="W387" t="s">
-        <v>1372</v>
+        <v>1366</v>
       </c>
       <c r="X387" t="s">
-        <v>1373</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="388" spans="1:24" x14ac:dyDescent="0.25">
@@ -29796,7 +29787,7 @@
         <v>1370</v>
       </c>
       <c r="C388" t="s">
-        <v>1374</v>
+        <v>1371</v>
       </c>
       <c r="D388" t="s">
         <v>27</v>
@@ -29864,7 +29855,7 @@
         <v>1370</v>
       </c>
       <c r="C389" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="D389" t="s">
         <v>27</v>
@@ -29926,28 +29917,34 @@
     </row>
     <row r="390" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
-        <v>1376</v>
+        <v>1369</v>
       </c>
       <c r="B390" t="s">
-        <v>1377</v>
+        <v>1370</v>
       </c>
       <c r="C390" t="s">
-        <v>1378</v>
+        <v>1375</v>
       </c>
       <c r="D390" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="E390">
-        <v>142</v>
+        <v>19</v>
       </c>
       <c r="F390" t="s">
-        <v>249</v>
+        <v>28</v>
       </c>
       <c r="G390">
-        <v>35</v>
+        <v>419</v>
+      </c>
+      <c r="H390" t="s">
+        <v>29</v>
+      </c>
+      <c r="I390">
+        <v>29</v>
       </c>
       <c r="J390">
-        <v>704</v>
+        <v>850</v>
       </c>
       <c r="K390">
         <v>0</v>
@@ -29956,22 +29953,19 @@
         <v>0</v>
       </c>
       <c r="M390">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N390" t="s">
         <v>30</v>
       </c>
-      <c r="O390">
-        <v>582</v>
-      </c>
       <c r="P390" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="Q390" t="s">
-        <v>114</v>
+        <v>32</v>
       </c>
       <c r="R390" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="T390">
         <v>0</v>
@@ -29983,10 +29977,10 @@
         <v>0</v>
       </c>
       <c r="W390" t="s">
-        <v>1379</v>
+        <v>1372</v>
       </c>
       <c r="X390" t="s">
-        <v>1380</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="391" spans="1:24" x14ac:dyDescent="0.25">
@@ -29997,7 +29991,7 @@
         <v>1377</v>
       </c>
       <c r="C391" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
       <c r="D391" t="s">
         <v>39</v>
@@ -30056,43 +30050,43 @@
     </row>
     <row r="392" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
-        <v>1382</v>
+        <v>1376</v>
       </c>
       <c r="B392" t="s">
-        <v>1383</v>
+        <v>1377</v>
       </c>
       <c r="C392" t="s">
-        <v>1384</v>
+        <v>1381</v>
       </c>
       <c r="D392" t="s">
-        <v>112</v>
+        <v>39</v>
       </c>
       <c r="E392">
-        <v>9</v>
+        <v>142</v>
       </c>
       <c r="F392" t="s">
-        <v>460</v>
+        <v>249</v>
       </c>
       <c r="G392">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="J392">
-        <v>548</v>
+        <v>704</v>
       </c>
       <c r="K392">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L392">
         <v>0</v>
       </c>
       <c r="M392">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N392" t="s">
         <v>30</v>
       </c>
       <c r="O392">
-        <v>846</v>
+        <v>582</v>
       </c>
       <c r="P392" t="s">
         <v>54</v>
@@ -30101,7 +30095,7 @@
         <v>114</v>
       </c>
       <c r="R392" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="T392">
         <v>0</v>
@@ -30113,21 +30107,21 @@
         <v>0</v>
       </c>
       <c r="W392" t="s">
-        <v>1385</v>
+        <v>1379</v>
       </c>
       <c r="X392" t="s">
-        <v>1386</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="393" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
-        <v>1387</v>
+        <v>1382</v>
       </c>
       <c r="B393" t="s">
-        <v>1388</v>
+        <v>1383</v>
       </c>
       <c r="C393" t="s">
-        <v>1389</v>
+        <v>1384</v>
       </c>
       <c r="D393" t="s">
         <v>112</v>
@@ -30136,26 +30130,38 @@
         <v>9</v>
       </c>
       <c r="F393" t="s">
-        <v>113</v>
+        <v>460</v>
       </c>
       <c r="G393">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="J393">
-        <v>876</v>
+        <v>548</v>
       </c>
       <c r="K393">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L393">
         <v>0</v>
       </c>
       <c r="M393">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N393" t="s">
         <v>30</v>
       </c>
+      <c r="O393">
+        <v>846</v>
+      </c>
+      <c r="P393" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q393" t="s">
+        <v>114</v>
+      </c>
+      <c r="R393" t="s">
+        <v>43</v>
+      </c>
       <c r="T393">
         <v>0</v>
       </c>
@@ -30166,10 +30172,10 @@
         <v>0</v>
       </c>
       <c r="W393" t="s">
-        <v>1390</v>
+        <v>1385</v>
       </c>
       <c r="X393" t="s">
-        <v>1391</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="394" spans="1:24" x14ac:dyDescent="0.25">
@@ -30180,7 +30186,7 @@
         <v>1388</v>
       </c>
       <c r="C394" t="s">
-        <v>1392</v>
+        <v>1389</v>
       </c>
       <c r="D394" t="s">
         <v>112</v>
@@ -30233,7 +30239,7 @@
         <v>1388</v>
       </c>
       <c r="C395" t="s">
-        <v>1445</v>
+        <v>1392</v>
       </c>
       <c r="D395" t="s">
         <v>112</v>
@@ -30280,13 +30286,13 @@
     </row>
     <row r="396" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
-        <v>1393</v>
+        <v>1387</v>
       </c>
       <c r="B396" t="s">
-        <v>1394</v>
+        <v>1388</v>
       </c>
       <c r="C396" t="s">
-        <v>1395</v>
+        <v>1445</v>
       </c>
       <c r="D396" t="s">
         <v>112</v>
@@ -30301,7 +30307,7 @@
         <v>61</v>
       </c>
       <c r="J396">
-        <v>882</v>
+        <v>876</v>
       </c>
       <c r="K396">
         <v>0</v>
@@ -30310,23 +30316,11 @@
         <v>0</v>
       </c>
       <c r="M396">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N396" t="s">
         <v>30</v>
       </c>
-      <c r="O396">
-        <v>862</v>
-      </c>
-      <c r="P396" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q396" t="s">
-        <v>114</v>
-      </c>
-      <c r="R396" t="s">
-        <v>43</v>
-      </c>
       <c r="T396">
         <v>0</v>
       </c>
@@ -30337,57 +30331,57 @@
         <v>0</v>
       </c>
       <c r="W396" t="s">
-        <v>1396</v>
+        <v>1390</v>
       </c>
       <c r="X396" t="s">
-        <v>1397</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="397" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
-        <v>1398</v>
+        <v>1393</v>
       </c>
       <c r="B397" t="s">
-        <v>1399</v>
+        <v>1394</v>
       </c>
       <c r="C397" t="s">
-        <v>1400</v>
+        <v>1395</v>
       </c>
       <c r="D397" t="s">
-        <v>39</v>
+        <v>112</v>
       </c>
       <c r="E397">
-        <v>142</v>
+        <v>9</v>
       </c>
       <c r="F397" t="s">
-        <v>91</v>
+        <v>113</v>
       </c>
       <c r="G397">
-        <v>145</v>
+        <v>61</v>
       </c>
       <c r="J397">
-        <v>887</v>
+        <v>882</v>
       </c>
       <c r="K397">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L397">
         <v>0</v>
       </c>
       <c r="M397">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N397" t="s">
         <v>30</v>
       </c>
       <c r="O397">
-        <v>474</v>
+        <v>862</v>
       </c>
       <c r="P397" t="s">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="Q397" t="s">
-        <v>92</v>
+        <v>114</v>
       </c>
       <c r="R397" t="s">
         <v>43</v>
@@ -30399,13 +30393,13 @@
         <v>0</v>
       </c>
       <c r="V397">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W397" t="s">
-        <v>1401</v>
+        <v>1396</v>
       </c>
       <c r="X397" t="s">
-        <v>1402</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="398" spans="1:24" x14ac:dyDescent="0.25">
@@ -30416,7 +30410,7 @@
         <v>1399</v>
       </c>
       <c r="C398" t="s">
-        <v>1403</v>
+        <v>1400</v>
       </c>
       <c r="D398" t="s">
         <v>39</v>
@@ -30481,7 +30475,7 @@
         <v>1399</v>
       </c>
       <c r="C399" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="D399" t="s">
         <v>39</v>
@@ -30540,37 +30534,31 @@
     </row>
     <row r="400" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
-        <v>1405</v>
+        <v>1398</v>
       </c>
       <c r="B400" t="s">
-        <v>1406</v>
+        <v>1399</v>
       </c>
       <c r="C400" t="s">
-        <v>1407</v>
+        <v>1404</v>
       </c>
       <c r="D400" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="E400">
-        <v>2</v>
+        <v>142</v>
       </c>
       <c r="F400" t="s">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="G400">
-        <v>202</v>
-      </c>
-      <c r="H400" t="s">
-        <v>264</v>
-      </c>
-      <c r="I400">
-        <v>18</v>
+        <v>145</v>
       </c>
       <c r="J400">
-        <v>710</v>
+        <v>887</v>
       </c>
       <c r="K400">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L400">
         <v>0</v>
@@ -30582,16 +30570,16 @@
         <v>30</v>
       </c>
       <c r="O400">
-        <v>199</v>
+        <v>474</v>
       </c>
       <c r="P400" t="s">
-        <v>75</v>
+        <v>41</v>
       </c>
       <c r="Q400" t="s">
-        <v>52</v>
+        <v>92</v>
       </c>
       <c r="R400" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="T400">
         <v>0</v>
@@ -30600,24 +30588,24 @@
         <v>0</v>
       </c>
       <c r="V400">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W400" t="s">
-        <v>1408</v>
+        <v>1401</v>
       </c>
       <c r="X400" t="s">
-        <v>1409</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="401" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
-        <v>1410</v>
+        <v>1405</v>
       </c>
       <c r="B401" t="s">
-        <v>1411</v>
+        <v>1406</v>
       </c>
       <c r="C401" t="s">
-        <v>1412</v>
+        <v>1407</v>
       </c>
       <c r="D401" t="s">
         <v>51</v>
@@ -30632,19 +30620,19 @@
         <v>202</v>
       </c>
       <c r="H401" t="s">
-        <v>125</v>
+        <v>264</v>
       </c>
       <c r="I401">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="J401">
-        <v>894</v>
+        <v>710</v>
       </c>
       <c r="K401">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L401">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M401">
         <v>0</v>
@@ -30653,19 +30641,16 @@
         <v>30</v>
       </c>
       <c r="O401">
-        <v>754</v>
+        <v>199</v>
       </c>
       <c r="P401" t="s">
-        <v>54</v>
+        <v>75</v>
       </c>
       <c r="Q401" t="s">
         <v>52</v>
       </c>
       <c r="R401" t="s">
-        <v>43</v>
-      </c>
-      <c r="S401" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="T401">
         <v>0</v>
@@ -30677,21 +30662,21 @@
         <v>0</v>
       </c>
       <c r="W401" t="s">
-        <v>1413</v>
+        <v>1408</v>
       </c>
       <c r="X401" t="s">
-        <v>1414</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="402" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
-        <v>1415</v>
+        <v>1410</v>
       </c>
       <c r="B402" t="s">
-        <v>1416</v>
+        <v>1411</v>
       </c>
       <c r="C402" t="s">
-        <v>1417</v>
+        <v>1412</v>
       </c>
       <c r="D402" t="s">
         <v>51</v>
@@ -30712,10 +30697,10 @@
         <v>14</v>
       </c>
       <c r="J402">
-        <v>716</v>
+        <v>894</v>
       </c>
       <c r="K402">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L402">
         <v>1</v>
@@ -30727,82 +30712,156 @@
         <v>30</v>
       </c>
       <c r="O402">
-        <v>698</v>
+        <v>754</v>
       </c>
       <c r="P402" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="Q402" t="s">
         <v>52</v>
       </c>
       <c r="R402" t="s">
+        <v>43</v>
+      </c>
+      <c r="S402" t="s">
+        <v>44</v>
+      </c>
+      <c r="T402">
+        <v>0</v>
+      </c>
+      <c r="U402">
+        <v>0</v>
+      </c>
+      <c r="V402">
+        <v>0</v>
+      </c>
+      <c r="W402" t="s">
+        <v>1413</v>
+      </c>
+      <c r="X402" t="s">
+        <v>1414</v>
+      </c>
+    </row>
+    <row r="403" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A403" t="s">
+        <v>1415</v>
+      </c>
+      <c r="B403" t="s">
+        <v>1416</v>
+      </c>
+      <c r="C403" t="s">
+        <v>1417</v>
+      </c>
+      <c r="D403" t="s">
+        <v>51</v>
+      </c>
+      <c r="E403">
+        <v>2</v>
+      </c>
+      <c r="F403" t="s">
+        <v>52</v>
+      </c>
+      <c r="G403">
+        <v>202</v>
+      </c>
+      <c r="H403" t="s">
+        <v>125</v>
+      </c>
+      <c r="I403">
+        <v>14</v>
+      </c>
+      <c r="J403">
+        <v>716</v>
+      </c>
+      <c r="K403">
+        <v>0</v>
+      </c>
+      <c r="L403">
+        <v>1</v>
+      </c>
+      <c r="M403">
+        <v>0</v>
+      </c>
+      <c r="N403" t="s">
+        <v>30</v>
+      </c>
+      <c r="O403">
+        <v>698</v>
+      </c>
+      <c r="P403" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q403" t="s">
+        <v>52</v>
+      </c>
+      <c r="R403" t="s">
         <v>307</v>
       </c>
-      <c r="T402">
-        <v>0</v>
-      </c>
-      <c r="U402">
-        <v>0</v>
-      </c>
-      <c r="V402">
-        <v>0</v>
-      </c>
-      <c r="W402" t="s">
+      <c r="T403">
+        <v>0</v>
+      </c>
+      <c r="U403">
+        <v>0</v>
+      </c>
+      <c r="V403">
+        <v>0</v>
+      </c>
+      <c r="W403" t="s">
         <v>1418</v>
       </c>
-      <c r="X402" t="s">
+      <c r="X403" t="s">
         <v>1419</v>
       </c>
     </row>
-    <row r="403" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="C403" t="s">
+    <row r="404" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="C404" t="s">
         <v>1420</v>
       </c>
-      <c r="D403" t="s">
+      <c r="D404" t="s">
         <v>66</v>
       </c>
-      <c r="E403">
+      <c r="E404">
         <v>150</v>
       </c>
-      <c r="F403" t="s">
+      <c r="F404" t="s">
         <v>67</v>
       </c>
-      <c r="G403">
+      <c r="G404">
         <v>154</v>
       </c>
-      <c r="H403" t="s">
+      <c r="H404" t="s">
         <v>508</v>
       </c>
-      <c r="I403">
+      <c r="I404">
         <v>830</v>
       </c>
-      <c r="J403">
+      <c r="J404">
         <v>680</v>
       </c>
-      <c r="K403">
-        <v>0</v>
-      </c>
-      <c r="L403">
-        <v>0</v>
-      </c>
-      <c r="M403">
-        <v>0</v>
-      </c>
-      <c r="N403" t="s">
+      <c r="K404">
+        <v>0</v>
+      </c>
+      <c r="L404">
+        <v>0</v>
+      </c>
+      <c r="M404">
+        <v>0</v>
+      </c>
+      <c r="N404" t="s">
         <v>68</v>
       </c>
-      <c r="T403">
-        <v>0</v>
-      </c>
-      <c r="U403">
-        <v>0</v>
-      </c>
-      <c r="V403">
+      <c r="T404">
+        <v>0</v>
+      </c>
+      <c r="U404">
+        <v>0</v>
+      </c>
+      <c r="V404">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:X403"/>
+  <autoFilter ref="A1:X404"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>

--- a/Codes_Masterlist.xlsx
+++ b/Codes_Masterlist.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alice\Box Sync\PhD\Software\Codes-Masterlist\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\boxsync\alepissier\PhD\Software\Codes-Masterlist\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76C6A4DC-E85E-44A1-BA74-449720AD24E1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31910" yWindow="-90" windowWidth="16980" windowHeight="10080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31905" yWindow="-90" windowWidth="16980" windowHeight="10080"/>
   </bookViews>
   <sheets>
     <sheet name="Codes" sheetId="1" r:id="rId1"/>
@@ -18,14 +17,14 @@
     <sheet name="World_Bank_Groupings" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Codes!$A$1:$X$428</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Codes!$A$1:$Y$428</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4734" uniqueCount="1488">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4735" uniqueCount="1489">
   <si>
     <t>ISO3166.3</t>
   </si>
@@ -4489,12 +4488,15 @@
   </si>
   <si>
     <t>Grenadines</t>
+  </si>
+  <si>
+    <t>Commonwealth</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -4828,17 +4830,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X428"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Y428"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="44.6796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="22" width="9.140625" customWidth="1"/>
+    <col min="23" max="23" width="17.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4906,13 +4910,16 @@
         <v>21</v>
       </c>
       <c r="W1" s="1" t="s">
+        <v>1488</v>
+      </c>
+      <c r="X1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>24</v>
       </c>
@@ -4973,14 +4980,17 @@
       <c r="V2">
         <v>0</v>
       </c>
-      <c r="W2" t="s">
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2" t="s">
         <v>34</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>36</v>
       </c>
@@ -5041,14 +5051,17 @@
       <c r="V3">
         <v>0</v>
       </c>
-      <c r="W3" t="s">
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3" t="s">
         <v>45</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>36</v>
       </c>
@@ -5109,14 +5122,17 @@
       <c r="V4">
         <v>0</v>
       </c>
-      <c r="W4" t="s">
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4" t="s">
         <v>45</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>48</v>
       </c>
@@ -5180,14 +5196,17 @@
       <c r="V5">
         <v>0</v>
       </c>
-      <c r="W5" t="s">
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5" t="s">
         <v>56</v>
       </c>
-      <c r="X5" t="s">
+      <c r="Y5" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>58</v>
       </c>
@@ -5195,7 +5214,7 @@
         <v>59</v>
       </c>
       <c r="C6" t="s">
-        <v>60</v>
+        <v>1443</v>
       </c>
       <c r="D6" t="s">
         <v>27</v>
@@ -5239,14 +5258,17 @@
       <c r="V6">
         <v>0</v>
       </c>
-      <c r="W6" t="s">
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6" t="s">
         <v>61</v>
       </c>
-      <c r="X6" t="s">
+      <c r="Y6" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>58</v>
       </c>
@@ -5254,7 +5276,7 @@
         <v>59</v>
       </c>
       <c r="C7" t="s">
-        <v>1443</v>
+        <v>60</v>
       </c>
       <c r="D7" t="s">
         <v>27</v>
@@ -5298,14 +5320,17 @@
       <c r="V7">
         <v>0</v>
       </c>
-      <c r="W7" t="s">
+      <c r="W7">
+        <v>0</v>
+      </c>
+      <c r="X7" t="s">
         <v>61</v>
       </c>
-      <c r="X7" t="s">
+      <c r="Y7" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>63</v>
       </c>
@@ -5351,14 +5376,17 @@
       <c r="V8">
         <v>0</v>
       </c>
-      <c r="W8" t="s">
+      <c r="W8">
+        <v>0</v>
+      </c>
+      <c r="X8" t="s">
         <v>69</v>
       </c>
-      <c r="X8" t="s">
+      <c r="Y8" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>71</v>
       </c>
@@ -5416,14 +5444,17 @@
       <c r="V9">
         <v>0</v>
       </c>
-      <c r="W9" t="s">
+      <c r="W9">
+        <v>0</v>
+      </c>
+      <c r="X9" t="s">
         <v>77</v>
       </c>
-      <c r="X9" t="s">
+      <c r="Y9" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>79</v>
       </c>
@@ -5478,14 +5509,17 @@
       <c r="V10">
         <v>0</v>
       </c>
-      <c r="W10" t="s">
+      <c r="W10">
+        <v>0</v>
+      </c>
+      <c r="X10" t="s">
         <v>82</v>
       </c>
-      <c r="X10" t="s">
+      <c r="Y10" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>84</v>
       </c>
@@ -5504,8 +5538,11 @@
       <c r="V11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.75">
+      <c r="W11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>84</v>
       </c>
@@ -5524,8 +5561,11 @@
       <c r="V12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.75">
+      <c r="W12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>88</v>
       </c>
@@ -5583,14 +5623,17 @@
       <c r="V13">
         <v>1</v>
       </c>
-      <c r="W13" t="s">
+      <c r="W13">
+        <v>0</v>
+      </c>
+      <c r="X13" t="s">
         <v>93</v>
       </c>
-      <c r="X13" t="s">
+      <c r="Y13" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>88</v>
       </c>
@@ -5648,14 +5691,17 @@
       <c r="V14">
         <v>1</v>
       </c>
-      <c r="W14" t="s">
+      <c r="W14">
+        <v>0</v>
+      </c>
+      <c r="X14" t="s">
         <v>93</v>
       </c>
-      <c r="X14" t="s">
+      <c r="Y14" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>88</v>
       </c>
@@ -5713,14 +5759,17 @@
       <c r="V15">
         <v>1</v>
       </c>
-      <c r="W15" t="s">
+      <c r="W15">
+        <v>0</v>
+      </c>
+      <c r="X15" t="s">
         <v>93</v>
       </c>
-      <c r="X15" t="s">
+      <c r="Y15" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>97</v>
       </c>
@@ -5784,14 +5833,17 @@
       <c r="V16">
         <v>0</v>
       </c>
-      <c r="W16" t="s">
+      <c r="W16">
+        <v>0</v>
+      </c>
+      <c r="X16" t="s">
         <v>101</v>
       </c>
-      <c r="X16" t="s">
+      <c r="Y16" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>103</v>
       </c>
@@ -5849,14 +5901,17 @@
       <c r="V17">
         <v>0</v>
       </c>
-      <c r="W17" t="s">
+      <c r="W17">
+        <v>0</v>
+      </c>
+      <c r="X17" t="s">
         <v>106</v>
       </c>
-      <c r="X17" t="s">
+      <c r="Y17" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>103</v>
       </c>
@@ -5914,14 +5969,17 @@
       <c r="V18">
         <v>0</v>
       </c>
-      <c r="W18" t="s">
+      <c r="W18">
+        <v>0</v>
+      </c>
+      <c r="X18" t="s">
         <v>106</v>
       </c>
-      <c r="X18" t="s">
+      <c r="Y18" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>109</v>
       </c>
@@ -5976,14 +6034,17 @@
       <c r="V19">
         <v>0</v>
       </c>
-      <c r="W19" t="s">
+      <c r="W19">
+        <v>0</v>
+      </c>
+      <c r="X19" t="s">
         <v>115</v>
       </c>
-      <c r="X19" t="s">
+      <c r="Y19" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>117</v>
       </c>
@@ -6014,14 +6075,17 @@
       <c r="V20">
         <v>0</v>
       </c>
-      <c r="W20" t="s">
+      <c r="W20">
+        <v>0</v>
+      </c>
+      <c r="X20" t="s">
         <v>120</v>
       </c>
-      <c r="X20" t="s">
+      <c r="Y20" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>117</v>
       </c>
@@ -6052,14 +6116,17 @@
       <c r="V21">
         <v>0</v>
       </c>
-      <c r="W21" t="s">
+      <c r="W21">
+        <v>0</v>
+      </c>
+      <c r="X21" t="s">
         <v>120</v>
       </c>
-      <c r="X21" t="s">
+      <c r="Y21" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>122</v>
       </c>
@@ -6067,7 +6134,7 @@
         <v>123</v>
       </c>
       <c r="C22" t="s">
-        <v>124</v>
+        <v>1453</v>
       </c>
       <c r="D22" t="s">
         <v>51</v>
@@ -6111,14 +6178,17 @@
       <c r="V22">
         <v>0</v>
       </c>
-      <c r="W22" t="s">
+      <c r="W22">
+        <v>0</v>
+      </c>
+      <c r="X22" t="s">
         <v>126</v>
       </c>
-      <c r="X22" t="s">
+      <c r="Y22" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>122</v>
       </c>
@@ -6126,7 +6196,7 @@
         <v>123</v>
       </c>
       <c r="C23" t="s">
-        <v>1453</v>
+        <v>124</v>
       </c>
       <c r="D23" t="s">
         <v>51</v>
@@ -6170,14 +6240,17 @@
       <c r="V23">
         <v>0</v>
       </c>
-      <c r="W23" t="s">
+      <c r="W23">
+        <v>0</v>
+      </c>
+      <c r="X23" t="s">
         <v>126</v>
       </c>
-      <c r="X23" t="s">
+      <c r="Y23" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>128</v>
       </c>
@@ -6185,7 +6258,7 @@
         <v>129</v>
       </c>
       <c r="C24" t="s">
-        <v>130</v>
+        <v>1465</v>
       </c>
       <c r="D24" t="s">
         <v>27</v>
@@ -6241,14 +6314,17 @@
       <c r="V24">
         <v>0</v>
       </c>
-      <c r="W24" t="s">
+      <c r="W24">
+        <v>1</v>
+      </c>
+      <c r="X24" t="s">
         <v>131</v>
       </c>
-      <c r="X24" t="s">
+      <c r="Y24" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>128</v>
       </c>
@@ -6256,7 +6332,7 @@
         <v>129</v>
       </c>
       <c r="C25" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D25" t="s">
         <v>27</v>
@@ -6312,14 +6388,17 @@
       <c r="V25">
         <v>0</v>
       </c>
-      <c r="W25" t="s">
+      <c r="W25">
+        <v>1</v>
+      </c>
+      <c r="X25" t="s">
         <v>131</v>
       </c>
-      <c r="X25" t="s">
+      <c r="Y25" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>128</v>
       </c>
@@ -6327,7 +6406,7 @@
         <v>129</v>
       </c>
       <c r="C26" t="s">
-        <v>1465</v>
+        <v>133</v>
       </c>
       <c r="D26" t="s">
         <v>27</v>
@@ -6383,14 +6462,17 @@
       <c r="V26">
         <v>0</v>
       </c>
-      <c r="W26" t="s">
+      <c r="W26">
+        <v>1</v>
+      </c>
+      <c r="X26" t="s">
         <v>131</v>
       </c>
-      <c r="X26" t="s">
+      <c r="Y26" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>128</v>
       </c>
@@ -6454,14 +6536,17 @@
       <c r="V27">
         <v>0</v>
       </c>
-      <c r="W27" t="s">
+      <c r="W27">
+        <v>1</v>
+      </c>
+      <c r="X27" t="s">
         <v>131</v>
       </c>
-      <c r="X27" t="s">
+      <c r="Y27" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>134</v>
       </c>
@@ -6519,14 +6604,17 @@
       <c r="V28">
         <v>0</v>
       </c>
-      <c r="W28" t="s">
+      <c r="W28">
+        <v>1</v>
+      </c>
+      <c r="X28" t="s">
         <v>138</v>
       </c>
-      <c r="X28" t="s">
+      <c r="Y28" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>140</v>
       </c>
@@ -6587,14 +6675,17 @@
       <c r="V29">
         <v>0</v>
       </c>
-      <c r="W29" t="s">
+      <c r="W29">
+        <v>0</v>
+      </c>
+      <c r="X29" t="s">
         <v>145</v>
       </c>
-      <c r="X29" t="s">
+      <c r="Y29" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>147</v>
       </c>
@@ -6652,14 +6743,17 @@
       <c r="V30">
         <v>0</v>
       </c>
-      <c r="W30" t="s">
+      <c r="W30">
+        <v>0</v>
+      </c>
+      <c r="X30" t="s">
         <v>150</v>
       </c>
-      <c r="X30" t="s">
+      <c r="Y30" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>147</v>
       </c>
@@ -6717,14 +6811,17 @@
       <c r="V31">
         <v>0</v>
       </c>
-      <c r="W31" t="s">
+      <c r="W31">
+        <v>0</v>
+      </c>
+      <c r="X31" t="s">
         <v>150</v>
       </c>
-      <c r="X31" t="s">
+      <c r="Y31" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>153</v>
       </c>
@@ -6791,14 +6888,17 @@
       <c r="V32">
         <v>0</v>
       </c>
-      <c r="W32" t="s">
+      <c r="W32">
+        <v>0</v>
+      </c>
+      <c r="X32" t="s">
         <v>156</v>
       </c>
-      <c r="X32" t="s">
+      <c r="Y32" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>158</v>
       </c>
@@ -6859,14 +6959,17 @@
       <c r="V33">
         <v>0</v>
       </c>
-      <c r="W33" t="s">
+      <c r="W33">
+        <v>0</v>
+      </c>
+      <c r="X33" t="s">
         <v>161</v>
       </c>
-      <c r="X33" t="s">
+      <c r="Y33" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>163</v>
       </c>
@@ -6933,14 +7036,17 @@
       <c r="V34">
         <v>0</v>
       </c>
-      <c r="W34" t="s">
+      <c r="W34">
+        <v>0</v>
+      </c>
+      <c r="X34" t="s">
         <v>167</v>
       </c>
-      <c r="X34" t="s">
+      <c r="Y34" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>169</v>
       </c>
@@ -6992,8 +7098,11 @@
       <c r="V35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.75">
+      <c r="W35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>169</v>
       </c>
@@ -7001,7 +7110,7 @@
         <v>170</v>
       </c>
       <c r="C36" t="s">
-        <v>172</v>
+        <v>1459</v>
       </c>
       <c r="D36" t="s">
         <v>27</v>
@@ -7045,8 +7154,11 @@
       <c r="V36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.75">
+      <c r="W36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>169</v>
       </c>
@@ -7054,7 +7166,7 @@
         <v>170</v>
       </c>
       <c r="C37" t="s">
-        <v>1459</v>
+        <v>172</v>
       </c>
       <c r="D37" t="s">
         <v>27</v>
@@ -7098,8 +7210,11 @@
       <c r="V37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.75">
+      <c r="W37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>169</v>
       </c>
@@ -7107,7 +7222,7 @@
         <v>170</v>
       </c>
       <c r="C38" t="s">
-        <v>1476</v>
+        <v>1477</v>
       </c>
       <c r="D38" t="s">
         <v>27</v>
@@ -7151,8 +7266,11 @@
       <c r="V38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.75">
+      <c r="W38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>169</v>
       </c>
@@ -7160,7 +7278,7 @@
         <v>170</v>
       </c>
       <c r="C39" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="D39" t="s">
         <v>27</v>
@@ -7204,8 +7322,11 @@
       <c r="V39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.75">
+      <c r="W39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>173</v>
       </c>
@@ -7272,14 +7393,17 @@
       <c r="V40">
         <v>0</v>
       </c>
-      <c r="W40" t="s">
+      <c r="W40">
+        <v>0</v>
+      </c>
+      <c r="X40" t="s">
         <v>176</v>
       </c>
-      <c r="X40" t="s">
+      <c r="Y40" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>178</v>
       </c>
@@ -7337,14 +7461,17 @@
       <c r="V41">
         <v>0</v>
       </c>
-      <c r="W41" t="s">
+      <c r="W41">
+        <v>1</v>
+      </c>
+      <c r="X41" t="s">
         <v>181</v>
       </c>
-      <c r="X41" t="s">
+      <c r="Y41" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>183</v>
       </c>
@@ -7402,14 +7529,17 @@
       <c r="V42">
         <v>0</v>
       </c>
-      <c r="W42" t="s">
+      <c r="W42">
+        <v>0</v>
+      </c>
+      <c r="X42" t="s">
         <v>187</v>
       </c>
-      <c r="X42" t="s">
+      <c r="Y42" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>189</v>
       </c>
@@ -7467,14 +7597,17 @@
       <c r="V43">
         <v>1</v>
       </c>
-      <c r="W43" t="s">
+      <c r="W43">
+        <v>0</v>
+      </c>
+      <c r="X43" t="s">
         <v>192</v>
       </c>
-      <c r="X43" t="s">
+      <c r="Y43" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>189</v>
       </c>
@@ -7532,14 +7665,17 @@
       <c r="V44">
         <v>1</v>
       </c>
-      <c r="W44" t="s">
+      <c r="W44">
+        <v>0</v>
+      </c>
+      <c r="X44" t="s">
         <v>192</v>
       </c>
-      <c r="X44" t="s">
+      <c r="Y44" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>195</v>
       </c>
@@ -7603,14 +7739,17 @@
       <c r="V45">
         <v>0</v>
       </c>
-      <c r="W45" t="s">
+      <c r="W45">
+        <v>1</v>
+      </c>
+      <c r="X45" t="s">
         <v>198</v>
       </c>
-      <c r="X45" t="s">
+      <c r="Y45" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>195</v>
       </c>
@@ -7674,14 +7813,17 @@
       <c r="V46">
         <v>0</v>
       </c>
-      <c r="W46" t="s">
+      <c r="W46">
+        <v>1</v>
+      </c>
+      <c r="X46" t="s">
         <v>198</v>
       </c>
-      <c r="X46" t="s">
+      <c r="Y46" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>201</v>
       </c>
@@ -7739,14 +7881,17 @@
       <c r="V47">
         <v>0</v>
       </c>
-      <c r="W47" t="s">
+      <c r="W47">
+        <v>0</v>
+      </c>
+      <c r="X47" t="s">
         <v>204</v>
       </c>
-      <c r="X47" t="s">
+      <c r="Y47" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>201</v>
       </c>
@@ -7804,14 +7949,17 @@
       <c r="V48">
         <v>0</v>
       </c>
-      <c r="W48" t="s">
+      <c r="W48">
+        <v>0</v>
+      </c>
+      <c r="X48" t="s">
         <v>204</v>
       </c>
-      <c r="X48" t="s">
+      <c r="Y48" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="49" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>207</v>
       </c>
@@ -7819,7 +7967,7 @@
         <v>208</v>
       </c>
       <c r="C49" t="s">
-        <v>209</v>
+        <v>1460</v>
       </c>
       <c r="D49" t="s">
         <v>27</v>
@@ -7863,14 +8011,17 @@
       <c r="V49">
         <v>0</v>
       </c>
-      <c r="W49" t="s">
+      <c r="W49">
+        <v>0</v>
+      </c>
+      <c r="X49" t="s">
         <v>210</v>
       </c>
-      <c r="X49" t="s">
+      <c r="Y49" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="50" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>207</v>
       </c>
@@ -7878,7 +8029,7 @@
         <v>208</v>
       </c>
       <c r="C50" t="s">
-        <v>1460</v>
+        <v>1467</v>
       </c>
       <c r="D50" t="s">
         <v>27</v>
@@ -7922,14 +8073,17 @@
       <c r="V50">
         <v>0</v>
       </c>
-      <c r="W50" t="s">
+      <c r="W50">
+        <v>0</v>
+      </c>
+      <c r="X50" t="s">
         <v>210</v>
       </c>
-      <c r="X50" t="s">
+      <c r="Y50" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="51" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="51" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>207</v>
       </c>
@@ -7937,7 +8091,7 @@
         <v>208</v>
       </c>
       <c r="C51" t="s">
-        <v>1467</v>
+        <v>209</v>
       </c>
       <c r="D51" t="s">
         <v>27</v>
@@ -7981,14 +8135,17 @@
       <c r="V51">
         <v>0</v>
       </c>
-      <c r="W51" t="s">
+      <c r="W51">
+        <v>0</v>
+      </c>
+      <c r="X51" t="s">
         <v>210</v>
       </c>
-      <c r="X51" t="s">
+      <c r="Y51" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="52" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="52" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>212</v>
       </c>
@@ -8046,14 +8203,17 @@
       <c r="V52">
         <v>0</v>
       </c>
-      <c r="W52" t="s">
+      <c r="W52">
+        <v>0</v>
+      </c>
+      <c r="X52" t="s">
         <v>215</v>
       </c>
-      <c r="X52" t="s">
+      <c r="Y52" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="53" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="53" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>217</v>
       </c>
@@ -8117,14 +8277,17 @@
       <c r="V53">
         <v>0</v>
       </c>
-      <c r="W53" t="s">
+      <c r="W53">
+        <v>1</v>
+      </c>
+      <c r="X53" t="s">
         <v>221</v>
       </c>
-      <c r="X53" t="s">
+      <c r="Y53" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="54" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="54" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>223</v>
       </c>
@@ -8179,14 +8342,17 @@
       <c r="V54">
         <v>0</v>
       </c>
-      <c r="W54" t="s">
+      <c r="W54">
+        <v>0</v>
+      </c>
+      <c r="X54" t="s">
         <v>228</v>
       </c>
-      <c r="X54" t="s">
+      <c r="Y54" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="55" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="55" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>230</v>
       </c>
@@ -8253,14 +8419,17 @@
       <c r="V55">
         <v>0</v>
       </c>
-      <c r="W55" t="s">
+      <c r="W55">
+        <v>0</v>
+      </c>
+      <c r="X55" t="s">
         <v>233</v>
       </c>
-      <c r="X55" t="s">
+      <c r="Y55" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="56" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="56" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>230</v>
       </c>
@@ -8327,14 +8496,17 @@
       <c r="V56">
         <v>0</v>
       </c>
-      <c r="W56" t="s">
+      <c r="W56">
+        <v>0</v>
+      </c>
+      <c r="X56" t="s">
         <v>233</v>
       </c>
-      <c r="X56" t="s">
+      <c r="Y56" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="57" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="57" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>236</v>
       </c>
@@ -8398,14 +8570,17 @@
       <c r="V57">
         <v>0</v>
       </c>
-      <c r="W57" t="s">
+      <c r="W57">
+        <v>0</v>
+      </c>
+      <c r="X57" t="s">
         <v>239</v>
       </c>
-      <c r="X57" t="s">
+      <c r="Y57" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="58" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="58" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>241</v>
       </c>
@@ -8469,14 +8644,17 @@
       <c r="V58">
         <v>0</v>
       </c>
-      <c r="W58" t="s">
+      <c r="W58">
+        <v>1</v>
+      </c>
+      <c r="X58" t="s">
         <v>244</v>
       </c>
-      <c r="X58" t="s">
+      <c r="Y58" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="59" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="59" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>246</v>
       </c>
@@ -8534,14 +8712,17 @@
       <c r="V59">
         <v>0</v>
       </c>
-      <c r="W59" t="s">
+      <c r="W59">
+        <v>1</v>
+      </c>
+      <c r="X59" t="s">
         <v>250</v>
       </c>
-      <c r="X59" t="s">
+      <c r="Y59" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="60" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="60" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>246</v>
       </c>
@@ -8599,14 +8780,17 @@
       <c r="V60">
         <v>0</v>
       </c>
-      <c r="W60" t="s">
+      <c r="W60">
+        <v>1</v>
+      </c>
+      <c r="X60" t="s">
         <v>250</v>
       </c>
-      <c r="X60" t="s">
+      <c r="Y60" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="61" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="61" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>253</v>
       </c>
@@ -8664,14 +8848,17 @@
       <c r="V61">
         <v>0</v>
       </c>
-      <c r="W61" t="s">
+      <c r="W61">
+        <v>0</v>
+      </c>
+      <c r="X61" t="s">
         <v>256</v>
       </c>
-      <c r="X61" t="s">
+      <c r="Y61" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="62" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="62" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>258</v>
       </c>
@@ -8723,8 +8910,11 @@
       <c r="V62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:24" x14ac:dyDescent="0.75">
+      <c r="W62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>261</v>
       </c>
@@ -8788,14 +8978,17 @@
       <c r="V63">
         <v>0</v>
       </c>
-      <c r="W63" t="s">
+      <c r="W63">
+        <v>1</v>
+      </c>
+      <c r="X63" t="s">
         <v>265</v>
       </c>
-      <c r="X63" t="s">
+      <c r="Y63" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="64" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="64" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>267</v>
       </c>
@@ -8862,14 +9055,17 @@
       <c r="V64">
         <v>0</v>
       </c>
-      <c r="W64" t="s">
+      <c r="W64">
+        <v>0</v>
+      </c>
+      <c r="X64" t="s">
         <v>270</v>
       </c>
-      <c r="X64" t="s">
+      <c r="Y64" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="65" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="65" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>267</v>
       </c>
@@ -8936,14 +9132,17 @@
       <c r="V65">
         <v>0</v>
       </c>
-      <c r="W65" t="s">
+      <c r="W65">
+        <v>0</v>
+      </c>
+      <c r="X65" t="s">
         <v>270</v>
       </c>
-      <c r="X65" t="s">
+      <c r="Y65" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="66" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="66" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>273</v>
       </c>
@@ -9001,14 +9200,17 @@
       <c r="V66">
         <v>0</v>
       </c>
-      <c r="W66" t="s">
+      <c r="W66">
+        <v>1</v>
+      </c>
+      <c r="X66" t="s">
         <v>276</v>
       </c>
-      <c r="X66" t="s">
+      <c r="Y66" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="67" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="67" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>278</v>
       </c>
@@ -9054,8 +9256,11 @@
       <c r="V67">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:24" x14ac:dyDescent="0.75">
+      <c r="W67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>278</v>
       </c>
@@ -9101,8 +9306,11 @@
       <c r="V68">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:24" x14ac:dyDescent="0.75">
+      <c r="W68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>281</v>
       </c>
@@ -9160,14 +9368,17 @@
       <c r="V69">
         <v>0</v>
       </c>
-      <c r="W69" t="s">
+      <c r="W69">
+        <v>0</v>
+      </c>
+      <c r="X69" t="s">
         <v>284</v>
       </c>
-      <c r="X69" t="s">
+      <c r="Y69" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="70" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="70" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>286</v>
       </c>
@@ -9231,14 +9442,17 @@
       <c r="V70">
         <v>0</v>
       </c>
-      <c r="W70" t="s">
+      <c r="W70">
+        <v>0</v>
+      </c>
+      <c r="X70" t="s">
         <v>289</v>
       </c>
-      <c r="X70" t="s">
+      <c r="Y70" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="71" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="71" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>291</v>
       </c>
@@ -9296,14 +9510,17 @@
       <c r="V71">
         <v>0</v>
       </c>
-      <c r="W71" t="s">
+      <c r="W71">
+        <v>0</v>
+      </c>
+      <c r="X71" t="s">
         <v>295</v>
       </c>
-      <c r="X71" t="s">
+      <c r="Y71" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="72" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="72" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>291</v>
       </c>
@@ -9361,14 +9578,17 @@
       <c r="V72">
         <v>0</v>
       </c>
-      <c r="W72" t="s">
+      <c r="W72">
+        <v>0</v>
+      </c>
+      <c r="X72" t="s">
         <v>295</v>
       </c>
-      <c r="X72" t="s">
+      <c r="Y72" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="73" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="73" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>298</v>
       </c>
@@ -9435,14 +9655,17 @@
       <c r="V73">
         <v>0</v>
       </c>
-      <c r="W73" t="s">
+      <c r="W73">
+        <v>0</v>
+      </c>
+      <c r="X73" t="s">
         <v>301</v>
       </c>
-      <c r="X73" t="s">
+      <c r="Y73" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="74" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="74" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>298</v>
       </c>
@@ -9509,14 +9732,17 @@
       <c r="V74">
         <v>0</v>
       </c>
-      <c r="W74" t="s">
+      <c r="W74">
+        <v>0</v>
+      </c>
+      <c r="X74" t="s">
         <v>301</v>
       </c>
-      <c r="X74" t="s">
+      <c r="Y74" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="75" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="75" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>298</v>
       </c>
@@ -9583,14 +9809,17 @@
       <c r="V75">
         <v>0</v>
       </c>
-      <c r="W75" t="s">
+      <c r="W75">
+        <v>0</v>
+      </c>
+      <c r="X75" t="s">
         <v>301</v>
       </c>
-      <c r="X75" t="s">
+      <c r="Y75" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="76" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="76" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>304</v>
       </c>
@@ -9657,14 +9886,17 @@
       <c r="V76">
         <v>0</v>
       </c>
-      <c r="W76" t="s">
+      <c r="W76">
+        <v>1</v>
+      </c>
+      <c r="X76" t="s">
         <v>308</v>
       </c>
-      <c r="X76" t="s">
+      <c r="Y76" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="77" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="77" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>310</v>
       </c>
@@ -9731,14 +9963,17 @@
       <c r="V77">
         <v>0</v>
       </c>
-      <c r="W77" t="s">
+      <c r="W77">
+        <v>0</v>
+      </c>
+      <c r="X77" t="s">
         <v>313</v>
       </c>
-      <c r="X77" t="s">
+      <c r="Y77" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="78" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="78" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>310</v>
       </c>
@@ -9805,14 +10040,17 @@
       <c r="V78">
         <v>0</v>
       </c>
-      <c r="W78" t="s">
+      <c r="W78">
+        <v>0</v>
+      </c>
+      <c r="X78" t="s">
         <v>313</v>
       </c>
-      <c r="X78" t="s">
+      <c r="Y78" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="79" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="79" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>310</v>
       </c>
@@ -9879,14 +10117,17 @@
       <c r="V79">
         <v>0</v>
       </c>
-      <c r="W79" t="s">
+      <c r="W79">
+        <v>0</v>
+      </c>
+      <c r="X79" t="s">
         <v>313</v>
       </c>
-      <c r="X79" t="s">
+      <c r="Y79" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="80" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="80" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>310</v>
       </c>
@@ -9953,14 +10194,17 @@
       <c r="V80">
         <v>0</v>
       </c>
-      <c r="W80" t="s">
+      <c r="W80">
+        <v>0</v>
+      </c>
+      <c r="X80" t="s">
         <v>313</v>
       </c>
-      <c r="X80" t="s">
+      <c r="Y80" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="81" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="81" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>310</v>
       </c>
@@ -10027,14 +10271,17 @@
       <c r="V81">
         <v>0</v>
       </c>
-      <c r="W81" t="s">
+      <c r="W81">
+        <v>0</v>
+      </c>
+      <c r="X81" t="s">
         <v>313</v>
       </c>
-      <c r="X81" t="s">
+      <c r="Y81" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="82" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="82" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>319</v>
       </c>
@@ -10101,14 +10348,17 @@
       <c r="V82">
         <v>0</v>
       </c>
-      <c r="W82" t="s">
+      <c r="W82">
+        <v>0</v>
+      </c>
+      <c r="X82" t="s">
         <v>322</v>
       </c>
-      <c r="X82" t="s">
+      <c r="Y82" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="83" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="83" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>319</v>
       </c>
@@ -10175,14 +10425,17 @@
       <c r="V83">
         <v>0</v>
       </c>
-      <c r="W83" t="s">
+      <c r="W83">
+        <v>0</v>
+      </c>
+      <c r="X83" t="s">
         <v>322</v>
       </c>
-      <c r="X83" t="s">
+      <c r="Y83" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="84" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="84" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>319</v>
       </c>
@@ -10249,14 +10502,17 @@
       <c r="V84">
         <v>0</v>
       </c>
-      <c r="W84" t="s">
+      <c r="W84">
+        <v>0</v>
+      </c>
+      <c r="X84" t="s">
         <v>322</v>
       </c>
-      <c r="X84" t="s">
+      <c r="Y84" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="85" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="85" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>319</v>
       </c>
@@ -10323,14 +10579,17 @@
       <c r="V85">
         <v>0</v>
       </c>
-      <c r="W85" t="s">
+      <c r="W85">
+        <v>0</v>
+      </c>
+      <c r="X85" t="s">
         <v>322</v>
       </c>
-      <c r="X85" t="s">
+      <c r="Y85" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="86" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="86" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>326</v>
       </c>
@@ -10376,14 +10635,17 @@
       <c r="V86">
         <v>0</v>
       </c>
-      <c r="W86" t="s">
+      <c r="W86">
+        <v>0</v>
+      </c>
+      <c r="X86" t="s">
         <v>329</v>
       </c>
-      <c r="X86" t="s">
+      <c r="Y86" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="87" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="87" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>331</v>
       </c>
@@ -10447,14 +10709,17 @@
       <c r="V87">
         <v>0</v>
       </c>
-      <c r="W87" t="s">
+      <c r="W87">
+        <v>0</v>
+      </c>
+      <c r="X87" t="s">
         <v>334</v>
       </c>
-      <c r="X87" t="s">
+      <c r="Y87" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="88" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="88" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>336</v>
       </c>
@@ -10521,14 +10786,17 @@
       <c r="V88">
         <v>1</v>
       </c>
-      <c r="W88" t="s">
+      <c r="W88">
+        <v>0</v>
+      </c>
+      <c r="X88" t="s">
         <v>339</v>
       </c>
-      <c r="X88" t="s">
+      <c r="Y88" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="89" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="89" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>341</v>
       </c>
@@ -10592,14 +10860,17 @@
       <c r="V89">
         <v>0</v>
       </c>
-      <c r="W89" t="s">
+      <c r="W89">
+        <v>0</v>
+      </c>
+      <c r="X89" t="s">
         <v>344</v>
       </c>
-      <c r="X89" t="s">
+      <c r="Y89" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="90" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="90" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>341</v>
       </c>
@@ -10663,14 +10934,17 @@
       <c r="V90">
         <v>0</v>
       </c>
-      <c r="W90" t="s">
+      <c r="W90">
+        <v>0</v>
+      </c>
+      <c r="X90" t="s">
         <v>344</v>
       </c>
-      <c r="X90" t="s">
+      <c r="Y90" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="91" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="91" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>341</v>
       </c>
@@ -10734,14 +11008,17 @@
       <c r="V91">
         <v>0</v>
       </c>
-      <c r="W91" t="s">
+      <c r="W91">
+        <v>0</v>
+      </c>
+      <c r="X91" t="s">
         <v>344</v>
       </c>
-      <c r="X91" t="s">
+      <c r="Y91" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="92" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="92" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>348</v>
       </c>
@@ -10805,14 +11082,17 @@
       <c r="V92">
         <v>0</v>
       </c>
-      <c r="W92" t="s">
+      <c r="W92">
+        <v>0</v>
+      </c>
+      <c r="X92" t="s">
         <v>351</v>
       </c>
-      <c r="X92" t="s">
+      <c r="Y92" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="93" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="93" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>353</v>
       </c>
@@ -10873,14 +11153,17 @@
       <c r="V93">
         <v>0</v>
       </c>
-      <c r="W93" t="s">
+      <c r="W93">
+        <v>0</v>
+      </c>
+      <c r="X93" t="s">
         <v>356</v>
       </c>
-      <c r="X93" t="s">
+      <c r="Y93" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="94" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="94" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>358</v>
       </c>
@@ -10888,7 +11171,7 @@
         <v>359</v>
       </c>
       <c r="C94" t="s">
-        <v>360</v>
+        <v>1451</v>
       </c>
       <c r="D94" t="s">
         <v>27</v>
@@ -10941,14 +11224,17 @@
       <c r="V94">
         <v>0</v>
       </c>
-      <c r="W94" t="s">
+      <c r="W94">
+        <v>0</v>
+      </c>
+      <c r="X94" t="s">
         <v>361</v>
       </c>
-      <c r="X94" t="s">
+      <c r="Y94" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="95" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="95" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>358</v>
       </c>
@@ -10956,7 +11242,7 @@
         <v>359</v>
       </c>
       <c r="C95" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="D95" t="s">
         <v>27</v>
@@ -11009,14 +11295,17 @@
       <c r="V95">
         <v>0</v>
       </c>
-      <c r="W95" t="s">
+      <c r="W95">
+        <v>0</v>
+      </c>
+      <c r="X95" t="s">
         <v>361</v>
       </c>
-      <c r="X95" t="s">
+      <c r="Y95" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="96" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="96" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>358</v>
       </c>
@@ -11024,7 +11313,7 @@
         <v>359</v>
       </c>
       <c r="C96" t="s">
-        <v>1451</v>
+        <v>363</v>
       </c>
       <c r="D96" t="s">
         <v>27</v>
@@ -11077,14 +11366,17 @@
       <c r="V96">
         <v>0</v>
       </c>
-      <c r="W96" t="s">
+      <c r="W96">
+        <v>0</v>
+      </c>
+      <c r="X96" t="s">
         <v>361</v>
       </c>
-      <c r="X96" t="s">
+      <c r="Y96" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="97" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="97" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>364</v>
       </c>
@@ -11130,8 +11422,11 @@
       <c r="V97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:24" x14ac:dyDescent="0.75">
+      <c r="W97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>367</v>
       </c>
@@ -11192,14 +11487,17 @@
       <c r="V98">
         <v>0</v>
       </c>
-      <c r="W98" t="s">
+      <c r="W98">
+        <v>0</v>
+      </c>
+      <c r="X98" t="s">
         <v>370</v>
       </c>
-      <c r="X98" t="s">
+      <c r="Y98" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="99" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="99" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>367</v>
       </c>
@@ -11260,14 +11558,17 @@
       <c r="V99">
         <v>0</v>
       </c>
-      <c r="W99" t="s">
+      <c r="W99">
+        <v>0</v>
+      </c>
+      <c r="X99" t="s">
         <v>370</v>
       </c>
-      <c r="X99" t="s">
+      <c r="Y99" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="100" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="100" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>373</v>
       </c>
@@ -11328,14 +11629,17 @@
       <c r="V100">
         <v>0</v>
       </c>
-      <c r="W100" t="s">
+      <c r="W100">
+        <v>1</v>
+      </c>
+      <c r="X100" t="s">
         <v>376</v>
       </c>
-      <c r="X100" t="s">
+      <c r="Y100" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="101" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="101" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>378</v>
       </c>
@@ -11393,14 +11697,17 @@
       <c r="V101">
         <v>0</v>
       </c>
-      <c r="W101" t="s">
+      <c r="W101">
+        <v>0</v>
+      </c>
+      <c r="X101" t="s">
         <v>381</v>
       </c>
-      <c r="X101" t="s">
+      <c r="Y101" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="102" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="102" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>378</v>
       </c>
@@ -11458,14 +11765,17 @@
       <c r="V102">
         <v>0</v>
       </c>
-      <c r="W102" t="s">
+      <c r="W102">
+        <v>0</v>
+      </c>
+      <c r="X102" t="s">
         <v>381</v>
       </c>
-      <c r="X102" t="s">
+      <c r="Y102" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="103" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="103" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>384</v>
       </c>
@@ -11526,14 +11836,17 @@
       <c r="V103">
         <v>0</v>
       </c>
-      <c r="W103" t="s">
+      <c r="W103">
+        <v>0</v>
+      </c>
+      <c r="X103" t="s">
         <v>387</v>
       </c>
-      <c r="X103" t="s">
+      <c r="Y103" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="104" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="104" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>389</v>
       </c>
@@ -11597,14 +11910,17 @@
       <c r="V104">
         <v>1</v>
       </c>
-      <c r="W104" t="s">
+      <c r="W104">
+        <v>0</v>
+      </c>
+      <c r="X104" t="s">
         <v>392</v>
       </c>
-      <c r="X104" t="s">
+      <c r="Y104" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="105" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="105" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>394</v>
       </c>
@@ -11668,14 +11984,17 @@
       <c r="V105">
         <v>0</v>
       </c>
-      <c r="W105" t="s">
+      <c r="W105">
+        <v>1</v>
+      </c>
+      <c r="X105" t="s">
         <v>397</v>
       </c>
-      <c r="X105" t="s">
+      <c r="Y105" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="106" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="106" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>399</v>
       </c>
@@ -11733,14 +12052,17 @@
       <c r="V106">
         <v>0</v>
       </c>
-      <c r="W106" t="s">
+      <c r="W106">
+        <v>0</v>
+      </c>
+      <c r="X106" t="s">
         <v>402</v>
       </c>
-      <c r="X106" t="s">
+      <c r="Y106" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="107" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="107" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>404</v>
       </c>
@@ -11804,14 +12126,17 @@
       <c r="V107">
         <v>0</v>
       </c>
-      <c r="W107" t="s">
+      <c r="W107">
+        <v>0</v>
+      </c>
+      <c r="X107" t="s">
         <v>407</v>
       </c>
-      <c r="X107" t="s">
+      <c r="Y107" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="108" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="108" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>404</v>
       </c>
@@ -11875,14 +12200,17 @@
       <c r="V108">
         <v>0</v>
       </c>
-      <c r="W108" t="s">
+      <c r="W108">
+        <v>0</v>
+      </c>
+      <c r="X108" t="s">
         <v>407</v>
       </c>
-      <c r="X108" t="s">
+      <c r="Y108" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="109" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="109" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>410</v>
       </c>
@@ -11940,14 +12268,17 @@
       <c r="V109">
         <v>1</v>
       </c>
-      <c r="W109" t="s">
+      <c r="W109">
+        <v>0</v>
+      </c>
+      <c r="X109" t="s">
         <v>414</v>
       </c>
-      <c r="X109" t="s">
+      <c r="Y109" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="110" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="110" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>416</v>
       </c>
@@ -12011,14 +12342,17 @@
       <c r="V110">
         <v>0</v>
       </c>
-      <c r="W110" t="s">
+      <c r="W110">
+        <v>0</v>
+      </c>
+      <c r="X110" t="s">
         <v>419</v>
       </c>
-      <c r="X110" t="s">
+      <c r="Y110" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="111" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="111" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>421</v>
       </c>
@@ -12076,14 +12410,17 @@
       <c r="V111">
         <v>1</v>
       </c>
-      <c r="W111" t="s">
+      <c r="W111">
+        <v>0</v>
+      </c>
+      <c r="X111" t="s">
         <v>424</v>
       </c>
-      <c r="X111" t="s">
+      <c r="Y111" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="112" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="112" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>421</v>
       </c>
@@ -12141,14 +12478,17 @@
       <c r="V112">
         <v>1</v>
       </c>
-      <c r="W112" t="s">
+      <c r="W112">
+        <v>0</v>
+      </c>
+      <c r="X112" t="s">
         <v>424</v>
       </c>
-      <c r="X112" t="s">
+      <c r="Y112" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="113" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="113" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>427</v>
       </c>
@@ -12215,14 +12555,17 @@
       <c r="V113">
         <v>0</v>
       </c>
-      <c r="W113" t="s">
+      <c r="W113">
+        <v>0</v>
+      </c>
+      <c r="X113" t="s">
         <v>430</v>
       </c>
-      <c r="X113" t="s">
+      <c r="Y113" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="114" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="114" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>432</v>
       </c>
@@ -12268,14 +12611,17 @@
       <c r="V114">
         <v>0</v>
       </c>
-      <c r="W114" t="s">
+      <c r="W114">
+        <v>0</v>
+      </c>
+      <c r="X114" t="s">
         <v>435</v>
       </c>
-      <c r="X114" t="s">
+      <c r="Y114" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="115" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="115" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>437</v>
       </c>
@@ -12283,7 +12629,7 @@
         <v>438</v>
       </c>
       <c r="C115" t="s">
-        <v>439</v>
+        <v>1469</v>
       </c>
       <c r="D115" t="s">
         <v>66</v>
@@ -12336,14 +12682,17 @@
       <c r="V115">
         <v>0</v>
       </c>
-      <c r="W115" t="s">
+      <c r="W115">
+        <v>0</v>
+      </c>
+      <c r="X115" t="s">
         <v>440</v>
       </c>
-      <c r="X115" t="s">
+      <c r="Y115" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="116" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="116" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>437</v>
       </c>
@@ -12351,7 +12700,7 @@
         <v>438</v>
       </c>
       <c r="C116" t="s">
-        <v>1469</v>
+        <v>439</v>
       </c>
       <c r="D116" t="s">
         <v>66</v>
@@ -12404,14 +12753,17 @@
       <c r="V116">
         <v>0</v>
       </c>
-      <c r="W116" t="s">
+      <c r="W116">
+        <v>0</v>
+      </c>
+      <c r="X116" t="s">
         <v>440</v>
       </c>
-      <c r="X116" t="s">
+      <c r="Y116" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="117" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="117" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>442</v>
       </c>
@@ -12472,14 +12824,17 @@
       <c r="V117">
         <v>0</v>
       </c>
-      <c r="W117" t="s">
+      <c r="W117">
+        <v>0</v>
+      </c>
+      <c r="X117" t="s">
         <v>445</v>
       </c>
-      <c r="X117" t="s">
+      <c r="Y117" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="118" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="118" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>447</v>
       </c>
@@ -12546,14 +12901,17 @@
       <c r="V118">
         <v>0</v>
       </c>
-      <c r="W118" t="s">
+      <c r="W118">
+        <v>0</v>
+      </c>
+      <c r="X118" t="s">
         <v>450</v>
       </c>
-      <c r="X118" t="s">
+      <c r="Y118" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="119" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="119" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>447</v>
       </c>
@@ -12620,14 +12978,17 @@
       <c r="V119">
         <v>0</v>
       </c>
-      <c r="W119" t="s">
+      <c r="W119">
+        <v>0</v>
+      </c>
+      <c r="X119" t="s">
         <v>450</v>
       </c>
-      <c r="X119" t="s">
+      <c r="Y119" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="120" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="120" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>452</v>
       </c>
@@ -12688,14 +13049,17 @@
       <c r="V120">
         <v>0</v>
       </c>
-      <c r="W120" t="s">
+      <c r="W120">
+        <v>0</v>
+      </c>
+      <c r="X120" t="s">
         <v>455</v>
       </c>
-      <c r="X120" t="s">
+      <c r="Y120" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="121" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="121" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>457</v>
       </c>
@@ -12753,14 +13117,17 @@
       <c r="V121">
         <v>0</v>
       </c>
-      <c r="W121" t="s">
+      <c r="W121">
+        <v>1</v>
+      </c>
+      <c r="X121" t="s">
         <v>461</v>
       </c>
-      <c r="X121" t="s">
+      <c r="Y121" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="122" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="122" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>463</v>
       </c>
@@ -12768,7 +13135,7 @@
         <v>464</v>
       </c>
       <c r="C122" t="s">
-        <v>465</v>
+        <v>1450</v>
       </c>
       <c r="D122" t="s">
         <v>27</v>
@@ -12812,14 +13179,17 @@
       <c r="V122">
         <v>0</v>
       </c>
-      <c r="W122" t="s">
+      <c r="W122">
+        <v>0</v>
+      </c>
+      <c r="X122" t="s">
         <v>466</v>
       </c>
-      <c r="X122" t="s">
+      <c r="Y122" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="123" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="123" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>463</v>
       </c>
@@ -12827,7 +13197,7 @@
         <v>464</v>
       </c>
       <c r="C123" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D123" t="s">
         <v>27</v>
@@ -12871,14 +13241,17 @@
       <c r="V123">
         <v>0</v>
       </c>
-      <c r="W123" t="s">
+      <c r="W123">
+        <v>0</v>
+      </c>
+      <c r="X123" t="s">
         <v>466</v>
       </c>
-      <c r="X123" t="s">
+      <c r="Y123" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="124" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="124" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>463</v>
       </c>
@@ -12886,7 +13259,7 @@
         <v>464</v>
       </c>
       <c r="C124" t="s">
-        <v>1450</v>
+        <v>468</v>
       </c>
       <c r="D124" t="s">
         <v>27</v>
@@ -12930,14 +13303,17 @@
       <c r="V124">
         <v>0</v>
       </c>
-      <c r="W124" t="s">
+      <c r="W124">
+        <v>0</v>
+      </c>
+      <c r="X124" t="s">
         <v>466</v>
       </c>
-      <c r="X124" t="s">
+      <c r="Y124" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="125" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="125" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>469</v>
       </c>
@@ -12998,14 +13374,17 @@
       <c r="V125">
         <v>0</v>
       </c>
-      <c r="W125" t="s">
+      <c r="W125">
+        <v>0</v>
+      </c>
+      <c r="X125" t="s">
         <v>472</v>
       </c>
-      <c r="X125" t="s">
+      <c r="Y125" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="126" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="126" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>474</v>
       </c>
@@ -13060,14 +13439,17 @@
       <c r="V126">
         <v>0</v>
       </c>
-      <c r="W126" t="s">
+      <c r="W126">
+        <v>0</v>
+      </c>
+      <c r="X126" t="s">
         <v>477</v>
       </c>
-      <c r="X126" t="s">
+      <c r="Y126" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="127" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="127" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>474</v>
       </c>
@@ -13122,14 +13504,17 @@
       <c r="V127">
         <v>0</v>
       </c>
-      <c r="W127" t="s">
+      <c r="W127">
+        <v>0</v>
+      </c>
+      <c r="X127" t="s">
         <v>477</v>
       </c>
-      <c r="X127" t="s">
+      <c r="Y127" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="128" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="128" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>474</v>
       </c>
@@ -13184,14 +13569,17 @@
       <c r="V128">
         <v>0</v>
       </c>
-      <c r="W128" t="s">
+      <c r="W128">
+        <v>0</v>
+      </c>
+      <c r="X128" t="s">
         <v>477</v>
       </c>
-      <c r="X128" t="s">
+      <c r="Y128" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="129" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="129" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>481</v>
       </c>
@@ -13249,14 +13637,17 @@
       <c r="V129">
         <v>0</v>
       </c>
-      <c r="W129" t="s">
+      <c r="W129">
+        <v>0</v>
+      </c>
+      <c r="X129" t="s">
         <v>484</v>
       </c>
-      <c r="X129" t="s">
+      <c r="Y129" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="130" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="130" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>481</v>
       </c>
@@ -13314,14 +13705,17 @@
       <c r="V130">
         <v>0</v>
       </c>
-      <c r="W130" t="s">
+      <c r="W130">
+        <v>0</v>
+      </c>
+      <c r="X130" t="s">
         <v>484</v>
       </c>
-      <c r="X130" t="s">
+      <c r="Y130" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="131" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="131" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>481</v>
       </c>
@@ -13379,14 +13773,17 @@
       <c r="V131">
         <v>0</v>
       </c>
-      <c r="W131" t="s">
+      <c r="W131">
+        <v>0</v>
+      </c>
+      <c r="X131" t="s">
         <v>484</v>
       </c>
-      <c r="X131" t="s">
+      <c r="Y131" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="132" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="132" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>481</v>
       </c>
@@ -13444,14 +13841,17 @@
       <c r="V132">
         <v>0</v>
       </c>
-      <c r="W132" t="s">
+      <c r="W132">
+        <v>0</v>
+      </c>
+      <c r="X132" t="s">
         <v>484</v>
       </c>
-      <c r="X132" t="s">
+      <c r="Y132" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="133" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="133" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>489</v>
       </c>
@@ -13515,14 +13915,17 @@
       <c r="V133">
         <v>0</v>
       </c>
-      <c r="W133" t="s">
+      <c r="W133">
+        <v>0</v>
+      </c>
+      <c r="X133" t="s">
         <v>492</v>
       </c>
-      <c r="X133" t="s">
+      <c r="Y133" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="134" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="134" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>494</v>
       </c>
@@ -13530,7 +13933,7 @@
         <v>495</v>
       </c>
       <c r="C134" t="s">
-        <v>496</v>
+        <v>1470</v>
       </c>
       <c r="D134" t="s">
         <v>66</v>
@@ -13580,14 +13983,17 @@
       <c r="V134">
         <v>0</v>
       </c>
-      <c r="W134" t="s">
+      <c r="W134">
+        <v>1</v>
+      </c>
+      <c r="X134" t="s">
         <v>497</v>
       </c>
-      <c r="X134" t="s">
+      <c r="Y134" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="135" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="135" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>494</v>
       </c>
@@ -13595,7 +14001,7 @@
         <v>495</v>
       </c>
       <c r="C135" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="D135" t="s">
         <v>66</v>
@@ -13645,14 +14051,17 @@
       <c r="V135">
         <v>0</v>
       </c>
-      <c r="W135" t="s">
+      <c r="W135">
+        <v>1</v>
+      </c>
+      <c r="X135" t="s">
         <v>497</v>
       </c>
-      <c r="X135" t="s">
+      <c r="Y135" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="136" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="136" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>494</v>
       </c>
@@ -13660,7 +14069,7 @@
         <v>495</v>
       </c>
       <c r="C136" t="s">
-        <v>1470</v>
+        <v>499</v>
       </c>
       <c r="D136" t="s">
         <v>66</v>
@@ -13710,14 +14119,17 @@
       <c r="V136">
         <v>0</v>
       </c>
-      <c r="W136" t="s">
+      <c r="W136">
+        <v>1</v>
+      </c>
+      <c r="X136" t="s">
         <v>497</v>
       </c>
-      <c r="X136" t="s">
+      <c r="Y136" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="137" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="137" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>500</v>
       </c>
@@ -13775,14 +14187,17 @@
       <c r="V137">
         <v>0</v>
       </c>
-      <c r="W137" t="s">
+      <c r="W137">
+        <v>0</v>
+      </c>
+      <c r="X137" t="s">
         <v>503</v>
       </c>
-      <c r="X137" t="s">
+      <c r="Y137" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="138" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="138" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>505</v>
       </c>
@@ -13834,14 +14249,17 @@
       <c r="V138">
         <v>0</v>
       </c>
-      <c r="W138" t="s">
+      <c r="W138">
+        <v>0</v>
+      </c>
+      <c r="X138" t="s">
         <v>509</v>
       </c>
-      <c r="X138" t="s">
+      <c r="Y138" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="139" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="139" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>511</v>
       </c>
@@ -13908,14 +14326,17 @@
       <c r="V139">
         <v>0</v>
       </c>
-      <c r="W139" t="s">
+      <c r="W139">
+        <v>1</v>
+      </c>
+      <c r="X139" t="s">
         <v>514</v>
       </c>
-      <c r="X139" t="s">
+      <c r="Y139" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="140" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="140" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>516</v>
       </c>
@@ -13970,8 +14391,11 @@
       <c r="V140">
         <v>0</v>
       </c>
-    </row>
-    <row r="141" spans="1:24" x14ac:dyDescent="0.75">
+      <c r="W140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>519</v>
       </c>
@@ -14038,14 +14462,17 @@
       <c r="V141">
         <v>0</v>
       </c>
-      <c r="W141" t="s">
+      <c r="W141">
+        <v>0</v>
+      </c>
+      <c r="X141" t="s">
         <v>522</v>
       </c>
-      <c r="X141" t="s">
+      <c r="Y141" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="142" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="142" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>524</v>
       </c>
@@ -14097,8 +14524,11 @@
       <c r="V142">
         <v>0</v>
       </c>
-    </row>
-    <row r="143" spans="1:24" x14ac:dyDescent="0.75">
+      <c r="W142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>527</v>
       </c>
@@ -14165,14 +14595,17 @@
       <c r="V143">
         <v>0</v>
       </c>
-      <c r="W143" t="s">
+      <c r="W143">
+        <v>1</v>
+      </c>
+      <c r="X143" t="s">
         <v>530</v>
       </c>
-      <c r="X143" t="s">
+      <c r="Y143" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="144" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="144" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>527</v>
       </c>
@@ -14239,14 +14672,17 @@
       <c r="V144">
         <v>0</v>
       </c>
-      <c r="W144" t="s">
+      <c r="W144">
+        <v>1</v>
+      </c>
+      <c r="X144" t="s">
         <v>530</v>
       </c>
-      <c r="X144" t="s">
+      <c r="Y144" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="145" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="145" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>533</v>
       </c>
@@ -14313,14 +14749,17 @@
       <c r="V145">
         <v>0</v>
       </c>
-      <c r="W145" t="s">
+      <c r="W145">
+        <v>0</v>
+      </c>
+      <c r="X145" t="s">
         <v>536</v>
       </c>
-      <c r="X145" t="s">
+      <c r="Y145" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="146" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="146" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>538</v>
       </c>
@@ -14384,14 +14823,17 @@
       <c r="V146">
         <v>0</v>
       </c>
-      <c r="W146" t="s">
+      <c r="W146">
+        <v>0</v>
+      </c>
+      <c r="X146" t="s">
         <v>541</v>
       </c>
-      <c r="X146" t="s">
+      <c r="Y146" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="147" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="147" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>543</v>
       </c>
@@ -14452,14 +14894,17 @@
       <c r="V147">
         <v>0</v>
       </c>
-      <c r="W147" t="s">
+      <c r="W147">
+        <v>0</v>
+      </c>
+      <c r="X147" t="s">
         <v>546</v>
       </c>
-      <c r="X147" t="s">
+      <c r="Y147" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="148" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="148" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>548</v>
       </c>
@@ -14523,14 +14968,17 @@
       <c r="V148">
         <v>0</v>
       </c>
-      <c r="W148" t="s">
+      <c r="W148">
+        <v>1</v>
+      </c>
+      <c r="X148" t="s">
         <v>551</v>
       </c>
-      <c r="X148" t="s">
+      <c r="Y148" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="149" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="149" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>553</v>
       </c>
@@ -14585,14 +15033,17 @@
       <c r="V149">
         <v>0</v>
       </c>
-      <c r="W149" t="s">
+      <c r="W149">
+        <v>0</v>
+      </c>
+      <c r="X149" t="s">
         <v>556</v>
       </c>
-      <c r="X149" t="s">
+      <c r="Y149" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="150" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="150" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>558</v>
       </c>
@@ -14656,14 +15107,17 @@
       <c r="V150">
         <v>0</v>
       </c>
-      <c r="W150" t="s">
+      <c r="W150">
+        <v>0</v>
+      </c>
+      <c r="X150" t="s">
         <v>561</v>
       </c>
-      <c r="X150" t="s">
+      <c r="Y150" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="151" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="151" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>563</v>
       </c>
@@ -14715,8 +15169,11 @@
       <c r="V151">
         <v>0</v>
       </c>
-    </row>
-    <row r="152" spans="1:24" x14ac:dyDescent="0.75">
+      <c r="W151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>563</v>
       </c>
@@ -14768,8 +15225,11 @@
       <c r="V152">
         <v>0</v>
       </c>
-    </row>
-    <row r="153" spans="1:24" x14ac:dyDescent="0.75">
+      <c r="W152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>567</v>
       </c>
@@ -14824,14 +15284,17 @@
       <c r="V153">
         <v>0</v>
       </c>
-      <c r="W153" t="s">
+      <c r="W153">
+        <v>0</v>
+      </c>
+      <c r="X153" t="s">
         <v>570</v>
       </c>
-      <c r="X153" t="s">
+      <c r="Y153" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="154" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="154" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>572</v>
       </c>
@@ -14898,14 +15361,17 @@
       <c r="V154">
         <v>0</v>
       </c>
-      <c r="W154" t="s">
+      <c r="W154">
+        <v>1</v>
+      </c>
+      <c r="X154" t="s">
         <v>575</v>
       </c>
-      <c r="X154" t="s">
+      <c r="Y154" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="155" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="155" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>577</v>
       </c>
@@ -14963,14 +15429,17 @@
       <c r="V155">
         <v>0</v>
       </c>
-      <c r="W155" t="s">
+      <c r="W155">
+        <v>0</v>
+      </c>
+      <c r="X155" t="s">
         <v>580</v>
       </c>
-      <c r="X155" t="s">
+      <c r="Y155" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="156" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="156" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>577</v>
       </c>
@@ -15028,14 +15497,17 @@
       <c r="V156">
         <v>0</v>
       </c>
-      <c r="W156" t="s">
+      <c r="W156">
+        <v>0</v>
+      </c>
+      <c r="X156" t="s">
         <v>580</v>
       </c>
-      <c r="X156" t="s">
+      <c r="Y156" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="157" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="157" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>577</v>
       </c>
@@ -15093,14 +15565,17 @@
       <c r="V157">
         <v>0</v>
       </c>
-      <c r="W157" t="s">
+      <c r="W157">
+        <v>0</v>
+      </c>
+      <c r="X157" t="s">
         <v>580</v>
       </c>
-      <c r="X157" t="s">
+      <c r="Y157" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="158" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="158" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>577</v>
       </c>
@@ -15158,14 +15633,17 @@
       <c r="V158">
         <v>0</v>
       </c>
-      <c r="W158" t="s">
+      <c r="W158">
+        <v>0</v>
+      </c>
+      <c r="X158" t="s">
         <v>580</v>
       </c>
-      <c r="X158" t="s">
+      <c r="Y158" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="159" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="159" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>577</v>
       </c>
@@ -15223,14 +15701,17 @@
       <c r="V159">
         <v>0</v>
       </c>
-      <c r="W159" t="s">
+      <c r="W159">
+        <v>0</v>
+      </c>
+      <c r="X159" t="s">
         <v>580</v>
       </c>
-      <c r="X159" t="s">
+      <c r="Y159" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="160" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="160" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>577</v>
       </c>
@@ -15288,14 +15769,17 @@
       <c r="V160">
         <v>0</v>
       </c>
-      <c r="W160" t="s">
+      <c r="W160">
+        <v>0</v>
+      </c>
+      <c r="X160" t="s">
         <v>580</v>
       </c>
-      <c r="X160" t="s">
+      <c r="Y160" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="161" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="161" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>577</v>
       </c>
@@ -15353,14 +15837,17 @@
       <c r="V161">
         <v>0</v>
       </c>
-      <c r="W161" t="s">
+      <c r="W161">
+        <v>0</v>
+      </c>
+      <c r="X161" t="s">
         <v>580</v>
       </c>
-      <c r="X161" t="s">
+      <c r="Y161" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="162" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="162" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>587</v>
       </c>
@@ -15368,7 +15855,7 @@
         <v>588</v>
       </c>
       <c r="C162" t="s">
-        <v>589</v>
+        <v>1471</v>
       </c>
       <c r="D162" t="s">
         <v>112</v>
@@ -15406,14 +15893,17 @@
       <c r="V162">
         <v>0</v>
       </c>
-      <c r="W162" t="s">
+      <c r="W162">
+        <v>0</v>
+      </c>
+      <c r="X162" t="s">
         <v>590</v>
       </c>
-      <c r="X162" t="s">
+      <c r="Y162" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="163" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="163" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>587</v>
       </c>
@@ -15459,14 +15949,17 @@
       <c r="V163">
         <v>0</v>
       </c>
-      <c r="W163" t="s">
+      <c r="W163">
+        <v>0</v>
+      </c>
+      <c r="X163" t="s">
         <v>590</v>
       </c>
-      <c r="X163" t="s">
+      <c r="Y163" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="164" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="164" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>587</v>
       </c>
@@ -15474,7 +15967,7 @@
         <v>588</v>
       </c>
       <c r="C164" t="s">
-        <v>1471</v>
+        <v>589</v>
       </c>
       <c r="D164" t="s">
         <v>112</v>
@@ -15512,14 +16005,17 @@
       <c r="V164">
         <v>0</v>
       </c>
-      <c r="W164" t="s">
+      <c r="W164">
+        <v>0</v>
+      </c>
+      <c r="X164" t="s">
         <v>590</v>
       </c>
-      <c r="X164" t="s">
+      <c r="Y164" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="165" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="165" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>592</v>
       </c>
@@ -15586,14 +16082,17 @@
       <c r="V165">
         <v>0</v>
       </c>
-      <c r="W165" t="s">
+      <c r="W165">
+        <v>0</v>
+      </c>
+      <c r="X165" t="s">
         <v>595</v>
       </c>
-      <c r="X165" t="s">
+      <c r="Y165" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="166" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="166" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>597</v>
       </c>
@@ -15651,14 +16150,17 @@
       <c r="V166">
         <v>0</v>
       </c>
-      <c r="W166" t="s">
+      <c r="W166">
+        <v>0</v>
+      </c>
+      <c r="X166" t="s">
         <v>600</v>
       </c>
-      <c r="X166" t="s">
+      <c r="Y166" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="167" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="167" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>602</v>
       </c>
@@ -15725,14 +16227,17 @@
       <c r="V167">
         <v>0</v>
       </c>
-      <c r="W167" t="s">
+      <c r="W167">
+        <v>0</v>
+      </c>
+      <c r="X167" t="s">
         <v>605</v>
       </c>
-      <c r="X167" t="s">
+      <c r="Y167" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="168" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="168" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>607</v>
       </c>
@@ -15790,14 +16295,17 @@
       <c r="V168">
         <v>0</v>
       </c>
-      <c r="W168" t="s">
+      <c r="W168">
+        <v>0</v>
+      </c>
+      <c r="X168" t="s">
         <v>610</v>
       </c>
-      <c r="X168" t="s">
+      <c r="Y168" t="s">
         <v>611</v>
       </c>
     </row>
-    <row r="169" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="169" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>612</v>
       </c>
@@ -15855,14 +16363,17 @@
       <c r="V169">
         <v>0</v>
       </c>
-      <c r="W169" t="s">
+      <c r="W169">
+        <v>0</v>
+      </c>
+      <c r="X169" t="s">
         <v>615</v>
       </c>
-      <c r="X169" t="s">
+      <c r="Y169" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="170" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="170" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>617</v>
       </c>
@@ -15917,14 +16428,17 @@
       <c r="V170">
         <v>0</v>
       </c>
-      <c r="W170" t="s">
+      <c r="W170">
+        <v>0</v>
+      </c>
+      <c r="X170" t="s">
         <v>620</v>
       </c>
-      <c r="X170" t="s">
+      <c r="Y170" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="171" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="171" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>622</v>
       </c>
@@ -15982,14 +16496,17 @@
       <c r="V171">
         <v>0</v>
       </c>
-      <c r="W171" t="s">
+      <c r="W171">
+        <v>1</v>
+      </c>
+      <c r="X171" t="s">
         <v>625</v>
       </c>
-      <c r="X171" t="s">
+      <c r="Y171" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="172" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="172" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>627</v>
       </c>
@@ -15997,7 +16514,7 @@
         <v>628</v>
       </c>
       <c r="C172" t="s">
-        <v>629</v>
+        <v>1447</v>
       </c>
       <c r="D172" t="s">
         <v>51</v>
@@ -16041,14 +16558,17 @@
       <c r="V172">
         <v>0</v>
       </c>
-      <c r="W172" t="s">
+      <c r="W172">
+        <v>0</v>
+      </c>
+      <c r="X172" t="s">
         <v>630</v>
       </c>
-      <c r="X172" t="s">
+      <c r="Y172" t="s">
         <v>631</v>
       </c>
     </row>
-    <row r="173" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="173" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>627</v>
       </c>
@@ -16056,7 +16576,7 @@
         <v>628</v>
       </c>
       <c r="C173" t="s">
-        <v>1447</v>
+        <v>629</v>
       </c>
       <c r="D173" t="s">
         <v>51</v>
@@ -16100,14 +16620,17 @@
       <c r="V173">
         <v>0</v>
       </c>
-      <c r="W173" t="s">
+      <c r="W173">
+        <v>0</v>
+      </c>
+      <c r="X173" t="s">
         <v>630</v>
       </c>
-      <c r="X173" t="s">
+      <c r="Y173" t="s">
         <v>631</v>
       </c>
     </row>
-    <row r="174" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="174" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>632</v>
       </c>
@@ -16168,14 +16691,17 @@
       <c r="V174">
         <v>0</v>
       </c>
-      <c r="W174" t="s">
+      <c r="W174">
+        <v>0</v>
+      </c>
+      <c r="X174" t="s">
         <v>635</v>
       </c>
-      <c r="X174" t="s">
+      <c r="Y174" t="s">
         <v>636</v>
       </c>
     </row>
-    <row r="175" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="175" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>637</v>
       </c>
@@ -16233,14 +16759,17 @@
       <c r="V175">
         <v>0</v>
       </c>
-      <c r="W175" t="s">
+      <c r="W175">
+        <v>0</v>
+      </c>
+      <c r="X175" t="s">
         <v>640</v>
       </c>
-      <c r="X175" t="s">
+      <c r="Y175" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="176" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="176" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>637</v>
       </c>
@@ -16298,14 +16827,17 @@
       <c r="V176">
         <v>0</v>
       </c>
-      <c r="W176" t="s">
+      <c r="W176">
+        <v>0</v>
+      </c>
+      <c r="X176" t="s">
         <v>640</v>
       </c>
-      <c r="X176" t="s">
+      <c r="Y176" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="177" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="177" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>637</v>
       </c>
@@ -16363,14 +16895,17 @@
       <c r="V177">
         <v>0</v>
       </c>
-      <c r="W177" t="s">
+      <c r="W177">
+        <v>0</v>
+      </c>
+      <c r="X177" t="s">
         <v>640</v>
       </c>
-      <c r="X177" t="s">
+      <c r="Y177" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="178" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="178" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>637</v>
       </c>
@@ -16428,14 +16963,17 @@
       <c r="V178">
         <v>0</v>
       </c>
-      <c r="W178" t="s">
+      <c r="W178">
+        <v>0</v>
+      </c>
+      <c r="X178" t="s">
         <v>640</v>
       </c>
-      <c r="X178" t="s">
+      <c r="Y178" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="179" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="179" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>645</v>
       </c>
@@ -16493,14 +17031,17 @@
       <c r="V179">
         <v>1</v>
       </c>
-      <c r="W179" t="s">
+      <c r="W179">
+        <v>0</v>
+      </c>
+      <c r="X179" t="s">
         <v>648</v>
       </c>
-      <c r="X179" t="s">
+      <c r="Y179" t="s">
         <v>649</v>
       </c>
     </row>
-    <row r="180" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="180" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>650</v>
       </c>
@@ -16558,14 +17099,17 @@
       <c r="V180">
         <v>0</v>
       </c>
-      <c r="W180" t="s">
+      <c r="W180">
+        <v>0</v>
+      </c>
+      <c r="X180" t="s">
         <v>653</v>
       </c>
-      <c r="X180" t="s">
+      <c r="Y180" t="s">
         <v>654</v>
       </c>
     </row>
-    <row r="181" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="181" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>655</v>
       </c>
@@ -16623,14 +17167,17 @@
       <c r="V181">
         <v>0</v>
       </c>
-      <c r="W181" t="s">
+      <c r="W181">
+        <v>0</v>
+      </c>
+      <c r="X181" t="s">
         <v>658</v>
       </c>
-      <c r="X181" t="s">
+      <c r="Y181" t="s">
         <v>659</v>
       </c>
     </row>
-    <row r="182" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="182" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>660</v>
       </c>
@@ -16691,14 +17238,17 @@
       <c r="V182">
         <v>0</v>
       </c>
-      <c r="W182" t="s">
+      <c r="W182">
+        <v>0</v>
+      </c>
+      <c r="X182" t="s">
         <v>663</v>
       </c>
-      <c r="X182" t="s">
+      <c r="Y182" t="s">
         <v>664</v>
       </c>
     </row>
-    <row r="183" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="183" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>665</v>
       </c>
@@ -16762,14 +17312,17 @@
       <c r="V183">
         <v>0</v>
       </c>
-      <c r="W183" t="s">
+      <c r="W183">
+        <v>1</v>
+      </c>
+      <c r="X183" t="s">
         <v>668</v>
       </c>
-      <c r="X183" t="s">
+      <c r="Y183" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="184" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="184" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>670</v>
       </c>
@@ -16821,14 +17374,17 @@
       <c r="V184">
         <v>0</v>
       </c>
-      <c r="W184" t="s">
+      <c r="W184">
+        <v>0</v>
+      </c>
+      <c r="X184" t="s">
         <v>673</v>
       </c>
-      <c r="X184" t="s">
+      <c r="Y184" t="s">
         <v>674</v>
       </c>
     </row>
-    <row r="185" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="185" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>675</v>
       </c>
@@ -16886,14 +17442,17 @@
       <c r="V185">
         <v>1</v>
       </c>
-      <c r="W185" t="s">
+      <c r="W185">
+        <v>0</v>
+      </c>
+      <c r="X185" t="s">
         <v>678</v>
       </c>
-      <c r="X185" t="s">
+      <c r="Y185" t="s">
         <v>679</v>
       </c>
     </row>
-    <row r="186" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="186" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>680</v>
       </c>
@@ -16951,14 +17510,17 @@
       <c r="V186">
         <v>0</v>
       </c>
-      <c r="W186" t="s">
+      <c r="W186">
+        <v>0</v>
+      </c>
+      <c r="X186" t="s">
         <v>683</v>
       </c>
-      <c r="X186" t="s">
+      <c r="Y186" t="s">
         <v>684</v>
       </c>
     </row>
-    <row r="187" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="187" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>685</v>
       </c>
@@ -17016,14 +17578,17 @@
       <c r="V187">
         <v>0</v>
       </c>
-      <c r="W187" t="s">
+      <c r="W187">
+        <v>0</v>
+      </c>
+      <c r="X187" t="s">
         <v>689</v>
       </c>
-      <c r="X187" t="s">
+      <c r="Y187" t="s">
         <v>690</v>
       </c>
     </row>
-    <row r="188" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="188" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>691</v>
       </c>
@@ -17087,14 +17652,17 @@
       <c r="V188">
         <v>0</v>
       </c>
-      <c r="W188" t="s">
+      <c r="W188">
+        <v>1</v>
+      </c>
+      <c r="X188" t="s">
         <v>694</v>
       </c>
-      <c r="X188" t="s">
+      <c r="Y188" t="s">
         <v>695</v>
       </c>
     </row>
-    <row r="189" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="189" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>696</v>
       </c>
@@ -17152,14 +17720,17 @@
       <c r="V189">
         <v>0</v>
       </c>
-      <c r="W189" t="s">
+      <c r="W189">
+        <v>0</v>
+      </c>
+      <c r="X189" t="s">
         <v>699</v>
       </c>
-      <c r="X189" t="s">
+      <c r="Y189" t="s">
         <v>700</v>
       </c>
     </row>
-    <row r="190" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="190" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>696</v>
       </c>
@@ -17217,14 +17788,17 @@
       <c r="V190">
         <v>0</v>
       </c>
-      <c r="W190" t="s">
+      <c r="W190">
+        <v>0</v>
+      </c>
+      <c r="X190" t="s">
         <v>699</v>
       </c>
-      <c r="X190" t="s">
+      <c r="Y190" t="s">
         <v>700</v>
       </c>
     </row>
-    <row r="191" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="191" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>702</v>
       </c>
@@ -17282,14 +17856,17 @@
       <c r="V191">
         <v>0</v>
       </c>
-      <c r="W191" t="s">
+      <c r="W191">
+        <v>0</v>
+      </c>
+      <c r="X191" t="s">
         <v>705</v>
       </c>
-      <c r="X191" t="s">
+      <c r="Y191" t="s">
         <v>706</v>
       </c>
     </row>
-    <row r="192" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="192" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>707</v>
       </c>
@@ -17347,14 +17924,17 @@
       <c r="V192">
         <v>0</v>
       </c>
-      <c r="W192" t="s">
+      <c r="W192">
+        <v>1</v>
+      </c>
+      <c r="X192" t="s">
         <v>710</v>
       </c>
-      <c r="X192" t="s">
+      <c r="Y192" t="s">
         <v>711</v>
       </c>
     </row>
-    <row r="193" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="193" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>712</v>
       </c>
@@ -17362,7 +17942,7 @@
         <v>713</v>
       </c>
       <c r="C193" t="s">
-        <v>714</v>
+        <v>1473</v>
       </c>
       <c r="D193" t="s">
         <v>27</v>
@@ -17418,14 +17998,17 @@
       <c r="V193">
         <v>0</v>
       </c>
-      <c r="W193" t="s">
+      <c r="W193">
+        <v>0</v>
+      </c>
+      <c r="X193" t="s">
         <v>715</v>
       </c>
-      <c r="X193" t="s">
+      <c r="Y193" t="s">
         <v>716</v>
       </c>
     </row>
-    <row r="194" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="194" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>712</v>
       </c>
@@ -17433,7 +18016,7 @@
         <v>713</v>
       </c>
       <c r="C194" t="s">
-        <v>717</v>
+        <v>1474</v>
       </c>
       <c r="D194" t="s">
         <v>27</v>
@@ -17489,14 +18072,17 @@
       <c r="V194">
         <v>0</v>
       </c>
-      <c r="W194" t="s">
+      <c r="W194">
+        <v>1</v>
+      </c>
+      <c r="X194" t="s">
         <v>715</v>
       </c>
-      <c r="X194" t="s">
+      <c r="Y194" t="s">
         <v>716</v>
       </c>
     </row>
-    <row r="195" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="195" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>712</v>
       </c>
@@ -17504,7 +18090,7 @@
         <v>713</v>
       </c>
       <c r="C195" t="s">
-        <v>1473</v>
+        <v>714</v>
       </c>
       <c r="D195" t="s">
         <v>27</v>
@@ -17560,14 +18146,17 @@
       <c r="V195">
         <v>0</v>
       </c>
-      <c r="W195" t="s">
+      <c r="W195">
+        <v>1</v>
+      </c>
+      <c r="X195" t="s">
         <v>715</v>
       </c>
-      <c r="X195" t="s">
+      <c r="Y195" t="s">
         <v>716</v>
       </c>
     </row>
-    <row r="196" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="196" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>712</v>
       </c>
@@ -17575,7 +18164,7 @@
         <v>713</v>
       </c>
       <c r="C196" t="s">
-        <v>1474</v>
+        <v>717</v>
       </c>
       <c r="D196" t="s">
         <v>27</v>
@@ -17631,14 +18220,17 @@
       <c r="V196">
         <v>0</v>
       </c>
-      <c r="W196" t="s">
+      <c r="W196">
+        <v>1</v>
+      </c>
+      <c r="X196" t="s">
         <v>715</v>
       </c>
-      <c r="X196" t="s">
+      <c r="Y196" t="s">
         <v>716</v>
       </c>
     </row>
-    <row r="197" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="197" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>718</v>
       </c>
@@ -17696,14 +18288,17 @@
       <c r="V197">
         <v>0</v>
       </c>
-      <c r="W197" t="s">
+      <c r="W197">
+        <v>0</v>
+      </c>
+      <c r="X197" t="s">
         <v>721</v>
       </c>
-      <c r="X197" t="s">
+      <c r="Y197" t="s">
         <v>722</v>
       </c>
     </row>
-    <row r="198" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="198" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>718</v>
       </c>
@@ -17761,14 +18356,17 @@
       <c r="V198">
         <v>0</v>
       </c>
-      <c r="W198" t="s">
+      <c r="W198">
+        <v>0</v>
+      </c>
+      <c r="X198" t="s">
         <v>721</v>
       </c>
-      <c r="X198" t="s">
+      <c r="Y198" t="s">
         <v>722</v>
       </c>
     </row>
-    <row r="199" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="199" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>718</v>
       </c>
@@ -17826,14 +18424,17 @@
       <c r="V199">
         <v>0</v>
       </c>
-      <c r="W199" t="s">
+      <c r="W199">
+        <v>0</v>
+      </c>
+      <c r="X199" t="s">
         <v>721</v>
       </c>
-      <c r="X199" t="s">
+      <c r="Y199" t="s">
         <v>722</v>
       </c>
     </row>
-    <row r="200" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="200" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>718</v>
       </c>
@@ -17891,14 +18492,17 @@
       <c r="V200">
         <v>0</v>
       </c>
-      <c r="W200" t="s">
+      <c r="W200">
+        <v>0</v>
+      </c>
+      <c r="X200" t="s">
         <v>721</v>
       </c>
-      <c r="X200" t="s">
+      <c r="Y200" t="s">
         <v>722</v>
       </c>
     </row>
-    <row r="201" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="201" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>718</v>
       </c>
@@ -17956,14 +18560,17 @@
       <c r="V201">
         <v>0</v>
       </c>
-      <c r="W201" t="s">
+      <c r="W201">
+        <v>0</v>
+      </c>
+      <c r="X201" t="s">
         <v>721</v>
       </c>
-      <c r="X201" t="s">
+      <c r="Y201" t="s">
         <v>722</v>
       </c>
     </row>
-    <row r="202" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="202" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>718</v>
       </c>
@@ -18021,14 +18628,17 @@
       <c r="V202">
         <v>0</v>
       </c>
-      <c r="W202" t="s">
+      <c r="W202">
+        <v>0</v>
+      </c>
+      <c r="X202" t="s">
         <v>721</v>
       </c>
-      <c r="X202" t="s">
+      <c r="Y202" t="s">
         <v>722</v>
       </c>
     </row>
-    <row r="203" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="203" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>728</v>
       </c>
@@ -18053,14 +18663,17 @@
       <c r="V203">
         <v>0</v>
       </c>
-      <c r="W203" t="s">
+      <c r="W203">
+        <v>0</v>
+      </c>
+      <c r="X203" t="s">
         <v>730</v>
       </c>
-      <c r="X203" t="s">
+      <c r="Y203" t="s">
         <v>731</v>
       </c>
     </row>
-    <row r="204" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="204" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>728</v>
       </c>
@@ -18085,14 +18698,17 @@
       <c r="V204">
         <v>0</v>
       </c>
-      <c r="W204" t="s">
+      <c r="W204">
+        <v>0</v>
+      </c>
+      <c r="X204" t="s">
         <v>730</v>
       </c>
-      <c r="X204" t="s">
+      <c r="Y204" t="s">
         <v>731</v>
       </c>
     </row>
-    <row r="205" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="205" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>733</v>
       </c>
@@ -18150,14 +18766,17 @@
       <c r="V205">
         <v>1</v>
       </c>
-      <c r="W205" t="s">
+      <c r="W205">
+        <v>0</v>
+      </c>
+      <c r="X205" t="s">
         <v>736</v>
       </c>
-      <c r="X205" t="s">
+      <c r="Y205" t="s">
         <v>737</v>
       </c>
     </row>
-    <row r="206" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="206" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>738</v>
       </c>
@@ -18215,14 +18834,17 @@
       <c r="V206">
         <v>0</v>
       </c>
-      <c r="W206" t="s">
+      <c r="W206">
+        <v>0</v>
+      </c>
+      <c r="X206" t="s">
         <v>741</v>
       </c>
-      <c r="X206" t="s">
+      <c r="Y206" t="s">
         <v>742</v>
       </c>
     </row>
-    <row r="207" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="207" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>738</v>
       </c>
@@ -18280,14 +18902,17 @@
       <c r="V207">
         <v>0</v>
       </c>
-      <c r="W207" t="s">
+      <c r="W207">
+        <v>0</v>
+      </c>
+      <c r="X207" t="s">
         <v>741</v>
       </c>
-      <c r="X207" t="s">
+      <c r="Y207" t="s">
         <v>742</v>
       </c>
     </row>
-    <row r="208" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="208" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>738</v>
       </c>
@@ -18345,14 +18970,17 @@
       <c r="V208">
         <v>0</v>
       </c>
-      <c r="W208" t="s">
+      <c r="W208">
+        <v>0</v>
+      </c>
+      <c r="X208" t="s">
         <v>741</v>
       </c>
-      <c r="X208" t="s">
+      <c r="Y208" t="s">
         <v>742</v>
       </c>
     </row>
-    <row r="209" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="209" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>738</v>
       </c>
@@ -18410,14 +19038,17 @@
       <c r="V209">
         <v>0</v>
       </c>
-      <c r="W209" t="s">
+      <c r="W209">
+        <v>0</v>
+      </c>
+      <c r="X209" t="s">
         <v>741</v>
       </c>
-      <c r="X209" t="s">
+      <c r="Y209" t="s">
         <v>742</v>
       </c>
     </row>
-    <row r="210" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="210" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>746</v>
       </c>
@@ -18475,14 +19106,17 @@
       <c r="V210">
         <v>1</v>
       </c>
-      <c r="W210" t="s">
+      <c r="W210">
+        <v>0</v>
+      </c>
+      <c r="X210" t="s">
         <v>749</v>
       </c>
-      <c r="X210" t="s">
+      <c r="Y210" t="s">
         <v>750</v>
       </c>
     </row>
-    <row r="211" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="211" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>751</v>
       </c>
@@ -18549,14 +19183,17 @@
       <c r="V211">
         <v>0</v>
       </c>
-      <c r="W211" t="s">
+      <c r="W211">
+        <v>0</v>
+      </c>
+      <c r="X211" t="s">
         <v>754</v>
       </c>
-      <c r="X211" t="s">
+      <c r="Y211" t="s">
         <v>755</v>
       </c>
     </row>
-    <row r="212" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="212" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>756</v>
       </c>
@@ -18614,14 +19251,17 @@
       <c r="V212">
         <v>1</v>
       </c>
-      <c r="W212" t="s">
+      <c r="W212">
+        <v>0</v>
+      </c>
+      <c r="X212" t="s">
         <v>759</v>
       </c>
-      <c r="X212" t="s">
+      <c r="Y212" t="s">
         <v>760</v>
       </c>
     </row>
-    <row r="213" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="213" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>756</v>
       </c>
@@ -18679,14 +19319,17 @@
       <c r="V213">
         <v>0</v>
       </c>
-      <c r="W213" t="s">
+      <c r="W213">
+        <v>0</v>
+      </c>
+      <c r="X213" t="s">
         <v>759</v>
       </c>
-      <c r="X213" t="s">
+      <c r="Y213" t="s">
         <v>760</v>
       </c>
     </row>
-    <row r="214" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="214" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>762</v>
       </c>
@@ -18750,14 +19393,17 @@
       <c r="V214">
         <v>0</v>
       </c>
-      <c r="W214" t="s">
+      <c r="W214">
+        <v>0</v>
+      </c>
+      <c r="X214" t="s">
         <v>765</v>
       </c>
-      <c r="X214" t="s">
+      <c r="Y214" t="s">
         <v>766</v>
       </c>
     </row>
-    <row r="215" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="215" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>762</v>
       </c>
@@ -18821,14 +19467,17 @@
       <c r="V215">
         <v>0</v>
       </c>
-      <c r="W215" t="s">
+      <c r="W215">
+        <v>1</v>
+      </c>
+      <c r="X215" t="s">
         <v>765</v>
       </c>
-      <c r="X215" t="s">
+      <c r="Y215" t="s">
         <v>766</v>
       </c>
     </row>
-    <row r="216" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="216" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>768</v>
       </c>
@@ -18883,14 +19532,17 @@
       <c r="V216">
         <v>0</v>
       </c>
-      <c r="W216" t="s">
+      <c r="W216">
+        <v>0</v>
+      </c>
+      <c r="X216" t="s">
         <v>771</v>
       </c>
-      <c r="X216" t="s">
+      <c r="Y216" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="217" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="217" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>773</v>
       </c>
@@ -18948,14 +19600,17 @@
       <c r="V217">
         <v>0</v>
       </c>
-      <c r="W217" t="s">
+      <c r="W217">
+        <v>1</v>
+      </c>
+      <c r="X217" t="s">
         <v>776</v>
       </c>
-      <c r="X217" t="s">
+      <c r="Y217" t="s">
         <v>777</v>
       </c>
     </row>
-    <row r="218" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="218" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>778</v>
       </c>
@@ -19019,14 +19674,17 @@
       <c r="V218">
         <v>0</v>
       </c>
-      <c r="W218" t="s">
+      <c r="W218">
+        <v>1</v>
+      </c>
+      <c r="X218" t="s">
         <v>781</v>
       </c>
-      <c r="X218" t="s">
+      <c r="Y218" t="s">
         <v>782</v>
       </c>
     </row>
-    <row r="219" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="219" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>783</v>
       </c>
@@ -19087,14 +19745,17 @@
       <c r="V219">
         <v>0</v>
       </c>
-      <c r="W219" t="s">
+      <c r="W219">
+        <v>0</v>
+      </c>
+      <c r="X219" t="s">
         <v>786</v>
       </c>
-      <c r="X219" t="s">
+      <c r="Y219" t="s">
         <v>787</v>
       </c>
     </row>
-    <row r="220" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="220" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>788</v>
       </c>
@@ -19155,14 +19816,17 @@
       <c r="V220">
         <v>0</v>
       </c>
-      <c r="W220" t="s">
+      <c r="W220">
+        <v>0</v>
+      </c>
+      <c r="X220" t="s">
         <v>791</v>
       </c>
-      <c r="X220" t="s">
+      <c r="Y220" t="s">
         <v>792</v>
       </c>
     </row>
-    <row r="221" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="221" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>793</v>
       </c>
@@ -19223,14 +19887,17 @@
       <c r="V221">
         <v>0</v>
       </c>
-      <c r="W221" t="s">
+      <c r="W221">
+        <v>0</v>
+      </c>
+      <c r="X221" t="s">
         <v>796</v>
       </c>
-      <c r="X221" t="s">
+      <c r="Y221" t="s">
         <v>797</v>
       </c>
     </row>
-    <row r="222" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="222" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>798</v>
       </c>
@@ -19285,14 +19952,17 @@
       <c r="V222">
         <v>0</v>
       </c>
-      <c r="W222" t="s">
+      <c r="W222">
+        <v>0</v>
+      </c>
+      <c r="X222" t="s">
         <v>801</v>
       </c>
-      <c r="X222" t="s">
+      <c r="Y222" t="s">
         <v>802</v>
       </c>
     </row>
-    <row r="223" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="223" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>798</v>
       </c>
@@ -19347,14 +20017,17 @@
       <c r="V223">
         <v>0</v>
       </c>
-      <c r="W223" t="s">
+      <c r="W223">
+        <v>0</v>
+      </c>
+      <c r="X223" t="s">
         <v>801</v>
       </c>
-      <c r="X223" t="s">
+      <c r="Y223" t="s">
         <v>802</v>
       </c>
     </row>
-    <row r="224" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="224" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>798</v>
       </c>
@@ -19409,14 +20082,17 @@
       <c r="V224">
         <v>0</v>
       </c>
-      <c r="W224" t="s">
+      <c r="W224">
+        <v>0</v>
+      </c>
+      <c r="X224" t="s">
         <v>801</v>
       </c>
-      <c r="X224" t="s">
+      <c r="Y224" t="s">
         <v>802</v>
       </c>
     </row>
-    <row r="225" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="225" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>798</v>
       </c>
@@ -19471,14 +20147,17 @@
       <c r="V225">
         <v>0</v>
       </c>
-      <c r="W225" t="s">
+      <c r="W225">
+        <v>0</v>
+      </c>
+      <c r="X225" t="s">
         <v>801</v>
       </c>
-      <c r="X225" t="s">
+      <c r="Y225" t="s">
         <v>802</v>
       </c>
     </row>
-    <row r="226" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="226" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>798</v>
       </c>
@@ -19533,14 +20212,17 @@
       <c r="V226">
         <v>0</v>
       </c>
-      <c r="W226" t="s">
+      <c r="W226">
+        <v>0</v>
+      </c>
+      <c r="X226" t="s">
         <v>801</v>
       </c>
-      <c r="X226" t="s">
+      <c r="Y226" t="s">
         <v>802</v>
       </c>
     </row>
-    <row r="227" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="227" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>798</v>
       </c>
@@ -19595,14 +20277,17 @@
       <c r="V227">
         <v>0</v>
       </c>
-      <c r="W227" t="s">
+      <c r="W227">
+        <v>0</v>
+      </c>
+      <c r="X227" t="s">
         <v>801</v>
       </c>
-      <c r="X227" t="s">
+      <c r="Y227" t="s">
         <v>802</v>
       </c>
     </row>
-    <row r="228" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="228" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>808</v>
       </c>
@@ -19610,7 +20295,7 @@
         <v>809</v>
       </c>
       <c r="C228" t="s">
-        <v>810</v>
+        <v>1475</v>
       </c>
       <c r="D228" t="s">
         <v>27</v>
@@ -19663,14 +20348,17 @@
       <c r="V228">
         <v>0</v>
       </c>
-      <c r="W228" t="s">
+      <c r="W228">
+        <v>0</v>
+      </c>
+      <c r="X228" t="s">
         <v>811</v>
       </c>
-      <c r="X228" t="s">
+      <c r="Y228" t="s">
         <v>812</v>
       </c>
     </row>
-    <row r="229" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="229" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>808</v>
       </c>
@@ -19678,7 +20366,7 @@
         <v>809</v>
       </c>
       <c r="C229" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="D229" t="s">
         <v>27</v>
@@ -19731,14 +20419,17 @@
       <c r="V229">
         <v>0</v>
       </c>
-      <c r="W229" t="s">
+      <c r="W229">
+        <v>0</v>
+      </c>
+      <c r="X229" t="s">
         <v>811</v>
       </c>
-      <c r="X229" t="s">
+      <c r="Y229" t="s">
         <v>812</v>
       </c>
     </row>
-    <row r="230" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="230" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>808</v>
       </c>
@@ -19746,7 +20437,7 @@
         <v>809</v>
       </c>
       <c r="C230" t="s">
-        <v>1475</v>
+        <v>813</v>
       </c>
       <c r="D230" t="s">
         <v>27</v>
@@ -19799,14 +20490,17 @@
       <c r="V230">
         <v>0</v>
       </c>
-      <c r="W230" t="s">
+      <c r="W230">
+        <v>0</v>
+      </c>
+      <c r="X230" t="s">
         <v>811</v>
       </c>
-      <c r="X230" t="s">
+      <c r="Y230" t="s">
         <v>812</v>
       </c>
     </row>
-    <row r="231" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="231" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>814</v>
       </c>
@@ -19864,14 +20558,17 @@
       <c r="V231">
         <v>1</v>
       </c>
-      <c r="W231" t="s">
+      <c r="W231">
+        <v>0</v>
+      </c>
+      <c r="X231" t="s">
         <v>817</v>
       </c>
-      <c r="X231" t="s">
+      <c r="Y231" t="s">
         <v>818</v>
       </c>
     </row>
-    <row r="232" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="232" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>819</v>
       </c>
@@ -19926,14 +20623,17 @@
       <c r="V232">
         <v>0</v>
       </c>
-      <c r="W232" t="s">
+      <c r="W232">
+        <v>0</v>
+      </c>
+      <c r="X232" t="s">
         <v>822</v>
       </c>
-      <c r="X232" t="s">
+      <c r="Y232" t="s">
         <v>823</v>
       </c>
     </row>
-    <row r="233" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="233" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>824</v>
       </c>
@@ -19991,14 +20691,17 @@
       <c r="V233">
         <v>0</v>
       </c>
-      <c r="W233" t="s">
+      <c r="W233">
+        <v>0</v>
+      </c>
+      <c r="X233" t="s">
         <v>827</v>
       </c>
-      <c r="X233" t="s">
+      <c r="Y233" t="s">
         <v>828</v>
       </c>
     </row>
-    <row r="234" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="234" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>824</v>
       </c>
@@ -20056,14 +20759,17 @@
       <c r="V234">
         <v>0</v>
       </c>
-      <c r="W234" t="s">
+      <c r="W234">
+        <v>0</v>
+      </c>
+      <c r="X234" t="s">
         <v>827</v>
       </c>
-      <c r="X234" t="s">
+      <c r="Y234" t="s">
         <v>828</v>
       </c>
     </row>
-    <row r="235" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="235" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>824</v>
       </c>
@@ -20121,14 +20827,17 @@
       <c r="V235">
         <v>0</v>
       </c>
-      <c r="W235" t="s">
+      <c r="W235">
+        <v>0</v>
+      </c>
+      <c r="X235" t="s">
         <v>827</v>
       </c>
-      <c r="X235" t="s">
+      <c r="Y235" t="s">
         <v>828</v>
       </c>
     </row>
-    <row r="236" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="236" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>831</v>
       </c>
@@ -20195,14 +20904,17 @@
       <c r="V236">
         <v>0</v>
       </c>
-      <c r="W236" t="s">
+      <c r="W236">
+        <v>0</v>
+      </c>
+      <c r="X236" t="s">
         <v>834</v>
       </c>
-      <c r="X236" t="s">
+      <c r="Y236" t="s">
         <v>835</v>
       </c>
     </row>
-    <row r="237" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="237" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>836</v>
       </c>
@@ -20260,14 +20972,17 @@
       <c r="V237">
         <v>0</v>
       </c>
-      <c r="W237" t="s">
+      <c r="W237">
+        <v>0</v>
+      </c>
+      <c r="X237" t="s">
         <v>839</v>
       </c>
-      <c r="X237" t="s">
+      <c r="Y237" t="s">
         <v>840</v>
       </c>
     </row>
-    <row r="238" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="238" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>841</v>
       </c>
@@ -20331,14 +21046,17 @@
       <c r="V238">
         <v>0</v>
       </c>
-      <c r="W238" t="s">
+      <c r="W238">
+        <v>0</v>
+      </c>
+      <c r="X238" t="s">
         <v>844</v>
       </c>
-      <c r="X238" t="s">
+      <c r="Y238" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="239" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="239" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>846</v>
       </c>
@@ -20396,14 +21114,17 @@
       <c r="V239">
         <v>0</v>
       </c>
-      <c r="W239" t="s">
+      <c r="W239">
+        <v>0</v>
+      </c>
+      <c r="X239" t="s">
         <v>849</v>
       </c>
-      <c r="X239" t="s">
+      <c r="Y239" t="s">
         <v>850</v>
       </c>
     </row>
-    <row r="240" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="240" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>846</v>
       </c>
@@ -20461,14 +21182,17 @@
       <c r="V240">
         <v>0</v>
       </c>
-      <c r="W240" t="s">
+      <c r="W240">
+        <v>0</v>
+      </c>
+      <c r="X240" t="s">
         <v>849</v>
       </c>
-      <c r="X240" t="s">
+      <c r="Y240" t="s">
         <v>850</v>
       </c>
     </row>
-    <row r="241" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="241" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>852</v>
       </c>
@@ -20526,14 +21250,17 @@
       <c r="V241">
         <v>0</v>
       </c>
-      <c r="W241" t="s">
+      <c r="W241">
+        <v>0</v>
+      </c>
+      <c r="X241" t="s">
         <v>855</v>
       </c>
-      <c r="X241" t="s">
+      <c r="Y241" t="s">
         <v>856</v>
       </c>
     </row>
-    <row r="242" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="242" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>852</v>
       </c>
@@ -20591,14 +21318,17 @@
       <c r="V242">
         <v>0</v>
       </c>
-      <c r="W242" t="s">
+      <c r="W242">
+        <v>0</v>
+      </c>
+      <c r="X242" t="s">
         <v>855</v>
       </c>
-      <c r="X242" t="s">
+      <c r="Y242" t="s">
         <v>856</v>
       </c>
     </row>
-    <row r="243" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="243" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>852</v>
       </c>
@@ -20656,14 +21386,17 @@
       <c r="V243">
         <v>0</v>
       </c>
-      <c r="W243" t="s">
+      <c r="W243">
+        <v>0</v>
+      </c>
+      <c r="X243" t="s">
         <v>855</v>
       </c>
-      <c r="X243" t="s">
+      <c r="Y243" t="s">
         <v>856</v>
       </c>
     </row>
-    <row r="244" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="244" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>852</v>
       </c>
@@ -20721,14 +21454,17 @@
       <c r="V244">
         <v>0</v>
       </c>
-      <c r="W244" t="s">
+      <c r="W244">
+        <v>0</v>
+      </c>
+      <c r="X244" t="s">
         <v>855</v>
       </c>
-      <c r="X244" t="s">
+      <c r="Y244" t="s">
         <v>856</v>
       </c>
     </row>
-    <row r="245" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="245" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>860</v>
       </c>
@@ -20795,14 +21531,17 @@
       <c r="V245">
         <v>0</v>
       </c>
-      <c r="W245" t="s">
+      <c r="W245">
+        <v>0</v>
+      </c>
+      <c r="X245" t="s">
         <v>863</v>
       </c>
-      <c r="X245" t="s">
+      <c r="Y245" t="s">
         <v>864</v>
       </c>
     </row>
-    <row r="246" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="246" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>865</v>
       </c>
@@ -20863,14 +21602,17 @@
       <c r="V246">
         <v>0</v>
       </c>
-      <c r="W246" t="s">
+      <c r="W246">
+        <v>1</v>
+      </c>
+      <c r="X246" t="s">
         <v>868</v>
       </c>
-      <c r="X246" t="s">
+      <c r="Y246" t="s">
         <v>869</v>
       </c>
     </row>
-    <row r="247" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="247" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>870</v>
       </c>
@@ -20928,14 +21670,17 @@
       <c r="V247">
         <v>0</v>
       </c>
-      <c r="W247" t="s">
+      <c r="W247">
+        <v>0</v>
+      </c>
+      <c r="X247" t="s">
         <v>873</v>
       </c>
-      <c r="X247" t="s">
+      <c r="Y247" t="s">
         <v>874</v>
       </c>
     </row>
-    <row r="248" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="248" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>875</v>
       </c>
@@ -20993,14 +21738,17 @@
       <c r="V248">
         <v>0</v>
       </c>
-      <c r="W248" t="s">
+      <c r="W248">
+        <v>0</v>
+      </c>
+      <c r="X248" t="s">
         <v>878</v>
       </c>
-      <c r="X248" t="s">
+      <c r="Y248" t="s">
         <v>879</v>
       </c>
     </row>
-    <row r="249" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="249" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>880</v>
       </c>
@@ -21058,14 +21806,17 @@
       <c r="V249">
         <v>0</v>
       </c>
-      <c r="W249" t="s">
+      <c r="W249">
+        <v>0</v>
+      </c>
+      <c r="X249" t="s">
         <v>883</v>
       </c>
-      <c r="X249" t="s">
+      <c r="Y249" t="s">
         <v>884</v>
       </c>
     </row>
-    <row r="250" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="250" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>885</v>
       </c>
@@ -21120,14 +21871,17 @@
       <c r="V250">
         <v>0</v>
       </c>
-      <c r="W250" t="s">
+      <c r="W250">
+        <v>0</v>
+      </c>
+      <c r="X250" t="s">
         <v>888</v>
       </c>
-      <c r="X250" t="s">
+      <c r="Y250" t="s">
         <v>889</v>
       </c>
     </row>
-    <row r="251" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="251" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>885</v>
       </c>
@@ -21182,14 +21936,17 @@
       <c r="V251">
         <v>0</v>
       </c>
-      <c r="W251" t="s">
+      <c r="W251">
+        <v>0</v>
+      </c>
+      <c r="X251" t="s">
         <v>888</v>
       </c>
-      <c r="X251" t="s">
+      <c r="Y251" t="s">
         <v>889</v>
       </c>
     </row>
-    <row r="252" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="252" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>891</v>
       </c>
@@ -21256,14 +22013,17 @@
       <c r="V252">
         <v>0</v>
       </c>
-      <c r="W252" t="s">
+      <c r="W252">
+        <v>1</v>
+      </c>
+      <c r="X252" t="s">
         <v>894</v>
       </c>
-      <c r="X252" t="s">
+      <c r="Y252" t="s">
         <v>895</v>
       </c>
     </row>
-    <row r="253" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="253" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>896</v>
       </c>
@@ -21330,14 +22090,17 @@
       <c r="V253">
         <v>1</v>
       </c>
-      <c r="W253" t="s">
+      <c r="W253">
+        <v>0</v>
+      </c>
+      <c r="X253" t="s">
         <v>899</v>
       </c>
-      <c r="X253" t="s">
+      <c r="Y253" t="s">
         <v>900</v>
       </c>
     </row>
-    <row r="254" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="254" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>901</v>
       </c>
@@ -21389,14 +22152,17 @@
       <c r="V254">
         <v>0</v>
       </c>
-      <c r="W254" t="s">
+      <c r="W254">
+        <v>0</v>
+      </c>
+      <c r="X254" t="s">
         <v>904</v>
       </c>
-      <c r="X254" t="s">
+      <c r="Y254" t="s">
         <v>905</v>
       </c>
     </row>
-    <row r="255" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="255" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>906</v>
       </c>
@@ -21448,8 +22214,11 @@
       <c r="V255">
         <v>0</v>
       </c>
-    </row>
-    <row r="256" spans="1:24" x14ac:dyDescent="0.75">
+      <c r="W255">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>909</v>
       </c>
@@ -21513,14 +22282,17 @@
       <c r="V256">
         <v>0</v>
       </c>
-      <c r="W256" t="s">
+      <c r="W256">
+        <v>1</v>
+      </c>
+      <c r="X256" t="s">
         <v>912</v>
       </c>
-      <c r="X256" t="s">
+      <c r="Y256" t="s">
         <v>913</v>
       </c>
     </row>
-    <row r="257" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="257" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>914</v>
       </c>
@@ -21587,14 +22359,17 @@
       <c r="V257">
         <v>0</v>
       </c>
-      <c r="W257" t="s">
+      <c r="W257">
+        <v>1</v>
+      </c>
+      <c r="X257" t="s">
         <v>917</v>
       </c>
-      <c r="X257" t="s">
+      <c r="Y257" t="s">
         <v>918</v>
       </c>
     </row>
-    <row r="258" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="258" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>919</v>
       </c>
@@ -21652,14 +22427,17 @@
       <c r="V258">
         <v>0</v>
       </c>
-      <c r="W258" t="s">
+      <c r="W258">
+        <v>1</v>
+      </c>
+      <c r="X258" t="s">
         <v>922</v>
       </c>
-      <c r="X258" t="s">
+      <c r="Y258" t="s">
         <v>923</v>
       </c>
     </row>
-    <row r="259" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="259" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>919</v>
       </c>
@@ -21717,14 +22495,17 @@
       <c r="V259">
         <v>0</v>
       </c>
-      <c r="W259" t="s">
+      <c r="W259">
+        <v>1</v>
+      </c>
+      <c r="X259" t="s">
         <v>922</v>
       </c>
-      <c r="X259" t="s">
+      <c r="Y259" t="s">
         <v>923</v>
       </c>
     </row>
-    <row r="260" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="260" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>919</v>
       </c>
@@ -21782,14 +22563,17 @@
       <c r="V260">
         <v>0</v>
       </c>
-      <c r="W260" t="s">
+      <c r="W260">
+        <v>1</v>
+      </c>
+      <c r="X260" t="s">
         <v>922</v>
       </c>
-      <c r="X260" t="s">
+      <c r="Y260" t="s">
         <v>923</v>
       </c>
     </row>
-    <row r="261" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="261" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>926</v>
       </c>
@@ -21841,8 +22625,11 @@
       <c r="V261">
         <v>0</v>
       </c>
-    </row>
-    <row r="262" spans="1:24" x14ac:dyDescent="0.75">
+      <c r="W261">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>929</v>
       </c>
@@ -21906,14 +22693,17 @@
       <c r="V262">
         <v>0</v>
       </c>
-      <c r="W262" t="s">
+      <c r="W262">
+        <v>1</v>
+      </c>
+      <c r="X262" t="s">
         <v>932</v>
       </c>
-      <c r="X262" t="s">
+      <c r="Y262" t="s">
         <v>933</v>
       </c>
     </row>
-    <row r="263" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="263" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>934</v>
       </c>
@@ -21968,14 +22758,17 @@
       <c r="V263">
         <v>0</v>
       </c>
-      <c r="W263" t="s">
+      <c r="W263">
+        <v>0</v>
+      </c>
+      <c r="X263" t="s">
         <v>937</v>
       </c>
-      <c r="X263" t="s">
+      <c r="Y263" t="s">
         <v>938</v>
       </c>
     </row>
-    <row r="264" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="264" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>934</v>
       </c>
@@ -22030,14 +22823,17 @@
       <c r="V264">
         <v>0</v>
       </c>
-      <c r="W264" t="s">
+      <c r="W264">
+        <v>0</v>
+      </c>
+      <c r="X264" t="s">
         <v>937</v>
       </c>
-      <c r="X264" t="s">
+      <c r="Y264" t="s">
         <v>938</v>
       </c>
     </row>
-    <row r="265" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="265" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>940</v>
       </c>
@@ -22104,14 +22900,17 @@
       <c r="V265">
         <v>0</v>
       </c>
-      <c r="W265" t="s">
+      <c r="W265">
+        <v>0</v>
+      </c>
+      <c r="X265" t="s">
         <v>943</v>
       </c>
-      <c r="X265" t="s">
+      <c r="Y265" t="s">
         <v>944</v>
       </c>
     </row>
-    <row r="266" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="266" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>945</v>
       </c>
@@ -22157,14 +22956,17 @@
       <c r="V266">
         <v>0</v>
       </c>
-      <c r="W266" t="s">
+      <c r="W266">
+        <v>0</v>
+      </c>
+      <c r="X266" t="s">
         <v>948</v>
       </c>
-      <c r="X266" t="s">
+      <c r="Y266" t="s">
         <v>949</v>
       </c>
     </row>
-    <row r="267" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="267" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>950</v>
       </c>
@@ -22228,14 +23030,17 @@
       <c r="V267">
         <v>0</v>
       </c>
-      <c r="W267" t="s">
+      <c r="W267">
+        <v>1</v>
+      </c>
+      <c r="X267" t="s">
         <v>953</v>
       </c>
-      <c r="X267" t="s">
+      <c r="Y267" t="s">
         <v>954</v>
       </c>
     </row>
-    <row r="268" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="268" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>955</v>
       </c>
@@ -22302,14 +23107,17 @@
       <c r="V268">
         <v>0</v>
       </c>
-      <c r="W268" t="s">
+      <c r="W268">
+        <v>0</v>
+      </c>
+      <c r="X268" t="s">
         <v>958</v>
       </c>
-      <c r="X268" t="s">
+      <c r="Y268" t="s">
         <v>959</v>
       </c>
     </row>
-    <row r="269" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="269" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>960</v>
       </c>
@@ -22355,14 +23163,17 @@
       <c r="V269">
         <v>0</v>
       </c>
-      <c r="W269" t="s">
+      <c r="W269">
+        <v>0</v>
+      </c>
+      <c r="X269" t="s">
         <v>963</v>
       </c>
-      <c r="X269" t="s">
+      <c r="Y269" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="270" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="270" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>965</v>
       </c>
@@ -22423,14 +23234,17 @@
       <c r="V270">
         <v>0</v>
       </c>
-      <c r="W270" t="s">
+      <c r="W270">
+        <v>0</v>
+      </c>
+      <c r="X270" t="s">
         <v>968</v>
       </c>
-      <c r="X270" t="s">
+      <c r="Y270" t="s">
         <v>969</v>
       </c>
     </row>
-    <row r="271" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="271" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>970</v>
       </c>
@@ -22488,14 +23302,17 @@
       <c r="V271">
         <v>0</v>
       </c>
-      <c r="W271" t="s">
+      <c r="W271">
+        <v>0</v>
+      </c>
+      <c r="X271" t="s">
         <v>973</v>
       </c>
-      <c r="X271" t="s">
+      <c r="Y271" t="s">
         <v>974</v>
       </c>
     </row>
-    <row r="272" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="272" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>975</v>
       </c>
@@ -22553,14 +23370,17 @@
       <c r="V272">
         <v>0</v>
       </c>
-      <c r="W272" t="s">
+      <c r="W272">
+        <v>0</v>
+      </c>
+      <c r="X272" t="s">
         <v>978</v>
       </c>
-      <c r="X272" t="s">
+      <c r="Y272" t="s">
         <v>979</v>
       </c>
     </row>
-    <row r="273" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="273" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>980</v>
       </c>
@@ -22615,14 +23435,17 @@
       <c r="V273">
         <v>0</v>
       </c>
-      <c r="W273" t="s">
+      <c r="W273">
+        <v>1</v>
+      </c>
+      <c r="X273" t="s">
         <v>983</v>
       </c>
-      <c r="X273" t="s">
+      <c r="Y273" t="s">
         <v>984</v>
       </c>
     </row>
-    <row r="274" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="274" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>985</v>
       </c>
@@ -22680,14 +23503,17 @@
       <c r="V274">
         <v>0</v>
       </c>
-      <c r="W274" t="s">
+      <c r="W274">
+        <v>1</v>
+      </c>
+      <c r="X274" t="s">
         <v>988</v>
       </c>
-      <c r="X274" t="s">
+      <c r="Y274" t="s">
         <v>989</v>
       </c>
     </row>
-    <row r="275" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="275" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>990</v>
       </c>
@@ -22745,14 +23571,17 @@
       <c r="V275">
         <v>1</v>
       </c>
-      <c r="W275" t="s">
+      <c r="W275">
+        <v>0</v>
+      </c>
+      <c r="X275" t="s">
         <v>993</v>
       </c>
-      <c r="X275" t="s">
+      <c r="Y275" t="s">
         <v>994</v>
       </c>
     </row>
-    <row r="276" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="276" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>995</v>
       </c>
@@ -22810,14 +23639,17 @@
       <c r="V276">
         <v>0</v>
       </c>
-      <c r="W276" t="s">
+      <c r="W276">
+        <v>1</v>
+      </c>
+      <c r="X276" t="s">
         <v>998</v>
       </c>
-      <c r="X276" t="s">
+      <c r="Y276" t="s">
         <v>999</v>
       </c>
     </row>
-    <row r="277" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="277" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>1000</v>
       </c>
@@ -22881,14 +23713,17 @@
       <c r="V277">
         <v>0</v>
       </c>
-      <c r="W277" t="s">
+      <c r="W277">
+        <v>0</v>
+      </c>
+      <c r="X277" t="s">
         <v>1003</v>
       </c>
-      <c r="X277" t="s">
+      <c r="Y277" t="s">
         <v>1004</v>
       </c>
     </row>
-    <row r="278" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="278" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>1005</v>
       </c>
@@ -22934,14 +23769,17 @@
       <c r="V278">
         <v>0</v>
       </c>
-      <c r="W278" t="s">
+      <c r="W278">
+        <v>0</v>
+      </c>
+      <c r="X278" t="s">
         <v>1008</v>
       </c>
-      <c r="X278" t="s">
+      <c r="Y278" t="s">
         <v>1009</v>
       </c>
     </row>
-    <row r="279" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="279" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>1005</v>
       </c>
@@ -22987,14 +23825,17 @@
       <c r="V279">
         <v>0</v>
       </c>
-      <c r="W279" t="s">
+      <c r="W279">
+        <v>0</v>
+      </c>
+      <c r="X279" t="s">
         <v>1008</v>
       </c>
-      <c r="X279" t="s">
+      <c r="Y279" t="s">
         <v>1009</v>
       </c>
     </row>
-    <row r="280" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="280" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>1011</v>
       </c>
@@ -23058,14 +23899,17 @@
       <c r="V280">
         <v>0</v>
       </c>
-      <c r="W280" t="s">
+      <c r="W280">
+        <v>0</v>
+      </c>
+      <c r="X280" t="s">
         <v>1014</v>
       </c>
-      <c r="X280" t="s">
+      <c r="Y280" t="s">
         <v>1015</v>
       </c>
     </row>
-    <row r="281" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="281" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>1016</v>
       </c>
@@ -23123,14 +23967,17 @@
       <c r="V281">
         <v>0</v>
       </c>
-      <c r="W281" t="s">
+      <c r="W281">
+        <v>0</v>
+      </c>
+      <c r="X281" t="s">
         <v>1019</v>
       </c>
-      <c r="X281" t="s">
+      <c r="Y281" t="s">
         <v>1020</v>
       </c>
     </row>
-    <row r="282" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="282" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>1021</v>
       </c>
@@ -23188,14 +24035,17 @@
       <c r="V282">
         <v>0</v>
       </c>
-      <c r="W282" t="s">
+      <c r="W282">
+        <v>0</v>
+      </c>
+      <c r="X282" t="s">
         <v>1024</v>
       </c>
-      <c r="X282" t="s">
+      <c r="Y282" t="s">
         <v>1025</v>
       </c>
     </row>
-    <row r="283" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="283" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>1026</v>
       </c>
@@ -23253,14 +24103,17 @@
       <c r="V283">
         <v>0</v>
       </c>
-      <c r="W283" t="s">
+      <c r="W283">
+        <v>1</v>
+      </c>
+      <c r="X283" t="s">
         <v>1029</v>
       </c>
-      <c r="X283" t="s">
+      <c r="Y283" t="s">
         <v>1030</v>
       </c>
     </row>
-    <row r="284" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="284" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>1031</v>
       </c>
@@ -23318,14 +24171,17 @@
       <c r="V284">
         <v>0</v>
       </c>
-      <c r="W284" t="s">
+      <c r="W284">
+        <v>0</v>
+      </c>
+      <c r="X284" t="s">
         <v>1034</v>
       </c>
-      <c r="X284" t="s">
+      <c r="Y284" t="s">
         <v>1035</v>
       </c>
     </row>
-    <row r="285" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="285" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>1036</v>
       </c>
@@ -23386,14 +24242,17 @@
       <c r="V285">
         <v>0</v>
       </c>
-      <c r="W285" t="s">
+      <c r="W285">
+        <v>0</v>
+      </c>
+      <c r="X285" t="s">
         <v>1039</v>
       </c>
-      <c r="X285" t="s">
+      <c r="Y285" t="s">
         <v>1040</v>
       </c>
     </row>
-    <row r="286" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="286" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>1041</v>
       </c>
@@ -23448,14 +24307,17 @@
       <c r="V286">
         <v>0</v>
       </c>
-      <c r="W286" t="s">
+      <c r="W286">
+        <v>0</v>
+      </c>
+      <c r="X286" t="s">
         <v>1044</v>
       </c>
-      <c r="X286" t="s">
+      <c r="Y286" t="s">
         <v>1045</v>
       </c>
     </row>
-    <row r="287" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="287" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>1041</v>
       </c>
@@ -23510,14 +24372,17 @@
       <c r="V287">
         <v>0</v>
       </c>
-      <c r="W287" t="s">
+      <c r="W287">
+        <v>0</v>
+      </c>
+      <c r="X287" t="s">
         <v>1044</v>
       </c>
-      <c r="X287" t="s">
+      <c r="Y287" t="s">
         <v>1045</v>
       </c>
     </row>
-    <row r="288" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="288" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>1041</v>
       </c>
@@ -23525,7 +24390,7 @@
         <v>1042</v>
       </c>
       <c r="C288" t="s">
-        <v>1047</v>
+        <v>1446</v>
       </c>
       <c r="D288" t="s">
         <v>39</v>
@@ -23572,14 +24437,17 @@
       <c r="V288">
         <v>0</v>
       </c>
-      <c r="W288" t="s">
+      <c r="W288">
+        <v>0</v>
+      </c>
+      <c r="X288" t="s">
         <v>1044</v>
       </c>
-      <c r="X288" t="s">
+      <c r="Y288" t="s">
         <v>1045</v>
       </c>
     </row>
-    <row r="289" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="289" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>1041</v>
       </c>
@@ -23587,7 +24455,7 @@
         <v>1042</v>
       </c>
       <c r="C289" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="D289" t="s">
         <v>39</v>
@@ -23634,14 +24502,17 @@
       <c r="V289">
         <v>0</v>
       </c>
-      <c r="W289" t="s">
+      <c r="W289">
+        <v>0</v>
+      </c>
+      <c r="X289" t="s">
         <v>1044</v>
       </c>
-      <c r="X289" t="s">
+      <c r="Y289" t="s">
         <v>1045</v>
       </c>
     </row>
-    <row r="290" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="290" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>1041</v>
       </c>
@@ -23649,7 +24520,7 @@
         <v>1042</v>
       </c>
       <c r="C290" t="s">
-        <v>1446</v>
+        <v>1048</v>
       </c>
       <c r="D290" t="s">
         <v>39</v>
@@ -23696,14 +24567,17 @@
       <c r="V290">
         <v>0</v>
       </c>
-      <c r="W290" t="s">
+      <c r="W290">
+        <v>0</v>
+      </c>
+      <c r="X290" t="s">
         <v>1044</v>
       </c>
-      <c r="X290" t="s">
+      <c r="Y290" t="s">
         <v>1045</v>
       </c>
     </row>
-    <row r="291" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="291" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>1049</v>
       </c>
@@ -23711,7 +24585,7 @@
         <v>1050</v>
       </c>
       <c r="C291" t="s">
-        <v>1051</v>
+        <v>1479</v>
       </c>
       <c r="D291" t="s">
         <v>66</v>
@@ -23764,14 +24638,17 @@
       <c r="V291">
         <v>0</v>
       </c>
-      <c r="W291" t="s">
+      <c r="W291">
+        <v>0</v>
+      </c>
+      <c r="X291" t="s">
         <v>1052</v>
       </c>
-      <c r="X291" t="s">
+      <c r="Y291" t="s">
         <v>1053</v>
       </c>
     </row>
-    <row r="292" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="292" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>1049</v>
       </c>
@@ -23779,7 +24656,7 @@
         <v>1050</v>
       </c>
       <c r="C292" t="s">
-        <v>1054</v>
+        <v>1478</v>
       </c>
       <c r="D292" t="s">
         <v>66</v>
@@ -23832,14 +24709,17 @@
       <c r="V292">
         <v>0</v>
       </c>
-      <c r="W292" t="s">
+      <c r="W292">
+        <v>0</v>
+      </c>
+      <c r="X292" t="s">
         <v>1052</v>
       </c>
-      <c r="X292" t="s">
+      <c r="Y292" t="s">
         <v>1053</v>
       </c>
     </row>
-    <row r="293" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="293" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>1049</v>
       </c>
@@ -23847,7 +24727,7 @@
         <v>1050</v>
       </c>
       <c r="C293" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
       <c r="D293" t="s">
         <v>66</v>
@@ -23900,14 +24780,17 @@
       <c r="V293">
         <v>0</v>
       </c>
-      <c r="W293" t="s">
+      <c r="W293">
+        <v>0</v>
+      </c>
+      <c r="X293" t="s">
         <v>1052</v>
       </c>
-      <c r="X293" t="s">
+      <c r="Y293" t="s">
         <v>1053</v>
       </c>
     </row>
-    <row r="294" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="294" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>1049</v>
       </c>
@@ -23915,7 +24798,7 @@
         <v>1050</v>
       </c>
       <c r="C294" t="s">
-        <v>1478</v>
+        <v>1054</v>
       </c>
       <c r="D294" t="s">
         <v>66</v>
@@ -23968,14 +24851,17 @@
       <c r="V294">
         <v>0</v>
       </c>
-      <c r="W294" t="s">
+      <c r="W294">
+        <v>0</v>
+      </c>
+      <c r="X294" t="s">
         <v>1052</v>
       </c>
-      <c r="X294" t="s">
+      <c r="Y294" t="s">
         <v>1053</v>
       </c>
     </row>
-    <row r="295" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="295" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>1049</v>
       </c>
@@ -23983,7 +24869,7 @@
         <v>1050</v>
       </c>
       <c r="C295" t="s">
-        <v>1479</v>
+        <v>1055</v>
       </c>
       <c r="D295" t="s">
         <v>66</v>
@@ -24036,14 +24922,17 @@
       <c r="V295">
         <v>0</v>
       </c>
-      <c r="W295" t="s">
+      <c r="W295">
+        <v>0</v>
+      </c>
+      <c r="X295" t="s">
         <v>1052</v>
       </c>
-      <c r="X295" t="s">
+      <c r="Y295" t="s">
         <v>1053</v>
       </c>
     </row>
-    <row r="296" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="296" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>1056</v>
       </c>
@@ -24107,14 +24996,17 @@
       <c r="V296">
         <v>0</v>
       </c>
-      <c r="W296" t="s">
+      <c r="W296">
+        <v>0</v>
+      </c>
+      <c r="X296" t="s">
         <v>1059</v>
       </c>
-      <c r="X296" t="s">
+      <c r="Y296" t="s">
         <v>1060</v>
       </c>
     </row>
-    <row r="297" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="297" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>1061</v>
       </c>
@@ -24122,7 +25014,7 @@
         <v>1062</v>
       </c>
       <c r="C297" t="s">
-        <v>1063</v>
+        <v>1444</v>
       </c>
       <c r="D297" t="s">
         <v>39</v>
@@ -24169,14 +25061,17 @@
       <c r="V297">
         <v>1</v>
       </c>
-      <c r="W297" t="s">
+      <c r="W297">
+        <v>0</v>
+      </c>
+      <c r="X297" t="s">
         <v>1064</v>
       </c>
-      <c r="X297" t="s">
+      <c r="Y297" t="s">
         <v>1065</v>
       </c>
     </row>
-    <row r="298" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="298" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>1061</v>
       </c>
@@ -24184,7 +25079,7 @@
         <v>1062</v>
       </c>
       <c r="C298" t="s">
-        <v>1066</v>
+        <v>1480</v>
       </c>
       <c r="D298" t="s">
         <v>39</v>
@@ -24231,14 +25126,17 @@
       <c r="V298">
         <v>1</v>
       </c>
-      <c r="W298" t="s">
+      <c r="W298">
+        <v>0</v>
+      </c>
+      <c r="X298" t="s">
         <v>1064</v>
       </c>
-      <c r="X298" t="s">
+      <c r="Y298" t="s">
         <v>1065</v>
       </c>
     </row>
-    <row r="299" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="299" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>1061</v>
       </c>
@@ -24246,7 +25144,7 @@
         <v>1062</v>
       </c>
       <c r="C299" t="s">
-        <v>1067</v>
+        <v>1063</v>
       </c>
       <c r="D299" t="s">
         <v>39</v>
@@ -24293,14 +25191,17 @@
       <c r="V299">
         <v>1</v>
       </c>
-      <c r="W299" t="s">
+      <c r="W299">
+        <v>0</v>
+      </c>
+      <c r="X299" t="s">
         <v>1064</v>
       </c>
-      <c r="X299" t="s">
+      <c r="Y299" t="s">
         <v>1065</v>
       </c>
     </row>
-    <row r="300" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="300" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>1061</v>
       </c>
@@ -24308,7 +25209,7 @@
         <v>1062</v>
       </c>
       <c r="C300" t="s">
-        <v>1444</v>
+        <v>1066</v>
       </c>
       <c r="D300" t="s">
         <v>39</v>
@@ -24355,14 +25256,17 @@
       <c r="V300">
         <v>1</v>
       </c>
-      <c r="W300" t="s">
+      <c r="W300">
+        <v>0</v>
+      </c>
+      <c r="X300" t="s">
         <v>1064</v>
       </c>
-      <c r="X300" t="s">
+      <c r="Y300" t="s">
         <v>1065</v>
       </c>
     </row>
-    <row r="301" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="301" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>1061</v>
       </c>
@@ -24370,7 +25274,7 @@
         <v>1062</v>
       </c>
       <c r="C301" t="s">
-        <v>1480</v>
+        <v>1067</v>
       </c>
       <c r="D301" t="s">
         <v>39</v>
@@ -24417,14 +25321,17 @@
       <c r="V301">
         <v>1</v>
       </c>
-      <c r="W301" t="s">
+      <c r="W301">
+        <v>0</v>
+      </c>
+      <c r="X301" t="s">
         <v>1064</v>
       </c>
-      <c r="X301" t="s">
+      <c r="Y301" t="s">
         <v>1065</v>
       </c>
     </row>
-    <row r="302" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="302" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>1068</v>
       </c>
@@ -24479,14 +25386,17 @@
       <c r="V302">
         <v>0</v>
       </c>
-      <c r="W302" t="s">
+      <c r="W302">
+        <v>0</v>
+      </c>
+      <c r="X302" t="s">
         <v>1071</v>
       </c>
-      <c r="X302" t="s">
+      <c r="Y302" t="s">
         <v>1072</v>
       </c>
     </row>
-    <row r="303" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="303" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>1068</v>
       </c>
@@ -24541,14 +25451,17 @@
       <c r="V303">
         <v>0</v>
       </c>
-      <c r="W303" t="s">
+      <c r="W303">
+        <v>0</v>
+      </c>
+      <c r="X303" t="s">
         <v>1071</v>
       </c>
-      <c r="X303" t="s">
+      <c r="Y303" t="s">
         <v>1072</v>
       </c>
     </row>
-    <row r="304" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="304" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>1074</v>
       </c>
@@ -24606,14 +25519,17 @@
       <c r="V304">
         <v>1</v>
       </c>
-      <c r="W304" t="s">
+      <c r="W304">
+        <v>0</v>
+      </c>
+      <c r="X304" t="s">
         <v>1077</v>
       </c>
-      <c r="X304" t="s">
+      <c r="Y304" t="s">
         <v>1078</v>
       </c>
     </row>
-    <row r="305" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="305" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>1079</v>
       </c>
@@ -24665,8 +25581,11 @@
       <c r="V305">
         <v>0</v>
       </c>
-    </row>
-    <row r="306" spans="1:24" x14ac:dyDescent="0.75">
+      <c r="W305">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>1079</v>
       </c>
@@ -24718,8 +25637,11 @@
       <c r="V306">
         <v>0</v>
       </c>
-    </row>
-    <row r="307" spans="1:24" x14ac:dyDescent="0.75">
+      <c r="W306">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="307" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>1083</v>
       </c>
@@ -24774,14 +25696,17 @@
       <c r="V307">
         <v>0</v>
       </c>
-      <c r="W307" t="s">
+      <c r="W307">
+        <v>0</v>
+      </c>
+      <c r="X307" t="s">
         <v>1086</v>
       </c>
-      <c r="X307" t="s">
+      <c r="Y307" t="s">
         <v>1087</v>
       </c>
     </row>
-    <row r="308" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="308" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>1088</v>
       </c>
@@ -24839,14 +25764,17 @@
       <c r="V308">
         <v>0</v>
       </c>
-      <c r="W308" t="s">
+      <c r="W308">
+        <v>0</v>
+      </c>
+      <c r="X308" t="s">
         <v>1091</v>
       </c>
-      <c r="X308" t="s">
+      <c r="Y308" t="s">
         <v>1092</v>
       </c>
     </row>
-    <row r="309" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="309" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>1088</v>
       </c>
@@ -24904,14 +25832,17 @@
       <c r="V309">
         <v>0</v>
       </c>
-      <c r="W309" t="s">
+      <c r="W309">
+        <v>0</v>
+      </c>
+      <c r="X309" t="s">
         <v>1091</v>
       </c>
-      <c r="X309" t="s">
+      <c r="Y309" t="s">
         <v>1092</v>
       </c>
     </row>
-    <row r="310" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="310" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>1094</v>
       </c>
@@ -24978,14 +25909,17 @@
       <c r="V310">
         <v>0</v>
       </c>
-      <c r="W310" t="s">
+      <c r="W310">
+        <v>1</v>
+      </c>
+      <c r="X310" t="s">
         <v>1097</v>
       </c>
-      <c r="X310" t="s">
+      <c r="Y310" t="s">
         <v>1098</v>
       </c>
     </row>
-    <row r="311" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="311" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>1099</v>
       </c>
@@ -25043,14 +25977,17 @@
       <c r="V311">
         <v>1</v>
       </c>
-      <c r="W311" t="s">
+      <c r="W311">
+        <v>0</v>
+      </c>
+      <c r="X311" t="s">
         <v>1102</v>
       </c>
-      <c r="X311" t="s">
+      <c r="Y311" t="s">
         <v>1103</v>
       </c>
     </row>
-    <row r="312" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="312" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>1461</v>
       </c>
@@ -25099,8 +26036,11 @@
       <c r="V312">
         <v>0</v>
       </c>
-    </row>
-    <row r="313" spans="1:24" x14ac:dyDescent="0.75">
+      <c r="W312">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="313" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>1104</v>
       </c>
@@ -25108,7 +26048,7 @@
         <v>1105</v>
       </c>
       <c r="C313" t="s">
-        <v>1109</v>
+        <v>1441</v>
       </c>
       <c r="D313" t="s">
         <v>51</v>
@@ -25161,14 +26101,17 @@
       <c r="V313">
         <v>1</v>
       </c>
-      <c r="W313" t="s">
+      <c r="W313">
+        <v>0</v>
+      </c>
+      <c r="X313" t="s">
         <v>1107</v>
       </c>
-      <c r="X313" t="s">
+      <c r="Y313" t="s">
         <v>1108</v>
       </c>
     </row>
-    <row r="314" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="314" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>1104</v>
       </c>
@@ -25229,14 +26172,17 @@
       <c r="V314">
         <v>1</v>
       </c>
-      <c r="W314" t="s">
+      <c r="W314">
+        <v>0</v>
+      </c>
+      <c r="X314" t="s">
         <v>1107</v>
       </c>
-      <c r="X314" t="s">
+      <c r="Y314" t="s">
         <v>1108</v>
       </c>
     </row>
-    <row r="315" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="315" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>1104</v>
       </c>
@@ -25244,7 +26190,7 @@
         <v>1105</v>
       </c>
       <c r="C315" t="s">
-        <v>1441</v>
+        <v>1109</v>
       </c>
       <c r="D315" t="s">
         <v>51</v>
@@ -25297,14 +26243,17 @@
       <c r="V315">
         <v>1</v>
       </c>
-      <c r="W315" t="s">
+      <c r="W315">
+        <v>0</v>
+      </c>
+      <c r="X315" t="s">
         <v>1107</v>
       </c>
-      <c r="X315" t="s">
+      <c r="Y315" t="s">
         <v>1108</v>
       </c>
     </row>
-    <row r="316" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="316" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>1110</v>
       </c>
@@ -25371,14 +26320,17 @@
       <c r="V316">
         <v>0</v>
       </c>
-      <c r="W316" t="s">
+      <c r="W316">
+        <v>0</v>
+      </c>
+      <c r="X316" t="s">
         <v>1113</v>
       </c>
-      <c r="X316" t="s">
+      <c r="Y316" t="s">
         <v>1114</v>
       </c>
     </row>
-    <row r="317" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="317" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>1115</v>
       </c>
@@ -25436,14 +26388,17 @@
       <c r="V317">
         <v>0</v>
       </c>
-      <c r="W317" t="s">
+      <c r="W317">
+        <v>1</v>
+      </c>
+      <c r="X317" t="s">
         <v>1118</v>
       </c>
-      <c r="X317" t="s">
+      <c r="Y317" t="s">
         <v>1119</v>
       </c>
     </row>
-    <row r="318" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="318" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>1120</v>
       </c>
@@ -25495,14 +26450,17 @@
       <c r="V318">
         <v>0</v>
       </c>
-      <c r="W318" t="s">
+      <c r="W318">
+        <v>0</v>
+      </c>
+      <c r="X318" t="s">
         <v>1123</v>
       </c>
-      <c r="X318" t="s">
+      <c r="Y318" t="s">
         <v>1124</v>
       </c>
     </row>
-    <row r="319" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="319" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>1120</v>
       </c>
@@ -25510,7 +26468,7 @@
         <v>1121</v>
       </c>
       <c r="C319" t="s">
-        <v>1125</v>
+        <v>1482</v>
       </c>
       <c r="D319" t="s">
         <v>27</v>
@@ -25554,14 +26512,17 @@
       <c r="V319">
         <v>0</v>
       </c>
-      <c r="W319" t="s">
+      <c r="W319">
+        <v>0</v>
+      </c>
+      <c r="X319" t="s">
         <v>1123</v>
       </c>
-      <c r="X319" t="s">
+      <c r="Y319" t="s">
         <v>1124</v>
       </c>
     </row>
-    <row r="320" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="320" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>1120</v>
       </c>
@@ -25569,7 +26530,7 @@
         <v>1121</v>
       </c>
       <c r="C320" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="D320" t="s">
         <v>27</v>
@@ -25613,14 +26574,17 @@
       <c r="V320">
         <v>0</v>
       </c>
-      <c r="W320" t="s">
+      <c r="W320">
+        <v>0</v>
+      </c>
+      <c r="X320" t="s">
         <v>1123</v>
       </c>
-      <c r="X320" t="s">
+      <c r="Y320" t="s">
         <v>1124</v>
       </c>
     </row>
-    <row r="321" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="321" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>1120</v>
       </c>
@@ -25672,14 +26636,17 @@
       <c r="V321">
         <v>0</v>
       </c>
-      <c r="W321" t="s">
+      <c r="W321">
+        <v>0</v>
+      </c>
+      <c r="X321" t="s">
         <v>1123</v>
       </c>
-      <c r="X321" t="s">
+      <c r="Y321" t="s">
         <v>1124</v>
       </c>
     </row>
-    <row r="322" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="322" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>1120</v>
       </c>
@@ -25687,7 +26654,7 @@
         <v>1121</v>
       </c>
       <c r="C322" t="s">
-        <v>1481</v>
+        <v>1126</v>
       </c>
       <c r="D322" t="s">
         <v>27</v>
@@ -25731,14 +26698,17 @@
       <c r="V322">
         <v>0</v>
       </c>
-      <c r="W322" t="s">
+      <c r="W322">
+        <v>0</v>
+      </c>
+      <c r="X322" t="s">
         <v>1123</v>
       </c>
-      <c r="X322" t="s">
+      <c r="Y322" t="s">
         <v>1124</v>
       </c>
     </row>
-    <row r="323" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="323" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>1120</v>
       </c>
@@ -25746,7 +26716,7 @@
         <v>1121</v>
       </c>
       <c r="C323" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
       <c r="D323" t="s">
         <v>27</v>
@@ -25790,14 +26760,17 @@
       <c r="V323">
         <v>0</v>
       </c>
-      <c r="W323" t="s">
+      <c r="W323">
+        <v>0</v>
+      </c>
+      <c r="X323" t="s">
         <v>1123</v>
       </c>
-      <c r="X323" t="s">
+      <c r="Y323" t="s">
         <v>1124</v>
       </c>
     </row>
-    <row r="324" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="324" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>1127</v>
       </c>
@@ -25805,7 +26778,7 @@
         <v>1128</v>
       </c>
       <c r="C324" t="s">
-        <v>1129</v>
+        <v>1483</v>
       </c>
       <c r="D324" t="s">
         <v>51</v>
@@ -25849,14 +26822,17 @@
       <c r="V324">
         <v>0</v>
       </c>
-      <c r="W324" t="s">
+      <c r="W324">
+        <v>0</v>
+      </c>
+      <c r="X324" t="s">
         <v>1130</v>
       </c>
-      <c r="X324" t="s">
+      <c r="Y324" t="s">
         <v>1131</v>
       </c>
     </row>
-    <row r="325" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="325" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>1127</v>
       </c>
@@ -25864,7 +26840,7 @@
         <v>1128</v>
       </c>
       <c r="C325" t="s">
-        <v>1132</v>
+        <v>1129</v>
       </c>
       <c r="D325" t="s">
         <v>51</v>
@@ -25908,14 +26884,17 @@
       <c r="V325">
         <v>0</v>
       </c>
-      <c r="W325" t="s">
+      <c r="W325">
+        <v>0</v>
+      </c>
+      <c r="X325" t="s">
         <v>1130</v>
       </c>
-      <c r="X325" t="s">
+      <c r="Y325" t="s">
         <v>1131</v>
       </c>
     </row>
-    <row r="326" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="326" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>1127</v>
       </c>
@@ -25923,7 +26902,7 @@
         <v>1128</v>
       </c>
       <c r="C326" t="s">
-        <v>1483</v>
+        <v>1132</v>
       </c>
       <c r="D326" t="s">
         <v>51</v>
@@ -25967,14 +26946,17 @@
       <c r="V326">
         <v>0</v>
       </c>
-      <c r="W326" t="s">
+      <c r="W326">
+        <v>0</v>
+      </c>
+      <c r="X326" t="s">
         <v>1130</v>
       </c>
-      <c r="X326" t="s">
+      <c r="Y326" t="s">
         <v>1131</v>
       </c>
     </row>
-    <row r="327" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="327" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>1133</v>
       </c>
@@ -25982,7 +26964,7 @@
         <v>1134</v>
       </c>
       <c r="C327" t="s">
-        <v>1135</v>
+        <v>1457</v>
       </c>
       <c r="D327" t="s">
         <v>66</v>
@@ -26020,8 +27002,11 @@
       <c r="V327">
         <v>0</v>
       </c>
-    </row>
-    <row r="328" spans="1:24" x14ac:dyDescent="0.75">
+      <c r="W327">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="328" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>1133</v>
       </c>
@@ -26029,7 +27014,7 @@
         <v>1134</v>
       </c>
       <c r="C328" t="s">
-        <v>1457</v>
+        <v>1135</v>
       </c>
       <c r="D328" t="s">
         <v>66</v>
@@ -26067,8 +27052,11 @@
       <c r="V328">
         <v>0</v>
       </c>
-    </row>
-    <row r="329" spans="1:24" x14ac:dyDescent="0.75">
+      <c r="W328">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="329" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>1136</v>
       </c>
@@ -26126,14 +27114,17 @@
       <c r="V329">
         <v>0</v>
       </c>
-      <c r="W329" t="s">
+      <c r="W329">
+        <v>1</v>
+      </c>
+      <c r="X329" t="s">
         <v>1139</v>
       </c>
-      <c r="X329" t="s">
+      <c r="Y329" t="s">
         <v>1140</v>
       </c>
     </row>
-    <row r="330" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="330" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>1136</v>
       </c>
@@ -26191,14 +27182,17 @@
       <c r="V330">
         <v>0</v>
       </c>
-      <c r="W330" t="s">
+      <c r="W330">
+        <v>1</v>
+      </c>
+      <c r="X330" t="s">
         <v>1139</v>
       </c>
-      <c r="X330" t="s">
+      <c r="Y330" t="s">
         <v>1140</v>
       </c>
     </row>
-    <row r="331" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="331" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>1142</v>
       </c>
@@ -26265,14 +27259,17 @@
       <c r="V331">
         <v>0</v>
       </c>
-      <c r="W331" t="s">
+      <c r="W331">
+        <v>1</v>
+      </c>
+      <c r="X331" t="s">
         <v>1145</v>
       </c>
-      <c r="X331" t="s">
+      <c r="Y331" t="s">
         <v>1146</v>
       </c>
     </row>
-    <row r="332" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="332" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>1147</v>
       </c>
@@ -26336,14 +27333,17 @@
       <c r="V332">
         <v>0</v>
       </c>
-      <c r="W332" t="s">
+      <c r="W332">
+        <v>0</v>
+      </c>
+      <c r="X332" t="s">
         <v>1150</v>
       </c>
-      <c r="X332" t="s">
+      <c r="Y332" t="s">
         <v>1151</v>
       </c>
     </row>
-    <row r="333" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="333" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>1152</v>
       </c>
@@ -26401,14 +27401,17 @@
       <c r="V333">
         <v>0</v>
       </c>
-      <c r="W333" t="s">
+      <c r="W333">
+        <v>0</v>
+      </c>
+      <c r="X333" t="s">
         <v>1155</v>
       </c>
-      <c r="X333" t="s">
+      <c r="Y333" t="s">
         <v>1156</v>
       </c>
     </row>
-    <row r="334" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="334" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>1157</v>
       </c>
@@ -26472,14 +27475,17 @@
       <c r="V334">
         <v>1</v>
       </c>
-      <c r="W334" t="s">
+      <c r="W334">
+        <v>0</v>
+      </c>
+      <c r="X334" t="s">
         <v>1160</v>
       </c>
-      <c r="X334" t="s">
+      <c r="Y334" t="s">
         <v>1161</v>
       </c>
     </row>
-    <row r="335" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="335" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>1162</v>
       </c>
@@ -26525,14 +27531,17 @@
       <c r="V335">
         <v>0</v>
       </c>
-      <c r="W335" t="s">
+      <c r="W335">
+        <v>0</v>
+      </c>
+      <c r="X335" t="s">
         <v>1165</v>
       </c>
-      <c r="X335" t="s">
+      <c r="Y335" t="s">
         <v>1166</v>
       </c>
     </row>
-    <row r="336" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="336" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>1162</v>
       </c>
@@ -26578,14 +27587,17 @@
       <c r="V336">
         <v>0</v>
       </c>
-      <c r="W336" t="s">
+      <c r="W336">
+        <v>0</v>
+      </c>
+      <c r="X336" t="s">
         <v>1165</v>
       </c>
-      <c r="X336" t="s">
+      <c r="Y336" t="s">
         <v>1166</v>
       </c>
     </row>
-    <row r="337" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="337" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>1162</v>
       </c>
@@ -26631,14 +27643,17 @@
       <c r="V337">
         <v>0</v>
       </c>
-      <c r="W337" t="s">
+      <c r="W337">
+        <v>0</v>
+      </c>
+      <c r="X337" t="s">
         <v>1165</v>
       </c>
-      <c r="X337" t="s">
+      <c r="Y337" t="s">
         <v>1166</v>
       </c>
     </row>
-    <row r="338" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="338" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>1169</v>
       </c>
@@ -26696,14 +27711,17 @@
       <c r="V338">
         <v>0</v>
       </c>
-      <c r="W338" t="s">
+      <c r="W338">
+        <v>0</v>
+      </c>
+      <c r="X338" t="s">
         <v>1172</v>
       </c>
-      <c r="X338" t="s">
+      <c r="Y338" t="s">
         <v>1173</v>
       </c>
     </row>
-    <row r="339" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="339" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>1169</v>
       </c>
@@ -26711,7 +27729,7 @@
         <v>1170</v>
       </c>
       <c r="C339" t="s">
-        <v>1174</v>
+        <v>1440</v>
       </c>
       <c r="D339" t="s">
         <v>66</v>
@@ -26761,14 +27779,17 @@
       <c r="V339">
         <v>0</v>
       </c>
-      <c r="W339" t="s">
+      <c r="W339">
+        <v>0</v>
+      </c>
+      <c r="X339" t="s">
         <v>1172</v>
       </c>
-      <c r="X339" t="s">
+      <c r="Y339" t="s">
         <v>1173</v>
       </c>
     </row>
-    <row r="340" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="340" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>1169</v>
       </c>
@@ -26776,7 +27797,7 @@
         <v>1170</v>
       </c>
       <c r="C340" t="s">
-        <v>1440</v>
+        <v>1174</v>
       </c>
       <c r="D340" t="s">
         <v>66</v>
@@ -26826,14 +27847,17 @@
       <c r="V340">
         <v>0</v>
       </c>
-      <c r="W340" t="s">
+      <c r="W340">
+        <v>0</v>
+      </c>
+      <c r="X340" t="s">
         <v>1172</v>
       </c>
-      <c r="X340" t="s">
+      <c r="Y340" t="s">
         <v>1173</v>
       </c>
     </row>
-    <row r="341" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="341" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>1175</v>
       </c>
@@ -26897,14 +27921,17 @@
       <c r="V341">
         <v>0</v>
       </c>
-      <c r="W341" t="s">
+      <c r="W341">
+        <v>0</v>
+      </c>
+      <c r="X341" t="s">
         <v>1178</v>
       </c>
-      <c r="X341" t="s">
+      <c r="Y341" t="s">
         <v>1179</v>
       </c>
     </row>
-    <row r="342" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="342" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>1180</v>
       </c>
@@ -26971,14 +27998,17 @@
       <c r="V342">
         <v>0</v>
       </c>
-      <c r="W342" t="s">
+      <c r="W342">
+        <v>0</v>
+      </c>
+      <c r="X342" t="s">
         <v>1183</v>
       </c>
-      <c r="X342" t="s">
+      <c r="Y342" t="s">
         <v>1184</v>
       </c>
     </row>
-    <row r="343" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="343" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>1185</v>
       </c>
@@ -27042,14 +28072,17 @@
       <c r="V343">
         <v>0</v>
       </c>
-      <c r="W343" t="s">
+      <c r="W343">
+        <v>0</v>
+      </c>
+      <c r="X343" t="s">
         <v>1188</v>
       </c>
-      <c r="X343" t="s">
+      <c r="Y343" t="s">
         <v>1189</v>
       </c>
     </row>
-    <row r="344" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="344" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>1190</v>
       </c>
@@ -27110,14 +28143,17 @@
       <c r="V344">
         <v>0</v>
       </c>
-      <c r="W344" t="s">
+      <c r="W344">
+        <v>0</v>
+      </c>
+      <c r="X344" t="s">
         <v>1193</v>
       </c>
-      <c r="X344" t="s">
+      <c r="Y344" t="s">
         <v>1194</v>
       </c>
     </row>
-    <row r="345" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="345" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>1190</v>
       </c>
@@ -27178,14 +28214,17 @@
       <c r="V345">
         <v>0</v>
       </c>
-      <c r="W345" t="s">
+      <c r="W345">
+        <v>0</v>
+      </c>
+      <c r="X345" t="s">
         <v>1193</v>
       </c>
-      <c r="X345" t="s">
+      <c r="Y345" t="s">
         <v>1194</v>
       </c>
     </row>
-    <row r="346" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="346" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>1196</v>
       </c>
@@ -27246,14 +28285,17 @@
       <c r="V346">
         <v>0</v>
       </c>
-      <c r="W346" t="s">
+      <c r="W346">
+        <v>0</v>
+      </c>
+      <c r="X346" t="s">
         <v>1199</v>
       </c>
-      <c r="X346" t="s">
+      <c r="Y346" t="s">
         <v>1200</v>
       </c>
     </row>
-    <row r="347" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="347" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>1201</v>
       </c>
@@ -27311,14 +28353,17 @@
       <c r="V347">
         <v>0</v>
       </c>
-      <c r="W347" t="s">
+      <c r="W347">
+        <v>0</v>
+      </c>
+      <c r="X347" t="s">
         <v>1204</v>
       </c>
-      <c r="X347" t="s">
+      <c r="Y347" t="s">
         <v>1205</v>
       </c>
     </row>
-    <row r="348" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="348" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>1206</v>
       </c>
@@ -27382,14 +28427,17 @@
       <c r="V348">
         <v>0</v>
       </c>
-      <c r="W348" t="s">
+      <c r="W348">
+        <v>1</v>
+      </c>
+      <c r="X348" t="s">
         <v>1209</v>
       </c>
-      <c r="X348" t="s">
+      <c r="Y348" t="s">
         <v>1210</v>
       </c>
     </row>
-    <row r="349" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="349" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>1206</v>
       </c>
@@ -27453,14 +28501,17 @@
       <c r="V349">
         <v>0</v>
       </c>
-      <c r="W349" t="s">
+      <c r="W349">
+        <v>1</v>
+      </c>
+      <c r="X349" t="s">
         <v>1209</v>
       </c>
-      <c r="X349" t="s">
+      <c r="Y349" t="s">
         <v>1210</v>
       </c>
     </row>
-    <row r="350" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="350" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>1206</v>
       </c>
@@ -27524,14 +28575,17 @@
       <c r="V350">
         <v>0</v>
       </c>
-      <c r="W350" t="s">
+      <c r="W350">
+        <v>0</v>
+      </c>
+      <c r="X350" t="s">
         <v>1209</v>
       </c>
-      <c r="X350" t="s">
+      <c r="Y350" t="s">
         <v>1210</v>
       </c>
     </row>
-    <row r="351" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="351" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>1213</v>
       </c>
@@ -27539,7 +28593,7 @@
         <v>1214</v>
       </c>
       <c r="C351" t="s">
-        <v>1215</v>
+        <v>1458</v>
       </c>
       <c r="D351" t="s">
         <v>27</v>
@@ -27592,14 +28646,17 @@
       <c r="V351">
         <v>0</v>
       </c>
-      <c r="W351" t="s">
+      <c r="W351">
+        <v>1</v>
+      </c>
+      <c r="X351" t="s">
         <v>1216</v>
       </c>
-      <c r="X351" t="s">
+      <c r="Y351" t="s">
         <v>1217</v>
       </c>
     </row>
-    <row r="352" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="352" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>1213</v>
       </c>
@@ -27607,7 +28664,7 @@
         <v>1214</v>
       </c>
       <c r="C352" t="s">
-        <v>1218</v>
+        <v>1215</v>
       </c>
       <c r="D352" t="s">
         <v>27</v>
@@ -27660,14 +28717,17 @@
       <c r="V352">
         <v>0</v>
       </c>
-      <c r="W352" t="s">
+      <c r="W352">
+        <v>0</v>
+      </c>
+      <c r="X352" t="s">
         <v>1216</v>
       </c>
-      <c r="X352" t="s">
+      <c r="Y352" t="s">
         <v>1217</v>
       </c>
     </row>
-    <row r="353" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="353" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>1213</v>
       </c>
@@ -27675,7 +28735,7 @@
         <v>1214</v>
       </c>
       <c r="C353" t="s">
-        <v>1458</v>
+        <v>1218</v>
       </c>
       <c r="D353" t="s">
         <v>27</v>
@@ -27728,14 +28788,17 @@
       <c r="V353">
         <v>0</v>
       </c>
-      <c r="W353" t="s">
+      <c r="W353">
+        <v>0</v>
+      </c>
+      <c r="X353" t="s">
         <v>1216</v>
       </c>
-      <c r="X353" t="s">
+      <c r="Y353" t="s">
         <v>1217</v>
       </c>
     </row>
-    <row r="354" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="354" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>1219</v>
       </c>
@@ -27799,14 +28862,17 @@
       <c r="V354">
         <v>0</v>
       </c>
-      <c r="W354" t="s">
+      <c r="W354">
+        <v>1</v>
+      </c>
+      <c r="X354" t="s">
         <v>1222</v>
       </c>
-      <c r="X354" t="s">
+      <c r="Y354" t="s">
         <v>1223</v>
       </c>
     </row>
-    <row r="355" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="355" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>1224</v>
       </c>
@@ -27864,14 +28930,17 @@
       <c r="V355">
         <v>1</v>
       </c>
-      <c r="W355" t="s">
+      <c r="W355">
+        <v>0</v>
+      </c>
+      <c r="X355" t="s">
         <v>1227</v>
       </c>
-      <c r="X355" t="s">
+      <c r="Y355" t="s">
         <v>1228</v>
       </c>
     </row>
-    <row r="356" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="356" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>1224</v>
       </c>
@@ -27929,14 +28998,17 @@
       <c r="V356">
         <v>1</v>
       </c>
-      <c r="W356" t="s">
+      <c r="W356">
+        <v>0</v>
+      </c>
+      <c r="X356" t="s">
         <v>1227</v>
       </c>
-      <c r="X356" t="s">
+      <c r="Y356" t="s">
         <v>1228</v>
       </c>
     </row>
-    <row r="357" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="357" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>1230</v>
       </c>
@@ -27997,14 +29069,17 @@
       <c r="V357">
         <v>0</v>
       </c>
-      <c r="W357" t="s">
+      <c r="W357">
+        <v>0</v>
+      </c>
+      <c r="X357" t="s">
         <v>1233</v>
       </c>
-      <c r="X357" t="s">
+      <c r="Y357" t="s">
         <v>1234</v>
       </c>
     </row>
-    <row r="358" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="358" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>1230</v>
       </c>
@@ -28012,7 +29087,7 @@
         <v>1231</v>
       </c>
       <c r="C358" t="s">
-        <v>1235</v>
+        <v>1448</v>
       </c>
       <c r="D358" t="s">
         <v>27</v>
@@ -28065,14 +29140,17 @@
       <c r="V358">
         <v>0</v>
       </c>
-      <c r="W358" t="s">
+      <c r="W358">
+        <v>0</v>
+      </c>
+      <c r="X358" t="s">
         <v>1233</v>
       </c>
-      <c r="X358" t="s">
+      <c r="Y358" t="s">
         <v>1234</v>
       </c>
     </row>
-    <row r="359" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="359" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>1230</v>
       </c>
@@ -28080,7 +29158,7 @@
         <v>1231</v>
       </c>
       <c r="C359" t="s">
-        <v>1448</v>
+        <v>1235</v>
       </c>
       <c r="D359" t="s">
         <v>27</v>
@@ -28133,14 +29211,17 @@
       <c r="V359">
         <v>0</v>
       </c>
-      <c r="W359" t="s">
+      <c r="W359">
+        <v>0</v>
+      </c>
+      <c r="X359" t="s">
         <v>1233</v>
       </c>
-      <c r="X359" t="s">
+      <c r="Y359" t="s">
         <v>1234</v>
       </c>
     </row>
-    <row r="360" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="360" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>1236</v>
       </c>
@@ -28207,14 +29288,17 @@
       <c r="V360">
         <v>0</v>
       </c>
-      <c r="W360" t="s">
+      <c r="W360">
+        <v>0</v>
+      </c>
+      <c r="X360" t="s">
         <v>1239</v>
       </c>
-      <c r="X360" t="s">
+      <c r="Y360" t="s">
         <v>1240</v>
       </c>
     </row>
-    <row r="361" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="361" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>1241</v>
       </c>
@@ -28281,14 +29365,17 @@
       <c r="V361">
         <v>0</v>
       </c>
-      <c r="W361" t="s">
+      <c r="W361">
+        <v>0</v>
+      </c>
+      <c r="X361" t="s">
         <v>1244</v>
       </c>
-      <c r="X361" t="s">
+      <c r="Y361" t="s">
         <v>1245</v>
       </c>
     </row>
-    <row r="362" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="362" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>1246</v>
       </c>
@@ -28346,14 +29433,17 @@
       <c r="V362">
         <v>0</v>
       </c>
-      <c r="W362" t="s">
+      <c r="W362">
+        <v>0</v>
+      </c>
+      <c r="X362" t="s">
         <v>1249</v>
       </c>
-      <c r="X362" t="s">
+      <c r="Y362" t="s">
         <v>1250</v>
       </c>
     </row>
-    <row r="363" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="363" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>1251</v>
       </c>
@@ -28411,14 +29501,17 @@
       <c r="V363">
         <v>0</v>
       </c>
-      <c r="W363" t="s">
+      <c r="W363">
+        <v>0</v>
+      </c>
+      <c r="X363" t="s">
         <v>1254</v>
       </c>
-      <c r="X363" t="s">
+      <c r="Y363" t="s">
         <v>1255</v>
       </c>
     </row>
-    <row r="364" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="364" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>1256</v>
       </c>
@@ -28464,8 +29557,11 @@
       <c r="V364">
         <v>0</v>
       </c>
-    </row>
-    <row r="365" spans="1:24" x14ac:dyDescent="0.75">
+      <c r="W364">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="365" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>1256</v>
       </c>
@@ -28511,8 +29607,11 @@
       <c r="V365">
         <v>0</v>
       </c>
-    </row>
-    <row r="366" spans="1:24" x14ac:dyDescent="0.75">
+      <c r="W365">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="366" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>1260</v>
       </c>
@@ -28570,14 +29669,17 @@
       <c r="V366">
         <v>0</v>
       </c>
-      <c r="W366" t="s">
+      <c r="W366">
+        <v>0</v>
+      </c>
+      <c r="X366" t="s">
         <v>1263</v>
       </c>
-      <c r="X366" t="s">
+      <c r="Y366" t="s">
         <v>1264</v>
       </c>
     </row>
-    <row r="367" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="367" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>1265</v>
       </c>
@@ -28585,7 +29687,7 @@
         <v>1266</v>
       </c>
       <c r="C367" t="s">
-        <v>1267</v>
+        <v>1442</v>
       </c>
       <c r="D367" t="s">
         <v>39</v>
@@ -28635,14 +29737,17 @@
       <c r="V367">
         <v>0</v>
       </c>
-      <c r="W367" t="s">
+      <c r="W367">
+        <v>0</v>
+      </c>
+      <c r="X367" t="s">
         <v>1268</v>
       </c>
-      <c r="X367" t="s">
+      <c r="Y367" t="s">
         <v>1269</v>
       </c>
     </row>
-    <row r="368" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="368" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>1265</v>
       </c>
@@ -28650,7 +29755,7 @@
         <v>1266</v>
       </c>
       <c r="C368" t="s">
-        <v>1270</v>
+        <v>1267</v>
       </c>
       <c r="D368" t="s">
         <v>39</v>
@@ -28700,14 +29805,17 @@
       <c r="V368">
         <v>0</v>
       </c>
-      <c r="W368" t="s">
+      <c r="W368">
+        <v>0</v>
+      </c>
+      <c r="X368" t="s">
         <v>1268</v>
       </c>
-      <c r="X368" t="s">
+      <c r="Y368" t="s">
         <v>1269</v>
       </c>
     </row>
-    <row r="369" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="369" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>1265</v>
       </c>
@@ -28715,7 +29823,7 @@
         <v>1266</v>
       </c>
       <c r="C369" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="D369" t="s">
         <v>39</v>
@@ -28765,14 +29873,17 @@
       <c r="V369">
         <v>0</v>
       </c>
-      <c r="W369" t="s">
+      <c r="W369">
+        <v>0</v>
+      </c>
+      <c r="X369" t="s">
         <v>1268</v>
       </c>
-      <c r="X369" t="s">
+      <c r="Y369" t="s">
         <v>1269</v>
       </c>
     </row>
-    <row r="370" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="370" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>1265</v>
       </c>
@@ -28780,7 +29891,7 @@
         <v>1266</v>
       </c>
       <c r="C370" t="s">
-        <v>1442</v>
+        <v>1271</v>
       </c>
       <c r="D370" t="s">
         <v>39</v>
@@ -28830,14 +29941,17 @@
       <c r="V370">
         <v>0</v>
       </c>
-      <c r="W370" t="s">
+      <c r="W370">
+        <v>0</v>
+      </c>
+      <c r="X370" t="s">
         <v>1268</v>
       </c>
-      <c r="X370" t="s">
+      <c r="Y370" t="s">
         <v>1269</v>
       </c>
     </row>
-    <row r="371" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="371" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>1272</v>
       </c>
@@ -28895,14 +30009,17 @@
       <c r="V371">
         <v>0</v>
       </c>
-      <c r="W371" t="s">
+      <c r="W371">
+        <v>1</v>
+      </c>
+      <c r="X371" t="s">
         <v>1275</v>
       </c>
-      <c r="X371" t="s">
+      <c r="Y371" t="s">
         <v>1276</v>
       </c>
     </row>
-    <row r="372" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="372" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>1277</v>
       </c>
@@ -28910,7 +30027,7 @@
         <v>1278</v>
       </c>
       <c r="C372" t="s">
-        <v>1279</v>
+        <v>1485</v>
       </c>
       <c r="D372" t="s">
         <v>27</v>
@@ -28966,14 +30083,17 @@
       <c r="V372">
         <v>0</v>
       </c>
-      <c r="W372" t="s">
+      <c r="W372">
+        <v>1</v>
+      </c>
+      <c r="X372" t="s">
         <v>1280</v>
       </c>
-      <c r="X372" t="s">
+      <c r="Y372" t="s">
         <v>1281</v>
       </c>
     </row>
-    <row r="373" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="373" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>1277</v>
       </c>
@@ -29037,14 +30157,17 @@
       <c r="V373">
         <v>0</v>
       </c>
-      <c r="W373" t="s">
+      <c r="W373">
+        <v>1</v>
+      </c>
+      <c r="X373" t="s">
         <v>1280</v>
       </c>
-      <c r="X373" t="s">
+      <c r="Y373" t="s">
         <v>1281</v>
       </c>
     </row>
-    <row r="374" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="374" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>1277</v>
       </c>
@@ -29052,7 +30175,7 @@
         <v>1278</v>
       </c>
       <c r="C374" t="s">
-        <v>1485</v>
+        <v>1279</v>
       </c>
       <c r="D374" t="s">
         <v>27</v>
@@ -29108,14 +30231,17 @@
       <c r="V374">
         <v>0</v>
       </c>
-      <c r="W374" t="s">
+      <c r="W374">
+        <v>1</v>
+      </c>
+      <c r="X374" t="s">
         <v>1280</v>
       </c>
-      <c r="X374" t="s">
+      <c r="Y374" t="s">
         <v>1281</v>
       </c>
     </row>
-    <row r="375" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="375" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>1282</v>
       </c>
@@ -29173,14 +30299,17 @@
       <c r="V375">
         <v>1</v>
       </c>
-      <c r="W375" t="s">
+      <c r="W375">
+        <v>0</v>
+      </c>
+      <c r="X375" t="s">
         <v>1285</v>
       </c>
-      <c r="X375" t="s">
+      <c r="Y375" t="s">
         <v>1286</v>
       </c>
     </row>
-    <row r="376" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="376" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>1287</v>
       </c>
@@ -29238,14 +30367,17 @@
       <c r="V376">
         <v>0</v>
       </c>
-      <c r="W376" t="s">
+      <c r="W376">
+        <v>0</v>
+      </c>
+      <c r="X376" t="s">
         <v>1290</v>
       </c>
-      <c r="X376" t="s">
+      <c r="Y376" t="s">
         <v>1291</v>
       </c>
     </row>
-    <row r="377" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="377" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>1292</v>
       </c>
@@ -29303,8 +30435,11 @@
       <c r="V377">
         <v>0</v>
       </c>
-    </row>
-    <row r="378" spans="1:24" x14ac:dyDescent="0.75">
+      <c r="W377">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="378" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>1295</v>
       </c>
@@ -29335,14 +30470,17 @@
       <c r="V378">
         <v>0</v>
       </c>
-      <c r="W378" t="s">
+      <c r="W378">
+        <v>0</v>
+      </c>
+      <c r="X378" t="s">
         <v>1298</v>
       </c>
-      <c r="X378" t="s">
+      <c r="Y378" t="s">
         <v>1299</v>
       </c>
     </row>
-    <row r="379" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="379" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>1295</v>
       </c>
@@ -29373,14 +30511,17 @@
       <c r="V379">
         <v>0</v>
       </c>
-      <c r="W379" t="s">
+      <c r="W379">
+        <v>0</v>
+      </c>
+      <c r="X379" t="s">
         <v>1298</v>
       </c>
-      <c r="X379" t="s">
+      <c r="Y379" t="s">
         <v>1299</v>
       </c>
     </row>
-    <row r="380" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="380" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>1295</v>
       </c>
@@ -29411,14 +30552,17 @@
       <c r="V380">
         <v>0</v>
       </c>
-      <c r="W380" t="s">
+      <c r="W380">
+        <v>0</v>
+      </c>
+      <c r="X380" t="s">
         <v>1298</v>
       </c>
-      <c r="X380" t="s">
+      <c r="Y380" t="s">
         <v>1299</v>
       </c>
     </row>
-    <row r="381" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="381" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>1295</v>
       </c>
@@ -29449,14 +30593,17 @@
       <c r="V381">
         <v>0</v>
       </c>
-      <c r="W381" t="s">
+      <c r="W381">
+        <v>0</v>
+      </c>
+      <c r="X381" t="s">
         <v>1298</v>
       </c>
-      <c r="X381" t="s">
+      <c r="Y381" t="s">
         <v>1299</v>
       </c>
     </row>
-    <row r="382" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="382" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>1302</v>
       </c>
@@ -29523,14 +30670,17 @@
       <c r="V382">
         <v>0</v>
       </c>
-      <c r="W382" t="s">
+      <c r="W382">
+        <v>1</v>
+      </c>
+      <c r="X382" t="s">
         <v>1305</v>
       </c>
-      <c r="X382" t="s">
+      <c r="Y382" t="s">
         <v>1306</v>
       </c>
     </row>
-    <row r="383" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="383" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>1302</v>
       </c>
@@ -29597,14 +30747,17 @@
       <c r="V383">
         <v>0</v>
       </c>
-      <c r="W383" t="s">
+      <c r="W383">
+        <v>1</v>
+      </c>
+      <c r="X383" t="s">
         <v>1305</v>
       </c>
-      <c r="X383" t="s">
+      <c r="Y383" t="s">
         <v>1306</v>
       </c>
     </row>
-    <row r="384" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="384" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>1302</v>
       </c>
@@ -29671,14 +30824,17 @@
       <c r="V384">
         <v>0</v>
       </c>
-      <c r="W384" t="s">
+      <c r="W384">
+        <v>1</v>
+      </c>
+      <c r="X384" t="s">
         <v>1305</v>
       </c>
-      <c r="X384" t="s">
+      <c r="Y384" t="s">
         <v>1306</v>
       </c>
     </row>
-    <row r="385" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="385" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>1309</v>
       </c>
@@ -29745,14 +30901,17 @@
       <c r="V385">
         <v>0</v>
       </c>
-      <c r="W385" t="s">
+      <c r="W385">
+        <v>1</v>
+      </c>
+      <c r="X385" t="s">
         <v>1312</v>
       </c>
-      <c r="X385" t="s">
+      <c r="Y385" t="s">
         <v>1313</v>
       </c>
     </row>
-    <row r="386" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="386" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>1314</v>
       </c>
@@ -29810,14 +30969,17 @@
       <c r="V386">
         <v>0</v>
       </c>
-      <c r="W386" t="s">
+      <c r="W386">
+        <v>0</v>
+      </c>
+      <c r="X386" t="s">
         <v>1317</v>
       </c>
-      <c r="X386" t="s">
+      <c r="Y386" t="s">
         <v>1318</v>
       </c>
     </row>
-    <row r="387" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="387" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>1319</v>
       </c>
@@ -29825,7 +30987,7 @@
         <v>1320</v>
       </c>
       <c r="C387" t="s">
-        <v>1321</v>
+        <v>1452</v>
       </c>
       <c r="D387" t="s">
         <v>112</v>
@@ -29863,8 +31025,11 @@
       <c r="V387">
         <v>0</v>
       </c>
-    </row>
-    <row r="388" spans="1:24" x14ac:dyDescent="0.75">
+      <c r="W387">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="388" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>1319</v>
       </c>
@@ -29872,7 +31037,7 @@
         <v>1320</v>
       </c>
       <c r="C388" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="D388" t="s">
         <v>112</v>
@@ -29910,8 +31075,11 @@
       <c r="V388">
         <v>0</v>
       </c>
-    </row>
-    <row r="389" spans="1:24" x14ac:dyDescent="0.75">
+      <c r="W388">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="389" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>1319</v>
       </c>
@@ -29957,8 +31125,11 @@
       <c r="V389">
         <v>0</v>
       </c>
-    </row>
-    <row r="390" spans="1:24" x14ac:dyDescent="0.75">
+      <c r="W389">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="390" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>1319</v>
       </c>
@@ -29966,7 +31137,7 @@
         <v>1320</v>
       </c>
       <c r="C390" t="s">
-        <v>1452</v>
+        <v>1322</v>
       </c>
       <c r="D390" t="s">
         <v>112</v>
@@ -30004,8 +31175,11 @@
       <c r="V390">
         <v>0</v>
       </c>
-    </row>
-    <row r="391" spans="1:24" x14ac:dyDescent="0.75">
+      <c r="W390">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="391" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>1323</v>
       </c>
@@ -30069,14 +31243,17 @@
       <c r="V391">
         <v>0</v>
       </c>
-      <c r="W391" t="s">
+      <c r="W391">
+        <v>0</v>
+      </c>
+      <c r="X391" t="s">
         <v>1326</v>
       </c>
-      <c r="X391" t="s">
+      <c r="Y391" t="s">
         <v>1327</v>
       </c>
     </row>
-    <row r="392" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="392" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>1328</v>
       </c>
@@ -30134,14 +31311,17 @@
       <c r="V392">
         <v>0</v>
       </c>
-      <c r="W392" t="s">
+      <c r="W392">
+        <v>0</v>
+      </c>
+      <c r="X392" t="s">
         <v>1331</v>
       </c>
-      <c r="X392" t="s">
+      <c r="Y392" t="s">
         <v>1332</v>
       </c>
     </row>
-    <row r="393" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="393" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>1328</v>
       </c>
@@ -30199,14 +31379,17 @@
       <c r="V393">
         <v>0</v>
       </c>
-      <c r="W393" t="s">
+      <c r="W393">
+        <v>0</v>
+      </c>
+      <c r="X393" t="s">
         <v>1331</v>
       </c>
-      <c r="X393" t="s">
+      <c r="Y393" t="s">
         <v>1332</v>
       </c>
     </row>
-    <row r="394" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="394" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>1328</v>
       </c>
@@ -30264,14 +31447,17 @@
       <c r="V394">
         <v>0</v>
       </c>
-      <c r="W394" t="s">
+      <c r="W394">
+        <v>0</v>
+      </c>
+      <c r="X394" t="s">
         <v>1331</v>
       </c>
-      <c r="X394" t="s">
+      <c r="Y394" t="s">
         <v>1332</v>
       </c>
     </row>
-    <row r="395" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="395" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>1334</v>
       </c>
@@ -30329,14 +31515,17 @@
       <c r="V395">
         <v>0</v>
       </c>
-      <c r="W395" t="s">
+      <c r="W395">
+        <v>0</v>
+      </c>
+      <c r="X395" t="s">
         <v>1337</v>
       </c>
-      <c r="X395" t="s">
+      <c r="Y395" t="s">
         <v>1338</v>
       </c>
     </row>
-    <row r="396" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="396" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>1339</v>
       </c>
@@ -30382,14 +31571,17 @@
       <c r="V396">
         <v>0</v>
       </c>
-      <c r="W396" t="s">
+      <c r="W396">
+        <v>0</v>
+      </c>
+      <c r="X396" t="s">
         <v>1342</v>
       </c>
-      <c r="X396" t="s">
+      <c r="Y396" t="s">
         <v>1343</v>
       </c>
     </row>
-    <row r="397" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="397" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>1339</v>
       </c>
@@ -30435,14 +31627,17 @@
       <c r="V397">
         <v>0</v>
       </c>
-      <c r="W397" t="s">
+      <c r="W397">
+        <v>0</v>
+      </c>
+      <c r="X397" t="s">
         <v>1342</v>
       </c>
-      <c r="X397" t="s">
+      <c r="Y397" t="s">
         <v>1343</v>
       </c>
     </row>
-    <row r="398" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="398" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>1339</v>
       </c>
@@ -30488,14 +31683,17 @@
       <c r="V398">
         <v>0</v>
       </c>
-      <c r="W398" t="s">
+      <c r="W398">
+        <v>0</v>
+      </c>
+      <c r="X398" t="s">
         <v>1342</v>
       </c>
-      <c r="X398" t="s">
+      <c r="Y398" t="s">
         <v>1343</v>
       </c>
     </row>
-    <row r="399" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="399" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>1346</v>
       </c>
@@ -30503,7 +31701,7 @@
         <v>1347</v>
       </c>
       <c r="C399" t="s">
-        <v>1348</v>
+        <v>1487</v>
       </c>
       <c r="D399" t="s">
         <v>27</v>
@@ -30559,14 +31757,17 @@
       <c r="V399">
         <v>0</v>
       </c>
-      <c r="W399" t="s">
+      <c r="W399">
+        <v>0</v>
+      </c>
+      <c r="X399" t="s">
         <v>1349</v>
       </c>
-      <c r="X399" t="s">
+      <c r="Y399" t="s">
         <v>1350</v>
       </c>
     </row>
-    <row r="400" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="400" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>1346</v>
       </c>
@@ -30574,7 +31775,7 @@
         <v>1347</v>
       </c>
       <c r="C400" t="s">
-        <v>1351</v>
+        <v>1486</v>
       </c>
       <c r="D400" t="s">
         <v>27</v>
@@ -30630,14 +31831,17 @@
       <c r="V400">
         <v>0</v>
       </c>
-      <c r="W400" t="s">
+      <c r="W400">
+        <v>1</v>
+      </c>
+      <c r="X400" t="s">
         <v>1349</v>
       </c>
-      <c r="X400" t="s">
+      <c r="Y400" t="s">
         <v>1350</v>
       </c>
     </row>
-    <row r="401" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="401" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>1346</v>
       </c>
@@ -30645,7 +31849,7 @@
         <v>1347</v>
       </c>
       <c r="C401" t="s">
-        <v>1352</v>
+        <v>1348</v>
       </c>
       <c r="D401" t="s">
         <v>27</v>
@@ -30701,14 +31905,17 @@
       <c r="V401">
         <v>0</v>
       </c>
-      <c r="W401" t="s">
+      <c r="W401">
+        <v>1</v>
+      </c>
+      <c r="X401" t="s">
         <v>1349</v>
       </c>
-      <c r="X401" t="s">
+      <c r="Y401" t="s">
         <v>1350</v>
       </c>
     </row>
-    <row r="402" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="402" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>1346</v>
       </c>
@@ -30716,7 +31923,7 @@
         <v>1347</v>
       </c>
       <c r="C402" t="s">
-        <v>1353</v>
+        <v>1351</v>
       </c>
       <c r="D402" t="s">
         <v>27</v>
@@ -30772,14 +31979,17 @@
       <c r="V402">
         <v>0</v>
       </c>
-      <c r="W402" t="s">
+      <c r="W402">
+        <v>1</v>
+      </c>
+      <c r="X402" t="s">
         <v>1349</v>
       </c>
-      <c r="X402" t="s">
+      <c r="Y402" t="s">
         <v>1350</v>
       </c>
     </row>
-    <row r="403" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="403" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>1346</v>
       </c>
@@ -30787,7 +31997,7 @@
         <v>1347</v>
       </c>
       <c r="C403" t="s">
-        <v>1486</v>
+        <v>1352</v>
       </c>
       <c r="D403" t="s">
         <v>27</v>
@@ -30843,14 +32053,17 @@
       <c r="V403">
         <v>0</v>
       </c>
-      <c r="W403" t="s">
+      <c r="W403">
+        <v>1</v>
+      </c>
+      <c r="X403" t="s">
         <v>1349</v>
       </c>
-      <c r="X403" t="s">
+      <c r="Y403" t="s">
         <v>1350</v>
       </c>
     </row>
-    <row r="404" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="404" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>1346</v>
       </c>
@@ -30858,7 +32071,7 @@
         <v>1347</v>
       </c>
       <c r="C404" t="s">
-        <v>1487</v>
+        <v>1353</v>
       </c>
       <c r="D404" t="s">
         <v>27</v>
@@ -30914,14 +32127,17 @@
       <c r="V404">
         <v>0</v>
       </c>
-      <c r="W404" t="s">
+      <c r="W404">
+        <v>1</v>
+      </c>
+      <c r="X404" t="s">
         <v>1349</v>
       </c>
-      <c r="X404" t="s">
+      <c r="Y404" t="s">
         <v>1350</v>
       </c>
     </row>
-    <row r="405" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="405" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>1354</v>
       </c>
@@ -30985,14 +32201,17 @@
       <c r="V405">
         <v>0</v>
       </c>
-      <c r="W405" t="s">
+      <c r="W405">
+        <v>0</v>
+      </c>
+      <c r="X405" t="s">
         <v>1357</v>
       </c>
-      <c r="X405" t="s">
+      <c r="Y405" t="s">
         <v>1358</v>
       </c>
     </row>
-    <row r="406" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="406" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>1354</v>
       </c>
@@ -31056,14 +32275,17 @@
       <c r="V406">
         <v>0</v>
       </c>
-      <c r="W406" t="s">
+      <c r="W406">
+        <v>0</v>
+      </c>
+      <c r="X406" t="s">
         <v>1357</v>
       </c>
-      <c r="X406" t="s">
+      <c r="Y406" t="s">
         <v>1358</v>
       </c>
     </row>
-    <row r="407" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="407" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>1354</v>
       </c>
@@ -31127,14 +32349,17 @@
       <c r="V407">
         <v>0</v>
       </c>
-      <c r="W407" t="s">
+      <c r="W407">
+        <v>0</v>
+      </c>
+      <c r="X407" t="s">
         <v>1357</v>
       </c>
-      <c r="X407" t="s">
+      <c r="Y407" t="s">
         <v>1358</v>
       </c>
     </row>
-    <row r="408" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="408" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>1354</v>
       </c>
@@ -31198,14 +32423,17 @@
       <c r="V408">
         <v>0</v>
       </c>
-      <c r="W408" t="s">
+      <c r="W408">
+        <v>0</v>
+      </c>
+      <c r="X408" t="s">
         <v>1357</v>
       </c>
-      <c r="X408" t="s">
+      <c r="Y408" t="s">
         <v>1358</v>
       </c>
     </row>
-    <row r="409" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="409" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>1354</v>
       </c>
@@ -31269,14 +32497,17 @@
       <c r="V409">
         <v>0</v>
       </c>
-      <c r="W409" t="s">
+      <c r="W409">
+        <v>0</v>
+      </c>
+      <c r="X409" t="s">
         <v>1357</v>
       </c>
-      <c r="X409" t="s">
+      <c r="Y409" t="s">
         <v>1358</v>
       </c>
     </row>
-    <row r="410" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="410" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
         <v>1363</v>
       </c>
@@ -31337,14 +32568,17 @@
       <c r="V410">
         <v>0</v>
       </c>
-      <c r="W410" t="s">
+      <c r="W410">
+        <v>0</v>
+      </c>
+      <c r="X410" t="s">
         <v>1366</v>
       </c>
-      <c r="X410" t="s">
+      <c r="Y410" t="s">
         <v>1367</v>
       </c>
     </row>
-    <row r="411" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="411" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
         <v>1363</v>
       </c>
@@ -31405,14 +32639,17 @@
       <c r="V411">
         <v>0</v>
       </c>
-      <c r="W411" t="s">
+      <c r="W411">
+        <v>0</v>
+      </c>
+      <c r="X411" t="s">
         <v>1366</v>
       </c>
-      <c r="X411" t="s">
+      <c r="Y411" t="s">
         <v>1367</v>
       </c>
     </row>
-    <row r="412" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="412" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
         <v>1369</v>
       </c>
@@ -31473,14 +32710,17 @@
       <c r="V412">
         <v>0</v>
       </c>
-      <c r="W412" t="s">
+      <c r="W412">
+        <v>0</v>
+      </c>
+      <c r="X412" t="s">
         <v>1372</v>
       </c>
-      <c r="X412" t="s">
+      <c r="Y412" t="s">
         <v>1373</v>
       </c>
     </row>
-    <row r="413" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="413" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
         <v>1369</v>
       </c>
@@ -31541,14 +32781,17 @@
       <c r="V413">
         <v>0</v>
       </c>
-      <c r="W413" t="s">
+      <c r="W413">
+        <v>0</v>
+      </c>
+      <c r="X413" t="s">
         <v>1372</v>
       </c>
-      <c r="X413" t="s">
+      <c r="Y413" t="s">
         <v>1373</v>
       </c>
     </row>
-    <row r="414" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="414" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
         <v>1369</v>
       </c>
@@ -31609,14 +32852,17 @@
       <c r="V414">
         <v>0</v>
       </c>
-      <c r="W414" t="s">
+      <c r="W414">
+        <v>0</v>
+      </c>
+      <c r="X414" t="s">
         <v>1372</v>
       </c>
-      <c r="X414" t="s">
+      <c r="Y414" t="s">
         <v>1373</v>
       </c>
     </row>
-    <row r="415" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="415" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
         <v>1376</v>
       </c>
@@ -31674,14 +32920,17 @@
       <c r="V415">
         <v>0</v>
       </c>
-      <c r="W415" t="s">
+      <c r="W415">
+        <v>0</v>
+      </c>
+      <c r="X415" t="s">
         <v>1379</v>
       </c>
-      <c r="X415" t="s">
+      <c r="Y415" t="s">
         <v>1380</v>
       </c>
     </row>
-    <row r="416" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="416" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
         <v>1376</v>
       </c>
@@ -31739,14 +32988,17 @@
       <c r="V416">
         <v>0</v>
       </c>
-      <c r="W416" t="s">
+      <c r="W416">
+        <v>0</v>
+      </c>
+      <c r="X416" t="s">
         <v>1379</v>
       </c>
-      <c r="X416" t="s">
+      <c r="Y416" t="s">
         <v>1380</v>
       </c>
     </row>
-    <row r="417" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="417" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
         <v>1382</v>
       </c>
@@ -31804,14 +33056,17 @@
       <c r="V417">
         <v>0</v>
       </c>
-      <c r="W417" t="s">
+      <c r="W417">
+        <v>1</v>
+      </c>
+      <c r="X417" t="s">
         <v>1385</v>
       </c>
-      <c r="X417" t="s">
+      <c r="Y417" t="s">
         <v>1386</v>
       </c>
     </row>
-    <row r="418" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="418" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
         <v>1387</v>
       </c>
@@ -31857,14 +33112,17 @@
       <c r="V418">
         <v>0</v>
       </c>
-      <c r="W418" t="s">
+      <c r="W418">
+        <v>0</v>
+      </c>
+      <c r="X418" t="s">
         <v>1390</v>
       </c>
-      <c r="X418" t="s">
+      <c r="Y418" t="s">
         <v>1391</v>
       </c>
     </row>
-    <row r="419" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="419" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
         <v>1387</v>
       </c>
@@ -31910,14 +33168,17 @@
       <c r="V419">
         <v>0</v>
       </c>
-      <c r="W419" t="s">
+      <c r="W419">
+        <v>0</v>
+      </c>
+      <c r="X419" t="s">
         <v>1390</v>
       </c>
-      <c r="X419" t="s">
+      <c r="Y419" t="s">
         <v>1391</v>
       </c>
     </row>
-    <row r="420" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="420" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
         <v>1387</v>
       </c>
@@ -31963,14 +33224,17 @@
       <c r="V420">
         <v>0</v>
       </c>
-      <c r="W420" t="s">
+      <c r="W420">
+        <v>0</v>
+      </c>
+      <c r="X420" t="s">
         <v>1390</v>
       </c>
-      <c r="X420" t="s">
+      <c r="Y420" t="s">
         <v>1391</v>
       </c>
     </row>
-    <row r="421" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="421" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
         <v>1393</v>
       </c>
@@ -32028,14 +33292,17 @@
       <c r="V421">
         <v>0</v>
       </c>
-      <c r="W421" t="s">
+      <c r="W421">
+        <v>1</v>
+      </c>
+      <c r="X421" t="s">
         <v>1396</v>
       </c>
-      <c r="X421" t="s">
+      <c r="Y421" t="s">
         <v>1397</v>
       </c>
     </row>
-    <row r="422" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="422" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
         <v>1398</v>
       </c>
@@ -32093,14 +33360,17 @@
       <c r="V422">
         <v>1</v>
       </c>
-      <c r="W422" t="s">
+      <c r="W422">
+        <v>0</v>
+      </c>
+      <c r="X422" t="s">
         <v>1401</v>
       </c>
-      <c r="X422" t="s">
+      <c r="Y422" t="s">
         <v>1402</v>
       </c>
     </row>
-    <row r="423" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="423" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
         <v>1398</v>
       </c>
@@ -32158,14 +33428,17 @@
       <c r="V423">
         <v>1</v>
       </c>
-      <c r="W423" t="s">
+      <c r="W423">
+        <v>0</v>
+      </c>
+      <c r="X423" t="s">
         <v>1401</v>
       </c>
-      <c r="X423" t="s">
+      <c r="Y423" t="s">
         <v>1402</v>
       </c>
     </row>
-    <row r="424" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="424" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
         <v>1398</v>
       </c>
@@ -32223,14 +33496,17 @@
       <c r="V424">
         <v>1</v>
       </c>
-      <c r="W424" t="s">
+      <c r="W424">
+        <v>0</v>
+      </c>
+      <c r="X424" t="s">
         <v>1401</v>
       </c>
-      <c r="X424" t="s">
+      <c r="Y424" t="s">
         <v>1402</v>
       </c>
     </row>
-    <row r="425" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="425" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
         <v>1405</v>
       </c>
@@ -32294,14 +33570,17 @@
       <c r="V425">
         <v>0</v>
       </c>
-      <c r="W425" t="s">
+      <c r="W425">
+        <v>1</v>
+      </c>
+      <c r="X425" t="s">
         <v>1408</v>
       </c>
-      <c r="X425" t="s">
+      <c r="Y425" t="s">
         <v>1409</v>
       </c>
     </row>
-    <row r="426" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="426" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
         <v>1410</v>
       </c>
@@ -32368,14 +33647,17 @@
       <c r="V426">
         <v>0</v>
       </c>
-      <c r="W426" t="s">
+      <c r="W426">
+        <v>1</v>
+      </c>
+      <c r="X426" t="s">
         <v>1413</v>
       </c>
-      <c r="X426" t="s">
+      <c r="Y426" t="s">
         <v>1414</v>
       </c>
     </row>
-    <row r="427" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="427" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
         <v>1415</v>
       </c>
@@ -32439,14 +33721,17 @@
       <c r="V427">
         <v>0</v>
       </c>
-      <c r="W427" t="s">
+      <c r="W427">
+        <v>0</v>
+      </c>
+      <c r="X427" t="s">
         <v>1418</v>
       </c>
-      <c r="X427" t="s">
+      <c r="Y427" t="s">
         <v>1419</v>
       </c>
     </row>
-    <row r="428" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="428" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C428" t="s">
         <v>1420</v>
       </c>
@@ -32492,23 +33777,30 @@
       <c r="V428">
         <v>0</v>
       </c>
+      <c r="W428">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:X428" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:Y428">
+    <sortState ref="A2:Y428">
+      <sortCondition ref="A1:A428"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -32534,7 +33826,7 @@
         <v>1422</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>51</v>
       </c>
@@ -32560,7 +33852,7 @@
         <v>1424</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>27</v>
       </c>
@@ -32586,7 +33878,7 @@
         <v>1426</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>39</v>
       </c>
@@ -32612,7 +33904,7 @@
         <v>1428</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>66</v>
       </c>
@@ -32635,7 +33927,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>112</v>
       </c>
@@ -32658,7 +33950,7 @@
         <v>1430</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>294</v>
       </c>
@@ -32672,7 +33964,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>1431</v>
       </c>
@@ -32689,7 +33981,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>40</v>
       </c>
@@ -32703,7 +33995,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>91</v>
       </c>
@@ -32711,7 +34003,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>186</v>
       </c>
@@ -32719,7 +34011,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>67</v>
       </c>
@@ -32727,7 +34019,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>74</v>
       </c>
@@ -32735,7 +34027,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>143</v>
       </c>
@@ -32743,7 +34035,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>137</v>
       </c>
@@ -32751,7 +34043,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>460</v>
       </c>
@@ -32759,7 +34051,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.75">
+    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>483</v>
       </c>
@@ -32767,7 +34059,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.75">
+    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>113</v>
       </c>
@@ -32782,14 +34074,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1432</v>
       </c>
@@ -32800,7 +34092,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1433</v>
       </c>
@@ -32811,7 +34103,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1434</v>
       </c>
@@ -32822,7 +34114,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1435</v>
       </c>
@@ -32833,7 +34125,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>1436</v>
       </c>
@@ -32844,17 +34136,17 @@
         <v>92</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>52</v>
       </c>

--- a/Codes_Masterlist.xlsx
+++ b/Codes_Masterlist.xlsx
@@ -28647,7 +28647,7 @@
         <v>0</v>
       </c>
       <c r="W351">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X351" t="s">
         <v>1216</v>

--- a/Codes_Masterlist.xlsx
+++ b/Codes_Masterlist.xlsx
@@ -17,14 +17,14 @@
     <sheet name="World_Bank_Groupings" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Codes!$A$1:$Y$428</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Codes!$A$1:$Y$429</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4735" uniqueCount="1489">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4746" uniqueCount="1490">
   <si>
     <t>ISO3166.3</t>
   </si>
@@ -4491,6 +4491,9 @@
   </si>
   <si>
     <t>Commonwealth</t>
+  </si>
+  <si>
+    <t>North Macedonia</t>
   </si>
 </sst>
 </file>
@@ -4831,7 +4834,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y428"/>
+  <dimension ref="A1:Y429"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -21466,37 +21469,31 @@
     </row>
     <row r="245" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>860</v>
+        <v>852</v>
       </c>
       <c r="B245" t="s">
-        <v>861</v>
+        <v>853</v>
       </c>
       <c r="C245" t="s">
-        <v>862</v>
+        <v>1489</v>
       </c>
       <c r="D245" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="E245">
-        <v>2</v>
+        <v>150</v>
       </c>
       <c r="F245" t="s">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="G245">
-        <v>202</v>
-      </c>
-      <c r="H245" t="s">
-        <v>166</v>
-      </c>
-      <c r="I245">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="J245">
-        <v>466</v>
+        <v>807</v>
       </c>
       <c r="K245">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L245">
         <v>1</v>
@@ -21505,22 +21502,19 @@
         <v>0</v>
       </c>
       <c r="N245" t="s">
-        <v>30</v>
+        <v>68</v>
       </c>
       <c r="O245">
-        <v>678</v>
+        <v>962</v>
       </c>
       <c r="P245" t="s">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="Q245" t="s">
-        <v>52</v>
+        <v>76</v>
       </c>
       <c r="R245" t="s">
-        <v>43</v>
-      </c>
-      <c r="S245" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="T245">
         <v>0</v>
@@ -21535,110 +21529,116 @@
         <v>0</v>
       </c>
       <c r="X245" t="s">
-        <v>863</v>
+        <v>855</v>
       </c>
       <c r="Y245" t="s">
-        <v>864</v>
+        <v>856</v>
       </c>
     </row>
     <row r="246" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>865</v>
+        <v>860</v>
       </c>
       <c r="B246" t="s">
-        <v>866</v>
+        <v>861</v>
       </c>
       <c r="C246" t="s">
-        <v>867</v>
+        <v>862</v>
       </c>
       <c r="D246" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="E246">
-        <v>150</v>
+        <v>2</v>
       </c>
       <c r="F246" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="G246">
-        <v>39</v>
+        <v>202</v>
+      </c>
+      <c r="H246" t="s">
+        <v>166</v>
+      </c>
+      <c r="I246">
+        <v>11</v>
       </c>
       <c r="J246">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="K246">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L246">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M246">
         <v>0</v>
       </c>
       <c r="N246" t="s">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="O246">
-        <v>181</v>
+        <v>678</v>
       </c>
       <c r="P246" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="Q246" t="s">
-        <v>92</v>
+        <v>52</v>
       </c>
       <c r="R246" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="S246" t="s">
-        <v>144</v>
+        <v>44</v>
       </c>
       <c r="T246">
         <v>0</v>
       </c>
       <c r="U246">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V246">
         <v>0</v>
       </c>
       <c r="W246">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X246" t="s">
-        <v>868</v>
+        <v>863</v>
       </c>
       <c r="Y246" t="s">
-        <v>869</v>
+        <v>864</v>
       </c>
     </row>
     <row r="247" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>870</v>
+        <v>865</v>
       </c>
       <c r="B247" t="s">
-        <v>871</v>
+        <v>866</v>
       </c>
       <c r="C247" t="s">
-        <v>872</v>
+        <v>867</v>
       </c>
       <c r="D247" t="s">
+        <v>66</v>
+      </c>
+      <c r="E247">
+        <v>150</v>
+      </c>
+      <c r="F247" t="s">
+        <v>74</v>
+      </c>
+      <c r="G247">
         <v>39</v>
       </c>
-      <c r="E247">
-        <v>142</v>
-      </c>
-      <c r="F247" t="s">
-        <v>249</v>
-      </c>
-      <c r="G247">
-        <v>35</v>
-      </c>
       <c r="J247">
-        <v>104</v>
+        <v>470</v>
       </c>
       <c r="K247">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L247">
         <v>0</v>
@@ -21647,66 +21647,69 @@
         <v>0</v>
       </c>
       <c r="N247" t="s">
-        <v>30</v>
+        <v>68</v>
       </c>
       <c r="O247">
-        <v>518</v>
+        <v>181</v>
       </c>
       <c r="P247" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="Q247" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="R247" t="s">
-        <v>43</v>
+        <v>33</v>
+      </c>
+      <c r="S247" t="s">
+        <v>144</v>
       </c>
       <c r="T247">
         <v>0</v>
       </c>
       <c r="U247">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V247">
         <v>0</v>
       </c>
       <c r="W247">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X247" t="s">
-        <v>873</v>
+        <v>868</v>
       </c>
       <c r="Y247" t="s">
-        <v>874</v>
+        <v>869</v>
       </c>
     </row>
     <row r="248" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>875</v>
+        <v>870</v>
       </c>
       <c r="B248" t="s">
-        <v>876</v>
+        <v>871</v>
       </c>
       <c r="C248" t="s">
-        <v>877</v>
+        <v>872</v>
       </c>
       <c r="D248" t="s">
-        <v>66</v>
+        <v>39</v>
       </c>
       <c r="E248">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="F248" t="s">
-        <v>74</v>
+        <v>249</v>
       </c>
       <c r="G248">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="J248">
-        <v>499</v>
+        <v>104</v>
       </c>
       <c r="K248">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L248">
         <v>0</v>
@@ -21715,19 +21718,19 @@
         <v>0</v>
       </c>
       <c r="N248" t="s">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="O248">
-        <v>943</v>
+        <v>518</v>
       </c>
       <c r="P248" t="s">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="Q248" t="s">
-        <v>76</v>
+        <v>114</v>
       </c>
       <c r="R248" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="T248">
         <v>0</v>
@@ -21742,60 +21745,60 @@
         <v>0</v>
       </c>
       <c r="X248" t="s">
-        <v>878</v>
+        <v>873</v>
       </c>
       <c r="Y248" t="s">
-        <v>879</v>
+        <v>874</v>
       </c>
     </row>
     <row r="249" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
       <c r="B249" t="s">
-        <v>881</v>
+        <v>876</v>
       </c>
       <c r="C249" t="s">
-        <v>882</v>
+        <v>877</v>
       </c>
       <c r="D249" t="s">
+        <v>66</v>
+      </c>
+      <c r="E249">
+        <v>150</v>
+      </c>
+      <c r="F249" t="s">
+        <v>74</v>
+      </c>
+      <c r="G249">
         <v>39</v>
       </c>
-      <c r="E249">
-        <v>142</v>
-      </c>
-      <c r="F249" t="s">
-        <v>294</v>
-      </c>
-      <c r="G249">
-        <v>30</v>
-      </c>
       <c r="J249">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="K249">
         <v>0</v>
       </c>
       <c r="L249">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M249">
         <v>0</v>
       </c>
       <c r="N249" t="s">
-        <v>30</v>
+        <v>68</v>
       </c>
       <c r="O249">
-        <v>948</v>
+        <v>943</v>
       </c>
       <c r="P249" t="s">
-        <v>54</v>
+        <v>75</v>
       </c>
       <c r="Q249" t="s">
-        <v>114</v>
+        <v>76</v>
       </c>
       <c r="R249" t="s">
-        <v>307</v>
+        <v>55</v>
       </c>
       <c r="T249">
         <v>0</v>
@@ -21810,57 +21813,60 @@
         <v>0</v>
       </c>
       <c r="X249" t="s">
-        <v>883</v>
+        <v>878</v>
       </c>
       <c r="Y249" t="s">
-        <v>884</v>
+        <v>879</v>
       </c>
     </row>
     <row r="250" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>885</v>
+        <v>880</v>
       </c>
       <c r="B250" t="s">
-        <v>886</v>
+        <v>881</v>
       </c>
       <c r="C250" t="s">
-        <v>887</v>
+        <v>882</v>
       </c>
       <c r="D250" t="s">
-        <v>112</v>
+        <v>39</v>
       </c>
       <c r="E250">
-        <v>9</v>
+        <v>142</v>
       </c>
       <c r="F250" t="s">
-        <v>483</v>
+        <v>294</v>
       </c>
       <c r="G250">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="J250">
-        <v>580</v>
+        <v>496</v>
       </c>
       <c r="K250">
         <v>0</v>
       </c>
       <c r="L250">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M250">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N250" t="s">
         <v>30</v>
       </c>
+      <c r="O250">
+        <v>948</v>
+      </c>
       <c r="P250" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="Q250" t="s">
         <v>114</v>
       </c>
       <c r="R250" t="s">
-        <v>33</v>
+        <v>307</v>
       </c>
       <c r="T250">
         <v>0</v>
@@ -21875,10 +21881,10 @@
         <v>0</v>
       </c>
       <c r="X250" t="s">
-        <v>888</v>
+        <v>883</v>
       </c>
       <c r="Y250" t="s">
-        <v>889</v>
+        <v>884</v>
       </c>
     </row>
     <row r="251" spans="1:25" x14ac:dyDescent="0.25">
@@ -21889,7 +21895,7 @@
         <v>886</v>
       </c>
       <c r="C251" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="D251" t="s">
         <v>112</v>
@@ -21948,61 +21954,49 @@
     </row>
     <row r="252" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>891</v>
+        <v>885</v>
       </c>
       <c r="B252" t="s">
-        <v>892</v>
+        <v>886</v>
       </c>
       <c r="C252" t="s">
-        <v>893</v>
+        <v>890</v>
       </c>
       <c r="D252" t="s">
-        <v>51</v>
+        <v>112</v>
       </c>
       <c r="E252">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="F252" t="s">
-        <v>52</v>
+        <v>483</v>
       </c>
       <c r="G252">
-        <v>202</v>
-      </c>
-      <c r="H252" t="s">
-        <v>125</v>
-      </c>
-      <c r="I252">
-        <v>14</v>
+        <v>57</v>
       </c>
       <c r="J252">
-        <v>508</v>
+        <v>580</v>
       </c>
       <c r="K252">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L252">
         <v>0</v>
       </c>
       <c r="M252">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N252" t="s">
         <v>30</v>
       </c>
-      <c r="O252">
-        <v>688</v>
-      </c>
       <c r="P252" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="Q252" t="s">
-        <v>52</v>
+        <v>114</v>
       </c>
       <c r="R252" t="s">
-        <v>43</v>
-      </c>
-      <c r="S252" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="T252">
         <v>0</v>
@@ -22014,24 +22008,24 @@
         <v>0</v>
       </c>
       <c r="W252">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X252" t="s">
-        <v>894</v>
+        <v>888</v>
       </c>
       <c r="Y252" t="s">
-        <v>895</v>
+        <v>889</v>
       </c>
     </row>
     <row r="253" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>896</v>
+        <v>891</v>
       </c>
       <c r="B253" t="s">
-        <v>897</v>
+        <v>892</v>
       </c>
       <c r="C253" t="s">
-        <v>898</v>
+        <v>893</v>
       </c>
       <c r="D253" t="s">
         <v>51</v>
@@ -22046,13 +22040,13 @@
         <v>202</v>
       </c>
       <c r="H253" t="s">
-        <v>166</v>
+        <v>125</v>
       </c>
       <c r="I253">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="J253">
-        <v>478</v>
+        <v>508</v>
       </c>
       <c r="K253">
         <v>1</v>
@@ -22067,10 +22061,10 @@
         <v>30</v>
       </c>
       <c r="O253">
-        <v>682</v>
+        <v>688</v>
       </c>
       <c r="P253" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="Q253" t="s">
         <v>52</v>
@@ -22088,61 +22082,76 @@
         <v>0</v>
       </c>
       <c r="V253">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W253">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X253" t="s">
-        <v>899</v>
+        <v>894</v>
       </c>
       <c r="Y253" t="s">
-        <v>900</v>
+        <v>895</v>
       </c>
     </row>
     <row r="254" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>901</v>
+        <v>896</v>
       </c>
       <c r="B254" t="s">
-        <v>902</v>
+        <v>897</v>
       </c>
       <c r="C254" t="s">
-        <v>903</v>
+        <v>898</v>
       </c>
       <c r="D254" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="E254">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="F254" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="G254">
-        <v>419</v>
+        <v>202</v>
       </c>
       <c r="H254" t="s">
-        <v>29</v>
+        <v>166</v>
       </c>
       <c r="I254">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="J254">
-        <v>500</v>
+        <v>478</v>
       </c>
       <c r="K254">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L254">
         <v>0</v>
       </c>
       <c r="M254">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N254" t="s">
         <v>30</v>
       </c>
+      <c r="O254">
+        <v>682</v>
+      </c>
+      <c r="P254" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q254" t="s">
+        <v>52</v>
+      </c>
+      <c r="R254" t="s">
+        <v>43</v>
+      </c>
+      <c r="S254" t="s">
+        <v>44</v>
+      </c>
       <c r="T254">
         <v>0</v>
       </c>
@@ -22150,27 +22159,27 @@
         <v>0</v>
       </c>
       <c r="V254">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W254">
         <v>0</v>
       </c>
       <c r="X254" t="s">
-        <v>904</v>
+        <v>899</v>
       </c>
       <c r="Y254" t="s">
-        <v>905</v>
+        <v>900</v>
       </c>
     </row>
     <row r="255" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>906</v>
+        <v>901</v>
       </c>
       <c r="B255" t="s">
-        <v>907</v>
+        <v>902</v>
       </c>
       <c r="C255" t="s">
-        <v>908</v>
+        <v>903</v>
       </c>
       <c r="D255" t="s">
         <v>27</v>
@@ -22191,7 +22200,7 @@
         <v>29</v>
       </c>
       <c r="J255">
-        <v>474</v>
+        <v>500</v>
       </c>
       <c r="K255">
         <v>0</v>
@@ -22200,7 +22209,7 @@
         <v>0</v>
       </c>
       <c r="M255">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N255" t="s">
         <v>30</v>
@@ -22216,38 +22225,44 @@
       </c>
       <c r="W255">
         <v>0</v>
+      </c>
+      <c r="X255" t="s">
+        <v>904</v>
+      </c>
+      <c r="Y255" t="s">
+        <v>905</v>
       </c>
     </row>
     <row r="256" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>909</v>
+        <v>906</v>
       </c>
       <c r="B256" t="s">
-        <v>910</v>
+        <v>907</v>
       </c>
       <c r="C256" t="s">
-        <v>911</v>
+        <v>908</v>
       </c>
       <c r="D256" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="E256">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="F256" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="G256">
-        <v>202</v>
+        <v>419</v>
       </c>
       <c r="H256" t="s">
-        <v>125</v>
+        <v>29</v>
       </c>
       <c r="I256">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="J256">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="K256">
         <v>0</v>
@@ -22256,23 +22271,11 @@
         <v>0</v>
       </c>
       <c r="M256">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N256" t="s">
         <v>30</v>
       </c>
-      <c r="O256">
-        <v>684</v>
-      </c>
-      <c r="P256" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q256" t="s">
-        <v>52</v>
-      </c>
-      <c r="R256" t="s">
-        <v>55</v>
-      </c>
       <c r="T256">
         <v>0</v>
       </c>
@@ -22283,24 +22286,18 @@
         <v>0</v>
       </c>
       <c r="W256">
-        <v>1</v>
-      </c>
-      <c r="X256" t="s">
-        <v>912</v>
-      </c>
-      <c r="Y256" t="s">
-        <v>913</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>914</v>
+        <v>909</v>
       </c>
       <c r="B257" t="s">
-        <v>915</v>
+        <v>910</v>
       </c>
       <c r="C257" t="s">
-        <v>916</v>
+        <v>911</v>
       </c>
       <c r="D257" t="s">
         <v>51</v>
@@ -22321,34 +22318,31 @@
         <v>14</v>
       </c>
       <c r="J257">
-        <v>454</v>
+        <v>480</v>
       </c>
       <c r="K257">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L257">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M257">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N257" t="s">
         <v>30</v>
       </c>
       <c r="O257">
-        <v>676</v>
+        <v>684</v>
       </c>
       <c r="P257" t="s">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="Q257" t="s">
         <v>52</v>
       </c>
       <c r="R257" t="s">
-        <v>43</v>
-      </c>
-      <c r="S257" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="T257">
         <v>0</v>
@@ -22363,42 +22357,48 @@
         <v>1</v>
       </c>
       <c r="X257" t="s">
-        <v>917</v>
+        <v>912</v>
       </c>
       <c r="Y257" t="s">
-        <v>918</v>
+        <v>913</v>
       </c>
     </row>
     <row r="258" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>919</v>
+        <v>914</v>
       </c>
       <c r="B258" t="s">
-        <v>920</v>
+        <v>915</v>
       </c>
       <c r="C258" t="s">
-        <v>921</v>
+        <v>916</v>
       </c>
       <c r="D258" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="E258">
-        <v>142</v>
+        <v>2</v>
       </c>
       <c r="F258" t="s">
-        <v>249</v>
+        <v>52</v>
       </c>
       <c r="G258">
-        <v>35</v>
+        <v>202</v>
+      </c>
+      <c r="H258" t="s">
+        <v>125</v>
+      </c>
+      <c r="I258">
+        <v>14</v>
       </c>
       <c r="J258">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="K258">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L258">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M258">
         <v>0</v>
@@ -22407,16 +22407,19 @@
         <v>30</v>
       </c>
       <c r="O258">
-        <v>548</v>
+        <v>676</v>
       </c>
       <c r="P258" t="s">
-        <v>75</v>
+        <v>41</v>
       </c>
       <c r="Q258" t="s">
-        <v>114</v>
+        <v>52</v>
       </c>
       <c r="R258" t="s">
-        <v>55</v>
+        <v>43</v>
+      </c>
+      <c r="S258" t="s">
+        <v>44</v>
       </c>
       <c r="T258">
         <v>0</v>
@@ -22431,10 +22434,10 @@
         <v>1</v>
       </c>
       <c r="X258" t="s">
-        <v>922</v>
+        <v>917</v>
       </c>
       <c r="Y258" t="s">
-        <v>923</v>
+        <v>918</v>
       </c>
     </row>
     <row r="259" spans="1:25" x14ac:dyDescent="0.25">
@@ -22445,7 +22448,7 @@
         <v>920</v>
       </c>
       <c r="C259" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
       <c r="D259" t="s">
         <v>39</v>
@@ -22513,7 +22516,7 @@
         <v>920</v>
       </c>
       <c r="C260" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="D260" t="s">
         <v>39</v>
@@ -22575,34 +22578,28 @@
     </row>
     <row r="261" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>926</v>
+        <v>919</v>
       </c>
       <c r="B261" t="s">
-        <v>927</v>
+        <v>920</v>
       </c>
       <c r="C261" t="s">
-        <v>928</v>
+        <v>925</v>
       </c>
       <c r="D261" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="E261">
-        <v>2</v>
+        <v>142</v>
       </c>
       <c r="F261" t="s">
-        <v>52</v>
+        <v>249</v>
       </c>
       <c r="G261">
-        <v>202</v>
-      </c>
-      <c r="H261" t="s">
-        <v>125</v>
-      </c>
-      <c r="I261">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="J261">
-        <v>175</v>
+        <v>458</v>
       </c>
       <c r="K261">
         <v>0</v>
@@ -22616,6 +22613,18 @@
       <c r="N261" t="s">
         <v>30</v>
       </c>
+      <c r="O261">
+        <v>548</v>
+      </c>
+      <c r="P261" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q261" t="s">
+        <v>114</v>
+      </c>
+      <c r="R261" t="s">
+        <v>55</v>
+      </c>
       <c r="T261">
         <v>0</v>
       </c>
@@ -22626,18 +22635,24 @@
         <v>0</v>
       </c>
       <c r="W261">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="X261" t="s">
+        <v>922</v>
+      </c>
+      <c r="Y261" t="s">
+        <v>923</v>
       </c>
     </row>
     <row r="262" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>929</v>
+        <v>926</v>
       </c>
       <c r="B262" t="s">
-        <v>930</v>
+        <v>927</v>
       </c>
       <c r="C262" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="D262" t="s">
         <v>51</v>
@@ -22652,13 +22667,13 @@
         <v>202</v>
       </c>
       <c r="H262" t="s">
-        <v>264</v>
+        <v>125</v>
       </c>
       <c r="I262">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="J262">
-        <v>516</v>
+        <v>175</v>
       </c>
       <c r="K262">
         <v>0</v>
@@ -22672,18 +22687,6 @@
       <c r="N262" t="s">
         <v>30</v>
       </c>
-      <c r="O262">
-        <v>728</v>
-      </c>
-      <c r="P262" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q262" t="s">
-        <v>52</v>
-      </c>
-      <c r="R262" t="s">
-        <v>55</v>
-      </c>
       <c r="T262">
         <v>0</v>
       </c>
@@ -22694,39 +22697,39 @@
         <v>0</v>
       </c>
       <c r="W262">
-        <v>1</v>
-      </c>
-      <c r="X262" t="s">
-        <v>932</v>
-      </c>
-      <c r="Y262" t="s">
-        <v>933</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>934</v>
+        <v>929</v>
       </c>
       <c r="B263" t="s">
-        <v>935</v>
+        <v>930</v>
       </c>
       <c r="C263" t="s">
-        <v>936</v>
+        <v>931</v>
       </c>
       <c r="D263" t="s">
-        <v>112</v>
+        <v>51</v>
       </c>
       <c r="E263">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="F263" t="s">
-        <v>460</v>
+        <v>52</v>
       </c>
       <c r="G263">
-        <v>54</v>
+        <v>202</v>
+      </c>
+      <c r="H263" t="s">
+        <v>264</v>
+      </c>
+      <c r="I263">
+        <v>18</v>
       </c>
       <c r="J263">
-        <v>540</v>
+        <v>516</v>
       </c>
       <c r="K263">
         <v>0</v>
@@ -22735,19 +22738,22 @@
         <v>0</v>
       </c>
       <c r="M263">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N263" t="s">
         <v>30</v>
       </c>
+      <c r="O263">
+        <v>728</v>
+      </c>
       <c r="P263" t="s">
-        <v>31</v>
+        <v>75</v>
       </c>
       <c r="Q263" t="s">
-        <v>114</v>
+        <v>52</v>
       </c>
       <c r="R263" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="T263">
         <v>0</v>
@@ -22759,13 +22765,13 @@
         <v>0</v>
       </c>
       <c r="W263">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X263" t="s">
-        <v>937</v>
+        <v>932</v>
       </c>
       <c r="Y263" t="s">
-        <v>938</v>
+        <v>933</v>
       </c>
     </row>
     <row r="264" spans="1:25" x14ac:dyDescent="0.25">
@@ -22776,7 +22782,7 @@
         <v>935</v>
       </c>
       <c r="C264" t="s">
-        <v>939</v>
+        <v>936</v>
       </c>
       <c r="D264" t="s">
         <v>112</v>
@@ -22835,61 +22841,49 @@
     </row>
     <row r="265" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>940</v>
+        <v>934</v>
       </c>
       <c r="B265" t="s">
-        <v>941</v>
+        <v>935</v>
       </c>
       <c r="C265" t="s">
-        <v>942</v>
+        <v>939</v>
       </c>
       <c r="D265" t="s">
-        <v>51</v>
+        <v>112</v>
       </c>
       <c r="E265">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="F265" t="s">
-        <v>52</v>
+        <v>460</v>
       </c>
       <c r="G265">
-        <v>202</v>
-      </c>
-      <c r="H265" t="s">
-        <v>166</v>
-      </c>
-      <c r="I265">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="J265">
-        <v>562</v>
+        <v>540</v>
       </c>
       <c r="K265">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L265">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M265">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N265" t="s">
         <v>30</v>
       </c>
-      <c r="O265">
-        <v>692</v>
-      </c>
       <c r="P265" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="Q265" t="s">
-        <v>52</v>
+        <v>114</v>
       </c>
       <c r="R265" t="s">
-        <v>43</v>
-      </c>
-      <c r="S265" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="T265">
         <v>0</v>
@@ -22904,48 +22898,69 @@
         <v>0</v>
       </c>
       <c r="X265" t="s">
-        <v>943</v>
+        <v>937</v>
       </c>
       <c r="Y265" t="s">
-        <v>944</v>
+        <v>938</v>
       </c>
     </row>
     <row r="266" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>945</v>
+        <v>940</v>
       </c>
       <c r="B266" t="s">
-        <v>946</v>
+        <v>941</v>
       </c>
       <c r="C266" t="s">
-        <v>947</v>
+        <v>942</v>
       </c>
       <c r="D266" t="s">
-        <v>112</v>
+        <v>51</v>
       </c>
       <c r="E266">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="F266" t="s">
-        <v>137</v>
+        <v>52</v>
       </c>
       <c r="G266">
-        <v>53</v>
+        <v>202</v>
+      </c>
+      <c r="H266" t="s">
+        <v>166</v>
+      </c>
+      <c r="I266">
+        <v>11</v>
       </c>
       <c r="J266">
-        <v>574</v>
+        <v>562</v>
       </c>
       <c r="K266">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L266">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M266">
         <v>0</v>
       </c>
       <c r="N266" t="s">
-        <v>68</v>
+        <v>30</v>
+      </c>
+      <c r="O266">
+        <v>692</v>
+      </c>
+      <c r="P266" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q266" t="s">
+        <v>52</v>
+      </c>
+      <c r="R266" t="s">
+        <v>43</v>
+      </c>
+      <c r="S266" t="s">
+        <v>44</v>
       </c>
       <c r="T266">
         <v>0</v>
@@ -22960,42 +22975,36 @@
         <v>0</v>
       </c>
       <c r="X266" t="s">
-        <v>948</v>
+        <v>943</v>
       </c>
       <c r="Y266" t="s">
-        <v>949</v>
+        <v>944</v>
       </c>
     </row>
     <row r="267" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>950</v>
+        <v>945</v>
       </c>
       <c r="B267" t="s">
-        <v>951</v>
+        <v>946</v>
       </c>
       <c r="C267" t="s">
-        <v>952</v>
+        <v>947</v>
       </c>
       <c r="D267" t="s">
-        <v>51</v>
+        <v>112</v>
       </c>
       <c r="E267">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="F267" t="s">
-        <v>52</v>
+        <v>137</v>
       </c>
       <c r="G267">
-        <v>202</v>
-      </c>
-      <c r="H267" t="s">
-        <v>166</v>
-      </c>
-      <c r="I267">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="J267">
-        <v>566</v>
+        <v>574</v>
       </c>
       <c r="K267">
         <v>0</v>
@@ -23007,19 +23016,7 @@
         <v>0</v>
       </c>
       <c r="N267" t="s">
-        <v>30</v>
-      </c>
-      <c r="O267">
-        <v>694</v>
-      </c>
-      <c r="P267" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q267" t="s">
-        <v>52</v>
-      </c>
-      <c r="R267" t="s">
-        <v>307</v>
+        <v>68</v>
       </c>
       <c r="T267">
         <v>0</v>
@@ -23031,45 +23028,45 @@
         <v>0</v>
       </c>
       <c r="W267">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X267" t="s">
-        <v>953</v>
+        <v>948</v>
       </c>
       <c r="Y267" t="s">
-        <v>954</v>
+        <v>949</v>
       </c>
     </row>
     <row r="268" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>955</v>
+        <v>950</v>
       </c>
       <c r="B268" t="s">
-        <v>956</v>
+        <v>951</v>
       </c>
       <c r="C268" t="s">
-        <v>957</v>
+        <v>952</v>
       </c>
       <c r="D268" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="E268">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="F268" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="G268">
-        <v>419</v>
+        <v>202</v>
       </c>
       <c r="H268" t="s">
-        <v>220</v>
+        <v>166</v>
       </c>
       <c r="I268">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J268">
-        <v>558</v>
+        <v>566</v>
       </c>
       <c r="K268">
         <v>0</v>
@@ -23084,19 +23081,16 @@
         <v>30</v>
       </c>
       <c r="O268">
-        <v>278</v>
+        <v>694</v>
       </c>
       <c r="P268" t="s">
         <v>54</v>
       </c>
       <c r="Q268" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="R268" t="s">
-        <v>43</v>
-      </c>
-      <c r="S268" t="s">
-        <v>44</v>
+        <v>307</v>
       </c>
       <c r="T268">
         <v>0</v>
@@ -23108,39 +23102,45 @@
         <v>0</v>
       </c>
       <c r="W268">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X268" t="s">
-        <v>958</v>
+        <v>953</v>
       </c>
       <c r="Y268" t="s">
-        <v>959</v>
+        <v>954</v>
       </c>
     </row>
     <row r="269" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>960</v>
+        <v>955</v>
       </c>
       <c r="B269" t="s">
-        <v>961</v>
+        <v>956</v>
       </c>
       <c r="C269" t="s">
-        <v>962</v>
+        <v>957</v>
       </c>
       <c r="D269" t="s">
-        <v>112</v>
+        <v>27</v>
       </c>
       <c r="E269">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="F269" t="s">
-        <v>113</v>
+        <v>28</v>
       </c>
       <c r="G269">
-        <v>61</v>
+        <v>419</v>
+      </c>
+      <c r="H269" t="s">
+        <v>220</v>
+      </c>
+      <c r="I269">
+        <v>13</v>
       </c>
       <c r="J269">
-        <v>570</v>
+        <v>558</v>
       </c>
       <c r="K269">
         <v>0</v>
@@ -23149,11 +23149,26 @@
         <v>0</v>
       </c>
       <c r="M269">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N269" t="s">
         <v>30</v>
       </c>
+      <c r="O269">
+        <v>278</v>
+      </c>
+      <c r="P269" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q269" t="s">
+        <v>32</v>
+      </c>
+      <c r="R269" t="s">
+        <v>43</v>
+      </c>
+      <c r="S269" t="s">
+        <v>44</v>
+      </c>
       <c r="T269">
         <v>0</v>
       </c>
@@ -23167,36 +23182,36 @@
         <v>0</v>
       </c>
       <c r="X269" t="s">
-        <v>963</v>
+        <v>958</v>
       </c>
       <c r="Y269" t="s">
-        <v>964</v>
+        <v>959</v>
       </c>
     </row>
     <row r="270" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>965</v>
+        <v>960</v>
       </c>
       <c r="B270" t="s">
-        <v>966</v>
+        <v>961</v>
       </c>
       <c r="C270" t="s">
-        <v>967</v>
+        <v>962</v>
       </c>
       <c r="D270" t="s">
-        <v>66</v>
+        <v>112</v>
       </c>
       <c r="E270">
-        <v>150</v>
+        <v>9</v>
       </c>
       <c r="F270" t="s">
-        <v>143</v>
+        <v>113</v>
       </c>
       <c r="G270">
-        <v>155</v>
+        <v>61</v>
       </c>
       <c r="J270">
-        <v>528</v>
+        <v>570</v>
       </c>
       <c r="K270">
         <v>0</v>
@@ -23205,31 +23220,16 @@
         <v>0</v>
       </c>
       <c r="M270">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N270" t="s">
-        <v>68</v>
-      </c>
-      <c r="O270">
-        <v>138</v>
-      </c>
-      <c r="P270" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q270" t="s">
-        <v>76</v>
-      </c>
-      <c r="R270" t="s">
-        <v>33</v>
-      </c>
-      <c r="S270" t="s">
-        <v>144</v>
+        <v>30</v>
       </c>
       <c r="T270">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U270">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V270">
         <v>0</v>
@@ -23238,21 +23238,21 @@
         <v>0</v>
       </c>
       <c r="X270" t="s">
-        <v>968</v>
+        <v>963</v>
       </c>
       <c r="Y270" t="s">
-        <v>969</v>
+        <v>964</v>
       </c>
     </row>
     <row r="271" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>970</v>
+        <v>965</v>
       </c>
       <c r="B271" t="s">
-        <v>971</v>
+        <v>966</v>
       </c>
       <c r="C271" t="s">
-        <v>972</v>
+        <v>967</v>
       </c>
       <c r="D271" t="s">
         <v>66</v>
@@ -23261,13 +23261,13 @@
         <v>150</v>
       </c>
       <c r="F271" t="s">
-        <v>67</v>
+        <v>143</v>
       </c>
       <c r="G271">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="J271">
-        <v>578</v>
+        <v>528</v>
       </c>
       <c r="K271">
         <v>0</v>
@@ -23282,7 +23282,7 @@
         <v>68</v>
       </c>
       <c r="O271">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="P271" t="s">
         <v>31</v>
@@ -23293,11 +23293,14 @@
       <c r="R271" t="s">
         <v>33</v>
       </c>
+      <c r="S271" t="s">
+        <v>144</v>
+      </c>
       <c r="T271">
         <v>1</v>
       </c>
       <c r="U271">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V271">
         <v>0</v>
@@ -23306,63 +23309,63 @@
         <v>0</v>
       </c>
       <c r="X271" t="s">
-        <v>973</v>
+        <v>968</v>
       </c>
       <c r="Y271" t="s">
-        <v>974</v>
+        <v>969</v>
       </c>
     </row>
     <row r="272" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>975</v>
+        <v>970</v>
       </c>
       <c r="B272" t="s">
-        <v>976</v>
+        <v>971</v>
       </c>
       <c r="C272" t="s">
-        <v>977</v>
+        <v>972</v>
       </c>
       <c r="D272" t="s">
-        <v>39</v>
+        <v>66</v>
       </c>
       <c r="E272">
+        <v>150</v>
+      </c>
+      <c r="F272" t="s">
+        <v>67</v>
+      </c>
+      <c r="G272">
+        <v>154</v>
+      </c>
+      <c r="J272">
+        <v>578</v>
+      </c>
+      <c r="K272">
+        <v>0</v>
+      </c>
+      <c r="L272">
+        <v>0</v>
+      </c>
+      <c r="M272">
+        <v>0</v>
+      </c>
+      <c r="N272" t="s">
+        <v>68</v>
+      </c>
+      <c r="O272">
         <v>142</v>
       </c>
-      <c r="F272" t="s">
-        <v>40</v>
-      </c>
-      <c r="G272">
-        <v>34</v>
-      </c>
-      <c r="J272">
-        <v>524</v>
-      </c>
-      <c r="K272">
-        <v>1</v>
-      </c>
-      <c r="L272">
-        <v>1</v>
-      </c>
-      <c r="M272">
-        <v>0</v>
-      </c>
-      <c r="N272" t="s">
-        <v>30</v>
-      </c>
-      <c r="O272">
-        <v>558</v>
-      </c>
       <c r="P272" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="Q272" t="s">
-        <v>42</v>
+        <v>76</v>
       </c>
       <c r="R272" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="T272">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U272">
         <v>0</v>
@@ -23374,57 +23377,60 @@
         <v>0</v>
       </c>
       <c r="X272" t="s">
-        <v>978</v>
+        <v>973</v>
       </c>
       <c r="Y272" t="s">
-        <v>979</v>
+        <v>974</v>
       </c>
     </row>
     <row r="273" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>980</v>
+        <v>975</v>
       </c>
       <c r="B273" t="s">
-        <v>981</v>
+        <v>976</v>
       </c>
       <c r="C273" t="s">
-        <v>982</v>
+        <v>977</v>
       </c>
       <c r="D273" t="s">
-        <v>112</v>
+        <v>39</v>
       </c>
       <c r="E273">
-        <v>9</v>
+        <v>142</v>
       </c>
       <c r="F273" t="s">
-        <v>483</v>
+        <v>40</v>
       </c>
       <c r="G273">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="J273">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="K273">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L273">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M273">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N273" t="s">
         <v>30</v>
       </c>
+      <c r="O273">
+        <v>558</v>
+      </c>
       <c r="P273" t="s">
-        <v>75</v>
+        <v>41</v>
       </c>
       <c r="Q273" t="s">
-        <v>114</v>
+        <v>42</v>
       </c>
       <c r="R273" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="T273">
         <v>0</v>
@@ -23436,24 +23442,24 @@
         <v>0</v>
       </c>
       <c r="W273">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X273" t="s">
-        <v>983</v>
+        <v>978</v>
       </c>
       <c r="Y273" t="s">
-        <v>984</v>
+        <v>979</v>
       </c>
     </row>
     <row r="274" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>985</v>
+        <v>980</v>
       </c>
       <c r="B274" t="s">
-        <v>986</v>
+        <v>981</v>
       </c>
       <c r="C274" t="s">
-        <v>987</v>
+        <v>982</v>
       </c>
       <c r="D274" t="s">
         <v>112</v>
@@ -23462,13 +23468,13 @@
         <v>9</v>
       </c>
       <c r="F274" t="s">
-        <v>137</v>
+        <v>483</v>
       </c>
       <c r="G274">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="J274">
-        <v>554</v>
+        <v>520</v>
       </c>
       <c r="K274">
         <v>0</v>
@@ -23477,25 +23483,22 @@
         <v>0</v>
       </c>
       <c r="M274">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N274" t="s">
-        <v>68</v>
-      </c>
-      <c r="O274">
-        <v>196</v>
+        <v>30</v>
       </c>
       <c r="P274" t="s">
-        <v>31</v>
+        <v>75</v>
       </c>
       <c r="Q274" t="s">
         <v>114</v>
       </c>
       <c r="R274" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="T274">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U274">
         <v>0</v>
@@ -23507,36 +23510,36 @@
         <v>1</v>
       </c>
       <c r="X274" t="s">
-        <v>988</v>
+        <v>983</v>
       </c>
       <c r="Y274" t="s">
-        <v>989</v>
+        <v>984</v>
       </c>
     </row>
     <row r="275" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>990</v>
+        <v>985</v>
       </c>
       <c r="B275" t="s">
-        <v>991</v>
+        <v>986</v>
       </c>
       <c r="C275" t="s">
-        <v>992</v>
+        <v>987</v>
       </c>
       <c r="D275" t="s">
-        <v>39</v>
+        <v>112</v>
       </c>
       <c r="E275">
-        <v>142</v>
+        <v>9</v>
       </c>
       <c r="F275" t="s">
-        <v>91</v>
+        <v>137</v>
       </c>
       <c r="G275">
-        <v>145</v>
+        <v>53</v>
       </c>
       <c r="J275">
-        <v>512</v>
+        <v>554</v>
       </c>
       <c r="K275">
         <v>0</v>
@@ -23548,48 +23551,48 @@
         <v>0</v>
       </c>
       <c r="N275" t="s">
-        <v>30</v>
+        <v>68</v>
       </c>
       <c r="O275">
-        <v>449</v>
+        <v>196</v>
       </c>
       <c r="P275" t="s">
         <v>31</v>
       </c>
       <c r="Q275" t="s">
-        <v>92</v>
+        <v>114</v>
       </c>
       <c r="R275" t="s">
         <v>33</v>
       </c>
       <c r="T275">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U275">
         <v>0</v>
       </c>
       <c r="V275">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W275">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X275" t="s">
-        <v>993</v>
+        <v>988</v>
       </c>
       <c r="Y275" t="s">
-        <v>994</v>
+        <v>989</v>
       </c>
     </row>
     <row r="276" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>995</v>
+        <v>990</v>
       </c>
       <c r="B276" t="s">
-        <v>996</v>
+        <v>991</v>
       </c>
       <c r="C276" t="s">
-        <v>997</v>
+        <v>992</v>
       </c>
       <c r="D276" t="s">
         <v>39</v>
@@ -23598,13 +23601,13 @@
         <v>142</v>
       </c>
       <c r="F276" t="s">
-        <v>40</v>
+        <v>91</v>
       </c>
       <c r="G276">
-        <v>34</v>
+        <v>145</v>
       </c>
       <c r="J276">
-        <v>586</v>
+        <v>512</v>
       </c>
       <c r="K276">
         <v>0</v>
@@ -23619,16 +23622,16 @@
         <v>30</v>
       </c>
       <c r="O276">
-        <v>564</v>
+        <v>449</v>
       </c>
       <c r="P276" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="Q276" t="s">
-        <v>42</v>
+        <v>92</v>
       </c>
       <c r="R276" t="s">
-        <v>307</v>
+        <v>33</v>
       </c>
       <c r="T276">
         <v>0</v>
@@ -23637,48 +23640,42 @@
         <v>0</v>
       </c>
       <c r="V276">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W276">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X276" t="s">
-        <v>998</v>
+        <v>993</v>
       </c>
       <c r="Y276" t="s">
-        <v>999</v>
+        <v>994</v>
       </c>
     </row>
     <row r="277" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>1000</v>
+        <v>995</v>
       </c>
       <c r="B277" t="s">
-        <v>1001</v>
+        <v>996</v>
       </c>
       <c r="C277" t="s">
-        <v>1002</v>
+        <v>997</v>
       </c>
       <c r="D277" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="E277">
-        <v>19</v>
+        <v>142</v>
       </c>
       <c r="F277" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="G277">
-        <v>419</v>
-      </c>
-      <c r="H277" t="s">
-        <v>220</v>
-      </c>
-      <c r="I277">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="J277">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="K277">
         <v>0</v>
@@ -23693,16 +23690,16 @@
         <v>30</v>
       </c>
       <c r="O277">
-        <v>283</v>
+        <v>564</v>
       </c>
       <c r="P277" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="Q277" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="R277" t="s">
-        <v>55</v>
+        <v>307</v>
       </c>
       <c r="T277">
         <v>0</v>
@@ -23714,39 +23711,45 @@
         <v>0</v>
       </c>
       <c r="W277">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X277" t="s">
-        <v>1003</v>
+        <v>998</v>
       </c>
       <c r="Y277" t="s">
-        <v>1004</v>
+        <v>999</v>
       </c>
     </row>
     <row r="278" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>1005</v>
+        <v>1000</v>
       </c>
       <c r="B278" t="s">
-        <v>1006</v>
+        <v>1001</v>
       </c>
       <c r="C278" t="s">
-        <v>1007</v>
+        <v>1002</v>
       </c>
       <c r="D278" t="s">
-        <v>112</v>
+        <v>27</v>
       </c>
       <c r="E278">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="F278" t="s">
-        <v>113</v>
+        <v>28</v>
       </c>
       <c r="G278">
-        <v>61</v>
+        <v>419</v>
+      </c>
+      <c r="H278" t="s">
+        <v>220</v>
+      </c>
+      <c r="I278">
+        <v>13</v>
       </c>
       <c r="J278">
-        <v>612</v>
+        <v>591</v>
       </c>
       <c r="K278">
         <v>0</v>
@@ -23760,6 +23763,18 @@
       <c r="N278" t="s">
         <v>30</v>
       </c>
+      <c r="O278">
+        <v>283</v>
+      </c>
+      <c r="P278" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q278" t="s">
+        <v>32</v>
+      </c>
+      <c r="R278" t="s">
+        <v>55</v>
+      </c>
       <c r="T278">
         <v>0</v>
       </c>
@@ -23773,10 +23788,10 @@
         <v>0</v>
       </c>
       <c r="X278" t="s">
-        <v>1008</v>
+        <v>1003</v>
       </c>
       <c r="Y278" t="s">
-        <v>1009</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="279" spans="1:25" x14ac:dyDescent="0.25">
@@ -23787,7 +23802,7 @@
         <v>1006</v>
       </c>
       <c r="C279" t="s">
-        <v>1010</v>
+        <v>1007</v>
       </c>
       <c r="D279" t="s">
         <v>112</v>
@@ -23837,34 +23852,28 @@
     </row>
     <row r="280" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>1011</v>
+        <v>1005</v>
       </c>
       <c r="B280" t="s">
-        <v>1012</v>
+        <v>1006</v>
       </c>
       <c r="C280" t="s">
-        <v>1013</v>
+        <v>1010</v>
       </c>
       <c r="D280" t="s">
-        <v>27</v>
+        <v>112</v>
       </c>
       <c r="E280">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="F280" t="s">
-        <v>28</v>
+        <v>113</v>
       </c>
       <c r="G280">
-        <v>419</v>
-      </c>
-      <c r="H280" t="s">
-        <v>100</v>
-      </c>
-      <c r="I280">
-        <v>5</v>
+        <v>61</v>
       </c>
       <c r="J280">
-        <v>604</v>
+        <v>612</v>
       </c>
       <c r="K280">
         <v>0</v>
@@ -23878,18 +23887,6 @@
       <c r="N280" t="s">
         <v>30</v>
       </c>
-      <c r="O280">
-        <v>293</v>
-      </c>
-      <c r="P280" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q280" t="s">
-        <v>32</v>
-      </c>
-      <c r="R280" t="s">
-        <v>55</v>
-      </c>
       <c r="T280">
         <v>0</v>
       </c>
@@ -23903,36 +23900,42 @@
         <v>0</v>
       </c>
       <c r="X280" t="s">
-        <v>1014</v>
+        <v>1008</v>
       </c>
       <c r="Y280" t="s">
-        <v>1015</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="281" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>1016</v>
+        <v>1011</v>
       </c>
       <c r="B281" t="s">
-        <v>1017</v>
+        <v>1012</v>
       </c>
       <c r="C281" t="s">
-        <v>1018</v>
+        <v>1013</v>
       </c>
       <c r="D281" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="E281">
-        <v>142</v>
+        <v>19</v>
       </c>
       <c r="F281" t="s">
-        <v>249</v>
+        <v>28</v>
       </c>
       <c r="G281">
-        <v>35</v>
+        <v>419</v>
+      </c>
+      <c r="H281" t="s">
+        <v>100</v>
+      </c>
+      <c r="I281">
+        <v>5</v>
       </c>
       <c r="J281">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="K281">
         <v>0</v>
@@ -23947,13 +23950,13 @@
         <v>30</v>
       </c>
       <c r="O281">
-        <v>566</v>
+        <v>293</v>
       </c>
       <c r="P281" t="s">
-        <v>54</v>
+        <v>75</v>
       </c>
       <c r="Q281" t="s">
-        <v>114</v>
+        <v>32</v>
       </c>
       <c r="R281" t="s">
         <v>55</v>
@@ -23971,36 +23974,36 @@
         <v>0</v>
       </c>
       <c r="X281" t="s">
-        <v>1019</v>
+        <v>1014</v>
       </c>
       <c r="Y281" t="s">
-        <v>1020</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="282" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>1021</v>
+        <v>1016</v>
       </c>
       <c r="B282" t="s">
-        <v>1022</v>
+        <v>1017</v>
       </c>
       <c r="C282" t="s">
-        <v>1023</v>
+        <v>1018</v>
       </c>
       <c r="D282" t="s">
-        <v>112</v>
+        <v>39</v>
       </c>
       <c r="E282">
-        <v>9</v>
+        <v>142</v>
       </c>
       <c r="F282" t="s">
-        <v>483</v>
+        <v>249</v>
       </c>
       <c r="G282">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="J282">
-        <v>585</v>
+        <v>608</v>
       </c>
       <c r="K282">
         <v>0</v>
@@ -24009,16 +24012,16 @@
         <v>0</v>
       </c>
       <c r="M282">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N282" t="s">
         <v>30</v>
       </c>
       <c r="O282">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="P282" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="Q282" t="s">
         <v>114</v>
@@ -24039,21 +24042,21 @@
         <v>0</v>
       </c>
       <c r="X282" t="s">
-        <v>1024</v>
+        <v>1019</v>
       </c>
       <c r="Y282" t="s">
-        <v>1025</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="283" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>1026</v>
+        <v>1021</v>
       </c>
       <c r="B283" t="s">
-        <v>1027</v>
+        <v>1022</v>
       </c>
       <c r="C283" t="s">
-        <v>1028</v>
+        <v>1023</v>
       </c>
       <c r="D283" t="s">
         <v>112</v>
@@ -24062,13 +24065,13 @@
         <v>9</v>
       </c>
       <c r="F283" t="s">
-        <v>460</v>
+        <v>483</v>
       </c>
       <c r="G283">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="J283">
-        <v>598</v>
+        <v>585</v>
       </c>
       <c r="K283">
         <v>0</v>
@@ -24083,16 +24086,16 @@
         <v>30</v>
       </c>
       <c r="O283">
-        <v>853</v>
+        <v>565</v>
       </c>
       <c r="P283" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="Q283" t="s">
         <v>114</v>
       </c>
       <c r="R283" t="s">
-        <v>307</v>
+        <v>55</v>
       </c>
       <c r="T283">
         <v>0</v>
@@ -24104,39 +24107,39 @@
         <v>0</v>
       </c>
       <c r="W283">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X283" t="s">
-        <v>1029</v>
+        <v>1024</v>
       </c>
       <c r="Y283" t="s">
-        <v>1030</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="284" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>1031</v>
+        <v>1026</v>
       </c>
       <c r="B284" t="s">
-        <v>1032</v>
+        <v>1027</v>
       </c>
       <c r="C284" t="s">
-        <v>1033</v>
+        <v>1028</v>
       </c>
       <c r="D284" t="s">
-        <v>66</v>
+        <v>112</v>
       </c>
       <c r="E284">
-        <v>150</v>
+        <v>9</v>
       </c>
       <c r="F284" t="s">
-        <v>186</v>
+        <v>460</v>
       </c>
       <c r="G284">
-        <v>151</v>
+        <v>54</v>
       </c>
       <c r="J284">
-        <v>616</v>
+        <v>598</v>
       </c>
       <c r="K284">
         <v>0</v>
@@ -24145,72 +24148,66 @@
         <v>0</v>
       </c>
       <c r="M284">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N284" t="s">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="O284">
-        <v>964</v>
+        <v>853</v>
       </c>
       <c r="P284" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="Q284" t="s">
-        <v>76</v>
+        <v>114</v>
       </c>
       <c r="R284" t="s">
-        <v>55</v>
+        <v>307</v>
       </c>
       <c r="T284">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U284">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V284">
         <v>0</v>
       </c>
       <c r="W284">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X284" t="s">
-        <v>1034</v>
+        <v>1029</v>
       </c>
       <c r="Y284" t="s">
-        <v>1035</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="285" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>1036</v>
+        <v>1031</v>
       </c>
       <c r="B285" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="C285" t="s">
-        <v>1038</v>
+        <v>1033</v>
       </c>
       <c r="D285" t="s">
-        <v>27</v>
+        <v>66</v>
       </c>
       <c r="E285">
-        <v>19</v>
+        <v>150</v>
       </c>
       <c r="F285" t="s">
-        <v>28</v>
+        <v>186</v>
       </c>
       <c r="G285">
-        <v>419</v>
-      </c>
-      <c r="H285" t="s">
-        <v>29</v>
-      </c>
-      <c r="I285">
-        <v>29</v>
+        <v>151</v>
       </c>
       <c r="J285">
-        <v>630</v>
+        <v>616</v>
       </c>
       <c r="K285">
         <v>0</v>
@@ -24219,25 +24216,28 @@
         <v>0</v>
       </c>
       <c r="M285">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N285" t="s">
-        <v>30</v>
+        <v>68</v>
+      </c>
+      <c r="O285">
+        <v>964</v>
       </c>
       <c r="P285" t="s">
         <v>31</v>
       </c>
       <c r="Q285" t="s">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="R285" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="T285">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U285">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V285">
         <v>0</v>
@@ -24246,36 +24246,42 @@
         <v>0</v>
       </c>
       <c r="X285" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="Y285" t="s">
-        <v>1040</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="286" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>1041</v>
+        <v>1036</v>
       </c>
       <c r="B286" t="s">
-        <v>1042</v>
+        <v>1037</v>
       </c>
       <c r="C286" t="s">
-        <v>1043</v>
+        <v>1038</v>
       </c>
       <c r="D286" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="E286">
-        <v>142</v>
+        <v>19</v>
       </c>
       <c r="F286" t="s">
-        <v>294</v>
+        <v>28</v>
       </c>
       <c r="G286">
-        <v>30</v>
+        <v>419</v>
+      </c>
+      <c r="H286" t="s">
+        <v>29</v>
+      </c>
+      <c r="I286">
+        <v>29</v>
       </c>
       <c r="J286">
-        <v>408</v>
+        <v>630</v>
       </c>
       <c r="K286">
         <v>0</v>
@@ -24284,16 +24290,16 @@
         <v>0</v>
       </c>
       <c r="M286">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N286" t="s">
         <v>30</v>
       </c>
       <c r="P286" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="Q286" t="s">
-        <v>114</v>
+        <v>32</v>
       </c>
       <c r="R286" t="s">
         <v>33</v>
@@ -24311,10 +24317,10 @@
         <v>0</v>
       </c>
       <c r="X286" t="s">
-        <v>1044</v>
+        <v>1039</v>
       </c>
       <c r="Y286" t="s">
-        <v>1045</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="287" spans="1:25" x14ac:dyDescent="0.25">
@@ -24325,7 +24331,7 @@
         <v>1042</v>
       </c>
       <c r="C287" t="s">
-        <v>1046</v>
+        <v>1043</v>
       </c>
       <c r="D287" t="s">
         <v>39</v>
@@ -24390,7 +24396,7 @@
         <v>1042</v>
       </c>
       <c r="C288" t="s">
-        <v>1446</v>
+        <v>1046</v>
       </c>
       <c r="D288" t="s">
         <v>39</v>
@@ -24455,7 +24461,7 @@
         <v>1042</v>
       </c>
       <c r="C289" t="s">
-        <v>1047</v>
+        <v>1446</v>
       </c>
       <c r="D289" t="s">
         <v>39</v>
@@ -24520,7 +24526,7 @@
         <v>1042</v>
       </c>
       <c r="C290" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="D290" t="s">
         <v>39</v>
@@ -24579,28 +24585,28 @@
     </row>
     <row r="291" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>1049</v>
+        <v>1041</v>
       </c>
       <c r="B291" t="s">
-        <v>1050</v>
+        <v>1042</v>
       </c>
       <c r="C291" t="s">
-        <v>1479</v>
+        <v>1048</v>
       </c>
       <c r="D291" t="s">
-        <v>66</v>
+        <v>39</v>
       </c>
       <c r="E291">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="F291" t="s">
-        <v>74</v>
+        <v>294</v>
       </c>
       <c r="G291">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="J291">
-        <v>620</v>
+        <v>408</v>
       </c>
       <c r="K291">
         <v>0</v>
@@ -24612,28 +24618,22 @@
         <v>0</v>
       </c>
       <c r="N291" t="s">
-        <v>68</v>
-      </c>
-      <c r="O291">
-        <v>182</v>
+        <v>30</v>
       </c>
       <c r="P291" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="Q291" t="s">
-        <v>76</v>
+        <v>114</v>
       </c>
       <c r="R291" t="s">
         <v>33</v>
       </c>
-      <c r="S291" t="s">
-        <v>144</v>
-      </c>
       <c r="T291">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U291">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V291">
         <v>0</v>
@@ -24642,10 +24642,10 @@
         <v>0</v>
       </c>
       <c r="X291" t="s">
-        <v>1052</v>
+        <v>1044</v>
       </c>
       <c r="Y291" t="s">
-        <v>1053</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="292" spans="1:25" x14ac:dyDescent="0.25">
@@ -24656,7 +24656,7 @@
         <v>1050</v>
       </c>
       <c r="C292" t="s">
-        <v>1478</v>
+        <v>1479</v>
       </c>
       <c r="D292" t="s">
         <v>66</v>
@@ -24727,7 +24727,7 @@
         <v>1050</v>
       </c>
       <c r="C293" t="s">
-        <v>1051</v>
+        <v>1478</v>
       </c>
       <c r="D293" t="s">
         <v>66</v>
@@ -24798,7 +24798,7 @@
         <v>1050</v>
       </c>
       <c r="C294" t="s">
-        <v>1054</v>
+        <v>1051</v>
       </c>
       <c r="D294" t="s">
         <v>66</v>
@@ -24869,7 +24869,7 @@
         <v>1050</v>
       </c>
       <c r="C295" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="D295" t="s">
         <v>66</v>
@@ -24934,64 +24934,61 @@
     </row>
     <row r="296" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>1056</v>
+        <v>1049</v>
       </c>
       <c r="B296" t="s">
-        <v>1057</v>
+        <v>1050</v>
       </c>
       <c r="C296" t="s">
-        <v>1058</v>
+        <v>1055</v>
       </c>
       <c r="D296" t="s">
-        <v>27</v>
+        <v>66</v>
       </c>
       <c r="E296">
-        <v>19</v>
+        <v>150</v>
       </c>
       <c r="F296" t="s">
-        <v>28</v>
+        <v>74</v>
       </c>
       <c r="G296">
-        <v>419</v>
-      </c>
-      <c r="H296" t="s">
-        <v>100</v>
-      </c>
-      <c r="I296">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="J296">
-        <v>600</v>
+        <v>620</v>
       </c>
       <c r="K296">
         <v>0</v>
       </c>
       <c r="L296">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M296">
         <v>0</v>
       </c>
       <c r="N296" t="s">
-        <v>30</v>
+        <v>68</v>
       </c>
       <c r="O296">
-        <v>288</v>
+        <v>182</v>
       </c>
       <c r="P296" t="s">
-        <v>75</v>
+        <v>31</v>
       </c>
       <c r="Q296" t="s">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="R296" t="s">
-        <v>55</v>
+        <v>33</v>
+      </c>
+      <c r="S296" t="s">
+        <v>144</v>
       </c>
       <c r="T296">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U296">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V296">
         <v>0</v>
@@ -25000,42 +24997,48 @@
         <v>0</v>
       </c>
       <c r="X296" t="s">
-        <v>1059</v>
+        <v>1052</v>
       </c>
       <c r="Y296" t="s">
-        <v>1060</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="297" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>1061</v>
+        <v>1056</v>
       </c>
       <c r="B297" t="s">
-        <v>1062</v>
+        <v>1057</v>
       </c>
       <c r="C297" t="s">
-        <v>1444</v>
+        <v>1058</v>
       </c>
       <c r="D297" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="E297">
-        <v>142</v>
+        <v>19</v>
       </c>
       <c r="F297" t="s">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="G297">
-        <v>145</v>
+        <v>419</v>
+      </c>
+      <c r="H297" t="s">
+        <v>100</v>
+      </c>
+      <c r="I297">
+        <v>5</v>
       </c>
       <c r="J297">
-        <v>275</v>
+        <v>600</v>
       </c>
       <c r="K297">
         <v>0</v>
       </c>
       <c r="L297">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M297">
         <v>0</v>
@@ -25043,14 +25046,17 @@
       <c r="N297" t="s">
         <v>30</v>
       </c>
+      <c r="O297">
+        <v>288</v>
+      </c>
       <c r="P297" t="s">
-        <v>54</v>
+        <v>75</v>
       </c>
       <c r="Q297" t="s">
-        <v>92</v>
+        <v>32</v>
       </c>
       <c r="R297" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="T297">
         <v>0</v>
@@ -25059,16 +25065,16 @@
         <v>0</v>
       </c>
       <c r="V297">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W297">
         <v>0</v>
       </c>
       <c r="X297" t="s">
-        <v>1064</v>
+        <v>1059</v>
       </c>
       <c r="Y297" t="s">
-        <v>1065</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="298" spans="1:25" x14ac:dyDescent="0.25">
@@ -25079,7 +25085,7 @@
         <v>1062</v>
       </c>
       <c r="C298" t="s">
-        <v>1480</v>
+        <v>1444</v>
       </c>
       <c r="D298" t="s">
         <v>39</v>
@@ -25144,7 +25150,7 @@
         <v>1062</v>
       </c>
       <c r="C299" t="s">
-        <v>1063</v>
+        <v>1480</v>
       </c>
       <c r="D299" t="s">
         <v>39</v>
@@ -25209,7 +25215,7 @@
         <v>1062</v>
       </c>
       <c r="C300" t="s">
-        <v>1066</v>
+        <v>1063</v>
       </c>
       <c r="D300" t="s">
         <v>39</v>
@@ -25274,7 +25280,7 @@
         <v>1062</v>
       </c>
       <c r="C301" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="D301" t="s">
         <v>39</v>
@@ -25333,28 +25339,28 @@
     </row>
     <row r="302" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>1068</v>
+        <v>1061</v>
       </c>
       <c r="B302" t="s">
-        <v>1069</v>
+        <v>1062</v>
       </c>
       <c r="C302" t="s">
-        <v>1070</v>
+        <v>1067</v>
       </c>
       <c r="D302" t="s">
-        <v>112</v>
+        <v>39</v>
       </c>
       <c r="E302">
-        <v>9</v>
+        <v>142</v>
       </c>
       <c r="F302" t="s">
-        <v>113</v>
+        <v>91</v>
       </c>
       <c r="G302">
-        <v>61</v>
+        <v>145</v>
       </c>
       <c r="J302">
-        <v>258</v>
+        <v>275</v>
       </c>
       <c r="K302">
         <v>0</v>
@@ -25363,16 +25369,16 @@
         <v>0</v>
       </c>
       <c r="M302">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N302" t="s">
         <v>30</v>
       </c>
       <c r="P302" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="Q302" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="R302" t="s">
         <v>33</v>
@@ -25384,16 +25390,16 @@
         <v>0</v>
       </c>
       <c r="V302">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W302">
         <v>0</v>
       </c>
       <c r="X302" t="s">
-        <v>1071</v>
+        <v>1064</v>
       </c>
       <c r="Y302" t="s">
-        <v>1072</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="303" spans="1:25" x14ac:dyDescent="0.25">
@@ -25404,7 +25410,7 @@
         <v>1069</v>
       </c>
       <c r="C303" t="s">
-        <v>1073</v>
+        <v>1070</v>
       </c>
       <c r="D303" t="s">
         <v>112</v>
@@ -25463,28 +25469,28 @@
     </row>
     <row r="304" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
-        <v>1074</v>
+        <v>1068</v>
       </c>
       <c r="B304" t="s">
-        <v>1075</v>
+        <v>1069</v>
       </c>
       <c r="C304" t="s">
-        <v>1076</v>
+        <v>1073</v>
       </c>
       <c r="D304" t="s">
-        <v>39</v>
+        <v>112</v>
       </c>
       <c r="E304">
-        <v>142</v>
+        <v>9</v>
       </c>
       <c r="F304" t="s">
-        <v>91</v>
+        <v>113</v>
       </c>
       <c r="G304">
-        <v>145</v>
+        <v>61</v>
       </c>
       <c r="J304">
-        <v>634</v>
+        <v>258</v>
       </c>
       <c r="K304">
         <v>0</v>
@@ -25493,19 +25499,16 @@
         <v>0</v>
       </c>
       <c r="M304">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N304" t="s">
         <v>30</v>
-      </c>
-      <c r="O304">
-        <v>453</v>
       </c>
       <c r="P304" t="s">
         <v>31</v>
       </c>
       <c r="Q304" t="s">
-        <v>92</v>
+        <v>114</v>
       </c>
       <c r="R304" t="s">
         <v>33</v>
@@ -25517,48 +25520,42 @@
         <v>0</v>
       </c>
       <c r="V304">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W304">
         <v>0</v>
       </c>
       <c r="X304" t="s">
-        <v>1077</v>
+        <v>1071</v>
       </c>
       <c r="Y304" t="s">
-        <v>1078</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="305" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>1079</v>
+        <v>1074</v>
       </c>
       <c r="B305" t="s">
-        <v>1080</v>
+        <v>1075</v>
       </c>
       <c r="C305" t="s">
-        <v>1081</v>
+        <v>1076</v>
       </c>
       <c r="D305" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="E305">
-        <v>2</v>
+        <v>142</v>
       </c>
       <c r="F305" t="s">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="G305">
-        <v>202</v>
-      </c>
-      <c r="H305" t="s">
-        <v>125</v>
-      </c>
-      <c r="I305">
-        <v>14</v>
+        <v>145</v>
       </c>
       <c r="J305">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="K305">
         <v>0</v>
@@ -25572,6 +25569,18 @@
       <c r="N305" t="s">
         <v>30</v>
       </c>
+      <c r="O305">
+        <v>453</v>
+      </c>
+      <c r="P305" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q305" t="s">
+        <v>92</v>
+      </c>
+      <c r="R305" t="s">
+        <v>33</v>
+      </c>
       <c r="T305">
         <v>0</v>
       </c>
@@ -25579,10 +25588,16 @@
         <v>0</v>
       </c>
       <c r="V305">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W305">
         <v>0</v>
+      </c>
+      <c r="X305" t="s">
+        <v>1077</v>
+      </c>
+      <c r="Y305" t="s">
+        <v>1078</v>
       </c>
     </row>
     <row r="306" spans="1:25" x14ac:dyDescent="0.25">
@@ -25593,7 +25608,7 @@
         <v>1080</v>
       </c>
       <c r="C306" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="D306" t="s">
         <v>51</v>
@@ -25643,28 +25658,34 @@
     </row>
     <row r="307" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>1083</v>
+        <v>1079</v>
       </c>
       <c r="B307" t="s">
-        <v>1084</v>
+        <v>1080</v>
       </c>
       <c r="C307" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="D307" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="E307">
-        <v>150</v>
+        <v>2</v>
       </c>
       <c r="F307" t="s">
-        <v>186</v>
+        <v>52</v>
       </c>
       <c r="G307">
-        <v>151</v>
+        <v>202</v>
+      </c>
+      <c r="H307" t="s">
+        <v>125</v>
+      </c>
+      <c r="I307">
+        <v>14</v>
       </c>
       <c r="J307">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="K307">
         <v>0</v>
@@ -25676,45 +25697,30 @@
         <v>0</v>
       </c>
       <c r="N307" t="s">
-        <v>68</v>
-      </c>
-      <c r="P307" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q307" t="s">
-        <v>76</v>
-      </c>
-      <c r="R307" t="s">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="T307">
         <v>0</v>
       </c>
       <c r="U307">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V307">
         <v>0</v>
       </c>
       <c r="W307">
         <v>0</v>
-      </c>
-      <c r="X307" t="s">
-        <v>1086</v>
-      </c>
-      <c r="Y307" t="s">
-        <v>1087</v>
       </c>
     </row>
     <row r="308" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
-        <v>1088</v>
+        <v>1083</v>
       </c>
       <c r="B308" t="s">
-        <v>1089</v>
+        <v>1084</v>
       </c>
       <c r="C308" t="s">
-        <v>1090</v>
+        <v>1085</v>
       </c>
       <c r="D308" t="s">
         <v>66</v>
@@ -25729,7 +25735,7 @@
         <v>151</v>
       </c>
       <c r="J308">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="K308">
         <v>0</v>
@@ -25743,9 +25749,6 @@
       <c r="N308" t="s">
         <v>68</v>
       </c>
-      <c r="O308">
-        <v>922</v>
-      </c>
       <c r="P308" t="s">
         <v>75</v>
       </c>
@@ -25759,7 +25762,7 @@
         <v>0</v>
       </c>
       <c r="U308">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V308">
         <v>0</v>
@@ -25768,10 +25771,10 @@
         <v>0</v>
       </c>
       <c r="X308" t="s">
-        <v>1091</v>
+        <v>1086</v>
       </c>
       <c r="Y308" t="s">
-        <v>1092</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="309" spans="1:25" x14ac:dyDescent="0.25">
@@ -25782,7 +25785,7 @@
         <v>1089</v>
       </c>
       <c r="C309" t="s">
-        <v>1093</v>
+        <v>1090</v>
       </c>
       <c r="D309" t="s">
         <v>66</v>
@@ -25844,61 +25847,52 @@
     </row>
     <row r="310" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>1094</v>
+        <v>1088</v>
       </c>
       <c r="B310" t="s">
-        <v>1095</v>
+        <v>1089</v>
       </c>
       <c r="C310" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="D310" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="E310">
-        <v>2</v>
+        <v>150</v>
       </c>
       <c r="F310" t="s">
-        <v>52</v>
+        <v>186</v>
       </c>
       <c r="G310">
-        <v>202</v>
-      </c>
-      <c r="H310" t="s">
-        <v>125</v>
-      </c>
-      <c r="I310">
-        <v>14</v>
+        <v>151</v>
       </c>
       <c r="J310">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="K310">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L310">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M310">
         <v>0</v>
       </c>
       <c r="N310" t="s">
-        <v>30</v>
+        <v>68</v>
       </c>
       <c r="O310">
-        <v>714</v>
+        <v>922</v>
       </c>
       <c r="P310" t="s">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="Q310" t="s">
-        <v>52</v>
+        <v>76</v>
       </c>
       <c r="R310" t="s">
-        <v>43</v>
-      </c>
-      <c r="S310" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="T310">
         <v>0</v>
@@ -25910,45 +25904,51 @@
         <v>0</v>
       </c>
       <c r="W310">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X310" t="s">
-        <v>1097</v>
+        <v>1091</v>
       </c>
       <c r="Y310" t="s">
-        <v>1098</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="311" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>1099</v>
+        <v>1094</v>
       </c>
       <c r="B311" t="s">
-        <v>1100</v>
+        <v>1095</v>
       </c>
       <c r="C311" t="s">
-        <v>1101</v>
+        <v>1096</v>
       </c>
       <c r="D311" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="E311">
-        <v>142</v>
+        <v>2</v>
       </c>
       <c r="F311" t="s">
-        <v>91</v>
+        <v>52</v>
       </c>
       <c r="G311">
-        <v>145</v>
+        <v>202</v>
+      </c>
+      <c r="H311" t="s">
+        <v>125</v>
+      </c>
+      <c r="I311">
+        <v>14</v>
       </c>
       <c r="J311">
-        <v>682</v>
+        <v>646</v>
       </c>
       <c r="K311">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L311">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M311">
         <v>0</v>
@@ -25957,16 +25957,19 @@
         <v>30</v>
       </c>
       <c r="O311">
-        <v>456</v>
+        <v>714</v>
       </c>
       <c r="P311" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="Q311" t="s">
-        <v>92</v>
+        <v>52</v>
       </c>
       <c r="R311" t="s">
-        <v>33</v>
+        <v>43</v>
+      </c>
+      <c r="S311" t="s">
+        <v>44</v>
       </c>
       <c r="T311">
         <v>0</v>
@@ -25975,39 +25978,42 @@
         <v>0</v>
       </c>
       <c r="V311">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W311">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X311" t="s">
-        <v>1102</v>
+        <v>1097</v>
       </c>
       <c r="Y311" t="s">
-        <v>1103</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="312" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>1461</v>
+        <v>1099</v>
       </c>
       <c r="B312" t="s">
-        <v>1462</v>
+        <v>1100</v>
       </c>
       <c r="C312" t="s">
-        <v>1463</v>
+        <v>1101</v>
       </c>
       <c r="D312" t="s">
-        <v>66</v>
+        <v>39</v>
       </c>
       <c r="E312">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="F312" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="G312">
-        <v>39</v>
+        <v>145</v>
+      </c>
+      <c r="J312">
+        <v>682</v>
       </c>
       <c r="K312">
         <v>0</v>
@@ -26019,13 +26025,19 @@
         <v>0</v>
       </c>
       <c r="N312" t="s">
-        <v>68</v>
+        <v>30</v>
+      </c>
+      <c r="O312">
+        <v>456</v>
       </c>
       <c r="P312" t="s">
-        <v>75</v>
+        <v>31</v>
       </c>
       <c r="Q312" t="s">
-        <v>76</v>
+        <v>92</v>
+      </c>
+      <c r="R312" t="s">
+        <v>33</v>
       </c>
       <c r="T312">
         <v>0</v>
@@ -26034,39 +26046,42 @@
         <v>0</v>
       </c>
       <c r="V312">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W312">
         <v>0</v>
+      </c>
+      <c r="X312" t="s">
+        <v>1102</v>
+      </c>
+      <c r="Y312" t="s">
+        <v>1103</v>
       </c>
     </row>
     <row r="313" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>1104</v>
+        <v>1461</v>
       </c>
       <c r="B313" t="s">
-        <v>1105</v>
+        <v>1462</v>
       </c>
       <c r="C313" t="s">
-        <v>1441</v>
+        <v>1463</v>
       </c>
       <c r="D313" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="E313">
-        <v>2</v>
+        <v>150</v>
       </c>
       <c r="F313" t="s">
-        <v>413</v>
+        <v>74</v>
       </c>
       <c r="G313">
-        <v>15</v>
-      </c>
-      <c r="J313">
-        <v>729</v>
+        <v>39</v>
       </c>
       <c r="K313">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L313">
         <v>0</v>
@@ -26075,22 +26090,13 @@
         <v>0</v>
       </c>
       <c r="N313" t="s">
-        <v>30</v>
-      </c>
-      <c r="O313">
-        <v>732</v>
+        <v>68</v>
       </c>
       <c r="P313" t="s">
-        <v>54</v>
+        <v>75</v>
       </c>
       <c r="Q313" t="s">
-        <v>52</v>
-      </c>
-      <c r="R313" t="s">
-        <v>43</v>
-      </c>
-      <c r="S313" t="s">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="T313">
         <v>0</v>
@@ -26099,16 +26105,10 @@
         <v>0</v>
       </c>
       <c r="V313">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W313">
         <v>0</v>
-      </c>
-      <c r="X313" t="s">
-        <v>1107</v>
-      </c>
-      <c r="Y313" t="s">
-        <v>1108</v>
       </c>
     </row>
     <row r="314" spans="1:25" x14ac:dyDescent="0.25">
@@ -26119,7 +26119,7 @@
         <v>1105</v>
       </c>
       <c r="C314" t="s">
-        <v>1106</v>
+        <v>1441</v>
       </c>
       <c r="D314" t="s">
         <v>51</v>
@@ -26190,7 +26190,7 @@
         <v>1105</v>
       </c>
       <c r="C315" t="s">
-        <v>1109</v>
+        <v>1106</v>
       </c>
       <c r="D315" t="s">
         <v>51</v>
@@ -26255,13 +26255,13 @@
     </row>
     <row r="316" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>1110</v>
+        <v>1104</v>
       </c>
       <c r="B316" t="s">
-        <v>1111</v>
+        <v>1105</v>
       </c>
       <c r="C316" t="s">
-        <v>1112</v>
+        <v>1109</v>
       </c>
       <c r="D316" t="s">
         <v>51</v>
@@ -26270,19 +26270,13 @@
         <v>2</v>
       </c>
       <c r="F316" t="s">
-        <v>52</v>
+        <v>413</v>
       </c>
       <c r="G316">
-        <v>202</v>
-      </c>
-      <c r="H316" t="s">
-        <v>166</v>
-      </c>
-      <c r="I316">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="J316">
-        <v>686</v>
+        <v>729</v>
       </c>
       <c r="K316">
         <v>1</v>
@@ -26297,10 +26291,10 @@
         <v>30</v>
       </c>
       <c r="O316">
-        <v>722</v>
+        <v>732</v>
       </c>
       <c r="P316" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="Q316" t="s">
         <v>52</v>
@@ -26318,66 +26312,75 @@
         <v>0</v>
       </c>
       <c r="V316">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W316">
         <v>0</v>
       </c>
       <c r="X316" t="s">
-        <v>1113</v>
+        <v>1107</v>
       </c>
       <c r="Y316" t="s">
-        <v>1114</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="317" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>1115</v>
+        <v>1110</v>
       </c>
       <c r="B317" t="s">
-        <v>1116</v>
+        <v>1111</v>
       </c>
       <c r="C317" t="s">
-        <v>1117</v>
+        <v>1112</v>
       </c>
       <c r="D317" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="E317">
-        <v>142</v>
+        <v>2</v>
       </c>
       <c r="F317" t="s">
-        <v>249</v>
+        <v>52</v>
       </c>
       <c r="G317">
-        <v>35</v>
+        <v>202</v>
+      </c>
+      <c r="H317" t="s">
+        <v>166</v>
+      </c>
+      <c r="I317">
+        <v>11</v>
       </c>
       <c r="J317">
-        <v>702</v>
+        <v>686</v>
       </c>
       <c r="K317">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L317">
         <v>0</v>
       </c>
       <c r="M317">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N317" t="s">
         <v>30</v>
       </c>
       <c r="O317">
-        <v>576</v>
+        <v>722</v>
       </c>
       <c r="P317" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="Q317" t="s">
-        <v>114</v>
+        <v>52</v>
       </c>
       <c r="R317" t="s">
-        <v>33</v>
+        <v>43</v>
+      </c>
+      <c r="S317" t="s">
+        <v>44</v>
       </c>
       <c r="T317">
         <v>0</v>
@@ -26389,45 +26392,39 @@
         <v>0</v>
       </c>
       <c r="W317">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X317" t="s">
-        <v>1118</v>
+        <v>1113</v>
       </c>
       <c r="Y317" t="s">
-        <v>1119</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="318" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>1120</v>
+        <v>1115</v>
       </c>
       <c r="B318" t="s">
-        <v>1121</v>
+        <v>1116</v>
       </c>
       <c r="C318" t="s">
-        <v>1122</v>
+        <v>1117</v>
       </c>
       <c r="D318" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="E318">
-        <v>19</v>
+        <v>142</v>
       </c>
       <c r="F318" t="s">
-        <v>28</v>
+        <v>249</v>
       </c>
       <c r="G318">
-        <v>419</v>
-      </c>
-      <c r="H318" t="s">
-        <v>100</v>
-      </c>
-      <c r="I318">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="J318">
-        <v>239</v>
+        <v>702</v>
       </c>
       <c r="K318">
         <v>0</v>
@@ -26436,11 +26433,23 @@
         <v>0</v>
       </c>
       <c r="M318">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N318" t="s">
         <v>30</v>
       </c>
+      <c r="O318">
+        <v>576</v>
+      </c>
+      <c r="P318" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q318" t="s">
+        <v>114</v>
+      </c>
+      <c r="R318" t="s">
+        <v>33</v>
+      </c>
       <c r="T318">
         <v>0</v>
       </c>
@@ -26451,13 +26460,13 @@
         <v>0</v>
       </c>
       <c r="W318">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X318" t="s">
-        <v>1123</v>
+        <v>1118</v>
       </c>
       <c r="Y318" t="s">
-        <v>1124</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="319" spans="1:25" x14ac:dyDescent="0.25">
@@ -26468,7 +26477,7 @@
         <v>1121</v>
       </c>
       <c r="C319" t="s">
-        <v>1482</v>
+        <v>1122</v>
       </c>
       <c r="D319" t="s">
         <v>27</v>
@@ -26530,7 +26539,7 @@
         <v>1121</v>
       </c>
       <c r="C320" t="s">
-        <v>1125</v>
+        <v>1482</v>
       </c>
       <c r="D320" t="s">
         <v>27</v>
@@ -26592,7 +26601,7 @@
         <v>1121</v>
       </c>
       <c r="C321" t="s">
-        <v>1455</v>
+        <v>1125</v>
       </c>
       <c r="D321" t="s">
         <v>27</v>
@@ -26654,7 +26663,7 @@
         <v>1121</v>
       </c>
       <c r="C322" t="s">
-        <v>1126</v>
+        <v>1455</v>
       </c>
       <c r="D322" t="s">
         <v>27</v>
@@ -26716,7 +26725,7 @@
         <v>1121</v>
       </c>
       <c r="C323" t="s">
-        <v>1481</v>
+        <v>1126</v>
       </c>
       <c r="D323" t="s">
         <v>27</v>
@@ -26772,34 +26781,34 @@
     </row>
     <row r="324" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
-        <v>1127</v>
+        <v>1120</v>
       </c>
       <c r="B324" t="s">
-        <v>1128</v>
+        <v>1121</v>
       </c>
       <c r="C324" t="s">
-        <v>1483</v>
+        <v>1481</v>
       </c>
       <c r="D324" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="E324">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="F324" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="G324">
-        <v>202</v>
+        <v>419</v>
       </c>
       <c r="H324" t="s">
-        <v>166</v>
+        <v>100</v>
       </c>
       <c r="I324">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="J324">
-        <v>654</v>
+        <v>239</v>
       </c>
       <c r="K324">
         <v>0</v>
@@ -26826,10 +26835,10 @@
         <v>0</v>
       </c>
       <c r="X324" t="s">
-        <v>1130</v>
+        <v>1123</v>
       </c>
       <c r="Y324" t="s">
-        <v>1131</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="325" spans="1:25" x14ac:dyDescent="0.25">
@@ -26840,7 +26849,7 @@
         <v>1128</v>
       </c>
       <c r="C325" t="s">
-        <v>1129</v>
+        <v>1483</v>
       </c>
       <c r="D325" t="s">
         <v>51</v>
@@ -26902,7 +26911,7 @@
         <v>1128</v>
       </c>
       <c r="C326" t="s">
-        <v>1132</v>
+        <v>1129</v>
       </c>
       <c r="D326" t="s">
         <v>51</v>
@@ -26958,28 +26967,34 @@
     </row>
     <row r="327" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
-        <v>1133</v>
+        <v>1127</v>
       </c>
       <c r="B327" t="s">
-        <v>1134</v>
+        <v>1128</v>
       </c>
       <c r="C327" t="s">
-        <v>1457</v>
+        <v>1132</v>
       </c>
       <c r="D327" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="E327">
-        <v>150</v>
+        <v>2</v>
       </c>
       <c r="F327" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="G327">
-        <v>154</v>
+        <v>202</v>
+      </c>
+      <c r="H327" t="s">
+        <v>166</v>
+      </c>
+      <c r="I327">
+        <v>11</v>
       </c>
       <c r="J327">
-        <v>744</v>
+        <v>654</v>
       </c>
       <c r="K327">
         <v>0</v>
@@ -26991,7 +27006,7 @@
         <v>0</v>
       </c>
       <c r="N327" t="s">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="T327">
         <v>0</v>
@@ -27004,6 +27019,12 @@
       </c>
       <c r="W327">
         <v>0</v>
+      </c>
+      <c r="X327" t="s">
+        <v>1130</v>
+      </c>
+      <c r="Y327" t="s">
+        <v>1131</v>
       </c>
     </row>
     <row r="328" spans="1:25" x14ac:dyDescent="0.25">
@@ -27014,7 +27035,7 @@
         <v>1134</v>
       </c>
       <c r="C328" t="s">
-        <v>1135</v>
+        <v>1457</v>
       </c>
       <c r="D328" t="s">
         <v>66</v>
@@ -27058,52 +27079,40 @@
     </row>
     <row r="329" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
-        <v>1136</v>
+        <v>1133</v>
       </c>
       <c r="B329" t="s">
-        <v>1137</v>
+        <v>1134</v>
       </c>
       <c r="C329" t="s">
-        <v>1138</v>
+        <v>1135</v>
       </c>
       <c r="D329" t="s">
-        <v>112</v>
+        <v>66</v>
       </c>
       <c r="E329">
-        <v>9</v>
+        <v>150</v>
       </c>
       <c r="F329" t="s">
-        <v>460</v>
+        <v>67</v>
       </c>
       <c r="G329">
-        <v>54</v>
+        <v>154</v>
       </c>
       <c r="J329">
-        <v>90</v>
+        <v>744</v>
       </c>
       <c r="K329">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L329">
         <v>0</v>
       </c>
       <c r="M329">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N329" t="s">
-        <v>30</v>
-      </c>
-      <c r="O329">
-        <v>813</v>
-      </c>
-      <c r="P329" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q329" t="s">
-        <v>114</v>
-      </c>
-      <c r="R329" t="s">
-        <v>43</v>
+        <v>68</v>
       </c>
       <c r="T329">
         <v>0</v>
@@ -27115,13 +27124,7 @@
         <v>0</v>
       </c>
       <c r="W329">
-        <v>1</v>
-      </c>
-      <c r="X329" t="s">
-        <v>1139</v>
-      </c>
-      <c r="Y329" t="s">
-        <v>1140</v>
+        <v>0</v>
       </c>
     </row>
     <row r="330" spans="1:25" x14ac:dyDescent="0.25">
@@ -27132,7 +27135,7 @@
         <v>1137</v>
       </c>
       <c r="C330" t="s">
-        <v>1141</v>
+        <v>1138</v>
       </c>
       <c r="D330" t="s">
         <v>112</v>
@@ -27194,34 +27197,28 @@
     </row>
     <row r="331" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
-        <v>1142</v>
+        <v>1136</v>
       </c>
       <c r="B331" t="s">
-        <v>1143</v>
+        <v>1137</v>
       </c>
       <c r="C331" t="s">
-        <v>1144</v>
+        <v>1141</v>
       </c>
       <c r="D331" t="s">
-        <v>51</v>
+        <v>112</v>
       </c>
       <c r="E331">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="F331" t="s">
-        <v>52</v>
+        <v>460</v>
       </c>
       <c r="G331">
-        <v>202</v>
-      </c>
-      <c r="H331" t="s">
-        <v>166</v>
-      </c>
-      <c r="I331">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="J331">
-        <v>694</v>
+        <v>90</v>
       </c>
       <c r="K331">
         <v>1</v>
@@ -27230,26 +27227,23 @@
         <v>0</v>
       </c>
       <c r="M331">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N331" t="s">
         <v>30</v>
       </c>
       <c r="O331">
-        <v>724</v>
+        <v>813</v>
       </c>
       <c r="P331" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="Q331" t="s">
-        <v>52</v>
+        <v>114</v>
       </c>
       <c r="R331" t="s">
         <v>43</v>
       </c>
-      <c r="S331" t="s">
-        <v>44</v>
-      </c>
       <c r="T331">
         <v>0</v>
       </c>
@@ -27263,45 +27257,45 @@
         <v>1</v>
       </c>
       <c r="X331" t="s">
-        <v>1145</v>
+        <v>1139</v>
       </c>
       <c r="Y331" t="s">
-        <v>1146</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="332" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
-        <v>1147</v>
+        <v>1142</v>
       </c>
       <c r="B332" t="s">
-        <v>1148</v>
+        <v>1143</v>
       </c>
       <c r="C332" t="s">
-        <v>1149</v>
+        <v>1144</v>
       </c>
       <c r="D332" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="E332">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="F332" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="G332">
-        <v>419</v>
+        <v>202</v>
       </c>
       <c r="H332" t="s">
-        <v>220</v>
+        <v>166</v>
       </c>
       <c r="I332">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J332">
-        <v>222</v>
+        <v>694</v>
       </c>
       <c r="K332">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L332">
         <v>0</v>
@@ -27313,16 +27307,19 @@
         <v>30</v>
       </c>
       <c r="O332">
-        <v>253</v>
+        <v>724</v>
       </c>
       <c r="P332" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="Q332" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="R332" t="s">
-        <v>55</v>
+        <v>43</v>
+      </c>
+      <c r="S332" t="s">
+        <v>44</v>
       </c>
       <c r="T332">
         <v>0</v>
@@ -27334,39 +27331,45 @@
         <v>0</v>
       </c>
       <c r="W332">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X332" t="s">
-        <v>1150</v>
+        <v>1145</v>
       </c>
       <c r="Y332" t="s">
-        <v>1151</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="333" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
-        <v>1152</v>
+        <v>1147</v>
       </c>
       <c r="B333" t="s">
-        <v>1153</v>
+        <v>1148</v>
       </c>
       <c r="C333" t="s">
-        <v>1154</v>
+        <v>1149</v>
       </c>
       <c r="D333" t="s">
-        <v>66</v>
+        <v>27</v>
       </c>
       <c r="E333">
-        <v>150</v>
+        <v>19</v>
       </c>
       <c r="F333" t="s">
-        <v>74</v>
+        <v>28</v>
       </c>
       <c r="G333">
-        <v>39</v>
+        <v>419</v>
+      </c>
+      <c r="H333" t="s">
+        <v>220</v>
+      </c>
+      <c r="I333">
+        <v>13</v>
       </c>
       <c r="J333">
-        <v>674</v>
+        <v>222</v>
       </c>
       <c r="K333">
         <v>0</v>
@@ -27378,19 +27381,19 @@
         <v>0</v>
       </c>
       <c r="N333" t="s">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="O333">
-        <v>135</v>
+        <v>253</v>
       </c>
       <c r="P333" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="Q333" t="s">
-        <v>76</v>
+        <v>32</v>
       </c>
       <c r="R333" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="T333">
         <v>0</v>
@@ -27405,45 +27408,39 @@
         <v>0</v>
       </c>
       <c r="X333" t="s">
-        <v>1155</v>
+        <v>1150</v>
       </c>
       <c r="Y333" t="s">
-        <v>1156</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="334" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
-        <v>1157</v>
+        <v>1152</v>
       </c>
       <c r="B334" t="s">
-        <v>1158</v>
+        <v>1153</v>
       </c>
       <c r="C334" t="s">
-        <v>1159</v>
+        <v>1154</v>
       </c>
       <c r="D334" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="E334">
-        <v>2</v>
+        <v>150</v>
       </c>
       <c r="F334" t="s">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="G334">
-        <v>202</v>
-      </c>
-      <c r="H334" t="s">
-        <v>125</v>
-      </c>
-      <c r="I334">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="J334">
-        <v>706</v>
+        <v>674</v>
       </c>
       <c r="K334">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L334">
         <v>0</v>
@@ -27452,19 +27449,19 @@
         <v>0</v>
       </c>
       <c r="N334" t="s">
-        <v>30</v>
+        <v>68</v>
+      </c>
+      <c r="O334">
+        <v>135</v>
       </c>
       <c r="P334" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="Q334" t="s">
-        <v>52</v>
+        <v>76</v>
       </c>
       <c r="R334" t="s">
-        <v>43</v>
-      </c>
-      <c r="S334" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="T334">
         <v>0</v>
@@ -27473,45 +27470,51 @@
         <v>0</v>
       </c>
       <c r="V334">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W334">
         <v>0</v>
       </c>
       <c r="X334" t="s">
-        <v>1160</v>
+        <v>1155</v>
       </c>
       <c r="Y334" t="s">
-        <v>1161</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="335" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
-        <v>1162</v>
+        <v>1157</v>
       </c>
       <c r="B335" t="s">
-        <v>1163</v>
+        <v>1158</v>
       </c>
       <c r="C335" t="s">
-        <v>1164</v>
+        <v>1159</v>
       </c>
       <c r="D335" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="E335">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="F335" t="s">
-        <v>226</v>
+        <v>52</v>
       </c>
       <c r="G335">
-        <v>21</v>
+        <v>202</v>
+      </c>
+      <c r="H335" t="s">
+        <v>125</v>
+      </c>
+      <c r="I335">
+        <v>14</v>
       </c>
       <c r="J335">
-        <v>666</v>
+        <v>706</v>
       </c>
       <c r="K335">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L335">
         <v>0</v>
@@ -27520,7 +27523,19 @@
         <v>0</v>
       </c>
       <c r="N335" t="s">
-        <v>68</v>
+        <v>30</v>
+      </c>
+      <c r="P335" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q335" t="s">
+        <v>52</v>
+      </c>
+      <c r="R335" t="s">
+        <v>43</v>
+      </c>
+      <c r="S335" t="s">
+        <v>44</v>
       </c>
       <c r="T335">
         <v>0</v>
@@ -27529,16 +27544,16 @@
         <v>0</v>
       </c>
       <c r="V335">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W335">
         <v>0</v>
       </c>
       <c r="X335" t="s">
-        <v>1165</v>
+        <v>1160</v>
       </c>
       <c r="Y335" t="s">
-        <v>1166</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="336" spans="1:25" x14ac:dyDescent="0.25">
@@ -27549,7 +27564,7 @@
         <v>1163</v>
       </c>
       <c r="C336" t="s">
-        <v>1167</v>
+        <v>1164</v>
       </c>
       <c r="D336" t="s">
         <v>27</v>
@@ -27605,7 +27620,7 @@
         <v>1163</v>
       </c>
       <c r="C337" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="D337" t="s">
         <v>27</v>
@@ -27655,28 +27670,28 @@
     </row>
     <row r="338" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
-        <v>1169</v>
+        <v>1162</v>
       </c>
       <c r="B338" t="s">
-        <v>1170</v>
+        <v>1163</v>
       </c>
       <c r="C338" t="s">
-        <v>1171</v>
+        <v>1168</v>
       </c>
       <c r="D338" t="s">
-        <v>66</v>
+        <v>27</v>
       </c>
       <c r="E338">
-        <v>150</v>
+        <v>19</v>
       </c>
       <c r="F338" t="s">
-        <v>74</v>
+        <v>226</v>
       </c>
       <c r="G338">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="J338">
-        <v>688</v>
+        <v>666</v>
       </c>
       <c r="K338">
         <v>0</v>
@@ -27690,18 +27705,6 @@
       <c r="N338" t="s">
         <v>68</v>
       </c>
-      <c r="O338">
-        <v>942</v>
-      </c>
-      <c r="P338" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q338" t="s">
-        <v>76</v>
-      </c>
-      <c r="R338" t="s">
-        <v>55</v>
-      </c>
       <c r="T338">
         <v>0</v>
       </c>
@@ -27715,10 +27718,10 @@
         <v>0</v>
       </c>
       <c r="X338" t="s">
-        <v>1172</v>
+        <v>1165</v>
       </c>
       <c r="Y338" t="s">
-        <v>1173</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="339" spans="1:25" x14ac:dyDescent="0.25">
@@ -27729,7 +27732,7 @@
         <v>1170</v>
       </c>
       <c r="C339" t="s">
-        <v>1440</v>
+        <v>1171</v>
       </c>
       <c r="D339" t="s">
         <v>66</v>
@@ -27797,7 +27800,7 @@
         <v>1170</v>
       </c>
       <c r="C340" t="s">
-        <v>1174</v>
+        <v>1440</v>
       </c>
       <c r="D340" t="s">
         <v>66</v>
@@ -27859,58 +27862,52 @@
     </row>
     <row r="341" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
-        <v>1175</v>
+        <v>1169</v>
       </c>
       <c r="B341" t="s">
-        <v>1176</v>
+        <v>1170</v>
       </c>
       <c r="C341" t="s">
-        <v>1177</v>
+        <v>1174</v>
       </c>
       <c r="D341" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="E341">
-        <v>2</v>
+        <v>150</v>
       </c>
       <c r="F341" t="s">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="G341">
-        <v>202</v>
-      </c>
-      <c r="H341" t="s">
-        <v>125</v>
-      </c>
-      <c r="I341">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="J341">
-        <v>728</v>
+        <v>688</v>
       </c>
       <c r="K341">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L341">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M341">
         <v>0</v>
       </c>
       <c r="N341" t="s">
-        <v>30</v>
+        <v>68</v>
       </c>
       <c r="O341">
-        <v>733</v>
+        <v>942</v>
       </c>
       <c r="P341" t="s">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="Q341" t="s">
-        <v>52</v>
+        <v>76</v>
       </c>
       <c r="R341" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="T341">
         <v>0</v>
@@ -27925,21 +27922,21 @@
         <v>0</v>
       </c>
       <c r="X341" t="s">
-        <v>1178</v>
+        <v>1172</v>
       </c>
       <c r="Y341" t="s">
-        <v>1179</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="342" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
-        <v>1180</v>
+        <v>1175</v>
       </c>
       <c r="B342" t="s">
-        <v>1181</v>
+        <v>1176</v>
       </c>
       <c r="C342" t="s">
-        <v>1182</v>
+        <v>1177</v>
       </c>
       <c r="D342" t="s">
         <v>51</v>
@@ -27954,31 +27951,31 @@
         <v>202</v>
       </c>
       <c r="H342" t="s">
-        <v>53</v>
+        <v>125</v>
       </c>
       <c r="I342">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J342">
-        <v>678</v>
+        <v>728</v>
       </c>
       <c r="K342">
         <v>1</v>
       </c>
       <c r="L342">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M342">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N342" t="s">
         <v>30</v>
       </c>
       <c r="O342">
-        <v>716</v>
+        <v>733</v>
       </c>
       <c r="P342" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="Q342" t="s">
         <v>52</v>
@@ -27986,9 +27983,6 @@
       <c r="R342" t="s">
         <v>43</v>
       </c>
-      <c r="S342" t="s">
-        <v>44</v>
-      </c>
       <c r="T342">
         <v>0</v>
       </c>
@@ -28002,45 +27996,45 @@
         <v>0</v>
       </c>
       <c r="X342" t="s">
-        <v>1183</v>
+        <v>1178</v>
       </c>
       <c r="Y342" t="s">
-        <v>1184</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="343" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
-        <v>1185</v>
+        <v>1180</v>
       </c>
       <c r="B343" t="s">
-        <v>1186</v>
+        <v>1181</v>
       </c>
       <c r="C343" t="s">
-        <v>1187</v>
+        <v>1182</v>
       </c>
       <c r="D343" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="E343">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="F343" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="G343">
-        <v>419</v>
+        <v>202</v>
       </c>
       <c r="H343" t="s">
-        <v>100</v>
+        <v>53</v>
       </c>
       <c r="I343">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="J343">
-        <v>740</v>
+        <v>678</v>
       </c>
       <c r="K343">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L343">
         <v>0</v>
@@ -28052,16 +28046,19 @@
         <v>30</v>
       </c>
       <c r="O343">
-        <v>366</v>
+        <v>716</v>
       </c>
       <c r="P343" t="s">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="Q343" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="R343" t="s">
-        <v>55</v>
+        <v>43</v>
+      </c>
+      <c r="S343" t="s">
+        <v>44</v>
       </c>
       <c r="T343">
         <v>0</v>
@@ -28076,36 +28073,42 @@
         <v>0</v>
       </c>
       <c r="X343" t="s">
-        <v>1188</v>
+        <v>1183</v>
       </c>
       <c r="Y343" t="s">
-        <v>1189</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="344" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
-        <v>1190</v>
+        <v>1185</v>
       </c>
       <c r="B344" t="s">
-        <v>1191</v>
+        <v>1186</v>
       </c>
       <c r="C344" t="s">
-        <v>1192</v>
+        <v>1187</v>
       </c>
       <c r="D344" t="s">
-        <v>66</v>
+        <v>27</v>
       </c>
       <c r="E344">
-        <v>150</v>
+        <v>19</v>
       </c>
       <c r="F344" t="s">
-        <v>186</v>
+        <v>28</v>
       </c>
       <c r="G344">
-        <v>151</v>
+        <v>419</v>
+      </c>
+      <c r="H344" t="s">
+        <v>100</v>
+      </c>
+      <c r="I344">
+        <v>5</v>
       </c>
       <c r="J344">
-        <v>703</v>
+        <v>740</v>
       </c>
       <c r="K344">
         <v>0</v>
@@ -28114,31 +28117,28 @@
         <v>0</v>
       </c>
       <c r="M344">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N344" t="s">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="O344">
-        <v>936</v>
+        <v>366</v>
       </c>
       <c r="P344" t="s">
-        <v>31</v>
+        <v>75</v>
       </c>
       <c r="Q344" t="s">
-        <v>76</v>
+        <v>32</v>
       </c>
       <c r="R344" t="s">
-        <v>33</v>
-      </c>
-      <c r="S344" t="s">
-        <v>144</v>
+        <v>55</v>
       </c>
       <c r="T344">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U344">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V344">
         <v>0</v>
@@ -28147,10 +28147,10 @@
         <v>0</v>
       </c>
       <c r="X344" t="s">
-        <v>1193</v>
+        <v>1188</v>
       </c>
       <c r="Y344" t="s">
-        <v>1194</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="345" spans="1:25" x14ac:dyDescent="0.25">
@@ -28161,7 +28161,7 @@
         <v>1191</v>
       </c>
       <c r="C345" t="s">
-        <v>1195</v>
+        <v>1192</v>
       </c>
       <c r="D345" t="s">
         <v>66</v>
@@ -28226,13 +28226,13 @@
     </row>
     <row r="346" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
-        <v>1196</v>
+        <v>1190</v>
       </c>
       <c r="B346" t="s">
-        <v>1197</v>
+        <v>1191</v>
       </c>
       <c r="C346" t="s">
-        <v>1198</v>
+        <v>1195</v>
       </c>
       <c r="D346" t="s">
         <v>66</v>
@@ -28241,13 +28241,13 @@
         <v>150</v>
       </c>
       <c r="F346" t="s">
-        <v>74</v>
+        <v>186</v>
       </c>
       <c r="G346">
-        <v>39</v>
+        <v>151</v>
       </c>
       <c r="J346">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="K346">
         <v>0</v>
@@ -28262,7 +28262,7 @@
         <v>68</v>
       </c>
       <c r="O346">
-        <v>961</v>
+        <v>936</v>
       </c>
       <c r="P346" t="s">
         <v>31</v>
@@ -28289,21 +28289,21 @@
         <v>0</v>
       </c>
       <c r="X346" t="s">
-        <v>1199</v>
+        <v>1193</v>
       </c>
       <c r="Y346" t="s">
-        <v>1200</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="347" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
-        <v>1201</v>
+        <v>1196</v>
       </c>
       <c r="B347" t="s">
-        <v>1202</v>
+        <v>1197</v>
       </c>
       <c r="C347" t="s">
-        <v>1203</v>
+        <v>1198</v>
       </c>
       <c r="D347" t="s">
         <v>66</v>
@@ -28312,13 +28312,13 @@
         <v>150</v>
       </c>
       <c r="F347" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="G347">
-        <v>154</v>
+        <v>39</v>
       </c>
       <c r="J347">
-        <v>752</v>
+        <v>705</v>
       </c>
       <c r="K347">
         <v>0</v>
@@ -28333,7 +28333,7 @@
         <v>68</v>
       </c>
       <c r="O347">
-        <v>144</v>
+        <v>961</v>
       </c>
       <c r="P347" t="s">
         <v>31</v>
@@ -28344,6 +28344,9 @@
       <c r="R347" t="s">
         <v>33</v>
       </c>
+      <c r="S347" t="s">
+        <v>144</v>
+      </c>
       <c r="T347">
         <v>1</v>
       </c>
@@ -28357,84 +28360,78 @@
         <v>0</v>
       </c>
       <c r="X347" t="s">
-        <v>1204</v>
+        <v>1199</v>
       </c>
       <c r="Y347" t="s">
-        <v>1205</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="348" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
-        <v>1206</v>
+        <v>1201</v>
       </c>
       <c r="B348" t="s">
-        <v>1207</v>
+        <v>1202</v>
       </c>
       <c r="C348" t="s">
-        <v>1208</v>
+        <v>1203</v>
       </c>
       <c r="D348" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="E348">
-        <v>2</v>
+        <v>150</v>
       </c>
       <c r="F348" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="G348">
-        <v>202</v>
-      </c>
-      <c r="H348" t="s">
-        <v>264</v>
-      </c>
-      <c r="I348">
-        <v>18</v>
+        <v>154</v>
       </c>
       <c r="J348">
-        <v>748</v>
+        <v>752</v>
       </c>
       <c r="K348">
         <v>0</v>
       </c>
       <c r="L348">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M348">
         <v>0</v>
       </c>
       <c r="N348" t="s">
-        <v>30</v>
+        <v>68</v>
       </c>
       <c r="O348">
-        <v>734</v>
+        <v>144</v>
       </c>
       <c r="P348" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="Q348" t="s">
-        <v>52</v>
+        <v>76</v>
       </c>
       <c r="R348" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="T348">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U348">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V348">
         <v>0</v>
       </c>
       <c r="W348">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X348" t="s">
-        <v>1209</v>
+        <v>1204</v>
       </c>
       <c r="Y348" t="s">
-        <v>1210</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="349" spans="1:25" x14ac:dyDescent="0.25">
@@ -28445,7 +28442,7 @@
         <v>1207</v>
       </c>
       <c r="C349" t="s">
-        <v>1211</v>
+        <v>1208</v>
       </c>
       <c r="D349" t="s">
         <v>51</v>
@@ -28519,7 +28516,7 @@
         <v>1207</v>
       </c>
       <c r="C350" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="D350" t="s">
         <v>51</v>
@@ -28576,7 +28573,7 @@
         <v>0</v>
       </c>
       <c r="W350">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X350" t="s">
         <v>1209</v>
@@ -28587,55 +28584,58 @@
     </row>
     <row r="351" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
-        <v>1213</v>
+        <v>1206</v>
       </c>
       <c r="B351" t="s">
-        <v>1214</v>
+        <v>1207</v>
       </c>
       <c r="C351" t="s">
-        <v>1458</v>
+        <v>1212</v>
       </c>
       <c r="D351" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="E351">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="F351" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="G351">
-        <v>419</v>
+        <v>202</v>
       </c>
       <c r="H351" t="s">
-        <v>29</v>
+        <v>264</v>
       </c>
       <c r="I351">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="J351">
-        <v>534</v>
+        <v>748</v>
       </c>
       <c r="K351">
         <v>0</v>
       </c>
       <c r="L351">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M351">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N351" t="s">
         <v>30</v>
       </c>
+      <c r="O351">
+        <v>734</v>
+      </c>
       <c r="P351" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="Q351" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="R351" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="T351">
         <v>0</v>
@@ -28650,10 +28650,10 @@
         <v>0</v>
       </c>
       <c r="X351" t="s">
-        <v>1216</v>
+        <v>1209</v>
       </c>
       <c r="Y351" t="s">
-        <v>1217</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="352" spans="1:25" x14ac:dyDescent="0.25">
@@ -28664,7 +28664,7 @@
         <v>1214</v>
       </c>
       <c r="C352" t="s">
-        <v>1215</v>
+        <v>1458</v>
       </c>
       <c r="D352" t="s">
         <v>27</v>
@@ -28735,7 +28735,7 @@
         <v>1214</v>
       </c>
       <c r="C353" t="s">
-        <v>1218</v>
+        <v>1215</v>
       </c>
       <c r="D353" t="s">
         <v>27</v>
@@ -28800,34 +28800,34 @@
     </row>
     <row r="354" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
-        <v>1219</v>
+        <v>1213</v>
       </c>
       <c r="B354" t="s">
-        <v>1220</v>
+        <v>1214</v>
       </c>
       <c r="C354" t="s">
-        <v>1221</v>
+        <v>1218</v>
       </c>
       <c r="D354" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="E354">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="F354" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="G354">
-        <v>202</v>
+        <v>419</v>
       </c>
       <c r="H354" t="s">
-        <v>125</v>
+        <v>29</v>
       </c>
       <c r="I354">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="J354">
-        <v>690</v>
+        <v>534</v>
       </c>
       <c r="K354">
         <v>0</v>
@@ -28840,18 +28840,15 @@
       </c>
       <c r="N354" t="s">
         <v>30</v>
-      </c>
-      <c r="O354">
-        <v>718</v>
       </c>
       <c r="P354" t="s">
         <v>31</v>
       </c>
       <c r="Q354" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="R354" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="T354">
         <v>0</v>
@@ -28863,39 +28860,45 @@
         <v>0</v>
       </c>
       <c r="W354">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X354" t="s">
-        <v>1222</v>
+        <v>1216</v>
       </c>
       <c r="Y354" t="s">
-        <v>1223</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="355" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
-        <v>1224</v>
+        <v>1219</v>
       </c>
       <c r="B355" t="s">
-        <v>1225</v>
+        <v>1220</v>
       </c>
       <c r="C355" t="s">
-        <v>1226</v>
+        <v>1221</v>
       </c>
       <c r="D355" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="E355">
-        <v>142</v>
+        <v>2</v>
       </c>
       <c r="F355" t="s">
-        <v>91</v>
+        <v>52</v>
       </c>
       <c r="G355">
-        <v>145</v>
+        <v>202</v>
+      </c>
+      <c r="H355" t="s">
+        <v>125</v>
+      </c>
+      <c r="I355">
+        <v>14</v>
       </c>
       <c r="J355">
-        <v>760</v>
+        <v>690</v>
       </c>
       <c r="K355">
         <v>0</v>
@@ -28904,22 +28907,22 @@
         <v>0</v>
       </c>
       <c r="M355">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N355" t="s">
         <v>30</v>
       </c>
       <c r="O355">
-        <v>463</v>
+        <v>718</v>
       </c>
       <c r="P355" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="Q355" t="s">
-        <v>92</v>
+        <v>52</v>
       </c>
       <c r="R355" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="T355">
         <v>0</v>
@@ -28928,16 +28931,16 @@
         <v>0</v>
       </c>
       <c r="V355">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W355">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X355" t="s">
-        <v>1227</v>
+        <v>1222</v>
       </c>
       <c r="Y355" t="s">
-        <v>1228</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="356" spans="1:25" x14ac:dyDescent="0.25">
@@ -28948,7 +28951,7 @@
         <v>1225</v>
       </c>
       <c r="C356" t="s">
-        <v>1229</v>
+        <v>1226</v>
       </c>
       <c r="D356" t="s">
         <v>39</v>
@@ -29010,34 +29013,28 @@
     </row>
     <row r="357" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
-        <v>1230</v>
+        <v>1224</v>
       </c>
       <c r="B357" t="s">
-        <v>1231</v>
+        <v>1225</v>
       </c>
       <c r="C357" t="s">
-        <v>1232</v>
+        <v>1229</v>
       </c>
       <c r="D357" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="E357">
-        <v>19</v>
+        <v>142</v>
       </c>
       <c r="F357" t="s">
-        <v>28</v>
+        <v>91</v>
       </c>
       <c r="G357">
-        <v>419</v>
-      </c>
-      <c r="H357" t="s">
-        <v>29</v>
-      </c>
-      <c r="I357">
-        <v>29</v>
+        <v>145</v>
       </c>
       <c r="J357">
-        <v>796</v>
+        <v>760</v>
       </c>
       <c r="K357">
         <v>0</v>
@@ -29051,14 +29048,17 @@
       <c r="N357" t="s">
         <v>30</v>
       </c>
+      <c r="O357">
+        <v>463</v>
+      </c>
       <c r="P357" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="Q357" t="s">
-        <v>32</v>
+        <v>92</v>
       </c>
       <c r="R357" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="T357">
         <v>0</v>
@@ -29067,16 +29067,16 @@
         <v>0</v>
       </c>
       <c r="V357">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W357">
         <v>0</v>
       </c>
       <c r="X357" t="s">
-        <v>1233</v>
+        <v>1227</v>
       </c>
       <c r="Y357" t="s">
-        <v>1234</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="358" spans="1:25" x14ac:dyDescent="0.25">
@@ -29087,7 +29087,7 @@
         <v>1231</v>
       </c>
       <c r="C358" t="s">
-        <v>1448</v>
+        <v>1232</v>
       </c>
       <c r="D358" t="s">
         <v>27</v>
@@ -29158,7 +29158,7 @@
         <v>1231</v>
       </c>
       <c r="C359" t="s">
-        <v>1235</v>
+        <v>1448</v>
       </c>
       <c r="D359" t="s">
         <v>27</v>
@@ -29223,40 +29223,40 @@
     </row>
     <row r="360" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="B360" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="C360" t="s">
-        <v>1238</v>
+        <v>1235</v>
       </c>
       <c r="D360" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="E360">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="F360" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="G360">
-        <v>202</v>
+        <v>419</v>
       </c>
       <c r="H360" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="I360">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="J360">
-        <v>148</v>
+        <v>796</v>
       </c>
       <c r="K360">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L360">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M360">
         <v>0</v>
@@ -29264,20 +29264,14 @@
       <c r="N360" t="s">
         <v>30</v>
       </c>
-      <c r="O360">
-        <v>628</v>
-      </c>
       <c r="P360" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="Q360" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="R360" t="s">
-        <v>43</v>
-      </c>
-      <c r="S360" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="T360">
         <v>0</v>
@@ -29292,21 +29286,21 @@
         <v>0</v>
       </c>
       <c r="X360" t="s">
-        <v>1239</v>
+        <v>1233</v>
       </c>
       <c r="Y360" t="s">
-        <v>1240</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="361" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
-        <v>1241</v>
+        <v>1236</v>
       </c>
       <c r="B361" t="s">
-        <v>1242</v>
+        <v>1237</v>
       </c>
       <c r="C361" t="s">
-        <v>1243</v>
+        <v>1238</v>
       </c>
       <c r="D361" t="s">
         <v>51</v>
@@ -29321,19 +29315,19 @@
         <v>202</v>
       </c>
       <c r="H361" t="s">
-        <v>166</v>
+        <v>53</v>
       </c>
       <c r="I361">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="J361">
-        <v>768</v>
+        <v>148</v>
       </c>
       <c r="K361">
         <v>1</v>
       </c>
       <c r="L361">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M361">
         <v>0</v>
@@ -29342,7 +29336,7 @@
         <v>30</v>
       </c>
       <c r="O361">
-        <v>742</v>
+        <v>628</v>
       </c>
       <c r="P361" t="s">
         <v>41</v>
@@ -29369,39 +29363,45 @@
         <v>0</v>
       </c>
       <c r="X361" t="s">
-        <v>1244</v>
+        <v>1239</v>
       </c>
       <c r="Y361" t="s">
-        <v>1245</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="362" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
-        <v>1246</v>
+        <v>1241</v>
       </c>
       <c r="B362" t="s">
-        <v>1247</v>
+        <v>1242</v>
       </c>
       <c r="C362" t="s">
-        <v>1248</v>
+        <v>1243</v>
       </c>
       <c r="D362" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="E362">
-        <v>142</v>
+        <v>2</v>
       </c>
       <c r="F362" t="s">
-        <v>249</v>
+        <v>52</v>
       </c>
       <c r="G362">
-        <v>35</v>
+        <v>202</v>
+      </c>
+      <c r="H362" t="s">
+        <v>166</v>
+      </c>
+      <c r="I362">
+        <v>11</v>
       </c>
       <c r="J362">
-        <v>764</v>
+        <v>768</v>
       </c>
       <c r="K362">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L362">
         <v>0</v>
@@ -29413,16 +29413,19 @@
         <v>30</v>
       </c>
       <c r="O362">
-        <v>578</v>
+        <v>742</v>
       </c>
       <c r="P362" t="s">
-        <v>75</v>
+        <v>41</v>
       </c>
       <c r="Q362" t="s">
-        <v>114</v>
+        <v>52</v>
       </c>
       <c r="R362" t="s">
-        <v>55</v>
+        <v>43</v>
+      </c>
+      <c r="S362" t="s">
+        <v>44</v>
       </c>
       <c r="T362">
         <v>0</v>
@@ -29437,21 +29440,21 @@
         <v>0</v>
       </c>
       <c r="X362" t="s">
-        <v>1249</v>
+        <v>1244</v>
       </c>
       <c r="Y362" t="s">
-        <v>1250</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="363" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
-        <v>1251</v>
+        <v>1246</v>
       </c>
       <c r="B363" t="s">
-        <v>1252</v>
+        <v>1247</v>
       </c>
       <c r="C363" t="s">
-        <v>1253</v>
+        <v>1248</v>
       </c>
       <c r="D363" t="s">
         <v>39</v>
@@ -29460,19 +29463,19 @@
         <v>142</v>
       </c>
       <c r="F363" t="s">
-        <v>688</v>
+        <v>249</v>
       </c>
       <c r="G363">
-        <v>143</v>
+        <v>35</v>
       </c>
       <c r="J363">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="K363">
         <v>0</v>
       </c>
       <c r="L363">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M363">
         <v>0</v>
@@ -29481,16 +29484,16 @@
         <v>30</v>
       </c>
       <c r="O363">
-        <v>923</v>
+        <v>578</v>
       </c>
       <c r="P363" t="s">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="Q363" t="s">
-        <v>76</v>
+        <v>114</v>
       </c>
       <c r="R363" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="T363">
         <v>0</v>
@@ -29505,42 +29508,42 @@
         <v>0</v>
       </c>
       <c r="X363" t="s">
-        <v>1254</v>
+        <v>1249</v>
       </c>
       <c r="Y363" t="s">
-        <v>1255</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="364" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
-        <v>1256</v>
+        <v>1251</v>
       </c>
       <c r="B364" t="s">
-        <v>1257</v>
+        <v>1252</v>
       </c>
       <c r="C364" t="s">
-        <v>1258</v>
+        <v>1253</v>
       </c>
       <c r="D364" t="s">
-        <v>112</v>
+        <v>39</v>
       </c>
       <c r="E364">
-        <v>9</v>
+        <v>142</v>
       </c>
       <c r="F364" t="s">
-        <v>113</v>
+        <v>688</v>
       </c>
       <c r="G364">
-        <v>61</v>
+        <v>143</v>
       </c>
       <c r="J364">
-        <v>772</v>
+        <v>762</v>
       </c>
       <c r="K364">
         <v>0</v>
       </c>
       <c r="L364">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M364">
         <v>0</v>
@@ -29548,6 +29551,18 @@
       <c r="N364" t="s">
         <v>30</v>
       </c>
+      <c r="O364">
+        <v>923</v>
+      </c>
+      <c r="P364" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q364" t="s">
+        <v>76</v>
+      </c>
+      <c r="R364" t="s">
+        <v>43</v>
+      </c>
       <c r="T364">
         <v>0</v>
       </c>
@@ -29559,6 +29574,12 @@
       </c>
       <c r="W364">
         <v>0</v>
+      </c>
+      <c r="X364" t="s">
+        <v>1254</v>
+      </c>
+      <c r="Y364" t="s">
+        <v>1255</v>
       </c>
     </row>
     <row r="365" spans="1:25" x14ac:dyDescent="0.25">
@@ -29569,7 +29590,7 @@
         <v>1257</v>
       </c>
       <c r="C365" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="D365" t="s">
         <v>112</v>
@@ -29613,34 +29634,34 @@
     </row>
     <row r="366" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
-        <v>1260</v>
+        <v>1256</v>
       </c>
       <c r="B366" t="s">
-        <v>1261</v>
+        <v>1257</v>
       </c>
       <c r="C366" t="s">
-        <v>1262</v>
+        <v>1259</v>
       </c>
       <c r="D366" t="s">
-        <v>39</v>
+        <v>112</v>
       </c>
       <c r="E366">
-        <v>142</v>
+        <v>9</v>
       </c>
       <c r="F366" t="s">
-        <v>688</v>
+        <v>113</v>
       </c>
       <c r="G366">
-        <v>143</v>
+        <v>61</v>
       </c>
       <c r="J366">
-        <v>795</v>
+        <v>772</v>
       </c>
       <c r="K366">
         <v>0</v>
       </c>
       <c r="L366">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M366">
         <v>0</v>
@@ -29648,18 +29669,6 @@
       <c r="N366" t="s">
         <v>30</v>
       </c>
-      <c r="O366">
-        <v>925</v>
-      </c>
-      <c r="P366" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q366" t="s">
-        <v>76</v>
-      </c>
-      <c r="R366" t="s">
-        <v>55</v>
-      </c>
       <c r="T366">
         <v>0</v>
       </c>
@@ -29671,23 +29680,17 @@
       </c>
       <c r="W366">
         <v>0</v>
-      </c>
-      <c r="X366" t="s">
-        <v>1263</v>
-      </c>
-      <c r="Y366" t="s">
-        <v>1264</v>
       </c>
     </row>
     <row r="367" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
-        <v>1265</v>
+        <v>1260</v>
       </c>
       <c r="B367" t="s">
-        <v>1266</v>
+        <v>1261</v>
       </c>
       <c r="C367" t="s">
-        <v>1442</v>
+        <v>1262</v>
       </c>
       <c r="D367" t="s">
         <v>39</v>
@@ -29696,37 +29699,37 @@
         <v>142</v>
       </c>
       <c r="F367" t="s">
-        <v>249</v>
+        <v>688</v>
       </c>
       <c r="G367">
-        <v>35</v>
+        <v>143</v>
       </c>
       <c r="J367">
-        <v>626</v>
+        <v>795</v>
       </c>
       <c r="K367">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L367">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M367">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N367" t="s">
         <v>30</v>
       </c>
       <c r="O367">
-        <v>537</v>
+        <v>925</v>
       </c>
       <c r="P367" t="s">
-        <v>54</v>
+        <v>75</v>
       </c>
       <c r="Q367" t="s">
-        <v>114</v>
+        <v>76</v>
       </c>
       <c r="R367" t="s">
-        <v>307</v>
+        <v>55</v>
       </c>
       <c r="T367">
         <v>0</v>
@@ -29741,10 +29744,10 @@
         <v>0</v>
       </c>
       <c r="X367" t="s">
-        <v>1268</v>
+        <v>1263</v>
       </c>
       <c r="Y367" t="s">
-        <v>1269</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="368" spans="1:25" x14ac:dyDescent="0.25">
@@ -29755,7 +29758,7 @@
         <v>1266</v>
       </c>
       <c r="C368" t="s">
-        <v>1267</v>
+        <v>1442</v>
       </c>
       <c r="D368" t="s">
         <v>39</v>
@@ -29823,7 +29826,7 @@
         <v>1266</v>
       </c>
       <c r="C369" t="s">
-        <v>1270</v>
+        <v>1267</v>
       </c>
       <c r="D369" t="s">
         <v>39</v>
@@ -29891,7 +29894,7 @@
         <v>1266</v>
       </c>
       <c r="C370" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="D370" t="s">
         <v>39</v>
@@ -29953,31 +29956,31 @@
     </row>
     <row r="371" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
-        <v>1272</v>
+        <v>1265</v>
       </c>
       <c r="B371" t="s">
-        <v>1273</v>
+        <v>1266</v>
       </c>
       <c r="C371" t="s">
-        <v>1274</v>
+        <v>1271</v>
       </c>
       <c r="D371" t="s">
-        <v>112</v>
+        <v>39</v>
       </c>
       <c r="E371">
-        <v>9</v>
+        <v>142</v>
       </c>
       <c r="F371" t="s">
-        <v>113</v>
+        <v>249</v>
       </c>
       <c r="G371">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="J371">
-        <v>776</v>
+        <v>626</v>
       </c>
       <c r="K371">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L371">
         <v>0</v>
@@ -29989,16 +29992,16 @@
         <v>30</v>
       </c>
       <c r="O371">
-        <v>866</v>
+        <v>537</v>
       </c>
       <c r="P371" t="s">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="Q371" t="s">
         <v>114</v>
       </c>
       <c r="R371" t="s">
-        <v>43</v>
+        <v>307</v>
       </c>
       <c r="T371">
         <v>0</v>
@@ -30010,45 +30013,39 @@
         <v>0</v>
       </c>
       <c r="W371">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X371" t="s">
-        <v>1275</v>
+        <v>1268</v>
       </c>
       <c r="Y371" t="s">
-        <v>1276</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="372" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
-        <v>1277</v>
+        <v>1272</v>
       </c>
       <c r="B372" t="s">
-        <v>1278</v>
+        <v>1273</v>
       </c>
       <c r="C372" t="s">
-        <v>1485</v>
+        <v>1274</v>
       </c>
       <c r="D372" t="s">
-        <v>27</v>
+        <v>112</v>
       </c>
       <c r="E372">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="F372" t="s">
-        <v>28</v>
+        <v>113</v>
       </c>
       <c r="G372">
-        <v>419</v>
-      </c>
-      <c r="H372" t="s">
-        <v>29</v>
-      </c>
-      <c r="I372">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="J372">
-        <v>780</v>
+        <v>776</v>
       </c>
       <c r="K372">
         <v>0</v>
@@ -30063,16 +30060,16 @@
         <v>30</v>
       </c>
       <c r="O372">
-        <v>369</v>
+        <v>866</v>
       </c>
       <c r="P372" t="s">
-        <v>31</v>
+        <v>75</v>
       </c>
       <c r="Q372" t="s">
-        <v>32</v>
+        <v>114</v>
       </c>
       <c r="R372" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="T372">
         <v>0</v>
@@ -30087,10 +30084,10 @@
         <v>1</v>
       </c>
       <c r="X372" t="s">
-        <v>1280</v>
+        <v>1275</v>
       </c>
       <c r="Y372" t="s">
-        <v>1281</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="373" spans="1:25" x14ac:dyDescent="0.25">
@@ -30101,7 +30098,7 @@
         <v>1278</v>
       </c>
       <c r="C373" t="s">
-        <v>1484</v>
+        <v>1485</v>
       </c>
       <c r="D373" t="s">
         <v>27</v>
@@ -30175,7 +30172,7 @@
         <v>1278</v>
       </c>
       <c r="C374" t="s">
-        <v>1279</v>
+        <v>1484</v>
       </c>
       <c r="D374" t="s">
         <v>27</v>
@@ -30243,28 +30240,34 @@
     </row>
     <row r="375" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
-        <v>1282</v>
+        <v>1277</v>
       </c>
       <c r="B375" t="s">
-        <v>1283</v>
+        <v>1278</v>
       </c>
       <c r="C375" t="s">
-        <v>1284</v>
+        <v>1279</v>
       </c>
       <c r="D375" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="E375">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="F375" t="s">
-        <v>413</v>
+        <v>28</v>
       </c>
       <c r="G375">
-        <v>15</v>
+        <v>419</v>
+      </c>
+      <c r="H375" t="s">
+        <v>29</v>
+      </c>
+      <c r="I375">
+        <v>29</v>
       </c>
       <c r="J375">
-        <v>788</v>
+        <v>780</v>
       </c>
       <c r="K375">
         <v>0</v>
@@ -30273,19 +30276,19 @@
         <v>0</v>
       </c>
       <c r="M375">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N375" t="s">
         <v>30</v>
       </c>
       <c r="O375">
-        <v>744</v>
+        <v>369</v>
       </c>
       <c r="P375" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="Q375" t="s">
-        <v>92</v>
+        <v>32</v>
       </c>
       <c r="R375" t="s">
         <v>55</v>
@@ -30297,42 +30300,42 @@
         <v>0</v>
       </c>
       <c r="V375">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W375">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X375" t="s">
-        <v>1285</v>
+        <v>1280</v>
       </c>
       <c r="Y375" t="s">
-        <v>1286</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="376" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
-        <v>1287</v>
+        <v>1282</v>
       </c>
       <c r="B376" t="s">
-        <v>1288</v>
+        <v>1283</v>
       </c>
       <c r="C376" t="s">
-        <v>1289</v>
+        <v>1284</v>
       </c>
       <c r="D376" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="E376">
-        <v>142</v>
+        <v>2</v>
       </c>
       <c r="F376" t="s">
-        <v>91</v>
+        <v>413</v>
       </c>
       <c r="G376">
-        <v>145</v>
+        <v>15</v>
       </c>
       <c r="J376">
-        <v>792</v>
+        <v>788</v>
       </c>
       <c r="K376">
         <v>0</v>
@@ -30347,87 +30350,87 @@
         <v>30</v>
       </c>
       <c r="O376">
-        <v>186</v>
+        <v>744</v>
       </c>
       <c r="P376" t="s">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="Q376" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="R376" t="s">
         <v>55</v>
       </c>
       <c r="T376">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U376">
         <v>0</v>
       </c>
       <c r="V376">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W376">
         <v>0</v>
       </c>
       <c r="X376" t="s">
-        <v>1290</v>
+        <v>1285</v>
       </c>
       <c r="Y376" t="s">
-        <v>1291</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="377" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
-        <v>1292</v>
+        <v>1287</v>
       </c>
       <c r="B377" t="s">
-        <v>1293</v>
+        <v>1288</v>
       </c>
       <c r="C377" t="s">
-        <v>1294</v>
+        <v>1289</v>
       </c>
       <c r="D377" t="s">
-        <v>112</v>
+        <v>39</v>
       </c>
       <c r="E377">
-        <v>9</v>
+        <v>142</v>
       </c>
       <c r="F377" t="s">
-        <v>113</v>
+        <v>91</v>
       </c>
       <c r="G377">
-        <v>61</v>
+        <v>145</v>
       </c>
       <c r="J377">
-        <v>798</v>
+        <v>792</v>
       </c>
       <c r="K377">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L377">
         <v>0</v>
       </c>
       <c r="M377">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N377" t="s">
         <v>30</v>
       </c>
       <c r="O377">
-        <v>869</v>
+        <v>186</v>
       </c>
       <c r="P377" t="s">
         <v>75</v>
       </c>
       <c r="Q377" t="s">
-        <v>114</v>
+        <v>76</v>
       </c>
       <c r="R377" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="T377">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U377">
         <v>0</v>
@@ -30436,30 +30439,63 @@
         <v>0</v>
       </c>
       <c r="W377">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="X377" t="s">
+        <v>1290</v>
+      </c>
+      <c r="Y377" t="s">
+        <v>1291</v>
       </c>
     </row>
     <row r="378" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
-        <v>1295</v>
+        <v>1292</v>
       </c>
       <c r="B378" t="s">
-        <v>1296</v>
+        <v>1293</v>
       </c>
       <c r="C378" t="s">
-        <v>1297</v>
+        <v>1294</v>
+      </c>
+      <c r="D378" t="s">
+        <v>112</v>
+      </c>
+      <c r="E378">
+        <v>9</v>
+      </c>
+      <c r="F378" t="s">
+        <v>113</v>
+      </c>
+      <c r="G378">
+        <v>61</v>
+      </c>
+      <c r="J378">
+        <v>798</v>
+      </c>
+      <c r="K378">
+        <v>1</v>
+      </c>
+      <c r="L378">
+        <v>0</v>
+      </c>
+      <c r="M378">
+        <v>1</v>
+      </c>
+      <c r="N378" t="s">
+        <v>30</v>
       </c>
       <c r="O378">
-        <v>528</v>
+        <v>869</v>
       </c>
       <c r="P378" t="s">
-        <v>31</v>
+        <v>75</v>
       </c>
       <c r="Q378" t="s">
         <v>114</v>
       </c>
       <c r="R378" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="T378">
         <v>0</v>
@@ -30471,13 +30507,7 @@
         <v>0</v>
       </c>
       <c r="W378">
-        <v>0</v>
-      </c>
-      <c r="X378" t="s">
-        <v>1298</v>
-      </c>
-      <c r="Y378" t="s">
-        <v>1299</v>
+        <v>1</v>
       </c>
     </row>
     <row r="379" spans="1:25" x14ac:dyDescent="0.25">
@@ -30488,7 +30518,7 @@
         <v>1296</v>
       </c>
       <c r="C379" t="s">
-        <v>1300</v>
+        <v>1297</v>
       </c>
       <c r="O379">
         <v>528</v>
@@ -30529,7 +30559,7 @@
         <v>1296</v>
       </c>
       <c r="C380" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="O380">
         <v>528</v>
@@ -30570,7 +30600,7 @@
         <v>1296</v>
       </c>
       <c r="C381" t="s">
-        <v>1437</v>
+        <v>1301</v>
       </c>
       <c r="O381">
         <v>528</v>
@@ -30605,61 +30635,25 @@
     </row>
     <row r="382" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
-        <v>1302</v>
+        <v>1295</v>
       </c>
       <c r="B382" t="s">
-        <v>1303</v>
+        <v>1296</v>
       </c>
       <c r="C382" t="s">
-        <v>1304</v>
-      </c>
-      <c r="D382" t="s">
-        <v>51</v>
-      </c>
-      <c r="E382">
-        <v>2</v>
-      </c>
-      <c r="F382" t="s">
-        <v>52</v>
-      </c>
-      <c r="G382">
-        <v>202</v>
-      </c>
-      <c r="H382" t="s">
-        <v>125</v>
-      </c>
-      <c r="I382">
-        <v>14</v>
-      </c>
-      <c r="J382">
-        <v>834</v>
-      </c>
-      <c r="K382">
-        <v>1</v>
-      </c>
-      <c r="L382">
-        <v>0</v>
-      </c>
-      <c r="M382">
-        <v>0</v>
-      </c>
-      <c r="N382" t="s">
-        <v>30</v>
+        <v>1437</v>
       </c>
       <c r="O382">
-        <v>738</v>
+        <v>528</v>
       </c>
       <c r="P382" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="Q382" t="s">
-        <v>52</v>
+        <v>114</v>
       </c>
       <c r="R382" t="s">
-        <v>43</v>
-      </c>
-      <c r="S382" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="T382">
         <v>0</v>
@@ -30671,13 +30665,13 @@
         <v>0</v>
       </c>
       <c r="W382">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X382" t="s">
-        <v>1305</v>
+        <v>1298</v>
       </c>
       <c r="Y382" t="s">
-        <v>1306</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="383" spans="1:25" x14ac:dyDescent="0.25">
@@ -30688,7 +30682,7 @@
         <v>1303</v>
       </c>
       <c r="C383" t="s">
-        <v>1307</v>
+        <v>1304</v>
       </c>
       <c r="D383" t="s">
         <v>51</v>
@@ -30765,7 +30759,7 @@
         <v>1303</v>
       </c>
       <c r="C384" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="D384" t="s">
         <v>51</v>
@@ -30836,13 +30830,13 @@
     </row>
     <row r="385" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
-        <v>1309</v>
+        <v>1302</v>
       </c>
       <c r="B385" t="s">
-        <v>1310</v>
+        <v>1303</v>
       </c>
       <c r="C385" t="s">
-        <v>1311</v>
+        <v>1308</v>
       </c>
       <c r="D385" t="s">
         <v>51</v>
@@ -30863,13 +30857,13 @@
         <v>14</v>
       </c>
       <c r="J385">
-        <v>800</v>
+        <v>834</v>
       </c>
       <c r="K385">
         <v>1</v>
       </c>
       <c r="L385">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M385">
         <v>0</v>
@@ -30878,7 +30872,7 @@
         <v>30</v>
       </c>
       <c r="O385">
-        <v>746</v>
+        <v>738</v>
       </c>
       <c r="P385" t="s">
         <v>41</v>
@@ -30905,60 +30899,69 @@
         <v>1</v>
       </c>
       <c r="X385" t="s">
-        <v>1312</v>
+        <v>1305</v>
       </c>
       <c r="Y385" t="s">
-        <v>1313</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="386" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
-        <v>1314</v>
+        <v>1309</v>
       </c>
       <c r="B386" t="s">
-        <v>1315</v>
+        <v>1310</v>
       </c>
       <c r="C386" t="s">
-        <v>1316</v>
+        <v>1311</v>
       </c>
       <c r="D386" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="E386">
-        <v>150</v>
+        <v>2</v>
       </c>
       <c r="F386" t="s">
-        <v>186</v>
+        <v>52</v>
       </c>
       <c r="G386">
-        <v>151</v>
+        <v>202</v>
+      </c>
+      <c r="H386" t="s">
+        <v>125</v>
+      </c>
+      <c r="I386">
+        <v>14</v>
       </c>
       <c r="J386">
-        <v>804</v>
+        <v>800</v>
       </c>
       <c r="K386">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L386">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M386">
         <v>0</v>
       </c>
       <c r="N386" t="s">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="O386">
-        <v>926</v>
+        <v>746</v>
       </c>
       <c r="P386" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="Q386" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="R386" t="s">
-        <v>55</v>
+        <v>43</v>
+      </c>
+      <c r="S386" t="s">
+        <v>44</v>
       </c>
       <c r="T386">
         <v>0</v>
@@ -30970,39 +30973,39 @@
         <v>0</v>
       </c>
       <c r="W386">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X386" t="s">
-        <v>1317</v>
+        <v>1312</v>
       </c>
       <c r="Y386" t="s">
-        <v>1318</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="387" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
-        <v>1319</v>
+        <v>1314</v>
       </c>
       <c r="B387" t="s">
-        <v>1320</v>
+        <v>1315</v>
       </c>
       <c r="C387" t="s">
-        <v>1452</v>
+        <v>1316</v>
       </c>
       <c r="D387" t="s">
-        <v>112</v>
+        <v>66</v>
       </c>
       <c r="E387">
-        <v>9</v>
+        <v>150</v>
       </c>
       <c r="F387" t="s">
-        <v>483</v>
+        <v>186</v>
       </c>
       <c r="G387">
-        <v>57</v>
+        <v>151</v>
       </c>
       <c r="J387">
-        <v>581</v>
+        <v>804</v>
       </c>
       <c r="K387">
         <v>0</v>
@@ -31014,7 +31017,19 @@
         <v>0</v>
       </c>
       <c r="N387" t="s">
-        <v>30</v>
+        <v>68</v>
+      </c>
+      <c r="O387">
+        <v>926</v>
+      </c>
+      <c r="P387" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q387" t="s">
+        <v>76</v>
+      </c>
+      <c r="R387" t="s">
+        <v>55</v>
       </c>
       <c r="T387">
         <v>0</v>
@@ -31027,6 +31042,12 @@
       </c>
       <c r="W387">
         <v>0</v>
+      </c>
+      <c r="X387" t="s">
+        <v>1317</v>
+      </c>
+      <c r="Y387" t="s">
+        <v>1318</v>
       </c>
     </row>
     <row r="388" spans="1:25" x14ac:dyDescent="0.25">
@@ -31037,7 +31058,7 @@
         <v>1320</v>
       </c>
       <c r="C388" t="s">
-        <v>1321</v>
+        <v>1452</v>
       </c>
       <c r="D388" t="s">
         <v>112</v>
@@ -31087,7 +31108,7 @@
         <v>1320</v>
       </c>
       <c r="C389" t="s">
-        <v>1449</v>
+        <v>1321</v>
       </c>
       <c r="D389" t="s">
         <v>112</v>
@@ -31137,7 +31158,7 @@
         <v>1320</v>
       </c>
       <c r="C390" t="s">
-        <v>1322</v>
+        <v>1449</v>
       </c>
       <c r="D390" t="s">
         <v>112</v>
@@ -31181,34 +31202,28 @@
     </row>
     <row r="391" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
-        <v>1323</v>
+        <v>1319</v>
       </c>
       <c r="B391" t="s">
-        <v>1324</v>
+        <v>1320</v>
       </c>
       <c r="C391" t="s">
-        <v>1325</v>
+        <v>1322</v>
       </c>
       <c r="D391" t="s">
-        <v>27</v>
+        <v>112</v>
       </c>
       <c r="E391">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="F391" t="s">
-        <v>28</v>
+        <v>483</v>
       </c>
       <c r="G391">
-        <v>419</v>
-      </c>
-      <c r="H391" t="s">
-        <v>100</v>
-      </c>
-      <c r="I391">
-        <v>5</v>
+        <v>57</v>
       </c>
       <c r="J391">
-        <v>858</v>
+        <v>581</v>
       </c>
       <c r="K391">
         <v>0</v>
@@ -31222,18 +31237,6 @@
       <c r="N391" t="s">
         <v>30</v>
       </c>
-      <c r="O391">
-        <v>298</v>
-      </c>
-      <c r="P391" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q391" t="s">
-        <v>32</v>
-      </c>
-      <c r="R391" t="s">
-        <v>55</v>
-      </c>
       <c r="T391">
         <v>0</v>
       </c>
@@ -31245,23 +31248,17 @@
       </c>
       <c r="W391">
         <v>0</v>
-      </c>
-      <c r="X391" t="s">
-        <v>1326</v>
-      </c>
-      <c r="Y391" t="s">
-        <v>1327</v>
       </c>
     </row>
     <row r="392" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
-        <v>1328</v>
+        <v>1323</v>
       </c>
       <c r="B392" t="s">
-        <v>1329</v>
+        <v>1324</v>
       </c>
       <c r="C392" t="s">
-        <v>1330</v>
+        <v>1325</v>
       </c>
       <c r="D392" t="s">
         <v>27</v>
@@ -31270,13 +31267,19 @@
         <v>19</v>
       </c>
       <c r="F392" t="s">
-        <v>226</v>
+        <v>28</v>
       </c>
       <c r="G392">
-        <v>21</v>
+        <v>419</v>
+      </c>
+      <c r="H392" t="s">
+        <v>100</v>
+      </c>
+      <c r="I392">
+        <v>5</v>
       </c>
       <c r="J392">
-        <v>840</v>
+        <v>858</v>
       </c>
       <c r="K392">
         <v>0</v>
@@ -31288,22 +31291,22 @@
         <v>0</v>
       </c>
       <c r="N392" t="s">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="O392">
-        <v>111</v>
+        <v>298</v>
       </c>
       <c r="P392" t="s">
         <v>31</v>
       </c>
       <c r="Q392" t="s">
-        <v>227</v>
+        <v>32</v>
       </c>
       <c r="R392" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="T392">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U392">
         <v>0</v>
@@ -31315,10 +31318,10 @@
         <v>0</v>
       </c>
       <c r="X392" t="s">
-        <v>1331</v>
+        <v>1326</v>
       </c>
       <c r="Y392" t="s">
-        <v>1332</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="393" spans="1:25" x14ac:dyDescent="0.25">
@@ -31329,7 +31332,7 @@
         <v>1329</v>
       </c>
       <c r="C393" t="s">
-        <v>1333</v>
+        <v>1330</v>
       </c>
       <c r="D393" t="s">
         <v>27</v>
@@ -31397,7 +31400,7 @@
         <v>1329</v>
       </c>
       <c r="C394" t="s">
-        <v>1328</v>
+        <v>1333</v>
       </c>
       <c r="D394" t="s">
         <v>27</v>
@@ -31459,55 +31462,55 @@
     </row>
     <row r="395" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
-        <v>1334</v>
+        <v>1328</v>
       </c>
       <c r="B395" t="s">
-        <v>1335</v>
+        <v>1329</v>
       </c>
       <c r="C395" t="s">
-        <v>1336</v>
+        <v>1328</v>
       </c>
       <c r="D395" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="E395">
-        <v>142</v>
+        <v>19</v>
       </c>
       <c r="F395" t="s">
-        <v>688</v>
+        <v>226</v>
       </c>
       <c r="G395">
-        <v>143</v>
+        <v>21</v>
       </c>
       <c r="J395">
-        <v>860</v>
+        <v>840</v>
       </c>
       <c r="K395">
         <v>0</v>
       </c>
       <c r="L395">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M395">
         <v>0</v>
       </c>
       <c r="N395" t="s">
-        <v>30</v>
+        <v>68</v>
       </c>
       <c r="O395">
-        <v>927</v>
+        <v>111</v>
       </c>
       <c r="P395" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="Q395" t="s">
-        <v>76</v>
+        <v>227</v>
       </c>
       <c r="R395" t="s">
-        <v>307</v>
+        <v>33</v>
       </c>
       <c r="T395">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U395">
         <v>0</v>
@@ -31519,48 +31522,60 @@
         <v>0</v>
       </c>
       <c r="X395" t="s">
-        <v>1337</v>
+        <v>1331</v>
       </c>
       <c r="Y395" t="s">
-        <v>1338</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="396" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
-        <v>1339</v>
+        <v>1334</v>
       </c>
       <c r="B396" t="s">
-        <v>1340</v>
+        <v>1335</v>
       </c>
       <c r="C396" t="s">
-        <v>1341</v>
+        <v>1336</v>
       </c>
       <c r="D396" t="s">
-        <v>66</v>
+        <v>39</v>
       </c>
       <c r="E396">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="F396" t="s">
-        <v>74</v>
+        <v>688</v>
       </c>
       <c r="G396">
-        <v>39</v>
+        <v>143</v>
       </c>
       <c r="J396">
-        <v>336</v>
+        <v>860</v>
       </c>
       <c r="K396">
         <v>0</v>
       </c>
       <c r="L396">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M396">
         <v>0</v>
       </c>
       <c r="N396" t="s">
-        <v>68</v>
+        <v>30</v>
+      </c>
+      <c r="O396">
+        <v>927</v>
+      </c>
+      <c r="P396" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q396" t="s">
+        <v>76</v>
+      </c>
+      <c r="R396" t="s">
+        <v>307</v>
       </c>
       <c r="T396">
         <v>0</v>
@@ -31575,10 +31590,10 @@
         <v>0</v>
       </c>
       <c r="X396" t="s">
-        <v>1342</v>
+        <v>1337</v>
       </c>
       <c r="Y396" t="s">
-        <v>1343</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="397" spans="1:25" x14ac:dyDescent="0.25">
@@ -31589,7 +31604,7 @@
         <v>1340</v>
       </c>
       <c r="C397" t="s">
-        <v>1344</v>
+        <v>1341</v>
       </c>
       <c r="D397" t="s">
         <v>66</v>
@@ -31645,7 +31660,7 @@
         <v>1340</v>
       </c>
       <c r="C398" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="D398" t="s">
         <v>66</v>
@@ -31695,34 +31710,28 @@
     </row>
     <row r="399" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
-        <v>1346</v>
+        <v>1339</v>
       </c>
       <c r="B399" t="s">
-        <v>1347</v>
+        <v>1340</v>
       </c>
       <c r="C399" t="s">
-        <v>1487</v>
+        <v>1345</v>
       </c>
       <c r="D399" t="s">
-        <v>27</v>
+        <v>66</v>
       </c>
       <c r="E399">
-        <v>19</v>
+        <v>150</v>
       </c>
       <c r="F399" t="s">
-        <v>28</v>
+        <v>74</v>
       </c>
       <c r="G399">
-        <v>419</v>
-      </c>
-      <c r="H399" t="s">
-        <v>29</v>
-      </c>
-      <c r="I399">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="J399">
-        <v>670</v>
+        <v>336</v>
       </c>
       <c r="K399">
         <v>0</v>
@@ -31731,22 +31740,10 @@
         <v>0</v>
       </c>
       <c r="M399">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N399" t="s">
-        <v>30</v>
-      </c>
-      <c r="O399">
-        <v>364</v>
-      </c>
-      <c r="P399" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q399" t="s">
-        <v>32</v>
-      </c>
-      <c r="R399" t="s">
-        <v>307</v>
+        <v>68</v>
       </c>
       <c r="T399">
         <v>0</v>
@@ -31761,10 +31758,10 @@
         <v>0</v>
       </c>
       <c r="X399" t="s">
-        <v>1349</v>
+        <v>1342</v>
       </c>
       <c r="Y399" t="s">
-        <v>1350</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="400" spans="1:25" x14ac:dyDescent="0.25">
@@ -31775,7 +31772,7 @@
         <v>1347</v>
       </c>
       <c r="C400" t="s">
-        <v>1486</v>
+        <v>1487</v>
       </c>
       <c r="D400" t="s">
         <v>27</v>
@@ -31832,7 +31829,7 @@
         <v>0</v>
       </c>
       <c r="W400">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X400" t="s">
         <v>1349</v>
@@ -31849,7 +31846,7 @@
         <v>1347</v>
       </c>
       <c r="C401" t="s">
-        <v>1348</v>
+        <v>1486</v>
       </c>
       <c r="D401" t="s">
         <v>27</v>
@@ -31923,7 +31920,7 @@
         <v>1347</v>
       </c>
       <c r="C402" t="s">
-        <v>1351</v>
+        <v>1348</v>
       </c>
       <c r="D402" t="s">
         <v>27</v>
@@ -31997,7 +31994,7 @@
         <v>1347</v>
       </c>
       <c r="C403" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="D403" t="s">
         <v>27</v>
@@ -32071,7 +32068,7 @@
         <v>1347</v>
       </c>
       <c r="C404" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="D404" t="s">
         <v>27</v>
@@ -32139,13 +32136,13 @@
     </row>
     <row r="405" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
-        <v>1354</v>
+        <v>1346</v>
       </c>
       <c r="B405" t="s">
-        <v>1355</v>
+        <v>1347</v>
       </c>
       <c r="C405" t="s">
-        <v>1356</v>
+        <v>1353</v>
       </c>
       <c r="D405" t="s">
         <v>27</v>
@@ -32160,13 +32157,13 @@
         <v>419</v>
       </c>
       <c r="H405" t="s">
-        <v>100</v>
+        <v>29</v>
       </c>
       <c r="I405">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="J405">
-        <v>862</v>
+        <v>670</v>
       </c>
       <c r="K405">
         <v>0</v>
@@ -32175,13 +32172,13 @@
         <v>0</v>
       </c>
       <c r="M405">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N405" t="s">
         <v>30</v>
       </c>
       <c r="O405">
-        <v>299</v>
+        <v>364</v>
       </c>
       <c r="P405" t="s">
         <v>75</v>
@@ -32190,7 +32187,7 @@
         <v>32</v>
       </c>
       <c r="R405" t="s">
-        <v>55</v>
+        <v>307</v>
       </c>
       <c r="T405">
         <v>0</v>
@@ -32202,13 +32199,13 @@
         <v>0</v>
       </c>
       <c r="W405">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X405" t="s">
-        <v>1357</v>
+        <v>1349</v>
       </c>
       <c r="Y405" t="s">
-        <v>1358</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="406" spans="1:25" x14ac:dyDescent="0.25">
@@ -32219,7 +32216,7 @@
         <v>1355</v>
       </c>
       <c r="C406" t="s">
-        <v>1359</v>
+        <v>1356</v>
       </c>
       <c r="D406" t="s">
         <v>27</v>
@@ -32293,7 +32290,7 @@
         <v>1355</v>
       </c>
       <c r="C407" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="D407" t="s">
         <v>27</v>
@@ -32367,7 +32364,7 @@
         <v>1355</v>
       </c>
       <c r="C408" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="D408" t="s">
         <v>27</v>
@@ -32441,7 +32438,7 @@
         <v>1355</v>
       </c>
       <c r="C409" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="D409" t="s">
         <v>27</v>
@@ -32509,13 +32506,13 @@
     </row>
     <row r="410" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
-        <v>1363</v>
+        <v>1354</v>
       </c>
       <c r="B410" t="s">
-        <v>1364</v>
+        <v>1355</v>
       </c>
       <c r="C410" t="s">
-        <v>1365</v>
+        <v>1362</v>
       </c>
       <c r="D410" t="s">
         <v>27</v>
@@ -32530,13 +32527,13 @@
         <v>419</v>
       </c>
       <c r="H410" t="s">
-        <v>29</v>
+        <v>100</v>
       </c>
       <c r="I410">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="J410">
-        <v>92</v>
+        <v>862</v>
       </c>
       <c r="K410">
         <v>0</v>
@@ -32545,19 +32542,22 @@
         <v>0</v>
       </c>
       <c r="M410">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N410" t="s">
         <v>30</v>
       </c>
+      <c r="O410">
+        <v>299</v>
+      </c>
       <c r="P410" t="s">
-        <v>31</v>
+        <v>75</v>
       </c>
       <c r="Q410" t="s">
         <v>32</v>
       </c>
       <c r="R410" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="T410">
         <v>0</v>
@@ -32572,10 +32572,10 @@
         <v>0</v>
       </c>
       <c r="X410" t="s">
-        <v>1366</v>
+        <v>1357</v>
       </c>
       <c r="Y410" t="s">
-        <v>1367</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="411" spans="1:25" x14ac:dyDescent="0.25">
@@ -32586,7 +32586,7 @@
         <v>1364</v>
       </c>
       <c r="C411" t="s">
-        <v>1368</v>
+        <v>1365</v>
       </c>
       <c r="D411" t="s">
         <v>27</v>
@@ -32651,13 +32651,13 @@
     </row>
     <row r="412" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
-        <v>1369</v>
+        <v>1363</v>
       </c>
       <c r="B412" t="s">
-        <v>1370</v>
+        <v>1364</v>
       </c>
       <c r="C412" t="s">
-        <v>1371</v>
+        <v>1368</v>
       </c>
       <c r="D412" t="s">
         <v>27</v>
@@ -32678,7 +32678,7 @@
         <v>29</v>
       </c>
       <c r="J412">
-        <v>850</v>
+        <v>92</v>
       </c>
       <c r="K412">
         <v>0</v>
@@ -32714,10 +32714,10 @@
         <v>0</v>
       </c>
       <c r="X412" t="s">
-        <v>1372</v>
+        <v>1366</v>
       </c>
       <c r="Y412" t="s">
-        <v>1373</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="413" spans="1:25" x14ac:dyDescent="0.25">
@@ -32728,7 +32728,7 @@
         <v>1370</v>
       </c>
       <c r="C413" t="s">
-        <v>1374</v>
+        <v>1371</v>
       </c>
       <c r="D413" t="s">
         <v>27</v>
@@ -32799,7 +32799,7 @@
         <v>1370</v>
       </c>
       <c r="C414" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="D414" t="s">
         <v>27</v>
@@ -32864,28 +32864,34 @@
     </row>
     <row r="415" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
-        <v>1376</v>
+        <v>1369</v>
       </c>
       <c r="B415" t="s">
-        <v>1377</v>
+        <v>1370</v>
       </c>
       <c r="C415" t="s">
-        <v>1378</v>
+        <v>1375</v>
       </c>
       <c r="D415" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="E415">
-        <v>142</v>
+        <v>19</v>
       </c>
       <c r="F415" t="s">
-        <v>249</v>
+        <v>28</v>
       </c>
       <c r="G415">
-        <v>35</v>
+        <v>419</v>
+      </c>
+      <c r="H415" t="s">
+        <v>29</v>
+      </c>
+      <c r="I415">
+        <v>29</v>
       </c>
       <c r="J415">
-        <v>704</v>
+        <v>850</v>
       </c>
       <c r="K415">
         <v>0</v>
@@ -32894,22 +32900,19 @@
         <v>0</v>
       </c>
       <c r="M415">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N415" t="s">
         <v>30</v>
       </c>
-      <c r="O415">
-        <v>582</v>
-      </c>
       <c r="P415" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="Q415" t="s">
-        <v>114</v>
+        <v>32</v>
       </c>
       <c r="R415" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="T415">
         <v>0</v>
@@ -32924,10 +32927,10 @@
         <v>0</v>
       </c>
       <c r="X415" t="s">
-        <v>1379</v>
+        <v>1372</v>
       </c>
       <c r="Y415" t="s">
-        <v>1380</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="416" spans="1:25" x14ac:dyDescent="0.25">
@@ -32938,7 +32941,7 @@
         <v>1377</v>
       </c>
       <c r="C416" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
       <c r="D416" t="s">
         <v>39</v>
@@ -33000,43 +33003,43 @@
     </row>
     <row r="417" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
-        <v>1382</v>
+        <v>1376</v>
       </c>
       <c r="B417" t="s">
-        <v>1383</v>
+        <v>1377</v>
       </c>
       <c r="C417" t="s">
-        <v>1384</v>
+        <v>1381</v>
       </c>
       <c r="D417" t="s">
-        <v>112</v>
+        <v>39</v>
       </c>
       <c r="E417">
-        <v>9</v>
+        <v>142</v>
       </c>
       <c r="F417" t="s">
-        <v>460</v>
+        <v>249</v>
       </c>
       <c r="G417">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="J417">
-        <v>548</v>
+        <v>704</v>
       </c>
       <c r="K417">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L417">
         <v>0</v>
       </c>
       <c r="M417">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N417" t="s">
         <v>30</v>
       </c>
       <c r="O417">
-        <v>846</v>
+        <v>582</v>
       </c>
       <c r="P417" t="s">
         <v>54</v>
@@ -33045,7 +33048,7 @@
         <v>114</v>
       </c>
       <c r="R417" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="T417">
         <v>0</v>
@@ -33057,24 +33060,24 @@
         <v>0</v>
       </c>
       <c r="W417">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X417" t="s">
-        <v>1385</v>
+        <v>1379</v>
       </c>
       <c r="Y417" t="s">
-        <v>1386</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="418" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
-        <v>1387</v>
+        <v>1382</v>
       </c>
       <c r="B418" t="s">
-        <v>1388</v>
+        <v>1383</v>
       </c>
       <c r="C418" t="s">
-        <v>1389</v>
+        <v>1384</v>
       </c>
       <c r="D418" t="s">
         <v>112</v>
@@ -33083,26 +33086,38 @@
         <v>9</v>
       </c>
       <c r="F418" t="s">
-        <v>113</v>
+        <v>460</v>
       </c>
       <c r="G418">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="J418">
-        <v>876</v>
+        <v>548</v>
       </c>
       <c r="K418">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L418">
         <v>0</v>
       </c>
       <c r="M418">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N418" t="s">
         <v>30</v>
       </c>
+      <c r="O418">
+        <v>846</v>
+      </c>
+      <c r="P418" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q418" t="s">
+        <v>114</v>
+      </c>
+      <c r="R418" t="s">
+        <v>43</v>
+      </c>
       <c r="T418">
         <v>0</v>
       </c>
@@ -33113,13 +33128,13 @@
         <v>0</v>
       </c>
       <c r="W418">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X418" t="s">
-        <v>1390</v>
+        <v>1385</v>
       </c>
       <c r="Y418" t="s">
-        <v>1391</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="419" spans="1:25" x14ac:dyDescent="0.25">
@@ -33130,7 +33145,7 @@
         <v>1388</v>
       </c>
       <c r="C419" t="s">
-        <v>1392</v>
+        <v>1389</v>
       </c>
       <c r="D419" t="s">
         <v>112</v>
@@ -33186,7 +33201,7 @@
         <v>1388</v>
       </c>
       <c r="C420" t="s">
-        <v>1445</v>
+        <v>1392</v>
       </c>
       <c r="D420" t="s">
         <v>112</v>
@@ -33236,13 +33251,13 @@
     </row>
     <row r="421" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
-        <v>1393</v>
+        <v>1387</v>
       </c>
       <c r="B421" t="s">
-        <v>1394</v>
+        <v>1388</v>
       </c>
       <c r="C421" t="s">
-        <v>1395</v>
+        <v>1445</v>
       </c>
       <c r="D421" t="s">
         <v>112</v>
@@ -33257,7 +33272,7 @@
         <v>61</v>
       </c>
       <c r="J421">
-        <v>882</v>
+        <v>876</v>
       </c>
       <c r="K421">
         <v>0</v>
@@ -33266,23 +33281,11 @@
         <v>0</v>
       </c>
       <c r="M421">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N421" t="s">
         <v>30</v>
       </c>
-      <c r="O421">
-        <v>862</v>
-      </c>
-      <c r="P421" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q421" t="s">
-        <v>114</v>
-      </c>
-      <c r="R421" t="s">
-        <v>43</v>
-      </c>
       <c r="T421">
         <v>0</v>
       </c>
@@ -33293,60 +33296,60 @@
         <v>0</v>
       </c>
       <c r="W421">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X421" t="s">
-        <v>1396</v>
+        <v>1390</v>
       </c>
       <c r="Y421" t="s">
-        <v>1397</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="422" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
-        <v>1398</v>
+        <v>1393</v>
       </c>
       <c r="B422" t="s">
-        <v>1399</v>
+        <v>1394</v>
       </c>
       <c r="C422" t="s">
-        <v>1400</v>
+        <v>1395</v>
       </c>
       <c r="D422" t="s">
-        <v>39</v>
+        <v>112</v>
       </c>
       <c r="E422">
-        <v>142</v>
+        <v>9</v>
       </c>
       <c r="F422" t="s">
-        <v>91</v>
+        <v>113</v>
       </c>
       <c r="G422">
-        <v>145</v>
+        <v>61</v>
       </c>
       <c r="J422">
-        <v>887</v>
+        <v>882</v>
       </c>
       <c r="K422">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L422">
         <v>0</v>
       </c>
       <c r="M422">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N422" t="s">
         <v>30</v>
       </c>
       <c r="O422">
-        <v>474</v>
+        <v>862</v>
       </c>
       <c r="P422" t="s">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="Q422" t="s">
-        <v>92</v>
+        <v>114</v>
       </c>
       <c r="R422" t="s">
         <v>43</v>
@@ -33358,16 +33361,16 @@
         <v>0</v>
       </c>
       <c r="V422">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W422">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X422" t="s">
-        <v>1401</v>
+        <v>1396</v>
       </c>
       <c r="Y422" t="s">
-        <v>1402</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="423" spans="1:25" x14ac:dyDescent="0.25">
@@ -33378,7 +33381,7 @@
         <v>1399</v>
       </c>
       <c r="C423" t="s">
-        <v>1403</v>
+        <v>1400</v>
       </c>
       <c r="D423" t="s">
         <v>39</v>
@@ -33446,7 +33449,7 @@
         <v>1399</v>
       </c>
       <c r="C424" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="D424" t="s">
         <v>39</v>
@@ -33508,37 +33511,31 @@
     </row>
     <row r="425" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
-        <v>1405</v>
+        <v>1398</v>
       </c>
       <c r="B425" t="s">
-        <v>1406</v>
+        <v>1399</v>
       </c>
       <c r="C425" t="s">
-        <v>1407</v>
+        <v>1404</v>
       </c>
       <c r="D425" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="E425">
-        <v>2</v>
+        <v>142</v>
       </c>
       <c r="F425" t="s">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="G425">
-        <v>202</v>
-      </c>
-      <c r="H425" t="s">
-        <v>264</v>
-      </c>
-      <c r="I425">
-        <v>18</v>
+        <v>145</v>
       </c>
       <c r="J425">
-        <v>710</v>
+        <v>887</v>
       </c>
       <c r="K425">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L425">
         <v>0</v>
@@ -33550,16 +33547,16 @@
         <v>30</v>
       </c>
       <c r="O425">
-        <v>199</v>
+        <v>474</v>
       </c>
       <c r="P425" t="s">
-        <v>75</v>
+        <v>41</v>
       </c>
       <c r="Q425" t="s">
-        <v>52</v>
+        <v>92</v>
       </c>
       <c r="R425" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="T425">
         <v>0</v>
@@ -33568,27 +33565,27 @@
         <v>0</v>
       </c>
       <c r="V425">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W425">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X425" t="s">
-        <v>1408</v>
+        <v>1401</v>
       </c>
       <c r="Y425" t="s">
-        <v>1409</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="426" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
-        <v>1410</v>
+        <v>1405</v>
       </c>
       <c r="B426" t="s">
-        <v>1411</v>
+        <v>1406</v>
       </c>
       <c r="C426" t="s">
-        <v>1412</v>
+        <v>1407</v>
       </c>
       <c r="D426" t="s">
         <v>51</v>
@@ -33603,19 +33600,19 @@
         <v>202</v>
       </c>
       <c r="H426" t="s">
-        <v>125</v>
+        <v>264</v>
       </c>
       <c r="I426">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="J426">
-        <v>894</v>
+        <v>710</v>
       </c>
       <c r="K426">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L426">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M426">
         <v>0</v>
@@ -33624,19 +33621,16 @@
         <v>30</v>
       </c>
       <c r="O426">
-        <v>754</v>
+        <v>199</v>
       </c>
       <c r="P426" t="s">
-        <v>54</v>
+        <v>75</v>
       </c>
       <c r="Q426" t="s">
         <v>52</v>
       </c>
       <c r="R426" t="s">
-        <v>43</v>
-      </c>
-      <c r="S426" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="T426">
         <v>0</v>
@@ -33651,21 +33645,21 @@
         <v>1</v>
       </c>
       <c r="X426" t="s">
-        <v>1413</v>
+        <v>1408</v>
       </c>
       <c r="Y426" t="s">
-        <v>1414</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="427" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
-        <v>1415</v>
+        <v>1410</v>
       </c>
       <c r="B427" t="s">
-        <v>1416</v>
+        <v>1411</v>
       </c>
       <c r="C427" t="s">
-        <v>1417</v>
+        <v>1412</v>
       </c>
       <c r="D427" t="s">
         <v>51</v>
@@ -33686,10 +33680,10 @@
         <v>14</v>
       </c>
       <c r="J427">
-        <v>716</v>
+        <v>894</v>
       </c>
       <c r="K427">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L427">
         <v>1</v>
@@ -33701,88 +33695,165 @@
         <v>30</v>
       </c>
       <c r="O427">
-        <v>698</v>
+        <v>754</v>
       </c>
       <c r="P427" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="Q427" t="s">
         <v>52</v>
       </c>
       <c r="R427" t="s">
+        <v>43</v>
+      </c>
+      <c r="S427" t="s">
+        <v>44</v>
+      </c>
+      <c r="T427">
+        <v>0</v>
+      </c>
+      <c r="U427">
+        <v>0</v>
+      </c>
+      <c r="V427">
+        <v>0</v>
+      </c>
+      <c r="W427">
+        <v>1</v>
+      </c>
+      <c r="X427" t="s">
+        <v>1413</v>
+      </c>
+      <c r="Y427" t="s">
+        <v>1414</v>
+      </c>
+    </row>
+    <row r="428" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A428" t="s">
+        <v>1415</v>
+      </c>
+      <c r="B428" t="s">
+        <v>1416</v>
+      </c>
+      <c r="C428" t="s">
+        <v>1417</v>
+      </c>
+      <c r="D428" t="s">
+        <v>51</v>
+      </c>
+      <c r="E428">
+        <v>2</v>
+      </c>
+      <c r="F428" t="s">
+        <v>52</v>
+      </c>
+      <c r="G428">
+        <v>202</v>
+      </c>
+      <c r="H428" t="s">
+        <v>125</v>
+      </c>
+      <c r="I428">
+        <v>14</v>
+      </c>
+      <c r="J428">
+        <v>716</v>
+      </c>
+      <c r="K428">
+        <v>0</v>
+      </c>
+      <c r="L428">
+        <v>1</v>
+      </c>
+      <c r="M428">
+        <v>0</v>
+      </c>
+      <c r="N428" t="s">
+        <v>30</v>
+      </c>
+      <c r="O428">
+        <v>698</v>
+      </c>
+      <c r="P428" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q428" t="s">
+        <v>52</v>
+      </c>
+      <c r="R428" t="s">
         <v>307</v>
       </c>
-      <c r="T427">
-        <v>0</v>
-      </c>
-      <c r="U427">
-        <v>0</v>
-      </c>
-      <c r="V427">
-        <v>0</v>
-      </c>
-      <c r="W427">
-        <v>0</v>
-      </c>
-      <c r="X427" t="s">
+      <c r="T428">
+        <v>0</v>
+      </c>
+      <c r="U428">
+        <v>0</v>
+      </c>
+      <c r="V428">
+        <v>0</v>
+      </c>
+      <c r="W428">
+        <v>0</v>
+      </c>
+      <c r="X428" t="s">
         <v>1418</v>
       </c>
-      <c r="Y427" t="s">
+      <c r="Y428" t="s">
         <v>1419</v>
       </c>
     </row>
-    <row r="428" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="C428" t="s">
+    <row r="429" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="C429" t="s">
         <v>1420</v>
       </c>
-      <c r="D428" t="s">
+      <c r="D429" t="s">
         <v>66</v>
       </c>
-      <c r="E428">
+      <c r="E429">
         <v>150</v>
       </c>
-      <c r="F428" t="s">
+      <c r="F429" t="s">
         <v>67</v>
       </c>
-      <c r="G428">
+      <c r="G429">
         <v>154</v>
       </c>
-      <c r="H428" t="s">
+      <c r="H429" t="s">
         <v>508</v>
       </c>
-      <c r="I428">
+      <c r="I429">
         <v>830</v>
       </c>
-      <c r="J428">
+      <c r="J429">
         <v>680</v>
       </c>
-      <c r="K428">
-        <v>0</v>
-      </c>
-      <c r="L428">
-        <v>0</v>
-      </c>
-      <c r="M428">
-        <v>0</v>
-      </c>
-      <c r="N428" t="s">
+      <c r="K429">
+        <v>0</v>
+      </c>
+      <c r="L429">
+        <v>0</v>
+      </c>
+      <c r="M429">
+        <v>0</v>
+      </c>
+      <c r="N429" t="s">
         <v>68</v>
       </c>
-      <c r="T428">
-        <v>0</v>
-      </c>
-      <c r="U428">
-        <v>0</v>
-      </c>
-      <c r="V428">
-        <v>0</v>
-      </c>
-      <c r="W428">
+      <c r="T429">
+        <v>0</v>
+      </c>
+      <c r="U429">
+        <v>0</v>
+      </c>
+      <c r="V429">
+        <v>0</v>
+      </c>
+      <c r="W429">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Y428">
+  <autoFilter ref="A1:Y429">
     <sortState ref="A2:Y428">
       <sortCondition ref="A1:A428"/>
     </sortState>

--- a/Codes_Masterlist.xlsx
+++ b/Codes_Masterlist.xlsx
@@ -18241,7 +18241,7 @@
         <v>719</v>
       </c>
       <c r="C197" t="s">
-        <v>720</v>
+        <v>727</v>
       </c>
       <c r="D197" t="s">
         <v>39</v>
@@ -18309,7 +18309,7 @@
         <v>719</v>
       </c>
       <c r="C198" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="D198" t="s">
         <v>39</v>
@@ -18377,7 +18377,7 @@
         <v>719</v>
       </c>
       <c r="C199" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="D199" t="s">
         <v>39</v>
@@ -18445,7 +18445,7 @@
         <v>719</v>
       </c>
       <c r="C200" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="D200" t="s">
         <v>39</v>
@@ -18513,7 +18513,7 @@
         <v>719</v>
       </c>
       <c r="C201" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="D201" t="s">
         <v>39</v>
@@ -18581,7 +18581,7 @@
         <v>719</v>
       </c>
       <c r="C202" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="D202" t="s">
         <v>39</v>

--- a/Codes_Masterlist.xlsx
+++ b/Codes_Masterlist.xlsx
@@ -12632,7 +12632,7 @@
         <v>438</v>
       </c>
       <c r="C115" t="s">
-        <v>1469</v>
+        <v>439</v>
       </c>
       <c r="D115" t="s">
         <v>66</v>
@@ -12703,7 +12703,7 @@
         <v>438</v>
       </c>
       <c r="C116" t="s">
-        <v>439</v>
+        <v>1469</v>
       </c>
       <c r="D116" t="s">
         <v>66</v>

--- a/Codes_Masterlist.xlsx
+++ b/Codes_Masterlist.xlsx
@@ -24656,7 +24656,7 @@
         <v>1050</v>
       </c>
       <c r="C292" t="s">
-        <v>1479</v>
+        <v>1051</v>
       </c>
       <c r="D292" t="s">
         <v>66</v>
@@ -24727,7 +24727,7 @@
         <v>1050</v>
       </c>
       <c r="C293" t="s">
-        <v>1478</v>
+        <v>1479</v>
       </c>
       <c r="D293" t="s">
         <v>66</v>
@@ -24798,7 +24798,7 @@
         <v>1050</v>
       </c>
       <c r="C294" t="s">
-        <v>1051</v>
+        <v>1478</v>
       </c>
       <c r="D294" t="s">
         <v>66</v>

--- a/Codes_Masterlist.xlsx
+++ b/Codes_Masterlist.xlsx
@@ -11437,7 +11437,7 @@
         <v>368</v>
       </c>
       <c r="C98" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="D98" t="s">
         <v>27</v>
@@ -11508,7 +11508,7 @@
         <v>368</v>
       </c>
       <c r="C99" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="D99" t="s">
         <v>27</v>
@@ -13395,7 +13395,7 @@
         <v>475</v>
       </c>
       <c r="C126" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="D126" t="s">
         <v>66</v>
@@ -13460,7 +13460,7 @@
         <v>475</v>
       </c>
       <c r="C127" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="D127" t="s">
         <v>66</v>
@@ -13525,7 +13525,7 @@
         <v>475</v>
       </c>
       <c r="C128" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D128" t="s">
         <v>66</v>
@@ -15382,7 +15382,7 @@
         <v>578</v>
       </c>
       <c r="C155" t="s">
-        <v>579</v>
+        <v>584</v>
       </c>
       <c r="D155" t="s">
         <v>39</v>
@@ -15450,7 +15450,7 @@
         <v>578</v>
       </c>
       <c r="C156" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="D156" t="s">
         <v>39</v>
@@ -15518,7 +15518,7 @@
         <v>578</v>
       </c>
       <c r="C157" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D157" t="s">
         <v>39</v>
@@ -15586,7 +15586,7 @@
         <v>578</v>
       </c>
       <c r="C158" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="D158" t="s">
         <v>39</v>
@@ -19908,7 +19908,7 @@
         <v>799</v>
       </c>
       <c r="C222" t="s">
-        <v>800</v>
+        <v>805</v>
       </c>
       <c r="D222" t="s">
         <v>39</v>
@@ -19973,7 +19973,7 @@
         <v>799</v>
       </c>
       <c r="C223" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="D223" t="s">
         <v>39</v>
@@ -20038,7 +20038,7 @@
         <v>799</v>
       </c>
       <c r="C224" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="D224" t="s">
         <v>39</v>
@@ -20103,7 +20103,7 @@
         <v>799</v>
       </c>
       <c r="C225" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="D225" t="s">
         <v>39</v>
@@ -22782,7 +22782,7 @@
         <v>935</v>
       </c>
       <c r="C264" t="s">
-        <v>936</v>
+        <v>939</v>
       </c>
       <c r="D264" t="s">
         <v>112</v>
@@ -22847,7 +22847,7 @@
         <v>935</v>
       </c>
       <c r="C265" t="s">
-        <v>939</v>
+        <v>936</v>
       </c>
       <c r="D265" t="s">
         <v>112</v>
@@ -30098,7 +30098,7 @@
         <v>1278</v>
       </c>
       <c r="C373" t="s">
-        <v>1485</v>
+        <v>1279</v>
       </c>
       <c r="D373" t="s">
         <v>27</v>
@@ -30172,7 +30172,7 @@
         <v>1278</v>
       </c>
       <c r="C374" t="s">
-        <v>1484</v>
+        <v>1485</v>
       </c>
       <c r="D374" t="s">
         <v>27</v>
@@ -30246,7 +30246,7 @@
         <v>1278</v>
       </c>
       <c r="C375" t="s">
-        <v>1279</v>
+        <v>1484</v>
       </c>
       <c r="D375" t="s">
         <v>27</v>

--- a/Codes_Masterlist.xlsx
+++ b/Codes_Masterlist.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\boxsync\alepissier\PhD\Software\Codes-Masterlist\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alice\Box Sync\PhD\Software\Codes-Masterlist\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81AB7DD3-34C6-4868-87C7-1EE26D553217}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31905" yWindow="-90" windowWidth="16980" windowHeight="10080"/>
+    <workbookView xWindow="31910" yWindow="-90" windowWidth="16980" windowHeight="10080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Codes" sheetId="1" r:id="rId1"/>
@@ -4499,7 +4500,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -4833,19 +4834,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y429"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="3" max="3" width="44.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="22" width="9.140625" customWidth="1"/>
-    <col min="23" max="23" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="22" width="9.1328125" customWidth="1"/>
+    <col min="23" max="23" width="17.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4922,7 +4923,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>24</v>
       </c>
@@ -4993,7 +4994,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>36</v>
       </c>
@@ -5064,7 +5065,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>36</v>
       </c>
@@ -5135,7 +5136,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>48</v>
       </c>
@@ -5209,7 +5210,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
         <v>58</v>
       </c>
@@ -5271,7 +5272,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
         <v>58</v>
       </c>
@@ -5333,7 +5334,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
         <v>63</v>
       </c>
@@ -5389,7 +5390,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
         <v>71</v>
       </c>
@@ -5457,7 +5458,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A10" t="s">
         <v>79</v>
       </c>
@@ -5522,7 +5523,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A11" t="s">
         <v>84</v>
       </c>
@@ -5545,7 +5546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A12" t="s">
         <v>84</v>
       </c>
@@ -5568,7 +5569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A13" t="s">
         <v>88</v>
       </c>
@@ -5636,7 +5637,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A14" t="s">
         <v>88</v>
       </c>
@@ -5704,7 +5705,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A15" t="s">
         <v>88</v>
       </c>
@@ -5772,7 +5773,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A16" t="s">
         <v>97</v>
       </c>
@@ -5846,7 +5847,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A17" t="s">
         <v>103</v>
       </c>
@@ -5914,7 +5915,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A18" t="s">
         <v>103</v>
       </c>
@@ -5982,7 +5983,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A19" t="s">
         <v>109</v>
       </c>
@@ -6047,7 +6048,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A20" t="s">
         <v>117</v>
       </c>
@@ -6088,7 +6089,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A21" t="s">
         <v>117</v>
       </c>
@@ -6129,7 +6130,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A22" t="s">
         <v>122</v>
       </c>
@@ -6191,7 +6192,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A23" t="s">
         <v>122</v>
       </c>
@@ -6253,7 +6254,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A24" t="s">
         <v>128</v>
       </c>
@@ -6327,7 +6328,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A25" t="s">
         <v>128</v>
       </c>
@@ -6401,7 +6402,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A26" t="s">
         <v>128</v>
       </c>
@@ -6475,7 +6476,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A27" t="s">
         <v>128</v>
       </c>
@@ -6549,7 +6550,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A28" t="s">
         <v>134</v>
       </c>
@@ -6617,7 +6618,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A29" t="s">
         <v>140</v>
       </c>
@@ -6688,7 +6689,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A30" t="s">
         <v>147</v>
       </c>
@@ -6756,7 +6757,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A31" t="s">
         <v>147</v>
       </c>
@@ -6824,7 +6825,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A32" t="s">
         <v>153</v>
       </c>
@@ -6901,7 +6902,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A33" t="s">
         <v>158</v>
       </c>
@@ -6972,7 +6973,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A34" t="s">
         <v>163</v>
       </c>
@@ -7049,7 +7050,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A35" t="s">
         <v>169</v>
       </c>
@@ -7105,7 +7106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A36" t="s">
         <v>169</v>
       </c>
@@ -7161,7 +7162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A37" t="s">
         <v>169</v>
       </c>
@@ -7217,7 +7218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A38" t="s">
         <v>169</v>
       </c>
@@ -7273,7 +7274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A39" t="s">
         <v>169</v>
       </c>
@@ -7329,7 +7330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A40" t="s">
         <v>173</v>
       </c>
@@ -7406,7 +7407,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A41" t="s">
         <v>178</v>
       </c>
@@ -7474,7 +7475,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A42" t="s">
         <v>183</v>
       </c>
@@ -7542,7 +7543,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A43" t="s">
         <v>189</v>
       </c>
@@ -7610,7 +7611,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A44" t="s">
         <v>189</v>
       </c>
@@ -7678,7 +7679,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A45" t="s">
         <v>195</v>
       </c>
@@ -7752,7 +7753,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A46" t="s">
         <v>195</v>
       </c>
@@ -7826,7 +7827,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A47" t="s">
         <v>201</v>
       </c>
@@ -7894,7 +7895,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A48" t="s">
         <v>201</v>
       </c>
@@ -7962,7 +7963,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A49" t="s">
         <v>207</v>
       </c>
@@ -8024,7 +8025,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A50" t="s">
         <v>207</v>
       </c>
@@ -8086,7 +8087,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A51" t="s">
         <v>207</v>
       </c>
@@ -8148,7 +8149,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A52" t="s">
         <v>212</v>
       </c>
@@ -8216,7 +8217,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="53" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A53" t="s">
         <v>217</v>
       </c>
@@ -8290,7 +8291,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="54" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A54" t="s">
         <v>223</v>
       </c>
@@ -8355,7 +8356,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="55" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A55" t="s">
         <v>230</v>
       </c>
@@ -8432,7 +8433,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="56" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A56" t="s">
         <v>230</v>
       </c>
@@ -8509,7 +8510,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="57" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A57" t="s">
         <v>236</v>
       </c>
@@ -8583,7 +8584,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="58" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A58" t="s">
         <v>241</v>
       </c>
@@ -8657,7 +8658,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="59" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A59" t="s">
         <v>246</v>
       </c>
@@ -8725,7 +8726,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="60" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A60" t="s">
         <v>246</v>
       </c>
@@ -8793,7 +8794,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="61" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A61" t="s">
         <v>253</v>
       </c>
@@ -8861,7 +8862,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="62" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A62" t="s">
         <v>258</v>
       </c>
@@ -8917,7 +8918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A63" t="s">
         <v>261</v>
       </c>
@@ -8991,7 +8992,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="64" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A64" t="s">
         <v>267</v>
       </c>
@@ -9068,7 +9069,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="65" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A65" t="s">
         <v>267</v>
       </c>
@@ -9145,7 +9146,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="66" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A66" t="s">
         <v>273</v>
       </c>
@@ -9213,7 +9214,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="67" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A67" t="s">
         <v>278</v>
       </c>
@@ -9263,7 +9264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A68" t="s">
         <v>278</v>
       </c>
@@ -9313,7 +9314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A69" t="s">
         <v>281</v>
       </c>
@@ -9381,7 +9382,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="70" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A70" t="s">
         <v>286</v>
       </c>
@@ -9455,7 +9456,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="71" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A71" t="s">
         <v>291</v>
       </c>
@@ -9523,7 +9524,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="72" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A72" t="s">
         <v>291</v>
       </c>
@@ -9591,7 +9592,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="73" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A73" t="s">
         <v>298</v>
       </c>
@@ -9668,7 +9669,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="74" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A74" t="s">
         <v>298</v>
       </c>
@@ -9745,7 +9746,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="75" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A75" t="s">
         <v>298</v>
       </c>
@@ -9822,7 +9823,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="76" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A76" t="s">
         <v>304</v>
       </c>
@@ -9899,7 +9900,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="77" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A77" t="s">
         <v>310</v>
       </c>
@@ -9976,7 +9977,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="78" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A78" t="s">
         <v>310</v>
       </c>
@@ -10053,7 +10054,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="79" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A79" t="s">
         <v>310</v>
       </c>
@@ -10130,7 +10131,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="80" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A80" t="s">
         <v>310</v>
       </c>
@@ -10207,7 +10208,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="81" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A81" t="s">
         <v>310</v>
       </c>
@@ -10284,7 +10285,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="82" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A82" t="s">
         <v>319</v>
       </c>
@@ -10361,7 +10362,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="83" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A83" t="s">
         <v>319</v>
       </c>
@@ -10438,7 +10439,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="84" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A84" t="s">
         <v>319</v>
       </c>
@@ -10515,7 +10516,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="85" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A85" t="s">
         <v>319</v>
       </c>
@@ -10592,7 +10593,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="86" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A86" t="s">
         <v>326</v>
       </c>
@@ -10648,7 +10649,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="87" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A87" t="s">
         <v>331</v>
       </c>
@@ -10722,7 +10723,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="88" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A88" t="s">
         <v>336</v>
       </c>
@@ -10799,7 +10800,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="89" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A89" t="s">
         <v>341</v>
       </c>
@@ -10873,7 +10874,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="90" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A90" t="s">
         <v>341</v>
       </c>
@@ -10947,7 +10948,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="91" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A91" t="s">
         <v>341</v>
       </c>
@@ -11021,7 +11022,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="92" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A92" t="s">
         <v>348</v>
       </c>
@@ -11095,7 +11096,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="93" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A93" t="s">
         <v>353</v>
       </c>
@@ -11166,7 +11167,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="94" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A94" t="s">
         <v>358</v>
       </c>
@@ -11237,7 +11238,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="95" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A95" t="s">
         <v>358</v>
       </c>
@@ -11308,7 +11309,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="96" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A96" t="s">
         <v>358</v>
       </c>
@@ -11379,7 +11380,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="97" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A97" t="s">
         <v>364</v>
       </c>
@@ -11429,7 +11430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A98" t="s">
         <v>367</v>
       </c>
@@ -11500,7 +11501,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="99" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A99" t="s">
         <v>367</v>
       </c>
@@ -11571,7 +11572,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="100" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A100" t="s">
         <v>373</v>
       </c>
@@ -11642,7 +11643,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="101" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A101" t="s">
         <v>378</v>
       </c>
@@ -11710,7 +11711,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="102" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A102" t="s">
         <v>378</v>
       </c>
@@ -11778,7 +11779,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="103" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A103" t="s">
         <v>384</v>
       </c>
@@ -11849,7 +11850,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="104" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A104" t="s">
         <v>389</v>
       </c>
@@ -11923,7 +11924,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="105" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A105" t="s">
         <v>394</v>
       </c>
@@ -11997,7 +11998,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="106" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A106" t="s">
         <v>399</v>
       </c>
@@ -12065,7 +12066,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="107" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A107" t="s">
         <v>404</v>
       </c>
@@ -12139,7 +12140,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="108" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A108" t="s">
         <v>404</v>
       </c>
@@ -12213,7 +12214,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="109" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A109" t="s">
         <v>410</v>
       </c>
@@ -12281,7 +12282,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="110" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A110" t="s">
         <v>416</v>
       </c>
@@ -12355,7 +12356,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="111" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A111" t="s">
         <v>421</v>
       </c>
@@ -12423,7 +12424,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="112" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A112" t="s">
         <v>421</v>
       </c>
@@ -12491,7 +12492,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="113" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A113" t="s">
         <v>427</v>
       </c>
@@ -12568,7 +12569,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="114" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A114" t="s">
         <v>432</v>
       </c>
@@ -12624,7 +12625,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="115" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A115" t="s">
         <v>437</v>
       </c>
@@ -12695,7 +12696,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="116" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A116" t="s">
         <v>437</v>
       </c>
@@ -12766,7 +12767,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="117" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A117" t="s">
         <v>442</v>
       </c>
@@ -12837,7 +12838,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="118" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A118" t="s">
         <v>447</v>
       </c>
@@ -12914,7 +12915,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="119" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A119" t="s">
         <v>447</v>
       </c>
@@ -12991,7 +12992,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="120" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A120" t="s">
         <v>452</v>
       </c>
@@ -13062,7 +13063,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="121" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A121" t="s">
         <v>457</v>
       </c>
@@ -13130,7 +13131,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="122" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A122" t="s">
         <v>463</v>
       </c>
@@ -13192,7 +13193,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="123" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A123" t="s">
         <v>463</v>
       </c>
@@ -13254,7 +13255,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="124" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A124" t="s">
         <v>463</v>
       </c>
@@ -13316,7 +13317,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="125" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A125" t="s">
         <v>469</v>
       </c>
@@ -13387,7 +13388,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="126" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A126" t="s">
         <v>474</v>
       </c>
@@ -13452,7 +13453,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="127" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A127" t="s">
         <v>474</v>
       </c>
@@ -13517,7 +13518,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="128" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A128" t="s">
         <v>474</v>
       </c>
@@ -13582,7 +13583,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="129" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A129" t="s">
         <v>481</v>
       </c>
@@ -13650,7 +13651,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="130" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A130" t="s">
         <v>481</v>
       </c>
@@ -13718,7 +13719,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="131" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A131" t="s">
         <v>481</v>
       </c>
@@ -13786,7 +13787,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="132" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A132" t="s">
         <v>481</v>
       </c>
@@ -13854,7 +13855,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="133" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A133" t="s">
         <v>489</v>
       </c>
@@ -13928,7 +13929,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="134" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A134" t="s">
         <v>494</v>
       </c>
@@ -13996,7 +13997,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="135" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A135" t="s">
         <v>494</v>
       </c>
@@ -14064,7 +14065,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="136" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A136" t="s">
         <v>494</v>
       </c>
@@ -14132,7 +14133,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="137" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A137" t="s">
         <v>500</v>
       </c>
@@ -14200,7 +14201,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="138" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A138" t="s">
         <v>505</v>
       </c>
@@ -14262,7 +14263,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="139" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A139" t="s">
         <v>511</v>
       </c>
@@ -14339,7 +14340,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="140" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A140" t="s">
         <v>516</v>
       </c>
@@ -14398,7 +14399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A141" t="s">
         <v>519</v>
       </c>
@@ -14475,7 +14476,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="142" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A142" t="s">
         <v>524</v>
       </c>
@@ -14531,7 +14532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A143" t="s">
         <v>527</v>
       </c>
@@ -14608,7 +14609,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="144" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A144" t="s">
         <v>527</v>
       </c>
@@ -14685,7 +14686,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="145" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A145" t="s">
         <v>533</v>
       </c>
@@ -14762,7 +14763,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="146" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A146" t="s">
         <v>538</v>
       </c>
@@ -14836,7 +14837,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="147" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A147" t="s">
         <v>543</v>
       </c>
@@ -14907,7 +14908,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="148" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A148" t="s">
         <v>548</v>
       </c>
@@ -14981,7 +14982,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="149" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A149" t="s">
         <v>553</v>
       </c>
@@ -15046,7 +15047,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="150" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A150" t="s">
         <v>558</v>
       </c>
@@ -15120,7 +15121,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="151" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A151" t="s">
         <v>563</v>
       </c>
@@ -15176,7 +15177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A152" t="s">
         <v>563</v>
       </c>
@@ -15232,7 +15233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A153" t="s">
         <v>567</v>
       </c>
@@ -15297,7 +15298,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="154" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A154" t="s">
         <v>572</v>
       </c>
@@ -15374,7 +15375,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="155" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A155" t="s">
         <v>577</v>
       </c>
@@ -15442,7 +15443,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="156" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A156" t="s">
         <v>577</v>
       </c>
@@ -15510,7 +15511,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="157" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A157" t="s">
         <v>577</v>
       </c>
@@ -15578,7 +15579,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="158" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A158" t="s">
         <v>577</v>
       </c>
@@ -15646,7 +15647,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="159" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A159" t="s">
         <v>577</v>
       </c>
@@ -15714,7 +15715,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="160" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A160" t="s">
         <v>577</v>
       </c>
@@ -15782,7 +15783,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="161" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A161" t="s">
         <v>577</v>
       </c>
@@ -15850,7 +15851,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="162" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A162" t="s">
         <v>587</v>
       </c>
@@ -15906,7 +15907,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="163" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A163" t="s">
         <v>587</v>
       </c>
@@ -15962,7 +15963,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="164" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A164" t="s">
         <v>587</v>
       </c>
@@ -16018,7 +16019,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="165" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A165" t="s">
         <v>592</v>
       </c>
@@ -16095,7 +16096,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="166" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A166" t="s">
         <v>597</v>
       </c>
@@ -16163,7 +16164,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="167" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A167" t="s">
         <v>602</v>
       </c>
@@ -16240,7 +16241,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="168" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A168" t="s">
         <v>607</v>
       </c>
@@ -16308,7 +16309,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="169" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A169" t="s">
         <v>612</v>
       </c>
@@ -16376,7 +16377,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="170" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A170" t="s">
         <v>617</v>
       </c>
@@ -16441,7 +16442,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="171" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A171" t="s">
         <v>622</v>
       </c>
@@ -16509,7 +16510,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="172" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A172" t="s">
         <v>627</v>
       </c>
@@ -16571,7 +16572,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="173" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A173" t="s">
         <v>627</v>
       </c>
@@ -16633,7 +16634,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="174" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A174" t="s">
         <v>632</v>
       </c>
@@ -16704,7 +16705,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="175" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A175" t="s">
         <v>637</v>
       </c>
@@ -16772,7 +16773,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="176" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A176" t="s">
         <v>637</v>
       </c>
@@ -16840,7 +16841,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="177" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A177" t="s">
         <v>637</v>
       </c>
@@ -16908,7 +16909,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="178" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A178" t="s">
         <v>637</v>
       </c>
@@ -16976,7 +16977,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="179" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A179" t="s">
         <v>645</v>
       </c>
@@ -17044,7 +17045,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="180" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A180" t="s">
         <v>650</v>
       </c>
@@ -17112,7 +17113,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="181" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A181" t="s">
         <v>655</v>
       </c>
@@ -17180,7 +17181,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="182" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A182" t="s">
         <v>660</v>
       </c>
@@ -17251,7 +17252,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="183" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A183" t="s">
         <v>665</v>
       </c>
@@ -17325,7 +17326,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="184" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A184" t="s">
         <v>670</v>
       </c>
@@ -17387,7 +17388,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="185" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A185" t="s">
         <v>675</v>
       </c>
@@ -17455,7 +17456,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="186" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A186" t="s">
         <v>680</v>
       </c>
@@ -17523,7 +17524,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="187" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A187" t="s">
         <v>685</v>
       </c>
@@ -17591,7 +17592,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="188" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A188" t="s">
         <v>691</v>
       </c>
@@ -17665,7 +17666,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="189" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A189" t="s">
         <v>696</v>
       </c>
@@ -17733,7 +17734,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="190" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A190" t="s">
         <v>696</v>
       </c>
@@ -17801,7 +17802,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="191" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A191" t="s">
         <v>702</v>
       </c>
@@ -17869,7 +17870,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="192" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A192" t="s">
         <v>707</v>
       </c>
@@ -17937,7 +17938,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="193" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A193" t="s">
         <v>712</v>
       </c>
@@ -17945,7 +17946,7 @@
         <v>713</v>
       </c>
       <c r="C193" t="s">
-        <v>1473</v>
+        <v>717</v>
       </c>
       <c r="D193" t="s">
         <v>27</v>
@@ -18002,7 +18003,7 @@
         <v>0</v>
       </c>
       <c r="W193">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X193" t="s">
         <v>715</v>
@@ -18011,7 +18012,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="194" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A194" t="s">
         <v>712</v>
       </c>
@@ -18019,7 +18020,7 @@
         <v>713</v>
       </c>
       <c r="C194" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="D194" t="s">
         <v>27</v>
@@ -18076,7 +18077,7 @@
         <v>0</v>
       </c>
       <c r="W194">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X194" t="s">
         <v>715</v>
@@ -18085,7 +18086,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="195" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A195" t="s">
         <v>712</v>
       </c>
@@ -18093,7 +18094,7 @@
         <v>713</v>
       </c>
       <c r="C195" t="s">
-        <v>714</v>
+        <v>1474</v>
       </c>
       <c r="D195" t="s">
         <v>27</v>
@@ -18159,7 +18160,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="196" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A196" t="s">
         <v>712</v>
       </c>
@@ -18167,7 +18168,7 @@
         <v>713</v>
       </c>
       <c r="C196" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="D196" t="s">
         <v>27</v>
@@ -18233,7 +18234,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="197" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A197" t="s">
         <v>718</v>
       </c>
@@ -18301,7 +18302,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="198" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A198" t="s">
         <v>718</v>
       </c>
@@ -18369,7 +18370,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="199" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A199" t="s">
         <v>718</v>
       </c>
@@ -18437,7 +18438,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="200" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A200" t="s">
         <v>718</v>
       </c>
@@ -18505,7 +18506,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="201" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A201" t="s">
         <v>718</v>
       </c>
@@ -18573,7 +18574,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="202" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A202" t="s">
         <v>718</v>
       </c>
@@ -18641,7 +18642,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="203" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A203" t="s">
         <v>728</v>
       </c>
@@ -18676,7 +18677,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="204" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A204" t="s">
         <v>728</v>
       </c>
@@ -18711,7 +18712,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="205" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A205" t="s">
         <v>733</v>
       </c>
@@ -18779,7 +18780,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="206" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A206" t="s">
         <v>738</v>
       </c>
@@ -18847,7 +18848,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="207" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A207" t="s">
         <v>738</v>
       </c>
@@ -18915,7 +18916,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="208" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A208" t="s">
         <v>738</v>
       </c>
@@ -18983,7 +18984,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="209" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A209" t="s">
         <v>738</v>
       </c>
@@ -19051,7 +19052,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="210" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A210" t="s">
         <v>746</v>
       </c>
@@ -19119,7 +19120,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="211" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A211" t="s">
         <v>751</v>
       </c>
@@ -19196,7 +19197,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="212" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A212" t="s">
         <v>756</v>
       </c>
@@ -19264,7 +19265,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="213" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A213" t="s">
         <v>756</v>
       </c>
@@ -19332,7 +19333,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="214" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A214" t="s">
         <v>762</v>
       </c>
@@ -19406,7 +19407,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="215" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A215" t="s">
         <v>762</v>
       </c>
@@ -19480,7 +19481,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="216" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A216" t="s">
         <v>768</v>
       </c>
@@ -19545,7 +19546,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="217" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A217" t="s">
         <v>773</v>
       </c>
@@ -19613,7 +19614,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="218" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A218" t="s">
         <v>778</v>
       </c>
@@ -19687,7 +19688,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="219" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A219" t="s">
         <v>783</v>
       </c>
@@ -19758,7 +19759,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="220" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A220" t="s">
         <v>788</v>
       </c>
@@ -19829,7 +19830,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="221" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A221" t="s">
         <v>793</v>
       </c>
@@ -19900,7 +19901,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="222" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A222" t="s">
         <v>798</v>
       </c>
@@ -19965,7 +19966,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="223" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A223" t="s">
         <v>798</v>
       </c>
@@ -20030,7 +20031,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="224" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A224" t="s">
         <v>798</v>
       </c>
@@ -20095,7 +20096,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="225" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A225" t="s">
         <v>798</v>
       </c>
@@ -20160,7 +20161,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="226" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A226" t="s">
         <v>798</v>
       </c>
@@ -20225,7 +20226,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="227" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A227" t="s">
         <v>798</v>
       </c>
@@ -20290,7 +20291,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="228" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A228" t="s">
         <v>808</v>
       </c>
@@ -20361,7 +20362,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="229" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A229" t="s">
         <v>808</v>
       </c>
@@ -20432,7 +20433,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="230" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A230" t="s">
         <v>808</v>
       </c>
@@ -20503,7 +20504,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="231" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A231" t="s">
         <v>814</v>
       </c>
@@ -20571,7 +20572,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="232" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A232" t="s">
         <v>819</v>
       </c>
@@ -20636,7 +20637,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="233" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A233" t="s">
         <v>824</v>
       </c>
@@ -20704,7 +20705,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="234" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A234" t="s">
         <v>824</v>
       </c>
@@ -20772,7 +20773,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="235" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A235" t="s">
         <v>824</v>
       </c>
@@ -20840,7 +20841,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="236" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A236" t="s">
         <v>831</v>
       </c>
@@ -20917,7 +20918,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="237" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A237" t="s">
         <v>836</v>
       </c>
@@ -20985,7 +20986,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="238" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A238" t="s">
         <v>841</v>
       </c>
@@ -21059,7 +21060,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="239" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A239" t="s">
         <v>846</v>
       </c>
@@ -21127,7 +21128,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="240" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A240" t="s">
         <v>846</v>
       </c>
@@ -21195,7 +21196,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="241" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A241" t="s">
         <v>852</v>
       </c>
@@ -21263,7 +21264,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="242" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A242" t="s">
         <v>852</v>
       </c>
@@ -21331,7 +21332,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="243" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A243" t="s">
         <v>852</v>
       </c>
@@ -21399,7 +21400,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="244" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A244" t="s">
         <v>852</v>
       </c>
@@ -21467,7 +21468,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="245" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A245" t="s">
         <v>852</v>
       </c>
@@ -21535,7 +21536,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="246" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A246" t="s">
         <v>860</v>
       </c>
@@ -21612,7 +21613,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="247" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A247" t="s">
         <v>865</v>
       </c>
@@ -21683,7 +21684,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="248" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A248" t="s">
         <v>870</v>
       </c>
@@ -21751,7 +21752,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="249" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A249" t="s">
         <v>875</v>
       </c>
@@ -21819,7 +21820,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="250" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A250" t="s">
         <v>880</v>
       </c>
@@ -21887,7 +21888,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="251" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A251" t="s">
         <v>885</v>
       </c>
@@ -21952,7 +21953,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="252" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A252" t="s">
         <v>885</v>
       </c>
@@ -22017,7 +22018,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="253" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A253" t="s">
         <v>891</v>
       </c>
@@ -22094,7 +22095,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="254" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A254" t="s">
         <v>896</v>
       </c>
@@ -22171,7 +22172,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="255" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A255" t="s">
         <v>901</v>
       </c>
@@ -22233,7 +22234,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="256" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A256" t="s">
         <v>906</v>
       </c>
@@ -22289,7 +22290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A257" t="s">
         <v>909</v>
       </c>
@@ -22363,7 +22364,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="258" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A258" t="s">
         <v>914</v>
       </c>
@@ -22440,7 +22441,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="259" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A259" t="s">
         <v>919</v>
       </c>
@@ -22508,7 +22509,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="260" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A260" t="s">
         <v>919</v>
       </c>
@@ -22576,7 +22577,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="261" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A261" t="s">
         <v>919</v>
       </c>
@@ -22644,7 +22645,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="262" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A262" t="s">
         <v>926</v>
       </c>
@@ -22700,7 +22701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A263" t="s">
         <v>929</v>
       </c>
@@ -22774,7 +22775,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="264" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A264" t="s">
         <v>934</v>
       </c>
@@ -22839,7 +22840,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="265" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A265" t="s">
         <v>934</v>
       </c>
@@ -22904,7 +22905,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="266" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A266" t="s">
         <v>940</v>
       </c>
@@ -22981,7 +22982,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="267" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A267" t="s">
         <v>945</v>
       </c>
@@ -23037,7 +23038,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="268" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A268" t="s">
         <v>950</v>
       </c>
@@ -23111,7 +23112,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="269" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A269" t="s">
         <v>955</v>
       </c>
@@ -23188,7 +23189,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="270" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A270" t="s">
         <v>960</v>
       </c>
@@ -23244,7 +23245,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="271" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A271" t="s">
         <v>965</v>
       </c>
@@ -23315,7 +23316,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="272" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A272" t="s">
         <v>970</v>
       </c>
@@ -23383,7 +23384,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="273" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A273" t="s">
         <v>975</v>
       </c>
@@ -23451,7 +23452,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="274" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A274" t="s">
         <v>980</v>
       </c>
@@ -23516,7 +23517,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="275" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A275" t="s">
         <v>985</v>
       </c>
@@ -23584,7 +23585,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="276" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A276" t="s">
         <v>990</v>
       </c>
@@ -23652,7 +23653,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="277" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A277" t="s">
         <v>995</v>
       </c>
@@ -23720,7 +23721,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="278" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A278" t="s">
         <v>1000</v>
       </c>
@@ -23794,7 +23795,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="279" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A279" t="s">
         <v>1005</v>
       </c>
@@ -23850,7 +23851,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="280" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A280" t="s">
         <v>1005</v>
       </c>
@@ -23906,7 +23907,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="281" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A281" t="s">
         <v>1011</v>
       </c>
@@ -23980,7 +23981,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="282" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A282" t="s">
         <v>1016</v>
       </c>
@@ -24048,7 +24049,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="283" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A283" t="s">
         <v>1021</v>
       </c>
@@ -24116,7 +24117,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="284" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A284" t="s">
         <v>1026</v>
       </c>
@@ -24184,7 +24185,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="285" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A285" t="s">
         <v>1031</v>
       </c>
@@ -24252,7 +24253,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="286" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A286" t="s">
         <v>1036</v>
       </c>
@@ -24323,7 +24324,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="287" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A287" t="s">
         <v>1041</v>
       </c>
@@ -24388,7 +24389,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="288" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A288" t="s">
         <v>1041</v>
       </c>
@@ -24453,7 +24454,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="289" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A289" t="s">
         <v>1041</v>
       </c>
@@ -24518,7 +24519,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="290" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A290" t="s">
         <v>1041</v>
       </c>
@@ -24583,7 +24584,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="291" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A291" t="s">
         <v>1041</v>
       </c>
@@ -24648,7 +24649,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="292" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A292" t="s">
         <v>1049</v>
       </c>
@@ -24719,7 +24720,7 @@
         <v>1053</v>
       </c>
     </row>
-    <row r="293" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A293" t="s">
         <v>1049</v>
       </c>
@@ -24790,7 +24791,7 @@
         <v>1053</v>
       </c>
     </row>
-    <row r="294" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A294" t="s">
         <v>1049</v>
       </c>
@@ -24861,7 +24862,7 @@
         <v>1053</v>
       </c>
     </row>
-    <row r="295" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A295" t="s">
         <v>1049</v>
       </c>
@@ -24932,7 +24933,7 @@
         <v>1053</v>
       </c>
     </row>
-    <row r="296" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A296" t="s">
         <v>1049</v>
       </c>
@@ -25003,7 +25004,7 @@
         <v>1053</v>
       </c>
     </row>
-    <row r="297" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A297" t="s">
         <v>1056</v>
       </c>
@@ -25077,7 +25078,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="298" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A298" t="s">
         <v>1061</v>
       </c>
@@ -25142,7 +25143,7 @@
         <v>1065</v>
       </c>
     </row>
-    <row r="299" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A299" t="s">
         <v>1061</v>
       </c>
@@ -25207,7 +25208,7 @@
         <v>1065</v>
       </c>
     </row>
-    <row r="300" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A300" t="s">
         <v>1061</v>
       </c>
@@ -25272,7 +25273,7 @@
         <v>1065</v>
       </c>
     </row>
-    <row r="301" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A301" t="s">
         <v>1061</v>
       </c>
@@ -25337,7 +25338,7 @@
         <v>1065</v>
       </c>
     </row>
-    <row r="302" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A302" t="s">
         <v>1061</v>
       </c>
@@ -25402,7 +25403,7 @@
         <v>1065</v>
       </c>
     </row>
-    <row r="303" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A303" t="s">
         <v>1068</v>
       </c>
@@ -25467,7 +25468,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="304" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A304" t="s">
         <v>1068</v>
       </c>
@@ -25532,7 +25533,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="305" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A305" t="s">
         <v>1074</v>
       </c>
@@ -25600,7 +25601,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="306" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A306" t="s">
         <v>1079</v>
       </c>
@@ -25656,7 +25657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A307" t="s">
         <v>1079</v>
       </c>
@@ -25712,7 +25713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A308" t="s">
         <v>1083</v>
       </c>
@@ -25777,7 +25778,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="309" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A309" t="s">
         <v>1088</v>
       </c>
@@ -25845,7 +25846,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row r="310" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A310" t="s">
         <v>1088</v>
       </c>
@@ -25913,7 +25914,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row r="311" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A311" t="s">
         <v>1094</v>
       </c>
@@ -25990,7 +25991,7 @@
         <v>1098</v>
       </c>
     </row>
-    <row r="312" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A312" t="s">
         <v>1099</v>
       </c>
@@ -26058,7 +26059,7 @@
         <v>1103</v>
       </c>
     </row>
-    <row r="313" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A313" t="s">
         <v>1461</v>
       </c>
@@ -26111,7 +26112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A314" t="s">
         <v>1104</v>
       </c>
@@ -26182,7 +26183,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="315" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A315" t="s">
         <v>1104</v>
       </c>
@@ -26253,7 +26254,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="316" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A316" t="s">
         <v>1104</v>
       </c>
@@ -26324,7 +26325,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="317" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A317" t="s">
         <v>1110</v>
       </c>
@@ -26401,7 +26402,7 @@
         <v>1114</v>
       </c>
     </row>
-    <row r="318" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A318" t="s">
         <v>1115</v>
       </c>
@@ -26469,7 +26470,7 @@
         <v>1119</v>
       </c>
     </row>
-    <row r="319" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A319" t="s">
         <v>1120</v>
       </c>
@@ -26531,7 +26532,7 @@
         <v>1124</v>
       </c>
     </row>
-    <row r="320" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A320" t="s">
         <v>1120</v>
       </c>
@@ -26593,7 +26594,7 @@
         <v>1124</v>
       </c>
     </row>
-    <row r="321" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A321" t="s">
         <v>1120</v>
       </c>
@@ -26655,7 +26656,7 @@
         <v>1124</v>
       </c>
     </row>
-    <row r="322" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A322" t="s">
         <v>1120</v>
       </c>
@@ -26717,7 +26718,7 @@
         <v>1124</v>
       </c>
     </row>
-    <row r="323" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A323" t="s">
         <v>1120</v>
       </c>
@@ -26779,7 +26780,7 @@
         <v>1124</v>
       </c>
     </row>
-    <row r="324" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A324" t="s">
         <v>1120</v>
       </c>
@@ -26841,7 +26842,7 @@
         <v>1124</v>
       </c>
     </row>
-    <row r="325" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A325" t="s">
         <v>1127</v>
       </c>
@@ -26903,7 +26904,7 @@
         <v>1131</v>
       </c>
     </row>
-    <row r="326" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A326" t="s">
         <v>1127</v>
       </c>
@@ -26965,7 +26966,7 @@
         <v>1131</v>
       </c>
     </row>
-    <row r="327" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A327" t="s">
         <v>1127</v>
       </c>
@@ -27027,7 +27028,7 @@
         <v>1131</v>
       </c>
     </row>
-    <row r="328" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A328" t="s">
         <v>1133</v>
       </c>
@@ -27077,7 +27078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A329" t="s">
         <v>1133</v>
       </c>
@@ -27127,7 +27128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A330" t="s">
         <v>1136</v>
       </c>
@@ -27195,7 +27196,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="331" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A331" t="s">
         <v>1136</v>
       </c>
@@ -27263,7 +27264,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="332" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A332" t="s">
         <v>1142</v>
       </c>
@@ -27340,7 +27341,7 @@
         <v>1146</v>
       </c>
     </row>
-    <row r="333" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A333" t="s">
         <v>1147</v>
       </c>
@@ -27414,7 +27415,7 @@
         <v>1151</v>
       </c>
     </row>
-    <row r="334" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A334" t="s">
         <v>1152</v>
       </c>
@@ -27482,7 +27483,7 @@
         <v>1156</v>
       </c>
     </row>
-    <row r="335" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A335" t="s">
         <v>1157</v>
       </c>
@@ -27556,7 +27557,7 @@
         <v>1161</v>
       </c>
     </row>
-    <row r="336" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A336" t="s">
         <v>1162</v>
       </c>
@@ -27612,7 +27613,7 @@
         <v>1166</v>
       </c>
     </row>
-    <row r="337" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A337" t="s">
         <v>1162</v>
       </c>
@@ -27668,7 +27669,7 @@
         <v>1166</v>
       </c>
     </row>
-    <row r="338" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A338" t="s">
         <v>1162</v>
       </c>
@@ -27724,7 +27725,7 @@
         <v>1166</v>
       </c>
     </row>
-    <row r="339" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A339" t="s">
         <v>1169</v>
       </c>
@@ -27792,7 +27793,7 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="340" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A340" t="s">
         <v>1169</v>
       </c>
@@ -27860,7 +27861,7 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="341" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A341" t="s">
         <v>1169</v>
       </c>
@@ -27928,7 +27929,7 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="342" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A342" t="s">
         <v>1175</v>
       </c>
@@ -28002,7 +28003,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="343" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A343" t="s">
         <v>1180</v>
       </c>
@@ -28079,7 +28080,7 @@
         <v>1184</v>
       </c>
     </row>
-    <row r="344" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A344" t="s">
         <v>1185</v>
       </c>
@@ -28153,7 +28154,7 @@
         <v>1189</v>
       </c>
     </row>
-    <row r="345" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A345" t="s">
         <v>1190</v>
       </c>
@@ -28224,7 +28225,7 @@
         <v>1194</v>
       </c>
     </row>
-    <row r="346" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A346" t="s">
         <v>1190</v>
       </c>
@@ -28295,7 +28296,7 @@
         <v>1194</v>
       </c>
     </row>
-    <row r="347" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A347" t="s">
         <v>1196</v>
       </c>
@@ -28366,7 +28367,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="348" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A348" t="s">
         <v>1201</v>
       </c>
@@ -28434,7 +28435,7 @@
         <v>1205</v>
       </c>
     </row>
-    <row r="349" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A349" t="s">
         <v>1206</v>
       </c>
@@ -28508,7 +28509,7 @@
         <v>1210</v>
       </c>
     </row>
-    <row r="350" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A350" t="s">
         <v>1206</v>
       </c>
@@ -28582,7 +28583,7 @@
         <v>1210</v>
       </c>
     </row>
-    <row r="351" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A351" t="s">
         <v>1206</v>
       </c>
@@ -28656,7 +28657,7 @@
         <v>1210</v>
       </c>
     </row>
-    <row r="352" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A352" t="s">
         <v>1213</v>
       </c>
@@ -28727,7 +28728,7 @@
         <v>1217</v>
       </c>
     </row>
-    <row r="353" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A353" t="s">
         <v>1213</v>
       </c>
@@ -28798,7 +28799,7 @@
         <v>1217</v>
       </c>
     </row>
-    <row r="354" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A354" t="s">
         <v>1213</v>
       </c>
@@ -28869,7 +28870,7 @@
         <v>1217</v>
       </c>
     </row>
-    <row r="355" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A355" t="s">
         <v>1219</v>
       </c>
@@ -28943,7 +28944,7 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="356" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A356" t="s">
         <v>1224</v>
       </c>
@@ -29011,7 +29012,7 @@
         <v>1228</v>
       </c>
     </row>
-    <row r="357" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A357" t="s">
         <v>1224</v>
       </c>
@@ -29079,7 +29080,7 @@
         <v>1228</v>
       </c>
     </row>
-    <row r="358" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A358" t="s">
         <v>1230</v>
       </c>
@@ -29150,7 +29151,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="359" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A359" t="s">
         <v>1230</v>
       </c>
@@ -29221,7 +29222,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="360" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A360" t="s">
         <v>1230</v>
       </c>
@@ -29292,7 +29293,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="361" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A361" t="s">
         <v>1236</v>
       </c>
@@ -29369,7 +29370,7 @@
         <v>1240</v>
       </c>
     </row>
-    <row r="362" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A362" t="s">
         <v>1241</v>
       </c>
@@ -29446,7 +29447,7 @@
         <v>1245</v>
       </c>
     </row>
-    <row r="363" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A363" t="s">
         <v>1246</v>
       </c>
@@ -29514,7 +29515,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="364" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A364" t="s">
         <v>1251</v>
       </c>
@@ -29582,7 +29583,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="365" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A365" t="s">
         <v>1256</v>
       </c>
@@ -29632,7 +29633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A366" t="s">
         <v>1256</v>
       </c>
@@ -29682,7 +29683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="367" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A367" t="s">
         <v>1260</v>
       </c>
@@ -29750,7 +29751,7 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="368" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A368" t="s">
         <v>1265</v>
       </c>
@@ -29818,7 +29819,7 @@
         <v>1269</v>
       </c>
     </row>
-    <row r="369" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A369" t="s">
         <v>1265</v>
       </c>
@@ -29886,7 +29887,7 @@
         <v>1269</v>
       </c>
     </row>
-    <row r="370" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A370" t="s">
         <v>1265</v>
       </c>
@@ -29954,7 +29955,7 @@
         <v>1269</v>
       </c>
     </row>
-    <row r="371" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A371" t="s">
         <v>1265</v>
       </c>
@@ -30022,7 +30023,7 @@
         <v>1269</v>
       </c>
     </row>
-    <row r="372" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A372" t="s">
         <v>1272</v>
       </c>
@@ -30090,7 +30091,7 @@
         <v>1276</v>
       </c>
     </row>
-    <row r="373" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A373" t="s">
         <v>1277</v>
       </c>
@@ -30164,7 +30165,7 @@
         <v>1281</v>
       </c>
     </row>
-    <row r="374" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A374" t="s">
         <v>1277</v>
       </c>
@@ -30238,7 +30239,7 @@
         <v>1281</v>
       </c>
     </row>
-    <row r="375" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A375" t="s">
         <v>1277</v>
       </c>
@@ -30312,7 +30313,7 @@
         <v>1281</v>
       </c>
     </row>
-    <row r="376" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A376" t="s">
         <v>1282</v>
       </c>
@@ -30380,7 +30381,7 @@
         <v>1286</v>
       </c>
     </row>
-    <row r="377" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A377" t="s">
         <v>1287</v>
       </c>
@@ -30448,7 +30449,7 @@
         <v>1291</v>
       </c>
     </row>
-    <row r="378" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A378" t="s">
         <v>1292</v>
       </c>
@@ -30510,7 +30511,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="379" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A379" t="s">
         <v>1295</v>
       </c>
@@ -30551,7 +30552,7 @@
         <v>1299</v>
       </c>
     </row>
-    <row r="380" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A380" t="s">
         <v>1295</v>
       </c>
@@ -30592,7 +30593,7 @@
         <v>1299</v>
       </c>
     </row>
-    <row r="381" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A381" t="s">
         <v>1295</v>
       </c>
@@ -30633,7 +30634,7 @@
         <v>1299</v>
       </c>
     </row>
-    <row r="382" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A382" t="s">
         <v>1295</v>
       </c>
@@ -30674,7 +30675,7 @@
         <v>1299</v>
       </c>
     </row>
-    <row r="383" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A383" t="s">
         <v>1302</v>
       </c>
@@ -30751,7 +30752,7 @@
         <v>1306</v>
       </c>
     </row>
-    <row r="384" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A384" t="s">
         <v>1302</v>
       </c>
@@ -30828,7 +30829,7 @@
         <v>1306</v>
       </c>
     </row>
-    <row r="385" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A385" t="s">
         <v>1302</v>
       </c>
@@ -30905,7 +30906,7 @@
         <v>1306</v>
       </c>
     </row>
-    <row r="386" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A386" t="s">
         <v>1309</v>
       </c>
@@ -30982,7 +30983,7 @@
         <v>1313</v>
       </c>
     </row>
-    <row r="387" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A387" t="s">
         <v>1314</v>
       </c>
@@ -31050,7 +31051,7 @@
         <v>1318</v>
       </c>
     </row>
-    <row r="388" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A388" t="s">
         <v>1319</v>
       </c>
@@ -31100,7 +31101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A389" t="s">
         <v>1319</v>
       </c>
@@ -31150,7 +31151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A390" t="s">
         <v>1319</v>
       </c>
@@ -31200,7 +31201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A391" t="s">
         <v>1319</v>
       </c>
@@ -31250,7 +31251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A392" t="s">
         <v>1323</v>
       </c>
@@ -31324,7 +31325,7 @@
         <v>1327</v>
       </c>
     </row>
-    <row r="393" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A393" t="s">
         <v>1328</v>
       </c>
@@ -31392,7 +31393,7 @@
         <v>1332</v>
       </c>
     </row>
-    <row r="394" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A394" t="s">
         <v>1328</v>
       </c>
@@ -31460,7 +31461,7 @@
         <v>1332</v>
       </c>
     </row>
-    <row r="395" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A395" t="s">
         <v>1328</v>
       </c>
@@ -31528,7 +31529,7 @@
         <v>1332</v>
       </c>
     </row>
-    <row r="396" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A396" t="s">
         <v>1334</v>
       </c>
@@ -31596,7 +31597,7 @@
         <v>1338</v>
       </c>
     </row>
-    <row r="397" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A397" t="s">
         <v>1339</v>
       </c>
@@ -31652,7 +31653,7 @@
         <v>1343</v>
       </c>
     </row>
-    <row r="398" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A398" t="s">
         <v>1339</v>
       </c>
@@ -31708,7 +31709,7 @@
         <v>1343</v>
       </c>
     </row>
-    <row r="399" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A399" t="s">
         <v>1339</v>
       </c>
@@ -31764,7 +31765,7 @@
         <v>1343</v>
       </c>
     </row>
-    <row r="400" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A400" t="s">
         <v>1346</v>
       </c>
@@ -31838,7 +31839,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="401" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A401" t="s">
         <v>1346</v>
       </c>
@@ -31912,7 +31913,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="402" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A402" t="s">
         <v>1346</v>
       </c>
@@ -31986,7 +31987,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="403" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A403" t="s">
         <v>1346</v>
       </c>
@@ -32060,7 +32061,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="404" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A404" t="s">
         <v>1346</v>
       </c>
@@ -32134,7 +32135,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="405" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A405" t="s">
         <v>1346</v>
       </c>
@@ -32208,7 +32209,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="406" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A406" t="s">
         <v>1354</v>
       </c>
@@ -32282,7 +32283,7 @@
         <v>1358</v>
       </c>
     </row>
-    <row r="407" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A407" t="s">
         <v>1354</v>
       </c>
@@ -32356,7 +32357,7 @@
         <v>1358</v>
       </c>
     </row>
-    <row r="408" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A408" t="s">
         <v>1354</v>
       </c>
@@ -32430,7 +32431,7 @@
         <v>1358</v>
       </c>
     </row>
-    <row r="409" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A409" t="s">
         <v>1354</v>
       </c>
@@ -32504,7 +32505,7 @@
         <v>1358</v>
       </c>
     </row>
-    <row r="410" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A410" t="s">
         <v>1354</v>
       </c>
@@ -32578,7 +32579,7 @@
         <v>1358</v>
       </c>
     </row>
-    <row r="411" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A411" t="s">
         <v>1363</v>
       </c>
@@ -32649,7 +32650,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="412" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A412" t="s">
         <v>1363</v>
       </c>
@@ -32720,7 +32721,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="413" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A413" t="s">
         <v>1369</v>
       </c>
@@ -32791,7 +32792,7 @@
         <v>1373</v>
       </c>
     </row>
-    <row r="414" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A414" t="s">
         <v>1369</v>
       </c>
@@ -32862,7 +32863,7 @@
         <v>1373</v>
       </c>
     </row>
-    <row r="415" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A415" t="s">
         <v>1369</v>
       </c>
@@ -32933,7 +32934,7 @@
         <v>1373</v>
       </c>
     </row>
-    <row r="416" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A416" t="s">
         <v>1376</v>
       </c>
@@ -33001,7 +33002,7 @@
         <v>1380</v>
       </c>
     </row>
-    <row r="417" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A417" t="s">
         <v>1376</v>
       </c>
@@ -33069,7 +33070,7 @@
         <v>1380</v>
       </c>
     </row>
-    <row r="418" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A418" t="s">
         <v>1382</v>
       </c>
@@ -33137,7 +33138,7 @@
         <v>1386</v>
       </c>
     </row>
-    <row r="419" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A419" t="s">
         <v>1387</v>
       </c>
@@ -33193,7 +33194,7 @@
         <v>1391</v>
       </c>
     </row>
-    <row r="420" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A420" t="s">
         <v>1387</v>
       </c>
@@ -33249,7 +33250,7 @@
         <v>1391</v>
       </c>
     </row>
-    <row r="421" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A421" t="s">
         <v>1387</v>
       </c>
@@ -33305,7 +33306,7 @@
         <v>1391</v>
       </c>
     </row>
-    <row r="422" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A422" t="s">
         <v>1393</v>
       </c>
@@ -33373,7 +33374,7 @@
         <v>1397</v>
       </c>
     </row>
-    <row r="423" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A423" t="s">
         <v>1398</v>
       </c>
@@ -33441,7 +33442,7 @@
         <v>1402</v>
       </c>
     </row>
-    <row r="424" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A424" t="s">
         <v>1398</v>
       </c>
@@ -33509,7 +33510,7 @@
         <v>1402</v>
       </c>
     </row>
-    <row r="425" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A425" t="s">
         <v>1398</v>
       </c>
@@ -33577,7 +33578,7 @@
         <v>1402</v>
       </c>
     </row>
-    <row r="426" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A426" t="s">
         <v>1405</v>
       </c>
@@ -33651,7 +33652,7 @@
         <v>1409</v>
       </c>
     </row>
-    <row r="427" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A427" t="s">
         <v>1410</v>
       </c>
@@ -33728,7 +33729,7 @@
         <v>1414</v>
       </c>
     </row>
-    <row r="428" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:25" x14ac:dyDescent="0.75">
       <c r="A428" t="s">
         <v>1415</v>
       </c>
@@ -33802,7 +33803,7 @@
         <v>1419</v>
       </c>
     </row>
-    <row r="429" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:25" x14ac:dyDescent="0.75">
       <c r="C429" t="s">
         <v>1420</v>
       </c>
@@ -33853,8 +33854,8 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Y429">
-    <sortState ref="A2:Y428">
+  <autoFilter ref="A1:Y429" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Y428">
       <sortCondition ref="A1:A428"/>
     </sortState>
   </autoFilter>
@@ -33864,14 +33865,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -33897,7 +33898,7 @@
         <v>1422</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>51</v>
       </c>
@@ -33923,7 +33924,7 @@
         <v>1424</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>27</v>
       </c>
@@ -33949,7 +33950,7 @@
         <v>1426</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>39</v>
       </c>
@@ -33975,7 +33976,7 @@
         <v>1428</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>66</v>
       </c>
@@ -33998,7 +33999,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
         <v>112</v>
       </c>
@@ -34021,7 +34022,7 @@
         <v>1430</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.75">
       <c r="C7" t="s">
         <v>294</v>
       </c>
@@ -34035,7 +34036,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
         <v>1431</v>
       </c>
@@ -34052,7 +34053,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.75">
       <c r="C9" t="s">
         <v>40</v>
       </c>
@@ -34066,7 +34067,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.75">
       <c r="C10" t="s">
         <v>91</v>
       </c>
@@ -34074,7 +34075,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.75">
       <c r="C11" t="s">
         <v>186</v>
       </c>
@@ -34082,7 +34083,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.75">
       <c r="C12" t="s">
         <v>67</v>
       </c>
@@ -34090,7 +34091,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.75">
       <c r="C13" t="s">
         <v>74</v>
       </c>
@@ -34098,7 +34099,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.75">
       <c r="C14" t="s">
         <v>143</v>
       </c>
@@ -34106,7 +34107,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.75">
       <c r="C15" t="s">
         <v>137</v>
       </c>
@@ -34114,7 +34115,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.75">
       <c r="C16" t="s">
         <v>460</v>
       </c>
@@ -34122,7 +34123,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:4" x14ac:dyDescent="0.75">
       <c r="C17" t="s">
         <v>483</v>
       </c>
@@ -34130,7 +34131,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:4" x14ac:dyDescent="0.75">
       <c r="C18" t="s">
         <v>113</v>
       </c>
@@ -34145,14 +34146,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A1" s="1" t="s">
         <v>1432</v>
       </c>
@@ -34163,7 +34164,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>1433</v>
       </c>
@@ -34174,7 +34175,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>1434</v>
       </c>
@@ -34185,7 +34186,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>1435</v>
       </c>
@@ -34196,7 +34197,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>1436</v>
       </c>
@@ -34207,17 +34208,17 @@
         <v>92</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.75">
       <c r="C6" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.75">
       <c r="C7" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.75">
       <c r="C8" t="s">
         <v>52</v>
       </c>

--- a/Codes_Masterlist.xlsx
+++ b/Codes_Masterlist.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alice\Box Sync\PhD\Software\Codes-Masterlist\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\boxsync\alepissier\PhD\Software\Codes-Masterlist\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81AB7DD3-34C6-4868-87C7-1EE26D553217}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31910" yWindow="-90" windowWidth="16980" windowHeight="10080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31905" yWindow="-90" windowWidth="16980" windowHeight="10080"/>
   </bookViews>
   <sheets>
     <sheet name="Codes" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4746" uniqueCount="1490">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4748" uniqueCount="1491">
   <si>
     <t>ISO3166.3</t>
   </si>
@@ -4495,12 +4494,15 @@
   </si>
   <si>
     <t>North Macedonia</t>
+  </si>
+  <si>
+    <t>XK</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -4514,6 +4516,7 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -4834,19 +4837,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y429"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="44.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="22" width="9.1328125" customWidth="1"/>
-    <col min="23" max="23" width="17.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="22" width="9.140625" customWidth="1"/>
+    <col min="23" max="23" width="17.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4923,7 +4926,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>24</v>
       </c>
@@ -4994,7 +4997,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>36</v>
       </c>
@@ -5065,7 +5068,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>36</v>
       </c>
@@ -5136,7 +5139,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>48</v>
       </c>
@@ -5210,7 +5213,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>58</v>
       </c>
@@ -5272,7 +5275,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>58</v>
       </c>
@@ -5334,7 +5337,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>63</v>
       </c>
@@ -5390,7 +5393,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>71</v>
       </c>
@@ -5458,7 +5461,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>79</v>
       </c>
@@ -5523,7 +5526,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>84</v>
       </c>
@@ -5546,7 +5549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>84</v>
       </c>
@@ -5569,7 +5572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>88</v>
       </c>
@@ -5637,7 +5640,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>88</v>
       </c>
@@ -5705,7 +5708,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>88</v>
       </c>
@@ -5773,7 +5776,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>97</v>
       </c>
@@ -5847,7 +5850,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>103</v>
       </c>
@@ -5915,7 +5918,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>103</v>
       </c>
@@ -5983,7 +5986,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>109</v>
       </c>
@@ -6048,7 +6051,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>117</v>
       </c>
@@ -6089,7 +6092,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>117</v>
       </c>
@@ -6130,7 +6133,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>122</v>
       </c>
@@ -6192,7 +6195,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>122</v>
       </c>
@@ -6254,7 +6257,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>128</v>
       </c>
@@ -6328,7 +6331,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>128</v>
       </c>
@@ -6402,7 +6405,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>128</v>
       </c>
@@ -6476,7 +6479,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>128</v>
       </c>
@@ -6550,7 +6553,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>134</v>
       </c>
@@ -6618,7 +6621,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>140</v>
       </c>
@@ -6689,7 +6692,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>147</v>
       </c>
@@ -6757,7 +6760,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>147</v>
       </c>
@@ -6825,7 +6828,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>153</v>
       </c>
@@ -6902,7 +6905,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>158</v>
       </c>
@@ -6973,7 +6976,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>163</v>
       </c>
@@ -7050,7 +7053,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>169</v>
       </c>
@@ -7106,7 +7109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>169</v>
       </c>
@@ -7162,7 +7165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>169</v>
       </c>
@@ -7218,7 +7221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>169</v>
       </c>
@@ -7274,7 +7277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>169</v>
       </c>
@@ -7330,7 +7333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>173</v>
       </c>
@@ -7407,7 +7410,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>178</v>
       </c>
@@ -7475,7 +7478,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>183</v>
       </c>
@@ -7543,7 +7546,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>189</v>
       </c>
@@ -7611,7 +7614,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>189</v>
       </c>
@@ -7679,7 +7682,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>195</v>
       </c>
@@ -7753,7 +7756,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>195</v>
       </c>
@@ -7827,7 +7830,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>201</v>
       </c>
@@ -7895,7 +7898,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>201</v>
       </c>
@@ -7963,7 +7966,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>207</v>
       </c>
@@ -8025,7 +8028,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>207</v>
       </c>
@@ -8087,7 +8090,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="51" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>207</v>
       </c>
@@ -8149,7 +8152,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="52" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>212</v>
       </c>
@@ -8217,7 +8220,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="53" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="53" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>217</v>
       </c>
@@ -8291,7 +8294,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="54" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="54" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>223</v>
       </c>
@@ -8356,7 +8359,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="55" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="55" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>230</v>
       </c>
@@ -8433,7 +8436,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="56" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="56" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>230</v>
       </c>
@@ -8510,7 +8513,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="57" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="57" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>236</v>
       </c>
@@ -8584,7 +8587,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="58" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="58" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>241</v>
       </c>
@@ -8658,7 +8661,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="59" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="59" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>246</v>
       </c>
@@ -8726,7 +8729,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="60" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="60" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>246</v>
       </c>
@@ -8794,7 +8797,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="61" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="61" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>253</v>
       </c>
@@ -8862,7 +8865,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="62" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="62" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>258</v>
       </c>
@@ -8918,7 +8921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="63" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>261</v>
       </c>
@@ -8992,7 +8995,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="64" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="64" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>267</v>
       </c>
@@ -9069,7 +9072,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="65" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="65" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>267</v>
       </c>
@@ -9146,7 +9149,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="66" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="66" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>273</v>
       </c>
@@ -9214,7 +9217,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="67" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="67" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>278</v>
       </c>
@@ -9264,7 +9267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="68" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>278</v>
       </c>
@@ -9314,7 +9317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="69" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>281</v>
       </c>
@@ -9382,7 +9385,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="70" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="70" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>286</v>
       </c>
@@ -9456,7 +9459,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="71" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="71" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>291</v>
       </c>
@@ -9524,7 +9527,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="72" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="72" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>291</v>
       </c>
@@ -9592,7 +9595,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="73" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="73" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>298</v>
       </c>
@@ -9669,7 +9672,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="74" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="74" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>298</v>
       </c>
@@ -9746,7 +9749,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="75" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="75" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>298</v>
       </c>
@@ -9823,7 +9826,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="76" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="76" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>304</v>
       </c>
@@ -9900,7 +9903,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="77" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="77" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>310</v>
       </c>
@@ -9977,7 +9980,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="78" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="78" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>310</v>
       </c>
@@ -10054,7 +10057,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="79" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="79" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>310</v>
       </c>
@@ -10131,7 +10134,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="80" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="80" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>310</v>
       </c>
@@ -10208,7 +10211,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="81" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="81" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>310</v>
       </c>
@@ -10285,7 +10288,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="82" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="82" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>319</v>
       </c>
@@ -10362,7 +10365,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="83" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="83" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>319</v>
       </c>
@@ -10439,7 +10442,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="84" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="84" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>319</v>
       </c>
@@ -10516,7 +10519,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="85" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="85" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>319</v>
       </c>
@@ -10593,7 +10596,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="86" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="86" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>326</v>
       </c>
@@ -10649,7 +10652,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="87" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="87" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>331</v>
       </c>
@@ -10723,7 +10726,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="88" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="88" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>336</v>
       </c>
@@ -10800,7 +10803,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="89" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="89" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>341</v>
       </c>
@@ -10874,7 +10877,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="90" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="90" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>341</v>
       </c>
@@ -10948,7 +10951,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="91" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="91" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>341</v>
       </c>
@@ -11022,7 +11025,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="92" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="92" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>348</v>
       </c>
@@ -11096,7 +11099,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="93" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="93" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>353</v>
       </c>
@@ -11167,7 +11170,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="94" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="94" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>358</v>
       </c>
@@ -11238,7 +11241,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="95" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="95" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>358</v>
       </c>
@@ -11309,7 +11312,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="96" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="96" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>358</v>
       </c>
@@ -11380,7 +11383,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="97" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="97" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>364</v>
       </c>
@@ -11430,7 +11433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="98" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>367</v>
       </c>
@@ -11501,7 +11504,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="99" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="99" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>367</v>
       </c>
@@ -11572,7 +11575,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="100" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="100" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>373</v>
       </c>
@@ -11643,7 +11646,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="101" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="101" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>378</v>
       </c>
@@ -11711,7 +11714,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="102" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="102" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>378</v>
       </c>
@@ -11779,7 +11782,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="103" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="103" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>384</v>
       </c>
@@ -11850,7 +11853,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="104" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="104" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>389</v>
       </c>
@@ -11924,7 +11927,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="105" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="105" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>394</v>
       </c>
@@ -11998,7 +12001,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="106" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="106" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>399</v>
       </c>
@@ -12066,7 +12069,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="107" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="107" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>404</v>
       </c>
@@ -12140,7 +12143,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="108" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="108" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>404</v>
       </c>
@@ -12214,7 +12217,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="109" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="109" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>410</v>
       </c>
@@ -12282,7 +12285,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="110" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="110" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>416</v>
       </c>
@@ -12356,7 +12359,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="111" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="111" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>421</v>
       </c>
@@ -12424,7 +12427,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="112" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="112" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>421</v>
       </c>
@@ -12492,7 +12495,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="113" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="113" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>427</v>
       </c>
@@ -12569,7 +12572,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="114" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="114" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>432</v>
       </c>
@@ -12625,7 +12628,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="115" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="115" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>437</v>
       </c>
@@ -12696,7 +12699,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="116" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="116" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>437</v>
       </c>
@@ -12767,7 +12770,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="117" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="117" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>442</v>
       </c>
@@ -12838,7 +12841,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="118" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="118" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>447</v>
       </c>
@@ -12915,7 +12918,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="119" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="119" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>447</v>
       </c>
@@ -12992,7 +12995,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="120" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="120" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>452</v>
       </c>
@@ -13063,7 +13066,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="121" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="121" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>457</v>
       </c>
@@ -13131,7 +13134,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="122" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="122" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>463</v>
       </c>
@@ -13193,7 +13196,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="123" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="123" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>463</v>
       </c>
@@ -13255,7 +13258,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="124" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="124" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>463</v>
       </c>
@@ -13317,7 +13320,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="125" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="125" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>469</v>
       </c>
@@ -13388,7 +13391,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="126" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="126" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>474</v>
       </c>
@@ -13453,7 +13456,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="127" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="127" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>474</v>
       </c>
@@ -13518,7 +13521,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="128" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="128" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>474</v>
       </c>
@@ -13583,7 +13586,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="129" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="129" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>481</v>
       </c>
@@ -13651,7 +13654,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="130" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="130" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>481</v>
       </c>
@@ -13719,7 +13722,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="131" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="131" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>481</v>
       </c>
@@ -13787,7 +13790,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="132" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="132" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>481</v>
       </c>
@@ -13855,7 +13858,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="133" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="133" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>489</v>
       </c>
@@ -13929,7 +13932,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="134" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="134" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>494</v>
       </c>
@@ -13997,7 +14000,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="135" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="135" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>494</v>
       </c>
@@ -14065,7 +14068,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="136" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="136" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>494</v>
       </c>
@@ -14133,7 +14136,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="137" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="137" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>500</v>
       </c>
@@ -14201,7 +14204,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="138" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="138" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>505</v>
       </c>
@@ -14263,7 +14266,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="139" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="139" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>511</v>
       </c>
@@ -14340,7 +14343,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="140" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="140" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>516</v>
       </c>
@@ -14399,7 +14402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="141" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>519</v>
       </c>
@@ -14476,7 +14479,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="142" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="142" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>524</v>
       </c>
@@ -14532,7 +14535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="143" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>527</v>
       </c>
@@ -14609,7 +14612,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="144" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="144" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>527</v>
       </c>
@@ -14686,7 +14689,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="145" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="145" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>533</v>
       </c>
@@ -14763,7 +14766,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="146" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="146" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>538</v>
       </c>
@@ -14837,7 +14840,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="147" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="147" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>543</v>
       </c>
@@ -14908,7 +14911,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="148" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="148" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>548</v>
       </c>
@@ -14982,7 +14985,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="149" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="149" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>553</v>
       </c>
@@ -15047,7 +15050,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="150" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="150" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>558</v>
       </c>
@@ -15121,7 +15124,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="151" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="151" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>563</v>
       </c>
@@ -15177,7 +15180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="152" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>563</v>
       </c>
@@ -15233,7 +15236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="153" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>567</v>
       </c>
@@ -15298,7 +15301,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="154" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="154" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>572</v>
       </c>
@@ -15375,7 +15378,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="155" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="155" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>577</v>
       </c>
@@ -15443,7 +15446,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="156" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="156" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>577</v>
       </c>
@@ -15511,7 +15514,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="157" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="157" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>577</v>
       </c>
@@ -15579,7 +15582,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="158" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="158" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>577</v>
       </c>
@@ -15647,7 +15650,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="159" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="159" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>577</v>
       </c>
@@ -15715,7 +15718,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="160" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="160" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>577</v>
       </c>
@@ -15783,7 +15786,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="161" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="161" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>577</v>
       </c>
@@ -15851,7 +15854,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="162" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="162" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>587</v>
       </c>
@@ -15907,7 +15910,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="163" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="163" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>587</v>
       </c>
@@ -15963,7 +15966,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="164" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="164" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>587</v>
       </c>
@@ -16019,7 +16022,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="165" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="165" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>592</v>
       </c>
@@ -16096,7 +16099,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="166" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="166" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>597</v>
       </c>
@@ -16164,7 +16167,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="167" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="167" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>602</v>
       </c>
@@ -16241,7 +16244,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="168" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="168" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>607</v>
       </c>
@@ -16309,7 +16312,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="169" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="169" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>612</v>
       </c>
@@ -16377,7 +16380,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="170" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="170" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>617</v>
       </c>
@@ -16442,7 +16445,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="171" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="171" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>622</v>
       </c>
@@ -16510,7 +16513,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="172" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="172" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>627</v>
       </c>
@@ -16572,7 +16575,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="173" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="173" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>627</v>
       </c>
@@ -16634,7 +16637,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="174" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="174" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>632</v>
       </c>
@@ -16705,7 +16708,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="175" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="175" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>637</v>
       </c>
@@ -16773,7 +16776,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="176" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="176" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>637</v>
       </c>
@@ -16841,7 +16844,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="177" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="177" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>637</v>
       </c>
@@ -16909,7 +16912,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="178" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="178" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>637</v>
       </c>
@@ -16977,7 +16980,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="179" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="179" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>645</v>
       </c>
@@ -17045,7 +17048,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="180" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="180" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>650</v>
       </c>
@@ -17113,7 +17116,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="181" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="181" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>655</v>
       </c>
@@ -17181,7 +17184,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="182" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="182" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>660</v>
       </c>
@@ -17252,7 +17255,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="183" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="183" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>665</v>
       </c>
@@ -17326,7 +17329,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="184" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="184" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>670</v>
       </c>
@@ -17388,7 +17391,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="185" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="185" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>675</v>
       </c>
@@ -17456,7 +17459,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="186" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="186" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>680</v>
       </c>
@@ -17524,7 +17527,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="187" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="187" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>685</v>
       </c>
@@ -17592,7 +17595,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="188" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="188" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>691</v>
       </c>
@@ -17666,7 +17669,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="189" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="189" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>696</v>
       </c>
@@ -17734,7 +17737,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="190" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="190" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>696</v>
       </c>
@@ -17802,7 +17805,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="191" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="191" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>702</v>
       </c>
@@ -17870,7 +17873,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="192" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="192" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>707</v>
       </c>
@@ -17938,7 +17941,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="193" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="193" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>712</v>
       </c>
@@ -18012,7 +18015,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="194" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="194" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>712</v>
       </c>
@@ -18086,7 +18089,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="195" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="195" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>712</v>
       </c>
@@ -18160,7 +18163,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="196" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="196" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>712</v>
       </c>
@@ -18234,7 +18237,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="197" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="197" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>718</v>
       </c>
@@ -18302,7 +18305,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="198" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="198" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>718</v>
       </c>
@@ -18370,7 +18373,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="199" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="199" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>718</v>
       </c>
@@ -18438,7 +18441,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="200" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="200" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>718</v>
       </c>
@@ -18506,7 +18509,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="201" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="201" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>718</v>
       </c>
@@ -18574,7 +18577,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="202" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="202" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>718</v>
       </c>
@@ -18642,10 +18645,13 @@
         <v>722</v>
       </c>
     </row>
-    <row r="203" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="203" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>728</v>
       </c>
+      <c r="B203" t="s">
+        <v>1490</v>
+      </c>
       <c r="C203" t="s">
         <v>729</v>
       </c>
@@ -18677,10 +18683,13 @@
         <v>731</v>
       </c>
     </row>
-    <row r="204" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="204" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>728</v>
       </c>
+      <c r="B204" t="s">
+        <v>1490</v>
+      </c>
       <c r="C204" t="s">
         <v>732</v>
       </c>
@@ -18712,7 +18721,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="205" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="205" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>733</v>
       </c>
@@ -18780,7 +18789,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="206" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="206" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>738</v>
       </c>
@@ -18848,7 +18857,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="207" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="207" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>738</v>
       </c>
@@ -18916,7 +18925,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="208" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="208" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>738</v>
       </c>
@@ -18984,7 +18993,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="209" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="209" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>738</v>
       </c>
@@ -19052,7 +19061,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="210" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="210" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>746</v>
       </c>
@@ -19120,7 +19129,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="211" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="211" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>751</v>
       </c>
@@ -19197,7 +19206,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="212" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="212" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>756</v>
       </c>
@@ -19265,7 +19274,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="213" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="213" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>756</v>
       </c>
@@ -19333,7 +19342,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="214" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="214" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>762</v>
       </c>
@@ -19407,7 +19416,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="215" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="215" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>762</v>
       </c>
@@ -19481,7 +19490,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="216" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="216" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>768</v>
       </c>
@@ -19546,7 +19555,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="217" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="217" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>773</v>
       </c>
@@ -19614,7 +19623,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="218" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="218" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>778</v>
       </c>
@@ -19688,7 +19697,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="219" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="219" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>783</v>
       </c>
@@ -19759,7 +19768,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="220" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="220" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>788</v>
       </c>
@@ -19830,7 +19839,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="221" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="221" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>793</v>
       </c>
@@ -19901,7 +19910,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="222" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="222" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>798</v>
       </c>
@@ -19966,7 +19975,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="223" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="223" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>798</v>
       </c>
@@ -20031,7 +20040,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="224" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="224" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>798</v>
       </c>
@@ -20096,7 +20105,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="225" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="225" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>798</v>
       </c>
@@ -20161,7 +20170,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="226" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="226" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>798</v>
       </c>
@@ -20226,7 +20235,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="227" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="227" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>798</v>
       </c>
@@ -20291,7 +20300,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="228" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="228" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>808</v>
       </c>
@@ -20362,7 +20371,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="229" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="229" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>808</v>
       </c>
@@ -20433,7 +20442,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="230" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="230" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>808</v>
       </c>
@@ -20504,7 +20513,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="231" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="231" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>814</v>
       </c>
@@ -20572,7 +20581,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="232" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="232" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>819</v>
       </c>
@@ -20637,7 +20646,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="233" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="233" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>824</v>
       </c>
@@ -20705,7 +20714,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="234" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="234" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>824</v>
       </c>
@@ -20773,7 +20782,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="235" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="235" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>824</v>
       </c>
@@ -20841,7 +20850,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="236" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="236" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>831</v>
       </c>
@@ -20918,7 +20927,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="237" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="237" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>836</v>
       </c>
@@ -20986,7 +20995,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="238" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="238" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>841</v>
       </c>
@@ -21060,7 +21069,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="239" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="239" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>846</v>
       </c>
@@ -21128,7 +21137,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="240" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="240" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>846</v>
       </c>
@@ -21196,7 +21205,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="241" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="241" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>852</v>
       </c>
@@ -21264,7 +21273,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="242" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="242" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>852</v>
       </c>
@@ -21332,7 +21341,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="243" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="243" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>852</v>
       </c>
@@ -21400,7 +21409,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="244" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="244" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>852</v>
       </c>
@@ -21468,7 +21477,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="245" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="245" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>852</v>
       </c>
@@ -21536,7 +21545,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="246" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="246" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>860</v>
       </c>
@@ -21613,7 +21622,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="247" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="247" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>865</v>
       </c>
@@ -21684,7 +21693,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="248" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="248" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>870</v>
       </c>
@@ -21752,7 +21761,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="249" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="249" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>875</v>
       </c>
@@ -21820,7 +21829,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="250" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="250" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>880</v>
       </c>
@@ -21888,7 +21897,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="251" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="251" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>885</v>
       </c>
@@ -21953,7 +21962,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="252" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="252" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>885</v>
       </c>
@@ -22018,7 +22027,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="253" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="253" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>891</v>
       </c>
@@ -22095,7 +22104,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="254" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="254" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>896</v>
       </c>
@@ -22172,7 +22181,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="255" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="255" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>901</v>
       </c>
@@ -22234,7 +22243,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="256" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="256" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>906</v>
       </c>
@@ -22290,7 +22299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="257" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>909</v>
       </c>
@@ -22364,7 +22373,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="258" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="258" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>914</v>
       </c>
@@ -22441,7 +22450,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="259" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="259" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>919</v>
       </c>
@@ -22509,7 +22518,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="260" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="260" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>919</v>
       </c>
@@ -22577,7 +22586,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="261" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="261" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>919</v>
       </c>
@@ -22645,7 +22654,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="262" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="262" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>926</v>
       </c>
@@ -22701,7 +22710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="263" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>929</v>
       </c>
@@ -22775,7 +22784,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="264" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="264" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>934</v>
       </c>
@@ -22840,7 +22849,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="265" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="265" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>934</v>
       </c>
@@ -22905,7 +22914,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="266" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="266" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>940</v>
       </c>
@@ -22982,7 +22991,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="267" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="267" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>945</v>
       </c>
@@ -23038,7 +23047,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="268" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="268" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>950</v>
       </c>
@@ -23112,7 +23121,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="269" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="269" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>955</v>
       </c>
@@ -23189,7 +23198,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="270" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="270" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>960</v>
       </c>
@@ -23245,7 +23254,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="271" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="271" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>965</v>
       </c>
@@ -23316,7 +23325,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="272" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="272" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>970</v>
       </c>
@@ -23384,7 +23393,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="273" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="273" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>975</v>
       </c>
@@ -23452,7 +23461,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="274" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="274" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>980</v>
       </c>
@@ -23517,7 +23526,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="275" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="275" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>985</v>
       </c>
@@ -23585,7 +23594,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="276" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="276" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>990</v>
       </c>
@@ -23653,7 +23662,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="277" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="277" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>995</v>
       </c>
@@ -23721,7 +23730,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="278" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="278" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>1000</v>
       </c>
@@ -23795,7 +23804,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="279" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="279" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>1005</v>
       </c>
@@ -23851,7 +23860,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="280" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="280" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>1005</v>
       </c>
@@ -23907,7 +23916,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="281" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="281" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>1011</v>
       </c>
@@ -23981,7 +23990,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="282" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="282" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>1016</v>
       </c>
@@ -24049,7 +24058,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="283" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="283" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>1021</v>
       </c>
@@ -24117,7 +24126,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="284" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="284" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>1026</v>
       </c>
@@ -24185,7 +24194,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="285" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="285" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>1031</v>
       </c>
@@ -24253,7 +24262,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="286" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="286" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>1036</v>
       </c>
@@ -24324,7 +24333,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="287" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="287" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>1041</v>
       </c>
@@ -24389,7 +24398,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="288" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="288" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>1041</v>
       </c>
@@ -24454,7 +24463,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="289" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="289" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>1041</v>
       </c>
@@ -24519,7 +24528,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="290" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="290" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>1041</v>
       </c>
@@ -24584,7 +24593,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="291" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="291" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>1041</v>
       </c>
@@ -24649,7 +24658,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="292" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="292" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>1049</v>
       </c>
@@ -24720,7 +24729,7 @@
         <v>1053</v>
       </c>
     </row>
-    <row r="293" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="293" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>1049</v>
       </c>
@@ -24791,7 +24800,7 @@
         <v>1053</v>
       </c>
     </row>
-    <row r="294" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="294" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>1049</v>
       </c>
@@ -24862,7 +24871,7 @@
         <v>1053</v>
       </c>
     </row>
-    <row r="295" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="295" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>1049</v>
       </c>
@@ -24933,7 +24942,7 @@
         <v>1053</v>
       </c>
     </row>
-    <row r="296" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="296" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>1049</v>
       </c>
@@ -25004,7 +25013,7 @@
         <v>1053</v>
       </c>
     </row>
-    <row r="297" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="297" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>1056</v>
       </c>
@@ -25078,7 +25087,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="298" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="298" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>1061</v>
       </c>
@@ -25143,7 +25152,7 @@
         <v>1065</v>
       </c>
     </row>
-    <row r="299" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="299" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>1061</v>
       </c>
@@ -25208,7 +25217,7 @@
         <v>1065</v>
       </c>
     </row>
-    <row r="300" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="300" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>1061</v>
       </c>
@@ -25273,7 +25282,7 @@
         <v>1065</v>
       </c>
     </row>
-    <row r="301" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="301" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>1061</v>
       </c>
@@ -25338,7 +25347,7 @@
         <v>1065</v>
       </c>
     </row>
-    <row r="302" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="302" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>1061</v>
       </c>
@@ -25403,7 +25412,7 @@
         <v>1065</v>
       </c>
     </row>
-    <row r="303" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="303" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>1068</v>
       </c>
@@ -25468,7 +25477,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="304" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="304" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>1068</v>
       </c>
@@ -25533,7 +25542,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="305" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="305" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>1074</v>
       </c>
@@ -25601,7 +25610,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="306" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="306" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>1079</v>
       </c>
@@ -25657,7 +25666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="307" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>1079</v>
       </c>
@@ -25713,7 +25722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="308" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>1083</v>
       </c>
@@ -25778,7 +25787,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="309" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="309" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>1088</v>
       </c>
@@ -25846,7 +25855,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row r="310" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="310" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>1088</v>
       </c>
@@ -25914,7 +25923,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row r="311" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="311" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>1094</v>
       </c>
@@ -25991,7 +26000,7 @@
         <v>1098</v>
       </c>
     </row>
-    <row r="312" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="312" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>1099</v>
       </c>
@@ -26059,7 +26068,7 @@
         <v>1103</v>
       </c>
     </row>
-    <row r="313" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="313" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>1461</v>
       </c>
@@ -26112,7 +26121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="314" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>1104</v>
       </c>
@@ -26183,7 +26192,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="315" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="315" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>1104</v>
       </c>
@@ -26254,7 +26263,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="316" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="316" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>1104</v>
       </c>
@@ -26325,7 +26334,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="317" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="317" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>1110</v>
       </c>
@@ -26402,7 +26411,7 @@
         <v>1114</v>
       </c>
     </row>
-    <row r="318" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="318" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>1115</v>
       </c>
@@ -26470,7 +26479,7 @@
         <v>1119</v>
       </c>
     </row>
-    <row r="319" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="319" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>1120</v>
       </c>
@@ -26532,7 +26541,7 @@
         <v>1124</v>
       </c>
     </row>
-    <row r="320" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="320" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>1120</v>
       </c>
@@ -26594,7 +26603,7 @@
         <v>1124</v>
       </c>
     </row>
-    <row r="321" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="321" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>1120</v>
       </c>
@@ -26656,7 +26665,7 @@
         <v>1124</v>
       </c>
     </row>
-    <row r="322" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="322" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>1120</v>
       </c>
@@ -26718,7 +26727,7 @@
         <v>1124</v>
       </c>
     </row>
-    <row r="323" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="323" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>1120</v>
       </c>
@@ -26780,7 +26789,7 @@
         <v>1124</v>
       </c>
     </row>
-    <row r="324" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="324" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>1120</v>
       </c>
@@ -26842,7 +26851,7 @@
         <v>1124</v>
       </c>
     </row>
-    <row r="325" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="325" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>1127</v>
       </c>
@@ -26904,7 +26913,7 @@
         <v>1131</v>
       </c>
     </row>
-    <row r="326" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="326" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>1127</v>
       </c>
@@ -26966,7 +26975,7 @@
         <v>1131</v>
       </c>
     </row>
-    <row r="327" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="327" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>1127</v>
       </c>
@@ -27028,7 +27037,7 @@
         <v>1131</v>
       </c>
     </row>
-    <row r="328" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="328" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>1133</v>
       </c>
@@ -27078,7 +27087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="329" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>1133</v>
       </c>
@@ -27128,7 +27137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="330" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>1136</v>
       </c>
@@ -27196,7 +27205,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="331" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="331" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>1136</v>
       </c>
@@ -27264,7 +27273,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="332" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="332" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>1142</v>
       </c>
@@ -27341,7 +27350,7 @@
         <v>1146</v>
       </c>
     </row>
-    <row r="333" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="333" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>1147</v>
       </c>
@@ -27415,7 +27424,7 @@
         <v>1151</v>
       </c>
     </row>
-    <row r="334" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="334" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>1152</v>
       </c>
@@ -27483,7 +27492,7 @@
         <v>1156</v>
       </c>
     </row>
-    <row r="335" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="335" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>1157</v>
       </c>
@@ -27557,7 +27566,7 @@
         <v>1161</v>
       </c>
     </row>
-    <row r="336" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="336" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>1162</v>
       </c>
@@ -27613,7 +27622,7 @@
         <v>1166</v>
       </c>
     </row>
-    <row r="337" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="337" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>1162</v>
       </c>
@@ -27669,7 +27678,7 @@
         <v>1166</v>
       </c>
     </row>
-    <row r="338" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="338" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>1162</v>
       </c>
@@ -27725,7 +27734,7 @@
         <v>1166</v>
       </c>
     </row>
-    <row r="339" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="339" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>1169</v>
       </c>
@@ -27793,7 +27802,7 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="340" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="340" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>1169</v>
       </c>
@@ -27861,7 +27870,7 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="341" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="341" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>1169</v>
       </c>
@@ -27929,7 +27938,7 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="342" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="342" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>1175</v>
       </c>
@@ -28003,7 +28012,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="343" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="343" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>1180</v>
       </c>
@@ -28080,7 +28089,7 @@
         <v>1184</v>
       </c>
     </row>
-    <row r="344" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="344" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>1185</v>
       </c>
@@ -28154,7 +28163,7 @@
         <v>1189</v>
       </c>
     </row>
-    <row r="345" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="345" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>1190</v>
       </c>
@@ -28225,7 +28234,7 @@
         <v>1194</v>
       </c>
     </row>
-    <row r="346" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="346" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>1190</v>
       </c>
@@ -28296,7 +28305,7 @@
         <v>1194</v>
       </c>
     </row>
-    <row r="347" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="347" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>1196</v>
       </c>
@@ -28367,7 +28376,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="348" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="348" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>1201</v>
       </c>
@@ -28435,7 +28444,7 @@
         <v>1205</v>
       </c>
     </row>
-    <row r="349" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="349" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>1206</v>
       </c>
@@ -28509,7 +28518,7 @@
         <v>1210</v>
       </c>
     </row>
-    <row r="350" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="350" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>1206</v>
       </c>
@@ -28583,7 +28592,7 @@
         <v>1210</v>
       </c>
     </row>
-    <row r="351" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="351" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>1206</v>
       </c>
@@ -28657,7 +28666,7 @@
         <v>1210</v>
       </c>
     </row>
-    <row r="352" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="352" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>1213</v>
       </c>
@@ -28728,7 +28737,7 @@
         <v>1217</v>
       </c>
     </row>
-    <row r="353" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="353" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>1213</v>
       </c>
@@ -28799,7 +28808,7 @@
         <v>1217</v>
       </c>
     </row>
-    <row r="354" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="354" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>1213</v>
       </c>
@@ -28870,7 +28879,7 @@
         <v>1217</v>
       </c>
     </row>
-    <row r="355" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="355" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>1219</v>
       </c>
@@ -28944,7 +28953,7 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="356" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="356" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>1224</v>
       </c>
@@ -29012,7 +29021,7 @@
         <v>1228</v>
       </c>
     </row>
-    <row r="357" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="357" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>1224</v>
       </c>
@@ -29080,7 +29089,7 @@
         <v>1228</v>
       </c>
     </row>
-    <row r="358" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="358" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>1230</v>
       </c>
@@ -29151,7 +29160,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="359" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="359" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>1230</v>
       </c>
@@ -29222,7 +29231,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="360" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="360" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>1230</v>
       </c>
@@ -29293,7 +29302,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="361" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="361" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>1236</v>
       </c>
@@ -29370,7 +29379,7 @@
         <v>1240</v>
       </c>
     </row>
-    <row r="362" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="362" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>1241</v>
       </c>
@@ -29447,7 +29456,7 @@
         <v>1245</v>
       </c>
     </row>
-    <row r="363" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="363" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>1246</v>
       </c>
@@ -29515,7 +29524,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="364" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="364" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>1251</v>
       </c>
@@ -29583,7 +29592,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="365" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="365" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>1256</v>
       </c>
@@ -29633,7 +29642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="366" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>1256</v>
       </c>
@@ -29683,7 +29692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="367" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="367" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>1260</v>
       </c>
@@ -29751,7 +29760,7 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="368" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="368" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>1265</v>
       </c>
@@ -29819,7 +29828,7 @@
         <v>1269</v>
       </c>
     </row>
-    <row r="369" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="369" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>1265</v>
       </c>
@@ -29887,7 +29896,7 @@
         <v>1269</v>
       </c>
     </row>
-    <row r="370" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="370" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>1265</v>
       </c>
@@ -29955,7 +29964,7 @@
         <v>1269</v>
       </c>
     </row>
-    <row r="371" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="371" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>1265</v>
       </c>
@@ -30023,7 +30032,7 @@
         <v>1269</v>
       </c>
     </row>
-    <row r="372" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="372" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>1272</v>
       </c>
@@ -30091,7 +30100,7 @@
         <v>1276</v>
       </c>
     </row>
-    <row r="373" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="373" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>1277</v>
       </c>
@@ -30165,7 +30174,7 @@
         <v>1281</v>
       </c>
     </row>
-    <row r="374" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="374" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>1277</v>
       </c>
@@ -30239,7 +30248,7 @@
         <v>1281</v>
       </c>
     </row>
-    <row r="375" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="375" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>1277</v>
       </c>
@@ -30313,7 +30322,7 @@
         <v>1281</v>
       </c>
     </row>
-    <row r="376" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="376" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>1282</v>
       </c>
@@ -30381,7 +30390,7 @@
         <v>1286</v>
       </c>
     </row>
-    <row r="377" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="377" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>1287</v>
       </c>
@@ -30449,7 +30458,7 @@
         <v>1291</v>
       </c>
     </row>
-    <row r="378" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="378" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>1292</v>
       </c>
@@ -30511,7 +30520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="379" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="379" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>1295</v>
       </c>
@@ -30552,7 +30561,7 @@
         <v>1299</v>
       </c>
     </row>
-    <row r="380" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="380" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>1295</v>
       </c>
@@ -30593,7 +30602,7 @@
         <v>1299</v>
       </c>
     </row>
-    <row r="381" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="381" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>1295</v>
       </c>
@@ -30634,7 +30643,7 @@
         <v>1299</v>
       </c>
     </row>
-    <row r="382" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="382" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>1295</v>
       </c>
@@ -30675,7 +30684,7 @@
         <v>1299</v>
       </c>
     </row>
-    <row r="383" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="383" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>1302</v>
       </c>
@@ -30752,7 +30761,7 @@
         <v>1306</v>
       </c>
     </row>
-    <row r="384" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="384" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>1302</v>
       </c>
@@ -30829,7 +30838,7 @@
         <v>1306</v>
       </c>
     </row>
-    <row r="385" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="385" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>1302</v>
       </c>
@@ -30906,7 +30915,7 @@
         <v>1306</v>
       </c>
     </row>
-    <row r="386" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="386" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>1309</v>
       </c>
@@ -30983,7 +30992,7 @@
         <v>1313</v>
       </c>
     </row>
-    <row r="387" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="387" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>1314</v>
       </c>
@@ -31051,7 +31060,7 @@
         <v>1318</v>
       </c>
     </row>
-    <row r="388" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="388" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>1319</v>
       </c>
@@ -31101,7 +31110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="389" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>1319</v>
       </c>
@@ -31151,7 +31160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="390" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>1319</v>
       </c>
@@ -31201,7 +31210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="391" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>1319</v>
       </c>
@@ -31251,7 +31260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="392" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>1323</v>
       </c>
@@ -31325,7 +31334,7 @@
         <v>1327</v>
       </c>
     </row>
-    <row r="393" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="393" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>1328</v>
       </c>
@@ -31393,7 +31402,7 @@
         <v>1332</v>
       </c>
     </row>
-    <row r="394" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="394" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>1328</v>
       </c>
@@ -31461,7 +31470,7 @@
         <v>1332</v>
       </c>
     </row>
-    <row r="395" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="395" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>1328</v>
       </c>
@@ -31529,7 +31538,7 @@
         <v>1332</v>
       </c>
     </row>
-    <row r="396" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="396" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>1334</v>
       </c>
@@ -31597,7 +31606,7 @@
         <v>1338</v>
       </c>
     </row>
-    <row r="397" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="397" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>1339</v>
       </c>
@@ -31653,7 +31662,7 @@
         <v>1343</v>
       </c>
     </row>
-    <row r="398" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="398" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>1339</v>
       </c>
@@ -31709,7 +31718,7 @@
         <v>1343</v>
       </c>
     </row>
-    <row r="399" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="399" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>1339</v>
       </c>
@@ -31765,7 +31774,7 @@
         <v>1343</v>
       </c>
     </row>
-    <row r="400" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="400" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>1346</v>
       </c>
@@ -31839,7 +31848,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="401" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="401" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>1346</v>
       </c>
@@ -31913,7 +31922,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="402" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="402" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>1346</v>
       </c>
@@ -31987,7 +31996,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="403" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="403" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>1346</v>
       </c>
@@ -32061,7 +32070,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="404" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="404" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>1346</v>
       </c>
@@ -32135,7 +32144,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="405" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="405" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>1346</v>
       </c>
@@ -32209,7 +32218,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="406" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="406" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>1354</v>
       </c>
@@ -32283,7 +32292,7 @@
         <v>1358</v>
       </c>
     </row>
-    <row r="407" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="407" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>1354</v>
       </c>
@@ -32357,7 +32366,7 @@
         <v>1358</v>
       </c>
     </row>
-    <row r="408" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="408" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>1354</v>
       </c>
@@ -32431,7 +32440,7 @@
         <v>1358</v>
       </c>
     </row>
-    <row r="409" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="409" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>1354</v>
       </c>
@@ -32505,7 +32514,7 @@
         <v>1358</v>
       </c>
     </row>
-    <row r="410" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="410" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
         <v>1354</v>
       </c>
@@ -32579,7 +32588,7 @@
         <v>1358</v>
       </c>
     </row>
-    <row r="411" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="411" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
         <v>1363</v>
       </c>
@@ -32650,7 +32659,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="412" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="412" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
         <v>1363</v>
       </c>
@@ -32721,7 +32730,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="413" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="413" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
         <v>1369</v>
       </c>
@@ -32792,7 +32801,7 @@
         <v>1373</v>
       </c>
     </row>
-    <row r="414" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="414" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
         <v>1369</v>
       </c>
@@ -32863,7 +32872,7 @@
         <v>1373</v>
       </c>
     </row>
-    <row r="415" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="415" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
         <v>1369</v>
       </c>
@@ -32934,7 +32943,7 @@
         <v>1373</v>
       </c>
     </row>
-    <row r="416" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="416" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
         <v>1376</v>
       </c>
@@ -33002,7 +33011,7 @@
         <v>1380</v>
       </c>
     </row>
-    <row r="417" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="417" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
         <v>1376</v>
       </c>
@@ -33070,7 +33079,7 @@
         <v>1380</v>
       </c>
     </row>
-    <row r="418" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="418" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
         <v>1382</v>
       </c>
@@ -33138,7 +33147,7 @@
         <v>1386</v>
       </c>
     </row>
-    <row r="419" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="419" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
         <v>1387</v>
       </c>
@@ -33194,7 +33203,7 @@
         <v>1391</v>
       </c>
     </row>
-    <row r="420" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="420" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
         <v>1387</v>
       </c>
@@ -33250,7 +33259,7 @@
         <v>1391</v>
       </c>
     </row>
-    <row r="421" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="421" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
         <v>1387</v>
       </c>
@@ -33306,7 +33315,7 @@
         <v>1391</v>
       </c>
     </row>
-    <row r="422" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="422" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
         <v>1393</v>
       </c>
@@ -33374,7 +33383,7 @@
         <v>1397</v>
       </c>
     </row>
-    <row r="423" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="423" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
         <v>1398</v>
       </c>
@@ -33442,7 +33451,7 @@
         <v>1402</v>
       </c>
     </row>
-    <row r="424" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="424" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
         <v>1398</v>
       </c>
@@ -33510,7 +33519,7 @@
         <v>1402</v>
       </c>
     </row>
-    <row r="425" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="425" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
         <v>1398</v>
       </c>
@@ -33578,7 +33587,7 @@
         <v>1402</v>
       </c>
     </row>
-    <row r="426" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="426" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
         <v>1405</v>
       </c>
@@ -33652,7 +33661,7 @@
         <v>1409</v>
       </c>
     </row>
-    <row r="427" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="427" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
         <v>1410</v>
       </c>
@@ -33729,7 +33738,7 @@
         <v>1414</v>
       </c>
     </row>
-    <row r="428" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="428" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
         <v>1415</v>
       </c>
@@ -33803,7 +33812,7 @@
         <v>1419</v>
       </c>
     </row>
-    <row r="429" spans="1:25" x14ac:dyDescent="0.75">
+    <row r="429" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C429" t="s">
         <v>1420</v>
       </c>
@@ -33854,8 +33863,8 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Y429" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Y428">
+  <autoFilter ref="A1:Y429">
+    <sortState ref="A2:Y428">
       <sortCondition ref="A1:A428"/>
     </sortState>
   </autoFilter>
@@ -33865,14 +33874,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -33898,7 +33907,7 @@
         <v>1422</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>51</v>
       </c>
@@ -33924,7 +33933,7 @@
         <v>1424</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>27</v>
       </c>
@@ -33950,7 +33959,7 @@
         <v>1426</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>39</v>
       </c>
@@ -33976,7 +33985,7 @@
         <v>1428</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>66</v>
       </c>
@@ -33999,7 +34008,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>112</v>
       </c>
@@ -34022,7 +34031,7 @@
         <v>1430</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>294</v>
       </c>
@@ -34036,7 +34045,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>1431</v>
       </c>
@@ -34053,7 +34062,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>40</v>
       </c>
@@ -34067,7 +34076,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>91</v>
       </c>
@@ -34075,7 +34084,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>186</v>
       </c>
@@ -34083,7 +34092,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>67</v>
       </c>
@@ -34091,7 +34100,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>74</v>
       </c>
@@ -34099,7 +34108,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>143</v>
       </c>
@@ -34107,7 +34116,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>137</v>
       </c>
@@ -34115,7 +34124,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>460</v>
       </c>
@@ -34123,7 +34132,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.75">
+    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>483</v>
       </c>
@@ -34131,7 +34140,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.75">
+    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>113</v>
       </c>
@@ -34146,14 +34155,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1432</v>
       </c>
@@ -34164,7 +34173,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1433</v>
       </c>
@@ -34175,7 +34184,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1434</v>
       </c>
@@ -34186,7 +34195,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1435</v>
       </c>
@@ -34197,7 +34206,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>1436</v>
       </c>
@@ -34208,17 +34217,17 @@
         <v>92</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>52</v>
       </c>
